--- a/Dissertation_main/Dissertation_main/flag_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/flag_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="flag_test_data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="26">
   <si>
     <t>Test ID</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Average time external force (ms)</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2250,6 +2259,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8A49-4161-B05A-0EBE9494715C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5494,6 +5508,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B910-4413-ACD1-6C658C4531A6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -9444,6 +9463,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8C2D-47E0-876E-2A6345710250}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -13405,6 +13429,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-03F0-41E1-A83A-4A5542E60B2C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -37519,10 +37548,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -37825,10 +37854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="S116" sqref="S116"/>
+    <sheetView tabSelected="1" topLeftCell="K88" workbookViewId="0">
+      <selection activeCell="T108" sqref="T108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37837,7 +37866,7 @@
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37877,8 +37906,11 @@
       <c r="M1" t="s">
         <v>21</v>
       </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37919,8 +37951,11 @@
         <f>I2-(F2+G2+H2)</f>
         <v>1.076464000000002E-2</v>
       </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37958,11 +37993,14 @@
         <v>11846</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="0">I3-(F3+G3+H3)</f>
+        <f t="shared" ref="M3:M61" si="0">I3-(F3+G3+H3)</f>
         <v>2.2441919999999976E-2</v>
       </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -38003,8 +38041,11 @@
         <f t="shared" si="0"/>
         <v>3.3566490000000004E-2</v>
       </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -38045,8 +38086,11 @@
         <f t="shared" si="0"/>
         <v>4.4505240000000001E-2</v>
       </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -38087,8 +38131,11 @@
         <f t="shared" si="0"/>
         <v>5.667597000000002E-2</v>
       </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -38129,8 +38176,11 @@
         <f t="shared" si="0"/>
         <v>3.3380900000000047E-2</v>
       </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38171,8 +38221,11 @@
         <f t="shared" si="0"/>
         <v>4.4717399999999907E-2</v>
       </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38213,8 +38266,11 @@
         <f t="shared" si="0"/>
         <v>5.6307899999999966E-2</v>
       </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -38255,8 +38311,11 @@
         <f t="shared" si="0"/>
         <v>6.8340199999999962E-2</v>
       </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38297,8 +38356,11 @@
         <f t="shared" si="0"/>
         <v>8.1505899999999909E-2</v>
       </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -38339,8 +38401,11 @@
         <f t="shared" si="0"/>
         <v>7.0889099999999816E-2</v>
       </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -38381,8 +38446,11 @@
         <f t="shared" si="0"/>
         <v>8.0589500000000314E-2</v>
       </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -38423,8 +38491,11 @@
         <f t="shared" si="0"/>
         <v>9.1884699999999819E-2</v>
       </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -38465,8 +38536,11 @@
         <f t="shared" si="0"/>
         <v>0.10324700000000009</v>
       </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -38507,8 +38581,11 @@
         <f t="shared" si="0"/>
         <v>0.11430449999999981</v>
       </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -38549,8 +38626,11 @@
         <f t="shared" si="0"/>
         <v>0.13287299999999957</v>
       </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -38591,8 +38671,11 @@
         <f t="shared" si="0"/>
         <v>0.14311400000000019</v>
       </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -38633,8 +38716,11 @@
         <f t="shared" si="0"/>
         <v>0.1514120000000001</v>
       </c>
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -38675,8 +38761,11 @@
         <f t="shared" si="0"/>
         <v>0.16701900000000025</v>
       </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -38717,8 +38806,11 @@
         <f t="shared" si="0"/>
         <v>0.17683099999999952</v>
       </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -38759,8 +38851,11 @@
         <f t="shared" si="0"/>
         <v>0.23237900000000078</v>
       </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -38801,8 +38896,11 @@
         <f t="shared" si="0"/>
         <v>0.22652999999999945</v>
       </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -38843,8 +38941,11 @@
         <f t="shared" si="0"/>
         <v>0.2538450000000001</v>
       </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -38885,8 +38986,11 @@
         <f t="shared" si="0"/>
         <v>0.26745199999999958</v>
       </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -38927,8 +39031,11 @@
         <f t="shared" si="0"/>
         <v>0.28862800000000099</v>
       </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -38969,8 +39076,11 @@
         <f t="shared" si="0"/>
         <v>0.45493299999999959</v>
       </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -39011,8 +39121,11 @@
         <f t="shared" si="0"/>
         <v>0.45515399999999939</v>
       </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -39053,8 +39166,11 @@
         <f t="shared" si="0"/>
         <v>0.46205800000000075</v>
       </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -39095,8 +39211,11 @@
         <f t="shared" si="0"/>
         <v>0.48355899999999963</v>
       </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -39137,8 +39256,11 @@
         <f t="shared" si="0"/>
         <v>0.49451300000000042</v>
       </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -39179,8 +39301,11 @@
         <f t="shared" si="0"/>
         <v>1.102299000000001E-2</v>
       </c>
+      <c r="P32" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -39221,8 +39346,11 @@
         <f t="shared" si="0"/>
         <v>2.414007999999998E-2</v>
       </c>
+      <c r="P33" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -39263,8 +39391,11 @@
         <f t="shared" si="0"/>
         <v>3.714307E-2</v>
       </c>
+      <c r="P34" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -39305,8 +39436,11 @@
         <f t="shared" si="0"/>
         <v>4.9755730000000026E-2</v>
       </c>
+      <c r="P35" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -39347,8 +39481,11 @@
         <f t="shared" si="0"/>
         <v>5.9939429999999988E-2</v>
       </c>
+      <c r="P36" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -39389,8 +39526,11 @@
         <f t="shared" si="0"/>
         <v>3.3262600000000031E-2</v>
       </c>
+      <c r="P37" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -39431,8 +39571,11 @@
         <f t="shared" si="0"/>
         <v>4.3993800000000083E-2</v>
       </c>
+      <c r="P38" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -39473,8 +39616,11 @@
         <f t="shared" si="0"/>
         <v>5.7748600000000039E-2</v>
       </c>
+      <c r="P39" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -39515,8 +39661,11 @@
         <f t="shared" si="0"/>
         <v>6.7435499999999982E-2</v>
       </c>
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -39557,8 +39706,11 @@
         <f t="shared" si="0"/>
         <v>8.0984900000000026E-2</v>
       </c>
+      <c r="P41" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -39599,8 +39751,11 @@
         <f t="shared" si="0"/>
         <v>7.0409800000000189E-2</v>
       </c>
+      <c r="P42" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -39641,8 +39796,11 @@
         <f t="shared" si="0"/>
         <v>8.0404800000000165E-2</v>
       </c>
+      <c r="P43" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -39683,8 +39841,11 @@
         <f t="shared" si="0"/>
         <v>9.1221199999999891E-2</v>
       </c>
+      <c r="P44" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -39725,8 +39886,11 @@
         <f t="shared" si="0"/>
         <v>0.1025379999999998</v>
       </c>
+      <c r="P45" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -39767,8 +39931,11 @@
         <f t="shared" si="0"/>
         <v>0.11273270000000002</v>
       </c>
+      <c r="P46" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -39809,8 +39976,11 @@
         <f t="shared" si="0"/>
         <v>0.12660800000000005</v>
       </c>
+      <c r="P47" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -39851,8 +40021,11 @@
         <f t="shared" si="0"/>
         <v>0.13345099999999999</v>
       </c>
+      <c r="P48" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -39893,8 +40066,11 @@
         <f t="shared" si="0"/>
         <v>0.14831199999999978</v>
       </c>
+      <c r="P49" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -39935,8 +40111,11 @@
         <f t="shared" si="0"/>
         <v>0.16243100000000021</v>
       </c>
+      <c r="P50" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -39977,8 +40156,11 @@
         <f t="shared" si="0"/>
         <v>0.17374899999999993</v>
       </c>
+      <c r="P51" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -40019,8 +40201,11 @@
         <f t="shared" si="0"/>
         <v>0.22424399999999967</v>
       </c>
+      <c r="P52" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -40061,8 +40246,11 @@
         <f t="shared" si="0"/>
         <v>0.22408499999999965</v>
       </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -40103,8 +40291,11 @@
         <f t="shared" si="0"/>
         <v>0.25098699999999941</v>
       </c>
+      <c r="P54" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -40145,8 +40336,11 @@
         <f t="shared" si="0"/>
         <v>0.26849800000000013</v>
       </c>
+      <c r="P55" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -40187,8 +40381,11 @@
         <f t="shared" si="0"/>
         <v>0.27973099999999995</v>
       </c>
+      <c r="P56" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -40229,8 +40426,11 @@
         <f t="shared" si="0"/>
         <v>0.45283599999999957</v>
       </c>
+      <c r="P57" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -40271,8 +40471,11 @@
         <f t="shared" si="0"/>
         <v>0.45669000000000004</v>
       </c>
+      <c r="P58" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -40313,8 +40516,11 @@
         <f t="shared" si="0"/>
         <v>0.46324699999999996</v>
       </c>
+      <c r="P59" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -40355,8 +40561,11 @@
         <f t="shared" si="0"/>
         <v>0.48583700000000007</v>
       </c>
+      <c r="P60" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -40397,8 +40606,11 @@
         <f t="shared" si="0"/>
         <v>0.49805899999999959</v>
       </c>
+      <c r="P61" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -40439,8 +40651,11 @@
         <f>I62-H62</f>
         <v>1.8043000000000031E-2</v>
       </c>
+      <c r="P62" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -40481,8 +40696,11 @@
         <f t="shared" ref="M63:M121" si="1">I63-H63</f>
         <v>3.1202999999999981E-2</v>
       </c>
+      <c r="P63" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -40523,8 +40741,11 @@
         <f t="shared" si="1"/>
         <v>4.4294999999999973E-2</v>
       </c>
+      <c r="P64" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -40565,8 +40786,11 @@
         <f t="shared" si="1"/>
         <v>5.5294999999999983E-2</v>
       </c>
+      <c r="P65" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -40607,8 +40831,11 @@
         <f t="shared" si="1"/>
         <v>7.3259999999999992E-2</v>
       </c>
+      <c r="P66" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -40649,8 +40876,11 @@
         <f t="shared" si="1"/>
         <v>6.227000000000027E-2</v>
       </c>
+      <c r="P67" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -40691,8 +40921,11 @@
         <f t="shared" si="1"/>
         <v>6.9450000000000234E-2</v>
       </c>
+      <c r="P68" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -40733,8 +40966,11 @@
         <f t="shared" si="1"/>
         <v>8.2980000000000054E-2</v>
       </c>
+      <c r="P69" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -40775,8 +41011,11 @@
         <f t="shared" si="1"/>
         <v>9.7140000000000004E-2</v>
       </c>
+      <c r="P70" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -40817,8 +41056,11 @@
         <f t="shared" si="1"/>
         <v>0.11047999999999991</v>
       </c>
+      <c r="P71" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -40859,8 +41101,11 @@
         <f t="shared" si="1"/>
         <v>0.16023999999999994</v>
       </c>
+      <c r="P72" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -40901,8 +41146,11 @@
         <f t="shared" si="1"/>
         <v>0.14808999999999983</v>
       </c>
+      <c r="P73" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -40943,8 +41191,11 @@
         <f t="shared" si="1"/>
         <v>0.16542000000000012</v>
       </c>
+      <c r="P74" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -40985,8 +41236,11 @@
         <f t="shared" si="1"/>
         <v>0.18373999999999935</v>
       </c>
+      <c r="P75" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -41027,8 +41281,11 @@
         <f t="shared" si="1"/>
         <v>0.19830000000000059</v>
       </c>
+      <c r="P76" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -41069,8 +41326,11 @@
         <f t="shared" si="1"/>
         <v>0.29300000000000104</v>
       </c>
+      <c r="P77" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -41111,8 +41371,11 @@
         <f t="shared" si="1"/>
         <v>0.2972999999999999</v>
       </c>
+      <c r="P78" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -41153,8 +41416,11 @@
         <f t="shared" si="1"/>
         <v>0.29680000000000106</v>
       </c>
+      <c r="P79" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -41195,8 +41461,11 @@
         <f t="shared" si="1"/>
         <v>0.32349999999999923</v>
       </c>
+      <c r="P80" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -41237,8 +41506,11 @@
         <f t="shared" si="1"/>
         <v>0.36110000000000042</v>
       </c>
+      <c r="P81" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -41279,8 +41551,11 @@
         <f t="shared" si="1"/>
         <v>0.60910000000000153</v>
       </c>
+      <c r="P82" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -41321,8 +41596,11 @@
         <f t="shared" si="1"/>
         <v>0.60430000000000206</v>
       </c>
+      <c r="P83" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -41363,8 +41641,11 @@
         <f t="shared" si="1"/>
         <v>0.6974000000000018</v>
       </c>
+      <c r="P84" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -41405,8 +41686,11 @@
         <f t="shared" si="1"/>
         <v>0.61199999999999832</v>
       </c>
+      <c r="P85" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -41447,8 +41731,11 @@
         <f t="shared" si="1"/>
         <v>0.60440000000000182</v>
       </c>
+      <c r="P86" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -41493,8 +41780,11 @@
         <f>H88-(F88+G88)</f>
         <v>3.2660799999999988</v>
       </c>
+      <c r="P87" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -41535,8 +41825,11 @@
         <f t="shared" si="1"/>
         <v>1.1087000000000025</v>
       </c>
+      <c r="P88" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -41577,8 +41870,11 @@
         <f t="shared" si="1"/>
         <v>1.103900000000003</v>
       </c>
+      <c r="P89" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -41619,8 +41915,11 @@
         <f t="shared" si="1"/>
         <v>1.1092999999999975</v>
       </c>
+      <c r="P90" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -41661,8 +41960,11 @@
         <f t="shared" si="1"/>
         <v>1.1066000000000003</v>
       </c>
+      <c r="P91" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -41703,8 +42005,11 @@
         <f t="shared" si="1"/>
         <v>1.0402000000000022E-2</v>
       </c>
+      <c r="P92" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -41745,8 +42050,11 @@
         <f t="shared" si="1"/>
         <v>2.3655000000000037E-2</v>
       </c>
+      <c r="P93" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -41787,8 +42095,11 @@
         <f t="shared" si="1"/>
         <v>3.5956000000000043E-2</v>
       </c>
+      <c r="P94" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -41829,8 +42140,11 @@
         <f t="shared" si="1"/>
         <v>4.7928000000000026E-2</v>
       </c>
+      <c r="P95" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -41871,8 +42185,11 @@
         <f t="shared" si="1"/>
         <v>6.0709000000000013E-2</v>
       </c>
+      <c r="P96" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -41913,8 +42230,11 @@
         <f t="shared" si="1"/>
         <v>3.2499999999999973E-2</v>
       </c>
+      <c r="P97" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -41955,8 +42275,11 @@
         <f t="shared" si="1"/>
         <v>4.2059999999999986E-2</v>
       </c>
+      <c r="P98" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -41997,8 +42320,11 @@
         <f t="shared" si="1"/>
         <v>5.3329999999999878E-2</v>
       </c>
+      <c r="P99" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -42039,8 +42365,11 @@
         <f t="shared" si="1"/>
         <v>6.8780000000000063E-2</v>
       </c>
+      <c r="P100" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -42081,8 +42410,11 @@
         <f t="shared" si="1"/>
         <v>7.8789999999999916E-2</v>
       </c>
+      <c r="P101" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -42123,8 +42455,11 @@
         <f t="shared" si="1"/>
         <v>7.0699999999999985E-2</v>
       </c>
+      <c r="P102" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -42165,8 +42500,11 @@
         <f t="shared" si="1"/>
         <v>7.6729999999999965E-2</v>
       </c>
+      <c r="P103" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -42207,8 +42545,11 @@
         <f t="shared" si="1"/>
         <v>8.8750000000000107E-2</v>
       </c>
+      <c r="P104" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -42249,8 +42590,11 @@
         <f t="shared" si="1"/>
         <v>0.10084999999999988</v>
       </c>
+      <c r="P105" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -42291,8 +42635,11 @@
         <f t="shared" si="1"/>
         <v>0.10874000000000006</v>
       </c>
+      <c r="P106" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -42333,8 +42680,11 @@
         <f t="shared" si="1"/>
         <v>0.13361999999999963</v>
       </c>
+      <c r="P107" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -42375,8 +42725,11 @@
         <f t="shared" si="1"/>
         <v>0.13398999999999983</v>
       </c>
+      <c r="P108" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -42417,8 +42770,11 @@
         <f t="shared" si="1"/>
         <v>0.14468999999999976</v>
       </c>
+      <c r="P109" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -42459,8 +42815,11 @@
         <f t="shared" si="1"/>
         <v>0.14916000000000018</v>
       </c>
+      <c r="P110" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -42501,8 +42860,11 @@
         <f t="shared" si="1"/>
         <v>0.16959999999999997</v>
       </c>
+      <c r="P111" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -42543,8 +42905,11 @@
         <f t="shared" si="1"/>
         <v>0.2332099999999997</v>
       </c>
+      <c r="P112" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -42585,8 +42950,11 @@
         <f t="shared" si="1"/>
         <v>0.23067000000000171</v>
       </c>
+      <c r="P113" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -42627,8 +42995,11 @@
         <f t="shared" si="1"/>
         <v>0.22975000000000101</v>
       </c>
+      <c r="P114" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -42669,8 +43040,11 @@
         <f t="shared" si="1"/>
         <v>0.24900000000000055</v>
       </c>
+      <c r="P115" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -42714,8 +43088,11 @@
       <c r="O116" t="s">
         <v>15</v>
       </c>
+      <c r="P116" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -42763,8 +43140,11 @@
       <c r="O117" t="s">
         <v>16</v>
       </c>
+      <c r="P117" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -42808,8 +43188,11 @@
       <c r="O118" t="s">
         <v>17</v>
       </c>
+      <c r="P118" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -42853,8 +43236,11 @@
       <c r="O119" t="s">
         <v>18</v>
       </c>
+      <c r="P119" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -42898,8 +43284,11 @@
       <c r="O120" t="s">
         <v>19</v>
       </c>
+      <c r="P120" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -42942,6 +43331,9 @@
       </c>
       <c r="O121" t="s">
         <v>20</v>
+      </c>
+      <c r="P121" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -42999,7 +43391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="BE27" sqref="BE27"/>
     </sheetView>
   </sheetViews>

--- a/Dissertation_main/Dissertation_main/flag_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/flag_test_data.xlsx
@@ -777,22 +777,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6043.18</c:v>
+                  <c:v>6095.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2527.08</c:v>
+                  <c:v>2631.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>519.31700000000001</c:v>
+                  <c:v>524.16700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>292.93299999999999</c:v>
+                  <c:v>295.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>184.833</c:v>
+                  <c:v>185.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.4</c:v>
+                  <c:v>119.583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,22 +852,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7634.95</c:v>
+                  <c:v>6111.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2445.88</c:v>
+                  <c:v>2063.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509.05</c:v>
+                  <c:v>508.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>290.2</c:v>
+                  <c:v>286.28300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.81700000000001</c:v>
+                  <c:v>180.333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.45</c:v>
+                  <c:v>117.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,22 +927,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6047.02</c:v>
+                  <c:v>5833.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>572.25</c:v>
+                  <c:v>572.03300000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>265.35000000000002</c:v>
+                  <c:v>265.11700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.417</c:v>
+                  <c:v>150.983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.6</c:v>
+                  <c:v>96.066699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.55</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,22 +1002,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2134.4299999999998</c:v>
+                  <c:v>1252.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>251.38300000000001</c:v>
+                  <c:v>252.96700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121.2</c:v>
+                  <c:v>120.31699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.933300000000003</c:v>
+                  <c:v>69.066699999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.616700000000002</c:v>
+                  <c:v>44.166699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.866700000000002</c:v>
+                  <c:v>28.7667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,7 +1156,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1488,19 +1488,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>62.55</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.45</c:v>
+                  <c:v>63.633299999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.333299999999994</c:v>
+                  <c:v>65.366699999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.7</c:v>
+                  <c:v>90.683300000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1961.62</c:v>
+                  <c:v>1927.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,10 +2005,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15.844799999999999</c:v>
+                  <c:v>15.883100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.221473</c:v>
+                  <c:v>0.222881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,16 +2348,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.70444</c:v>
+                  <c:v>9.7427100000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8657000000000004</c:v>
+                  <c:v>4.8746099999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82136000000000031</c:v>
+                  <c:v>0.81188000000000038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4532999999999987</c:v>
+                  <c:v>0.45390000000000086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,22 +2582,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6047.02</c:v>
+                  <c:v>5833.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>572.25</c:v>
+                  <c:v>572.03300000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>265.35000000000002</c:v>
+                  <c:v>265.11700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.417</c:v>
+                  <c:v>150.983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.6</c:v>
+                  <c:v>96.066699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.55</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,22 +2657,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8337.68</c:v>
+                  <c:v>8291.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5913.63</c:v>
+                  <c:v>5844.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2710.9</c:v>
+                  <c:v>2646.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159</c:v>
+                  <c:v>166.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.916700000000006</c:v>
+                  <c:v>97.7667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.45</c:v>
+                  <c:v>63.633299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,22 +2732,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8466.92</c:v>
+                  <c:v>8531.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6863.07</c:v>
+                  <c:v>6743.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5328.03</c:v>
+                  <c:v>5457.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2173.33</c:v>
+                  <c:v>3261.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.9</c:v>
+                  <c:v>115.517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.333299999999994</c:v>
+                  <c:v>65.366699999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,22 +2807,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8388.27</c:v>
+                  <c:v>8625.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8074.95</c:v>
+                  <c:v>7330</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6188.22</c:v>
+                  <c:v>5932.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3317.33</c:v>
+                  <c:v>4748.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2892.93</c:v>
+                  <c:v>2897.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.7</c:v>
+                  <c:v>90.683300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,22 +2856,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8498.1200000000008</c:v>
+                  <c:v>8612.6299999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7798.87</c:v>
+                  <c:v>7695.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5487.58</c:v>
+                  <c:v>6073.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5782.18</c:v>
+                  <c:v>5603.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4283.07</c:v>
+                  <c:v>4217.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1961.62</c:v>
+                  <c:v>1927.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,7 +3010,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3341,22 +3341,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2134.4299999999998</c:v>
+                  <c:v>1252.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>251.38300000000001</c:v>
+                  <c:v>252.96700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121.2</c:v>
+                  <c:v>120.31699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.933300000000003</c:v>
+                  <c:v>69.066699999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.616700000000002</c:v>
+                  <c:v>44.166699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.866700000000002</c:v>
+                  <c:v>28.7667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3505,7 +3505,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2200"/>
+          <c:max val="1300"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3619,7 +3619,7 @@
         <c:crossAx val="1200840127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3805,22 +3805,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.83816299999999999</c:v>
+                  <c:v>0.89328700000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8943400000000001</c:v>
+                  <c:v>3.8370299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0976499999999998</c:v>
+                  <c:v>8.1723800000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.1454</c:v>
+                  <c:v>14.356400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.342300000000002</c:v>
+                  <c:v>22.4681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.544899999999998</c:v>
+                  <c:v>34.715400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,22 +4275,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.51073900000000005</c:v>
+                  <c:v>0.56354899999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.56107</c:v>
+                  <c:v>2.5006499999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.02806</c:v>
+                  <c:v>5.1217199999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5453899999999994</c:v>
+                  <c:v>8.7441899999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.3104</c:v>
+                  <c:v>13.4552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.478300000000001</c:v>
+                  <c:v>20.581299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4737,19 +4737,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.866700000000002</c:v>
+                  <c:v>28.7667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.966699999999999</c:v>
+                  <c:v>30.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.55</c:v>
+                  <c:v>31.466699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.933299999999999</c:v>
+                  <c:v>31.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.316699999999997</c:v>
+                  <c:v>32.333300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5254,10 +5254,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>34.544899999999998</c:v>
+                  <c:v>34.715400000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21858900000000001</c:v>
+                  <c:v>0.22506499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,16 +5597,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20.478300000000001</c:v>
+                  <c:v>20.581299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6890699999999992</c:v>
+                  <c:v>9.7359200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2660799999999988</c:v>
+                  <c:v>3.2829900000000016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1060000000000016</c:v>
+                  <c:v>1.110199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5835,22 +5835,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6922.7</c:v>
+                  <c:v>6947.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7520.93</c:v>
+                  <c:v>7242.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5615.95</c:v>
+                  <c:v>5610</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3217.78</c:v>
+                  <c:v>3332.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195.8</c:v>
+                  <c:v>219.917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.767</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5910,22 +5910,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8711.23</c:v>
+                  <c:v>8531.2099999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7115.75</c:v>
+                  <c:v>5917.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5529.92</c:v>
+                  <c:v>3931.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2736.67</c:v>
+                  <c:v>1742.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>201.517</c:v>
+                  <c:v>183.03299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.1</c:v>
+                  <c:v>121.867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5985,22 +5985,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8337.68</c:v>
+                  <c:v>8291.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5913.63</c:v>
+                  <c:v>5844.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2710.9</c:v>
+                  <c:v>2646.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159</c:v>
+                  <c:v>166.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.916700000000006</c:v>
+                  <c:v>97.7667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.45</c:v>
+                  <c:v>63.633299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6060,22 +6060,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7325.93</c:v>
+                  <c:v>5855.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3082.78</c:v>
+                  <c:v>2323.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.233</c:v>
+                  <c:v>126.81699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.2333</c:v>
+                  <c:v>75.466700000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.033299999999997</c:v>
+                  <c:v>47.616700000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.966699999999999</c:v>
+                  <c:v>30.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6531,22 +6531,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2134.4299999999998</c:v>
+                  <c:v>1252.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>251.38300000000001</c:v>
+                  <c:v>252.96700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121.2</c:v>
+                  <c:v>120.31699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.933300000000003</c:v>
+                  <c:v>69.066699999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.616700000000002</c:v>
+                  <c:v>44.166699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.866700000000002</c:v>
+                  <c:v>28.7667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6606,22 +6606,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7325.93</c:v>
+                  <c:v>5855.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3082.78</c:v>
+                  <c:v>2323.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.233</c:v>
+                  <c:v>126.81699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.2333</c:v>
+                  <c:v>75.466700000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.033299999999997</c:v>
+                  <c:v>47.616700000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.966699999999999</c:v>
+                  <c:v>30.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6681,22 +6681,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8108.64</c:v>
+                  <c:v>6552.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5676.07</c:v>
+                  <c:v>5290.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2287.0300000000002</c:v>
+                  <c:v>2396.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.916700000000006</c:v>
+                  <c:v>79.5167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.133299999999998</c:v>
+                  <c:v>48.366700000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.55</c:v>
+                  <c:v>31.466699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6756,22 +6756,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7919</c:v>
+                  <c:v>6777.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6652.15</c:v>
+                  <c:v>6574.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4330.45</c:v>
+                  <c:v>4233.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1139.6300000000001</c:v>
+                  <c:v>1044.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.7667</c:v>
+                  <c:v>48.883299999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.933299999999999</c:v>
+                  <c:v>31.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6805,22 +6805,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9034.08</c:v>
+                  <c:v>7056.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7120.15</c:v>
+                  <c:v>7638.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5348.1</c:v>
+                  <c:v>5225.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3213.77</c:v>
+                  <c:v>3205.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.0167</c:v>
+                  <c:v>60.9833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.316699999999997</c:v>
+                  <c:v>32.333300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6959,7 +6959,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9500"/>
+          <c:max val="8000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7290,22 +7290,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7634.95</c:v>
+                  <c:v>6111.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2445.88</c:v>
+                  <c:v>2063.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509.05</c:v>
+                  <c:v>508.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>290.2</c:v>
+                  <c:v>286.28300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.81700000000001</c:v>
+                  <c:v>180.333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.45</c:v>
+                  <c:v>117.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7454,7 +7454,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
+          <c:max val="6250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7567,7 +7567,7 @@
         <c:crossAx val="1200840127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="500"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7753,22 +7753,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.20688899999999999</c:v>
+                  <c:v>0.20896100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83598499999999998</c:v>
+                  <c:v>0.82890600000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.86897</c:v>
+                  <c:v>1.85629</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.33195</c:v>
+                  <c:v>3.3314499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2629099999999998</c:v>
+                  <c:v>5.3114299999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2291899999999991</c:v>
+                  <c:v>8.2611299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8223,22 +8223,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.124385</c:v>
+                  <c:v>0.12668699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51095299999999999</c:v>
+                  <c:v>0.50402199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1387499999999999</c:v>
+                  <c:v>1.1261300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.02732</c:v>
+                  <c:v>2.02075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.17902</c:v>
+                  <c:v>3.1967099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9340900000000003</c:v>
+                  <c:v>4.9564899999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8684,19 +8684,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>118.45</c:v>
+                  <c:v>117.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.1</c:v>
+                  <c:v>121.867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1750.95</c:v>
+                  <c:v>898.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3971.13</c:v>
+                  <c:v>1771.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4226.92</c:v>
+                  <c:v>2196.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8840,7 +8840,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4400"/>
+          <c:max val="2200"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8959,7 +8959,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9205,10 +9205,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.2291899999999991</c:v>
+                  <c:v>8.2611299999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21653600000000001</c:v>
+                  <c:v>0.27358199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,16 +9552,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.9340900000000003</c:v>
+                  <c:v>4.9564899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4314800000000001</c:v>
+                  <c:v>2.4224100000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41078399999999998</c:v>
+                  <c:v>0.41868899999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45283599999999957</c:v>
+                  <c:v>0.4635410000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9786,22 +9786,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7634.95</c:v>
+                  <c:v>6111.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2445.88</c:v>
+                  <c:v>2063.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509.05</c:v>
+                  <c:v>508.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>290.2</c:v>
+                  <c:v>286.28300000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.81700000000001</c:v>
+                  <c:v>180.333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.45</c:v>
+                  <c:v>117.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9861,22 +9861,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8711.23</c:v>
+                  <c:v>8531.2099999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7115.75</c:v>
+                  <c:v>5917.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5529.92</c:v>
+                  <c:v>3931.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2736.67</c:v>
+                  <c:v>1742.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>201.517</c:v>
+                  <c:v>183.03299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.1</c:v>
+                  <c:v>121.867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9936,22 +9936,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8893.9500000000007</c:v>
+                  <c:v>8689.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8311.77</c:v>
+                  <c:v>6223.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6341.95</c:v>
+                  <c:v>5544.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5646.36</c:v>
+                  <c:v>3913.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4223.2700000000004</c:v>
+                  <c:v>2370.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1750.95</c:v>
+                  <c:v>898.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10011,22 +10011,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8832.18</c:v>
+                  <c:v>8677.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7741.02</c:v>
+                  <c:v>7245.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6736</c:v>
+                  <c:v>5883.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6492.83</c:v>
+                  <c:v>4448.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5667.08</c:v>
+                  <c:v>3044.43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3971.13</c:v>
+                  <c:v>1771.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10060,22 +10060,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8350.82</c:v>
+                  <c:v>8669.8799999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8127.95</c:v>
+                  <c:v>7290.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6854.85</c:v>
+                  <c:v>6043.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6879</c:v>
+                  <c:v>4723.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5801.25</c:v>
+                  <c:v>3419.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4226.92</c:v>
+                  <c:v>2196.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10549,22 +10549,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6043.18</c:v>
+                  <c:v>6095.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2527.08</c:v>
+                  <c:v>2631.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>519.31700000000001</c:v>
+                  <c:v>524.16700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>292.93299999999999</c:v>
+                  <c:v>295.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>184.833</c:v>
+                  <c:v>185.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.4</c:v>
+                  <c:v>119.583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11012,22 +11012,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.21046100000000001</c:v>
+                  <c:v>0.212149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82166899999999998</c:v>
+                  <c:v>0.82582699999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8383799999999999</c:v>
+                  <c:v>1.8213299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2936800000000002</c:v>
+                  <c:v>3.2663099999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2234600000000002</c:v>
+                  <c:v>5.2207299999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1274800000000003</c:v>
+                  <c:v>8.1419599999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11472,22 +11472,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7015.87</c:v>
+                  <c:v>7044.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7696.2</c:v>
+                  <c:v>7918.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6412.41</c:v>
+                  <c:v>6208.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5655.92</c:v>
+                  <c:v>5663.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4242.9799999999996</c:v>
+                  <c:v>4212.3599999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1740.75</c:v>
+                  <c:v>891.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11547,22 +11547,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8893.9500000000007</c:v>
+                  <c:v>8689.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8311.77</c:v>
+                  <c:v>6223.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6341.95</c:v>
+                  <c:v>5544.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5646.36</c:v>
+                  <c:v>3913.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4223.2700000000004</c:v>
+                  <c:v>2370.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1750.95</c:v>
+                  <c:v>898.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11622,22 +11622,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8466.92</c:v>
+                  <c:v>8531.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6863.07</c:v>
+                  <c:v>6743.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5328.03</c:v>
+                  <c:v>5457.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2173.33</c:v>
+                  <c:v>3261.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.9</c:v>
+                  <c:v>115.517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.333299999999994</c:v>
+                  <c:v>65.366699999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11697,22 +11697,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8108.64</c:v>
+                  <c:v>6552.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5676.07</c:v>
+                  <c:v>5290.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2287.0300000000002</c:v>
+                  <c:v>2396.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.916700000000006</c:v>
+                  <c:v>79.5167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.133299999999998</c:v>
+                  <c:v>48.366700000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.55</c:v>
+                  <c:v>31.466699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12186,22 +12186,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.12829399999999999</c:v>
+                  <c:v>0.12942100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49896699999999999</c:v>
+                  <c:v>0.50034800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1070800000000001</c:v>
+                  <c:v>1.0887899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9783500000000001</c:v>
+                  <c:v>1.95451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1234299999999999</c:v>
+                  <c:v>3.11551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8251999999999997</c:v>
+                  <c:v>4.8254599999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12650,19 +12650,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>120.4</c:v>
+                  <c:v>119.583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.767</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1740.75</c:v>
+                  <c:v>891.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3995.25</c:v>
+                  <c:v>1775.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4248.87</c:v>
+                  <c:v>2207.5700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12806,7 +12806,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4400"/>
+          <c:max val="2300"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12925,7 +12925,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13171,10 +13171,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.1274800000000003</c:v>
+                  <c:v>8.1419599999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.213314</c:v>
+                  <c:v>0.235953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13518,16 +13518,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.8251999999999997</c:v>
+                  <c:v>4.8254599999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4325800000000002</c:v>
+                  <c:v>2.4267699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.414767</c:v>
+                  <c:v>0.424757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45493299999999959</c:v>
+                  <c:v>0.46497300000000052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13756,22 +13756,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6043.18</c:v>
+                  <c:v>6095.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2527.08</c:v>
+                  <c:v>2631.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>519.31700000000001</c:v>
+                  <c:v>524.16700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>292.93299999999999</c:v>
+                  <c:v>295.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>184.833</c:v>
+                  <c:v>185.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.4</c:v>
+                  <c:v>119.583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13831,22 +13831,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6922.7</c:v>
+                  <c:v>6947.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7520.93</c:v>
+                  <c:v>7242.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5615.95</c:v>
+                  <c:v>5610</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3217.78</c:v>
+                  <c:v>3332.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195.8</c:v>
+                  <c:v>219.917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.767</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13906,22 +13906,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7015.87</c:v>
+                  <c:v>7044.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7696.2</c:v>
+                  <c:v>7918.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6412.41</c:v>
+                  <c:v>6208.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5655.92</c:v>
+                  <c:v>5663.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4242.9799999999996</c:v>
+                  <c:v>4212.3599999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1740.75</c:v>
+                  <c:v>891.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13981,22 +13981,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7038.7</c:v>
+                  <c:v>7091.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7942.1</c:v>
+                  <c:v>8096.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6772.37</c:v>
+                  <c:v>6625.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6536.57</c:v>
+                  <c:v>6463.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5657.43</c:v>
+                  <c:v>5594.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3995.25</c:v>
+                  <c:v>1775.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14030,22 +14030,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7255.25</c:v>
+                  <c:v>7309.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8178.52</c:v>
+                  <c:v>8003.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6931.5</c:v>
+                  <c:v>6765.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6901.64</c:v>
+                  <c:v>6886.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5777.13</c:v>
+                  <c:v>3771.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4248.87</c:v>
+                  <c:v>2207.5700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14505,22 +14505,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7038.7</c:v>
+                  <c:v>7091.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7942.1</c:v>
+                  <c:v>8096.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6772.37</c:v>
+                  <c:v>6625.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6536.57</c:v>
+                  <c:v>6463.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5657.43</c:v>
+                  <c:v>5594.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3995.25</c:v>
+                  <c:v>1775.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14580,22 +14580,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8832.18</c:v>
+                  <c:v>8677.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7741.02</c:v>
+                  <c:v>7245.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6736</c:v>
+                  <c:v>5883.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6492.83</c:v>
+                  <c:v>4448.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5667.08</c:v>
+                  <c:v>3044.43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3971.13</c:v>
+                  <c:v>1771.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14655,22 +14655,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8388.27</c:v>
+                  <c:v>8625.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8074.95</c:v>
+                  <c:v>7330</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6188.22</c:v>
+                  <c:v>5932.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3317.33</c:v>
+                  <c:v>4748.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2892.93</c:v>
+                  <c:v>2897.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.7</c:v>
+                  <c:v>90.683300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14730,22 +14730,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7919</c:v>
+                  <c:v>6777.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6652.15</c:v>
+                  <c:v>6574.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4330.45</c:v>
+                  <c:v>4233.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1139.6300000000001</c:v>
+                  <c:v>1044.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.7667</c:v>
+                  <c:v>48.883299999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.933299999999999</c:v>
+                  <c:v>31.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15205,22 +15205,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7255.25</c:v>
+                  <c:v>7309.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8178.52</c:v>
+                  <c:v>8003.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6931.5</c:v>
+                  <c:v>6765.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6901.64</c:v>
+                  <c:v>6886.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5777.13</c:v>
+                  <c:v>3771.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4248.87</c:v>
+                  <c:v>2207.5700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15280,22 +15280,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8350.82</c:v>
+                  <c:v>8669.8799999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8127.95</c:v>
+                  <c:v>7290.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6854.85</c:v>
+                  <c:v>6043.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6879</c:v>
+                  <c:v>4723.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5801.25</c:v>
+                  <c:v>3419.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4226.92</c:v>
+                  <c:v>2196.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15355,22 +15355,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8498.1200000000008</c:v>
+                  <c:v>8612.6299999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7798.87</c:v>
+                  <c:v>7695.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5487.58</c:v>
+                  <c:v>6073.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5782.18</c:v>
+                  <c:v>5603.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4283.07</c:v>
+                  <c:v>4217.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1961.62</c:v>
+                  <c:v>1927.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15430,22 +15430,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9034.08</c:v>
+                  <c:v>7056.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7120.15</c:v>
+                  <c:v>7638.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5348.1</c:v>
+                  <c:v>5225.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3213.77</c:v>
+                  <c:v>3205.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.0167</c:v>
+                  <c:v>60.9833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.316699999999997</c:v>
+                  <c:v>32.333300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15584,7 +15584,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9500"/>
+          <c:max val="9000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -15896,16 +15896,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.1274800000000003</c:v>
+                  <c:v>8.1419599999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2291899999999991</c:v>
+                  <c:v>8.2611299999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.844799999999999</c:v>
+                  <c:v>15.883100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.544899999999998</c:v>
+                  <c:v>34.715400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16339,22 +16339,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6047.02</c:v>
+                  <c:v>5833.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>572.25</c:v>
+                  <c:v>572.03300000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>265.35000000000002</c:v>
+                  <c:v>265.11700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.417</c:v>
+                  <c:v>150.983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.6</c:v>
+                  <c:v>96.066699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.55</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16503,7 +16503,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6500"/>
+          <c:max val="6000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16616,7 +16616,7 @@
         <c:crossAx val="1200840127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="500"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -16802,22 +16802,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.40112500000000001</c:v>
+                  <c:v>0.41163499999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6606000000000001</c:v>
+                  <c:v>1.66167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6696499999999999</c:v>
+                  <c:v>3.66757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4561599999999997</c:v>
+                  <c:v>6.5022200000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.1669</c:v>
+                  <c:v>10.2272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.844799999999999</c:v>
+                  <c:v>15.883100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17272,22 +17272,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.24876400000000001</c:v>
+                  <c:v>0.25828099999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0503800000000001</c:v>
+                  <c:v>1.04383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2789899999999998</c:v>
+                  <c:v>2.2745899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.96163</c:v>
+                  <c:v>4.0067300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2140599999999999</c:v>
+                  <c:v>6.2620300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.70444</c:v>
+                  <c:v>9.7427100000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37854,10 +37854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K88" workbookViewId="0">
-      <selection activeCell="T108" sqref="T108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37866,7 +37866,7 @@
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37910,7 +37910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37927,35 +37927,43 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.12829399999999999</v>
+        <v>0.12942100000000001</v>
       </c>
       <c r="G2">
-        <v>6.2761800000000006E-2</v>
+        <v>6.3400200000000004E-2</v>
       </c>
       <c r="H2">
-        <v>8.6405600000000003E-3</v>
+        <v>8.5923100000000006E-3</v>
       </c>
       <c r="I2">
-        <v>0.21046100000000001</v>
+        <v>0.212149</v>
       </c>
       <c r="J2">
-        <v>0.13286300000000001</v>
+        <v>0.131519</v>
       </c>
       <c r="K2">
-        <v>6043.18</v>
+        <v>6095.35</v>
       </c>
       <c r="L2">
-        <v>55750</v>
+        <v>55695</v>
       </c>
       <c r="M2">
         <f>I2-(F2+G2+H2)</f>
-        <v>1.076464000000002E-2</v>
+        <v>1.0735489999999986E-2</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
       </c>
+      <c r="Q2">
+        <f>I7/I2</f>
+        <v>3.8926744882134723</v>
+      </c>
+      <c r="R2">
+        <f>K2/K7</f>
+        <v>2.3166282167737817</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37972,35 +37980,43 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>0.12279900000000001</v>
+        <v>0.124678</v>
       </c>
       <c r="G3">
-        <v>6.2595700000000004E-2</v>
+        <v>6.3311099999999995E-2</v>
       </c>
       <c r="H3">
-        <v>8.6643799999999993E-3</v>
+        <v>8.6330599999999997E-3</v>
       </c>
       <c r="I3">
-        <v>0.216501</v>
+        <v>0.21892400000000001</v>
       </c>
       <c r="J3">
-        <v>0.13798199999999999</v>
+        <v>0.13744200000000001</v>
       </c>
       <c r="K3">
-        <v>6922.7</v>
+        <v>6947.72</v>
       </c>
       <c r="L3">
-        <v>11846</v>
+        <v>11844</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M61" si="0">I3-(F3+G3+H3)</f>
-        <v>2.2441919999999976E-2</v>
+        <v>2.2301840000000017E-2</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
       </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="1">I8/I3</f>
+        <v>3.7256216769289798</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="2">K3/K8</f>
+        <v>0.95933434867437251</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -38017,35 +38033,43 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>0.12454999999999999</v>
+        <v>0.122081</v>
       </c>
       <c r="G4">
-        <v>6.3137499999999999E-2</v>
+        <v>6.33518E-2</v>
       </c>
       <c r="H4">
-        <v>8.6900099999999997E-3</v>
+        <v>8.6491299999999997E-3</v>
       </c>
       <c r="I4">
-        <v>0.22994400000000001</v>
+        <v>0.22747500000000001</v>
       </c>
       <c r="J4">
-        <v>0.138985</v>
+        <v>0.13846900000000001</v>
       </c>
       <c r="K4">
-        <v>7015.87</v>
+        <v>7044.63</v>
       </c>
       <c r="L4">
-        <v>5966</v>
+        <v>5965</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>3.3566490000000004E-2</v>
+        <v>3.3393069999999997E-2</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
       </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>3.5401164963182765</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>0.88963411323004027</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -38062,35 +38086,43 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>0.124167</v>
+        <v>0.121797</v>
       </c>
       <c r="G5">
-        <v>6.3513399999999998E-2</v>
+        <v>6.3349500000000003E-2</v>
       </c>
       <c r="H5">
-        <v>8.6803599999999998E-3</v>
+        <v>8.6610999999999997E-3</v>
       </c>
       <c r="I5">
-        <v>0.240866</v>
+        <v>0.23838999999999999</v>
       </c>
       <c r="J5">
-        <v>0.139514</v>
+        <v>0.13849</v>
       </c>
       <c r="K5">
-        <v>7038.7</v>
+        <v>7091.75</v>
       </c>
       <c r="L5">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>4.4505240000000001E-2</v>
+        <v>4.4582399999999994E-2</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
       </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>3.4265657116489785</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0.87590100438212959</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -38107,35 +38139,43 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>0.115413</v>
+        <v>0.115734</v>
       </c>
       <c r="G6">
-        <v>6.1425E-2</v>
+        <v>6.1651200000000003E-2</v>
       </c>
       <c r="H6">
-        <v>8.6980300000000007E-3</v>
+        <v>8.6929799999999995E-3</v>
       </c>
       <c r="I6">
-        <v>0.24221200000000001</v>
+        <v>0.24284900000000001</v>
       </c>
       <c r="J6">
-        <v>0.13583999999999999</v>
+        <v>0.13489699999999999</v>
       </c>
       <c r="K6">
-        <v>7255.25</v>
+        <v>7309.33</v>
       </c>
       <c r="L6">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>5.667597000000002E-2</v>
+        <v>5.677082E-2</v>
       </c>
       <c r="P6" t="s">
         <v>24</v>
       </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>3.4046382731656295</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>0.91326441365799038</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -38152,35 +38192,43 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.49896699999999999</v>
+        <v>0.50034800000000001</v>
       </c>
       <c r="G7">
-        <v>0.25254599999999999</v>
+        <v>0.25549300000000003</v>
       </c>
       <c r="H7">
-        <v>3.6775099999999998E-2</v>
+        <v>3.6541799999999999E-2</v>
       </c>
       <c r="I7">
-        <v>0.82166899999999998</v>
+        <v>0.82582699999999998</v>
       </c>
       <c r="J7">
-        <v>8.1810800000000003E-2</v>
+        <v>8.0151799999999995E-2</v>
       </c>
       <c r="K7">
-        <v>2527.08</v>
+        <v>2631.13</v>
       </c>
       <c r="L7">
-        <v>58062</v>
+        <v>57459</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>3.3380900000000047E-2</v>
+        <v>3.3444200000000035E-2</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
       </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>2.2054619187795992</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>5.0196406870329495</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38197,35 +38245,43 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.48991800000000002</v>
+        <v>0.47892499999999999</v>
       </c>
       <c r="G8">
-        <v>0.25664500000000001</v>
+        <v>0.25576500000000002</v>
       </c>
       <c r="H8">
-        <v>3.6661600000000003E-2</v>
+        <v>3.6605899999999997E-2</v>
       </c>
       <c r="I8">
-        <v>0.82794199999999996</v>
+        <v>0.81562800000000002</v>
       </c>
       <c r="J8">
-        <v>0.110932</v>
+        <v>0.115685</v>
       </c>
       <c r="K8">
-        <v>7520.93</v>
+        <v>7242.23</v>
       </c>
       <c r="L8">
-        <v>11863</v>
+        <v>11869</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>4.4717399999999907E-2</v>
+        <v>4.4332099999999985E-2</v>
       </c>
       <c r="P8" t="s">
         <v>23</v>
       </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>2.2412055495887833</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>1.2909500891265597</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38242,35 +38298,43 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>0.46456799999999998</v>
+        <v>0.46340900000000002</v>
       </c>
       <c r="G9">
-        <v>0.24904000000000001</v>
+        <v>0.24848700000000001</v>
       </c>
       <c r="H9">
-        <v>3.6678099999999998E-2</v>
+        <v>3.6720999999999997E-2</v>
       </c>
       <c r="I9">
-        <v>0.80659400000000003</v>
+        <v>0.805288</v>
       </c>
       <c r="J9">
-        <v>0.119198</v>
+        <v>0.115874</v>
       </c>
       <c r="K9">
-        <v>7696.2</v>
+        <v>7918.57</v>
       </c>
       <c r="L9">
-        <v>5971</v>
+        <v>5973</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>5.6307899999999966E-2</v>
+        <v>5.6670999999999916E-2</v>
       </c>
       <c r="P9" t="s">
         <v>24</v>
       </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2.2422909567757126</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>1.2755079194029801</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -38287,35 +38351,43 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <v>0.46461999999999998</v>
+        <v>0.46301999999999999</v>
       </c>
       <c r="G10">
-        <v>0.24904299999999999</v>
+        <v>0.24818699999999999</v>
       </c>
       <c r="H10">
-        <v>3.6753800000000003E-2</v>
+        <v>3.6778100000000001E-2</v>
       </c>
       <c r="I10">
-        <v>0.81875699999999996</v>
+        <v>0.816859</v>
       </c>
       <c r="J10">
-        <v>0.118794</v>
+        <v>0.11655</v>
       </c>
       <c r="K10">
-        <v>7942.1</v>
+        <v>8096.52</v>
       </c>
       <c r="L10">
         <v>3989</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>6.8340199999999962E-2</v>
+        <v>6.8873900000000043E-2</v>
       </c>
       <c r="P10" t="s">
         <v>24</v>
       </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>2.2218399993144469</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>1.2220369093024905</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38332,35 +38404,43 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>0.46501300000000001</v>
+        <v>0.46143800000000001</v>
       </c>
       <c r="G11">
-        <v>0.249</v>
+        <v>0.248617</v>
       </c>
       <c r="H11">
-        <v>3.6856100000000003E-2</v>
+        <v>3.6485900000000002E-2</v>
       </c>
       <c r="I11">
-        <v>0.83237499999999998</v>
+        <v>0.82681300000000002</v>
       </c>
       <c r="J11">
-        <v>0.116864</v>
+        <v>0.119475</v>
       </c>
       <c r="K11">
-        <v>8178.52</v>
+        <v>8003.52</v>
       </c>
       <c r="L11">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>8.1505899999999909E-2</v>
+        <v>8.0272100000000068E-2</v>
       </c>
       <c r="P11" t="s">
         <v>24</v>
       </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>2.2087944916202331</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>1.1830548710815609</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -38377,35 +38457,43 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.1070800000000001</v>
+        <v>1.0887899999999999</v>
       </c>
       <c r="G12">
-        <v>0.57790399999999997</v>
+        <v>0.579322</v>
       </c>
       <c r="H12">
-        <v>8.2506899999999994E-2</v>
+        <v>8.2183300000000001E-2</v>
       </c>
       <c r="I12">
-        <v>1.8383799999999999</v>
+        <v>1.8213299999999999</v>
       </c>
       <c r="J12">
-        <v>9.5409599999999997E-2</v>
+        <v>9.3535400000000005E-2</v>
       </c>
       <c r="K12">
-        <v>519.31700000000001</v>
+        <v>524.16700000000003</v>
       </c>
       <c r="L12">
-        <v>31025</v>
+        <v>31332</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>7.0889099999999816E-2</v>
+        <v>7.1034700000000006E-2</v>
       </c>
       <c r="P12" t="s">
         <v>23</v>
       </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1.7933652880038213</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>1.7756334688346884</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -38422,35 +38510,43 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1.07012</v>
+        <v>1.0844800000000001</v>
       </c>
       <c r="G13">
-        <v>0.56511900000000004</v>
+        <v>0.57879100000000006</v>
       </c>
       <c r="H13">
-        <v>8.2721500000000003E-2</v>
+        <v>8.2856899999999997E-2</v>
       </c>
       <c r="I13">
-        <v>1.7985500000000001</v>
+        <v>1.82799</v>
       </c>
       <c r="J13">
-        <v>0.113899</v>
+        <v>0.11304599999999999</v>
       </c>
       <c r="K13">
-        <v>5615.95</v>
+        <v>5610</v>
       </c>
       <c r="L13">
-        <v>11863</v>
+        <v>11865</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>8.0589500000000314E-2</v>
+        <v>8.1862099999999938E-2</v>
       </c>
       <c r="P13" t="s">
         <v>24</v>
       </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1.7561638739818051</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>1.6833602390911655</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -38467,35 +38563,43 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>1.06654</v>
+        <v>1.0667899999999999</v>
       </c>
       <c r="G14">
-        <v>0.56301500000000004</v>
+        <v>0.56331299999999995</v>
       </c>
       <c r="H14">
-        <v>8.2810300000000003E-2</v>
+        <v>8.2983799999999996E-2</v>
       </c>
       <c r="I14">
-        <v>1.8042499999999999</v>
+        <v>1.80569</v>
       </c>
       <c r="J14">
-        <v>0.127747</v>
+        <v>0.131989</v>
       </c>
       <c r="K14">
-        <v>6412.41</v>
+        <v>6208.17</v>
       </c>
       <c r="L14">
-        <v>5966</v>
+        <v>5963</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>9.1884699999999819E-2</v>
+        <v>9.2603200000000108E-2</v>
       </c>
       <c r="P14" t="s">
         <v>24</v>
       </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1.7879148691082078</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>1.0962590830029755</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -38512,35 +38616,43 @@
         <v>15</v>
       </c>
       <c r="F15">
-        <v>1.06887</v>
+        <v>1.0646</v>
       </c>
       <c r="G15">
-        <v>0.56315499999999996</v>
+        <v>0.56404200000000004</v>
       </c>
       <c r="H15">
-        <v>8.2767999999999994E-2</v>
+        <v>8.2666000000000003E-2</v>
       </c>
       <c r="I15">
-        <v>1.8180400000000001</v>
+        <v>1.8149299999999999</v>
       </c>
       <c r="J15">
-        <v>0.129525</v>
+        <v>0.132549</v>
       </c>
       <c r="K15">
-        <v>6772.37</v>
+        <v>6625.43</v>
       </c>
       <c r="L15">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>0.10324700000000009</v>
+        <v>0.10362199999999988</v>
       </c>
       <c r="P15" t="s">
         <v>24</v>
       </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1.8011493556225309</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>1.0250815370428821</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -38557,35 +38669,43 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>1.0705199999999999</v>
+        <v>1.06515</v>
       </c>
       <c r="G16">
-        <v>0.56310300000000002</v>
+        <v>0.563828</v>
       </c>
       <c r="H16">
-        <v>8.2762500000000003E-2</v>
+        <v>8.2942000000000002E-2</v>
       </c>
       <c r="I16">
-        <v>1.8306899999999999</v>
+        <v>1.82626</v>
       </c>
       <c r="J16">
-        <v>0.13079399999999999</v>
+        <v>0.134076</v>
       </c>
       <c r="K16">
-        <v>6931.5</v>
+        <v>6765.13</v>
       </c>
       <c r="L16">
         <v>2993</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>0.11430449999999981</v>
+        <v>0.11433999999999989</v>
       </c>
       <c r="P16" t="s">
         <v>24</v>
       </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1.7991852200672411</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0.982422740071767</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -38602,35 +38722,43 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.9783500000000001</v>
+        <v>1.95451</v>
       </c>
       <c r="G17">
-        <v>1.0351300000000001</v>
+        <v>1.03786</v>
       </c>
       <c r="H17">
-        <v>0.14732700000000001</v>
+        <v>0.147096</v>
       </c>
       <c r="I17">
-        <v>3.2936800000000002</v>
+        <v>3.2663099999999998</v>
       </c>
       <c r="J17">
-        <v>0.1283</v>
+        <v>0.125116</v>
       </c>
       <c r="K17">
-        <v>292.93299999999999</v>
+        <v>295.2</v>
       </c>
       <c r="L17">
-        <v>17533</v>
+        <v>17691</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>0.13287299999999957</v>
+        <v>0.12684399999999973</v>
       </c>
       <c r="P17" t="s">
         <v>23</v>
       </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1.5983571675682957</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>1.5875235278300619</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -38647,35 +38775,43 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>1.9294500000000001</v>
+        <v>1.92208</v>
       </c>
       <c r="G18">
-        <v>1.00461</v>
+        <v>1.00552</v>
       </c>
       <c r="H18">
-        <v>0.14743600000000001</v>
+        <v>0.14688300000000001</v>
       </c>
       <c r="I18">
-        <v>3.2246100000000002</v>
+        <v>3.2102499999999998</v>
       </c>
       <c r="J18">
-        <v>0.112749</v>
+        <v>0.109512</v>
       </c>
       <c r="K18">
-        <v>3217.78</v>
+        <v>3332.62</v>
       </c>
       <c r="L18">
-        <v>11869</v>
+        <v>11870</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>0.14311400000000019</v>
+        <v>0.13576699999999997</v>
       </c>
       <c r="P18" t="s">
         <v>24</v>
       </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1.5835433377462815</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>15.153989914376787</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -38692,35 +38828,43 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>1.94072</v>
+        <v>1.92652</v>
       </c>
       <c r="G19">
-        <v>1.0027900000000001</v>
+        <v>1.0049300000000001</v>
       </c>
       <c r="H19">
-        <v>0.14732799999999999</v>
+        <v>0.14717</v>
       </c>
       <c r="I19">
-        <v>3.2422499999999999</v>
+        <v>3.2284199999999998</v>
       </c>
       <c r="J19">
-        <v>0.119701</v>
+        <v>0.119752</v>
       </c>
       <c r="K19">
-        <v>5655.92</v>
+        <v>5663.05</v>
       </c>
       <c r="L19">
-        <v>5966</v>
+        <v>5967</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>0.1514120000000001</v>
+        <v>0.14979999999999993</v>
       </c>
       <c r="P19" t="s">
         <v>24</v>
       </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>1.5936866950396789</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>1.3443888936368213</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -38737,35 +38881,43 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>1.9452199999999999</v>
+        <v>1.9495499999999999</v>
       </c>
       <c r="G20">
-        <v>1.0041199999999999</v>
+        <v>1.0071600000000001</v>
       </c>
       <c r="H20">
-        <v>0.147701</v>
+        <v>0.148343</v>
       </c>
       <c r="I20">
-        <v>3.2640600000000002</v>
+        <v>3.2689599999999999</v>
       </c>
       <c r="J20">
-        <v>0.11967</v>
+        <v>0.12092899999999999</v>
       </c>
       <c r="K20">
-        <v>6536.57</v>
+        <v>6463.32</v>
       </c>
       <c r="L20">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>0.16701900000000025</v>
+        <v>0.16390699999999958</v>
       </c>
       <c r="P20" t="s">
         <v>24</v>
       </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>1.5902152366501883</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>1.1553464527096473</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -38782,35 +38934,43 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>1.9507000000000001</v>
+        <v>1.9532499999999999</v>
       </c>
       <c r="G21">
-        <v>1.0046200000000001</v>
+        <v>1.00726</v>
       </c>
       <c r="H21">
-        <v>0.14779900000000001</v>
+        <v>0.148475</v>
       </c>
       <c r="I21">
-        <v>3.2799499999999999</v>
+        <v>3.2857799999999999</v>
       </c>
       <c r="J21">
-        <v>0.120973</v>
+        <v>0.12121999999999999</v>
       </c>
       <c r="K21">
-        <v>6901.64</v>
+        <v>6886.17</v>
       </c>
       <c r="L21">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.17683099999999952</v>
+        <v>0.17679499999999981</v>
       </c>
       <c r="P21" t="s">
         <v>24</v>
       </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>1.5804770861104518</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>1.8256889247100869</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -38827,35 +38987,43 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>3.1234299999999999</v>
+        <v>3.11551</v>
       </c>
       <c r="G22">
-        <v>1.62466</v>
+        <v>1.62775</v>
       </c>
       <c r="H22">
-        <v>0.24299100000000001</v>
+        <v>0.24132400000000001</v>
       </c>
       <c r="I22">
-        <v>5.2234600000000002</v>
+        <v>5.2207299999999996</v>
       </c>
       <c r="J22">
-        <v>0.189911</v>
+        <v>0.18452099999999999</v>
       </c>
       <c r="K22">
-        <v>184.833</v>
+        <v>185.95</v>
       </c>
       <c r="L22">
-        <v>11084</v>
+        <v>11100</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.23237900000000078</v>
+        <v>0.23614599999999975</v>
       </c>
       <c r="P22" t="s">
         <v>23</v>
       </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>1.5595443549082215</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>1.5549869128555061</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -38872,35 +39040,43 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>3.0356200000000002</v>
+        <v>3.0412300000000001</v>
       </c>
       <c r="G23">
-        <v>1.5734699999999999</v>
+        <v>1.57765</v>
       </c>
       <c r="H23">
-        <v>0.23561000000000001</v>
+        <v>0.23736299999999999</v>
       </c>
       <c r="I23">
-        <v>5.0712299999999999</v>
+        <v>5.0835699999999999</v>
       </c>
       <c r="J23">
-        <v>0.183203</v>
+        <v>0.185247</v>
       </c>
       <c r="K23">
-        <v>195.8</v>
+        <v>219.917</v>
       </c>
       <c r="L23">
-        <v>11418</v>
+        <v>11386</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>0.22652999999999945</v>
+        <v>0.22732699999999983</v>
       </c>
       <c r="P23" t="s">
         <v>24</v>
       </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>1.5723792531626395</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>1.8100164609053497</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -38917,35 +39093,43 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>3.0838800000000002</v>
+        <v>3.0793499999999998</v>
       </c>
       <c r="G24">
-        <v>1.5796399999999999</v>
+        <v>1.5773999999999999</v>
       </c>
       <c r="H24">
-        <v>0.24160499999999999</v>
+        <v>0.239005</v>
       </c>
       <c r="I24">
-        <v>5.1589700000000001</v>
+        <v>5.1450899999999997</v>
       </c>
       <c r="J24">
-        <v>0.11462899999999999</v>
+        <v>0.116215</v>
       </c>
       <c r="K24">
-        <v>4242.9799999999996</v>
+        <v>4212.3599999999997</v>
       </c>
       <c r="L24">
-        <v>5968</v>
+        <v>5966</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>0.2538450000000001</v>
+        <v>0.24933500000000031</v>
       </c>
       <c r="P24" t="s">
         <v>24</v>
       </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>1.5513450687937433</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>4.7271462237683757</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -38962,35 +39146,43 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>3.0975600000000001</v>
+        <v>3.09735</v>
       </c>
       <c r="G25">
-        <v>1.58707</v>
+        <v>1.5883400000000001</v>
       </c>
       <c r="H25">
-        <v>0.24451800000000001</v>
+        <v>0.244057</v>
       </c>
       <c r="I25">
-        <v>5.1966000000000001</v>
+        <v>5.1983499999999996</v>
       </c>
       <c r="J25">
-        <v>0.115493</v>
+        <v>0.11677899999999999</v>
       </c>
       <c r="K25">
-        <v>5657.43</v>
+        <v>5594.27</v>
       </c>
       <c r="L25">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>0.26745199999999958</v>
+        <v>0.2686029999999997</v>
       </c>
       <c r="P25" t="s">
         <v>24</v>
       </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>1.540625390748988</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>3.1501396490753879</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -39007,35 +39199,43 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>3.1048499999999999</v>
+        <v>3.0949300000000002</v>
       </c>
       <c r="G26">
-        <v>1.59219</v>
+        <v>1.5824199999999999</v>
       </c>
       <c r="H26">
-        <v>0.25076199999999998</v>
+        <v>0.24560899999999999</v>
       </c>
       <c r="I26">
-        <v>5.2364300000000004</v>
+        <v>5.1931000000000003</v>
       </c>
       <c r="J26">
-        <v>0.127638</v>
+        <v>0.19732</v>
       </c>
       <c r="K26">
-        <v>5777.13</v>
+        <v>3771.82</v>
       </c>
       <c r="L26">
-        <v>2989</v>
+        <v>2968</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>0.28862800000000099</v>
+        <v>0.27014099999999974</v>
       </c>
       <c r="P26" t="s">
         <v>24</v>
       </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>1.543546244054611</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>1.7085845522452288</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -39052,35 +39252,43 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>4.8251999999999997</v>
+        <v>4.8254599999999996</v>
       </c>
       <c r="G27">
-        <v>2.4325800000000002</v>
+        <v>2.4267699999999999</v>
       </c>
       <c r="H27">
-        <v>0.414767</v>
+        <v>0.424757</v>
       </c>
       <c r="I27">
-        <v>8.1274800000000003</v>
+        <v>8.1419599999999992</v>
       </c>
       <c r="J27">
-        <v>0.213314</v>
+        <v>0.235953</v>
       </c>
       <c r="K27">
-        <v>120.4</v>
+        <v>119.583</v>
       </c>
       <c r="L27">
-        <v>7194</v>
+        <v>7162</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>0.45493299999999959</v>
+        <v>0.46497300000000052</v>
       </c>
       <c r="P27" t="s">
         <v>23</v>
       </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>2.5664704813091691E-2</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>1.9567586495791389E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -39097,35 +39305,43 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>4.7087700000000003</v>
+        <v>4.7306299999999997</v>
       </c>
       <c r="G28">
-        <v>2.3492999999999999</v>
+        <v>2.3614799999999998</v>
       </c>
       <c r="H28">
-        <v>0.411636</v>
+        <v>0.429676</v>
       </c>
       <c r="I28">
-        <v>7.9248599999999998</v>
+        <v>7.9932999999999996</v>
       </c>
       <c r="J28">
-        <v>0.21102599999999999</v>
+        <v>0.25620999999999999</v>
       </c>
       <c r="K28">
-        <v>123.767</v>
+        <v>121.5</v>
       </c>
       <c r="L28">
-        <v>7374</v>
+        <v>7273</v>
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>0.45515399999999939</v>
+        <v>0.47151399999999999</v>
       </c>
       <c r="P28" t="s">
         <v>24</v>
       </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>2.8876934432587292E-2</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>1.4241825016615464E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -39142,35 +39358,43 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>4.7152599999999998</v>
+        <v>4.7309299999999999</v>
       </c>
       <c r="G29">
-        <v>2.3489399999999998</v>
+        <v>2.35534</v>
       </c>
       <c r="H29">
-        <v>0.412412</v>
+        <v>0.42395500000000003</v>
       </c>
       <c r="I29">
-        <v>7.9386700000000001</v>
+        <v>7.9818100000000003</v>
       </c>
       <c r="J29">
-        <v>0.12303</v>
+        <v>0.24093800000000001</v>
       </c>
       <c r="K29">
-        <v>1740.75</v>
+        <v>891.1</v>
       </c>
       <c r="L29">
-        <v>5960</v>
+        <v>5912</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>0.46205800000000075</v>
+        <v>0.47158500000000014</v>
       </c>
       <c r="P29" t="s">
         <v>24</v>
       </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>3.2076809645932437E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>0.10254905345531964</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -39187,35 +39411,43 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <v>4.7393400000000003</v>
+        <v>4.7393599999999996</v>
       </c>
       <c r="G30">
-        <v>2.3564699999999998</v>
+        <v>2.3571599999999999</v>
       </c>
       <c r="H30">
-        <v>0.42019099999999998</v>
+        <v>0.42826900000000001</v>
       </c>
       <c r="I30">
-        <v>7.9995599999999998</v>
+        <v>8.0087100000000007</v>
       </c>
       <c r="J30">
-        <v>0.117121</v>
+        <v>0.26570700000000003</v>
       </c>
       <c r="K30">
-        <v>3995.25</v>
+        <v>1775.88</v>
       </c>
       <c r="L30">
-        <v>3983</v>
+        <v>3962</v>
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>0.48355899999999963</v>
+        <v>0.48392100000000049</v>
       </c>
       <c r="P30" t="s">
         <v>24</v>
       </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>3.4355345617458989E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>0.20464987640663085</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -39232,35 +39464,43 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>4.7418199999999997</v>
+        <v>4.7386499999999998</v>
       </c>
       <c r="G31">
-        <v>2.3580299999999998</v>
+        <v>2.3576000000000001</v>
       </c>
       <c r="H31">
-        <v>0.42560700000000001</v>
+        <v>0.42995899999999998</v>
       </c>
       <c r="I31">
-        <v>8.0199700000000007</v>
+        <v>8.0157900000000009</v>
       </c>
       <c r="J31">
-        <v>0.141206</v>
+        <v>0.27284700000000001</v>
       </c>
       <c r="K31">
-        <v>4248.87</v>
+        <v>2207.5700000000002</v>
       </c>
       <c r="L31">
-        <v>2984</v>
+        <v>2979</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>0.49451300000000042</v>
+        <v>0.48958100000000115</v>
       </c>
       <c r="P31" t="s">
         <v>24</v>
       </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>3.6500706730091481E-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>0.2546252081920396</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -39277,35 +39517,43 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.124385</v>
+        <v>0.12668699999999999</v>
       </c>
       <c r="G32">
-        <v>6.3125799999999996E-2</v>
+        <v>6.3315200000000002E-2</v>
       </c>
       <c r="H32">
-        <v>8.3552100000000001E-3</v>
+        <v>8.1951100000000002E-3</v>
       </c>
       <c r="I32">
-        <v>0.20688899999999999</v>
+        <v>0.20896100000000001</v>
       </c>
       <c r="J32">
-        <v>0.104882</v>
+        <v>0.131551</v>
       </c>
       <c r="K32">
-        <v>7634.95</v>
+        <v>6111.28</v>
       </c>
       <c r="L32">
-        <v>57246</v>
+        <v>55866</v>
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>1.102299000000001E-2</v>
+        <v>1.0763689999999992E-2</v>
       </c>
       <c r="P32" t="s">
         <v>23</v>
       </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>3.966797632094027</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>2.9610779748724485</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -39322,35 +39570,43 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>0.13805300000000001</v>
+        <v>0.13558500000000001</v>
       </c>
       <c r="G33">
-        <v>6.3144900000000004E-2</v>
+        <v>6.3122600000000001E-2</v>
       </c>
       <c r="H33">
-        <v>8.3640199999999998E-3</v>
+        <v>8.2024300000000001E-3</v>
       </c>
       <c r="I33">
-        <v>0.23370199999999999</v>
+        <v>0.230822</v>
       </c>
       <c r="J33">
-        <v>0.109296</v>
+        <v>0.111455</v>
       </c>
       <c r="K33">
-        <v>8711.23</v>
+        <v>8531.2099999999991</v>
       </c>
       <c r="L33">
-        <v>11884</v>
+        <v>11876</v>
       </c>
       <c r="M33">
         <f t="shared" si="0"/>
-        <v>2.414007999999998E-2</v>
+        <v>2.3911969999999977E-2</v>
       </c>
       <c r="P33" t="s">
         <v>23</v>
       </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>3.8342099106670942</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>1.4416355595811232</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -39367,35 +39623,43 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>0.14662500000000001</v>
+        <v>0.147975</v>
       </c>
       <c r="G34">
-        <v>6.3126799999999997E-2</v>
+        <v>6.3117599999999996E-2</v>
       </c>
       <c r="H34">
-        <v>8.3671300000000004E-3</v>
+        <v>8.2055199999999991E-3</v>
       </c>
       <c r="I34">
-        <v>0.25526199999999999</v>
+        <v>0.25603100000000001</v>
       </c>
       <c r="J34">
-        <v>0.10925600000000001</v>
+        <v>0.111857</v>
       </c>
       <c r="K34">
-        <v>8893.9500000000007</v>
+        <v>8689.5</v>
       </c>
       <c r="L34">
-        <v>5976</v>
+        <v>5974</v>
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
-        <v>3.714307E-2</v>
+        <v>3.6732880000000023E-2</v>
       </c>
       <c r="P34" t="s">
         <v>23</v>
       </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>3.7444996894907256</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>1.3962512754179757</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -39412,35 +39676,43 @@
         <v>15</v>
       </c>
       <c r="F35">
-        <v>0.146562</v>
+        <v>0.154637</v>
       </c>
       <c r="G35">
-        <v>6.3122200000000003E-2</v>
+        <v>6.3138399999999997E-2</v>
       </c>
       <c r="H35">
-        <v>8.3670700000000008E-3</v>
+        <v>8.2099600000000005E-3</v>
       </c>
       <c r="I35">
-        <v>0.26780700000000002</v>
+        <v>0.275142</v>
       </c>
       <c r="J35">
-        <v>0.110806</v>
+        <v>0.112849</v>
       </c>
       <c r="K35">
-        <v>8832.18</v>
+        <v>8677.65</v>
       </c>
       <c r="L35">
         <v>3991</v>
       </c>
       <c r="M35">
         <f t="shared" si="0"/>
-        <v>4.9755730000000026E-2</v>
+        <v>4.9156640000000001E-2</v>
       </c>
       <c r="P35" t="s">
         <v>23</v>
       </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>2.9757761446816553</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="2"/>
+        <v>1.197725086299587</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -39457,35 +39729,43 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>0.11704100000000001</v>
+        <v>0.15964</v>
       </c>
       <c r="G36">
-        <v>6.1673600000000002E-2</v>
+        <v>6.3109399999999996E-2</v>
       </c>
       <c r="H36">
-        <v>8.4049699999999995E-3</v>
+        <v>8.2107499999999993E-3</v>
       </c>
       <c r="I36">
-        <v>0.247059</v>
+        <v>0.29258200000000001</v>
       </c>
       <c r="J36">
-        <v>0.117891</v>
+        <v>0.11333799999999999</v>
       </c>
       <c r="K36">
-        <v>8350.82</v>
+        <v>8669.8799999999992</v>
       </c>
       <c r="L36">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="M36">
         <f t="shared" si="0"/>
-        <v>5.9939429999999988E-2</v>
+        <v>6.1621850000000034E-2</v>
       </c>
       <c r="P36" t="s">
         <v>23</v>
       </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>2.8391835451258109</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>1.1892562176190677</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -39502,35 +39782,43 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.51095299999999999</v>
+        <v>0.50402199999999997</v>
       </c>
       <c r="G37">
-        <v>0.25576599999999999</v>
+        <v>0.25562499999999999</v>
       </c>
       <c r="H37">
-        <v>3.6003399999999998E-2</v>
+        <v>3.6214299999999998E-2</v>
       </c>
       <c r="I37">
-        <v>0.83598499999999998</v>
+        <v>0.82890600000000003</v>
       </c>
       <c r="J37">
-        <v>8.2126299999999999E-2</v>
+        <v>9.7471500000000003E-2</v>
       </c>
       <c r="K37">
-        <v>2445.88</v>
+        <v>2063.87</v>
       </c>
       <c r="L37">
-        <v>57369</v>
+        <v>57930</v>
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
-        <v>3.3262600000000031E-2</v>
+        <v>3.3044700000000038E-2</v>
       </c>
       <c r="P37" t="s">
         <v>23</v>
       </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>2.2394457272597856</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="2"/>
+        <v>4.0587413962635202</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -39547,35 +39835,43 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>0.55890099999999998</v>
+        <v>0.55035999999999996</v>
       </c>
       <c r="G38">
-        <v>0.25580700000000001</v>
+        <v>0.255722</v>
       </c>
       <c r="H38">
-        <v>3.60322E-2</v>
+        <v>3.6442599999999999E-2</v>
       </c>
       <c r="I38">
-        <v>0.89473400000000003</v>
+        <v>0.88502000000000003</v>
       </c>
       <c r="J38">
-        <v>0.115381</v>
+        <v>0.13927999999999999</v>
       </c>
       <c r="K38">
-        <v>7115.75</v>
+        <v>5917.73</v>
       </c>
       <c r="L38">
-        <v>11863</v>
+        <v>11832</v>
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
-        <v>4.3993800000000083E-2</v>
+        <v>4.2495400000000072E-2</v>
       </c>
       <c r="P38" t="s">
         <v>23</v>
       </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>2.2430566540869132</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="2"/>
+        <v>1.5053930023250961</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -39592,35 +39888,43 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>0.48327199999999998</v>
+        <v>0.61432299999999995</v>
       </c>
       <c r="G39">
-        <v>0.249917</v>
+        <v>0.25573600000000002</v>
       </c>
       <c r="H39">
-        <v>3.6096400000000001E-2</v>
+        <v>3.6389600000000001E-2</v>
       </c>
       <c r="I39">
-        <v>0.82703400000000005</v>
+        <v>0.958708</v>
       </c>
       <c r="J39">
-        <v>0.10995099999999999</v>
+        <v>0.14515900000000001</v>
       </c>
       <c r="K39">
-        <v>8311.77</v>
+        <v>6223.45</v>
       </c>
       <c r="L39">
-        <v>5975</v>
+        <v>5961</v>
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
-        <v>5.7748600000000039E-2</v>
+        <v>5.2259400000000067E-2</v>
       </c>
       <c r="P39" t="s">
         <v>23</v>
       </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>1.8838687066343454</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="2"/>
+        <v>1.1225417427990627</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -39637,35 +39941,43 @@
         <v>15</v>
       </c>
       <c r="F40">
-        <v>0.46421499999999999</v>
+        <v>0.46718300000000001</v>
       </c>
       <c r="G40">
-        <v>0.24820800000000001</v>
+        <v>0.24837100000000001</v>
       </c>
       <c r="H40">
-        <v>3.6110499999999997E-2</v>
+        <v>3.6418399999999997E-2</v>
       </c>
       <c r="I40">
-        <v>0.81596900000000006</v>
+        <v>0.81876099999999996</v>
       </c>
       <c r="J40">
-        <v>0.12189700000000001</v>
+        <v>0.13028699999999999</v>
       </c>
       <c r="K40">
-        <v>7741.02</v>
+        <v>7245.11</v>
       </c>
       <c r="L40">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
-        <v>6.7435499999999982E-2</v>
+        <v>6.6788599999999976E-2</v>
       </c>
       <c r="P40" t="s">
         <v>24</v>
       </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>2.2298448509394073</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="2"/>
+        <v>1.2315290446063414</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -39682,35 +39994,43 @@
         <v>20</v>
       </c>
       <c r="F41">
-        <v>0.46376800000000001</v>
+        <v>0.46795599999999998</v>
       </c>
       <c r="G41">
-        <v>0.24823999999999999</v>
+        <v>0.248359</v>
       </c>
       <c r="H41">
-        <v>3.61321E-2</v>
+        <v>3.6397400000000003E-2</v>
       </c>
       <c r="I41">
-        <v>0.829125</v>
+        <v>0.83069400000000004</v>
       </c>
       <c r="J41">
-        <v>0.117803</v>
+        <v>0.131219</v>
       </c>
       <c r="K41">
-        <v>8127.95</v>
+        <v>7290.17</v>
       </c>
       <c r="L41">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="M41">
         <f t="shared" si="0"/>
-        <v>8.0984900000000026E-2</v>
+        <v>7.7981599999999984E-2</v>
       </c>
       <c r="P41" t="s">
         <v>24</v>
       </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>2.2170378021268964</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="2"/>
+        <v>1.2063666209945922</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -39727,35 +40047,43 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.1387499999999999</v>
+        <v>1.1261300000000001</v>
       </c>
       <c r="G42">
-        <v>0.57836600000000005</v>
+        <v>0.57815399999999995</v>
       </c>
       <c r="H42">
-        <v>8.1444199999999994E-2</v>
+        <v>8.1807199999999997E-2</v>
       </c>
       <c r="I42">
-        <v>1.86897</v>
+        <v>1.85629</v>
       </c>
       <c r="J42">
-        <v>9.5560199999999998E-2</v>
+        <v>0.11273</v>
       </c>
       <c r="K42">
-        <v>509.05</v>
+        <v>508.5</v>
       </c>
       <c r="L42">
-        <v>30540</v>
+        <v>30470</v>
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>7.0409800000000189E-2</v>
+        <v>7.0198800000000006E-2</v>
       </c>
       <c r="P42" t="s">
         <v>23</v>
       </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>1.7946818654412833</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="2"/>
+        <v>1.7762144451469348</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -39772,35 +40100,43 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>1.2750600000000001</v>
+        <v>1.24525</v>
       </c>
       <c r="G43">
-        <v>0.57839799999999997</v>
+        <v>0.57875399999999999</v>
       </c>
       <c r="H43">
-        <v>8.14772E-2</v>
+        <v>8.2247700000000007E-2</v>
       </c>
       <c r="I43">
-        <v>2.0153400000000001</v>
+        <v>1.98515</v>
       </c>
       <c r="J43">
-        <v>0.108487</v>
+        <v>0.154914</v>
       </c>
       <c r="K43">
-        <v>5529.92</v>
+        <v>3931.02</v>
       </c>
       <c r="L43">
-        <v>11877</v>
+        <v>11807</v>
       </c>
       <c r="M43">
         <f t="shared" si="0"/>
-        <v>8.0404800000000165E-2</v>
+        <v>7.8898300000000088E-2</v>
       </c>
       <c r="P43" t="s">
         <v>23</v>
       </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>1.7941918746694203</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="2"/>
+        <v>2.2562504304704181</v>
+      </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -39817,35 +40153,43 @@
         <v>10</v>
       </c>
       <c r="F44">
-        <v>1.06359</v>
+        <v>1.0714300000000001</v>
       </c>
       <c r="G44">
-        <v>0.561477</v>
+        <v>0.56149899999999997</v>
       </c>
       <c r="H44">
-        <v>8.1561800000000004E-2</v>
+        <v>8.2506399999999994E-2</v>
       </c>
       <c r="I44">
-        <v>1.7978499999999999</v>
+        <v>1.8060799999999999</v>
       </c>
       <c r="J44">
-        <v>0.12922500000000001</v>
+        <v>0.147812</v>
       </c>
       <c r="K44">
-        <v>6341.95</v>
+        <v>5544.07</v>
       </c>
       <c r="L44">
-        <v>5966</v>
+        <v>5959</v>
       </c>
       <c r="M44">
         <f t="shared" si="0"/>
-        <v>9.1221199999999891E-2</v>
+        <v>9.0644599999999853E-2</v>
       </c>
       <c r="P44" t="s">
         <v>24</v>
       </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>1.7945827427356484</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="2"/>
+        <v>1.4167032933336057</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -39862,35 +40206,43 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>1.06501</v>
+        <v>1.0772200000000001</v>
       </c>
       <c r="G45">
-        <v>0.56144700000000003</v>
+        <v>0.56176999999999999</v>
       </c>
       <c r="H45">
-        <v>8.1564999999999999E-2</v>
+        <v>8.2933900000000005E-2</v>
       </c>
       <c r="I45">
-        <v>1.8105599999999999</v>
+        <v>1.8257099999999999</v>
       </c>
       <c r="J45">
-        <v>0.13031599999999999</v>
+        <v>0.14915400000000001</v>
       </c>
       <c r="K45">
-        <v>6736</v>
+        <v>5883.02</v>
       </c>
       <c r="L45">
-        <v>3987</v>
+        <v>3983</v>
       </c>
       <c r="M45">
         <f t="shared" si="0"/>
-        <v>0.1025379999999998</v>
+        <v>0.10378609999999977</v>
       </c>
       <c r="P45" t="s">
         <v>24</v>
       </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>1.7867076370288819</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="2"/>
+        <v>1.3225768015916732</v>
+      </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -39907,35 +40259,43 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <v>1.0663100000000001</v>
+        <v>1.08185</v>
       </c>
       <c r="G46">
-        <v>0.561558</v>
+        <v>0.562087</v>
       </c>
       <c r="H46">
-        <v>8.1699300000000002E-2</v>
+        <v>8.3232600000000004E-2</v>
       </c>
       <c r="I46">
-        <v>1.8223</v>
+        <v>1.84168</v>
       </c>
       <c r="J46">
-        <v>0.13234399999999999</v>
+        <v>0.15005099999999999</v>
       </c>
       <c r="K46">
-        <v>6854.85</v>
+        <v>6043.08</v>
       </c>
       <c r="L46">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="M46">
         <f t="shared" si="0"/>
-        <v>0.11273270000000002</v>
+        <v>0.1145103999999999</v>
       </c>
       <c r="P46" t="s">
         <v>24</v>
       </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>1.7817536162634116</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="2"/>
+        <v>1.2794244677427551</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -39952,35 +40312,43 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>2.02732</v>
+        <v>2.02075</v>
       </c>
       <c r="G47">
-        <v>1.03267</v>
+        <v>1.0340499999999999</v>
       </c>
       <c r="H47">
-        <v>0.14535200000000001</v>
+        <v>0.146594</v>
       </c>
       <c r="I47">
-        <v>3.33195</v>
+        <v>3.3314499999999998</v>
       </c>
       <c r="J47">
-        <v>0.127441</v>
+        <v>0.17846400000000001</v>
       </c>
       <c r="K47">
-        <v>290.2</v>
+        <v>286.28300000000002</v>
       </c>
       <c r="L47">
-        <v>17344</v>
+        <v>17094</v>
       </c>
       <c r="M47">
         <f t="shared" si="0"/>
-        <v>0.12660800000000005</v>
+        <v>0.13005599999999973</v>
       </c>
       <c r="P47" t="s">
         <v>23</v>
       </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>1.5943297963349292</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="2"/>
+        <v>1.5875241913571005</v>
+      </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -39997,35 +40365,43 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>2.26478</v>
+        <v>2.2452999999999999</v>
       </c>
       <c r="G48">
-        <v>1.0329699999999999</v>
+        <v>1.0339400000000001</v>
       </c>
       <c r="H48">
-        <v>0.14537900000000001</v>
+        <v>0.146206</v>
       </c>
       <c r="I48">
-        <v>3.5765799999999999</v>
+        <v>3.5617399999999999</v>
       </c>
       <c r="J48">
-        <v>0.10766100000000001</v>
+        <v>0.17565600000000001</v>
       </c>
       <c r="K48">
-        <v>2736.67</v>
+        <v>1742.28</v>
       </c>
       <c r="L48">
-        <v>11867</v>
+        <v>11742</v>
       </c>
       <c r="M48">
         <f t="shared" si="0"/>
-        <v>0.13345099999999999</v>
+        <v>0.13629400000000036</v>
       </c>
       <c r="P48" t="s">
         <v>23</v>
       </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>1.5054860826449994</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="2"/>
+        <v>9.5189392076838608</v>
+      </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -40042,35 +40418,43 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>1.9444300000000001</v>
+        <v>1.9460200000000001</v>
       </c>
       <c r="G49">
-        <v>1.00556</v>
+        <v>1.0031600000000001</v>
       </c>
       <c r="H49">
-        <v>0.14604800000000001</v>
+        <v>0.1464</v>
       </c>
       <c r="I49">
-        <v>3.2443499999999998</v>
+        <v>3.2411599999999998</v>
       </c>
       <c r="J49">
-        <v>0.11995500000000001</v>
+        <v>0.173511</v>
       </c>
       <c r="K49">
-        <v>5646.36</v>
+        <v>3913.36</v>
       </c>
       <c r="L49">
-        <v>5967</v>
+        <v>5951</v>
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
-        <v>0.14831199999999978</v>
+        <v>0.14557999999999982</v>
       </c>
       <c r="P49" t="s">
         <v>24</v>
       </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>1.587351442076294</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="2"/>
+        <v>1.6507679393241459</v>
+      </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -40087,35 +40471,43 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <v>1.94784</v>
+        <v>1.95272</v>
       </c>
       <c r="G50">
-        <v>1.0063299999999999</v>
+        <v>1.00407</v>
       </c>
       <c r="H50">
-        <v>0.146339</v>
+        <v>0.147255</v>
       </c>
       <c r="I50">
-        <v>3.26294</v>
+        <v>3.2620100000000001</v>
       </c>
       <c r="J50">
-        <v>0.120341</v>
+        <v>0.17591499999999999</v>
       </c>
       <c r="K50">
-        <v>6492.83</v>
+        <v>4448.1499999999996</v>
       </c>
       <c r="L50">
-        <v>3988</v>
+        <v>3978</v>
       </c>
       <c r="M50">
         <f t="shared" si="0"/>
-        <v>0.16243100000000021</v>
+        <v>0.15796500000000036</v>
       </c>
       <c r="P50" t="s">
         <v>24</v>
       </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>1.5882998519317844</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="2"/>
+        <v>1.4610781000055839</v>
+      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -40132,35 +40524,43 @@
         <v>20</v>
       </c>
       <c r="F51">
-        <v>1.9539299999999999</v>
+        <v>1.9619</v>
       </c>
       <c r="G51">
-        <v>1.0076700000000001</v>
+        <v>1.0042800000000001</v>
       </c>
       <c r="H51">
-        <v>0.14641100000000001</v>
+        <v>0.14766299999999999</v>
       </c>
       <c r="I51">
-        <v>3.2817599999999998</v>
+        <v>3.2814199999999998</v>
       </c>
       <c r="J51">
-        <v>0.121295</v>
+        <v>0.17685899999999999</v>
       </c>
       <c r="K51">
-        <v>6879</v>
+        <v>4723.28</v>
       </c>
       <c r="L51">
-        <v>2995</v>
+        <v>2988</v>
       </c>
       <c r="M51">
         <f t="shared" si="0"/>
-        <v>0.17374899999999993</v>
+        <v>0.16757699999999964</v>
       </c>
       <c r="P51" t="s">
         <v>24</v>
       </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>1.5782770873585217</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="2"/>
+        <v>1.3813587576404527</v>
+      </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -40177,35 +40577,43 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>3.17902</v>
+        <v>3.1967099999999999</v>
       </c>
       <c r="G52">
-        <v>1.6256600000000001</v>
+        <v>1.62609</v>
       </c>
       <c r="H52">
-        <v>0.233986</v>
+        <v>0.24371200000000001</v>
       </c>
       <c r="I52">
-        <v>5.2629099999999998</v>
+        <v>5.3114299999999997</v>
       </c>
       <c r="J52">
-        <v>0.19018499999999999</v>
+        <v>0.24399399999999999</v>
       </c>
       <c r="K52">
-        <v>183.81700000000001</v>
+        <v>180.333</v>
       </c>
       <c r="L52">
-        <v>11003</v>
+        <v>10800</v>
       </c>
       <c r="M52">
         <f t="shared" si="0"/>
-        <v>0.22424399999999967</v>
+        <v>0.2449179999999993</v>
       </c>
       <c r="P52" t="s">
         <v>23</v>
       </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>1.5553495009818448</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="2"/>
+        <v>1.5327921801954951</v>
+      </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -40222,35 +40630,43 @@
         <v>5</v>
       </c>
       <c r="F53">
-        <v>3.0781499999999999</v>
+        <v>3.2610399999999999</v>
       </c>
       <c r="G53">
-        <v>1.57969</v>
+        <v>1.6247100000000001</v>
       </c>
       <c r="H53">
-        <v>0.233435</v>
+        <v>0.240286</v>
       </c>
       <c r="I53">
-        <v>5.1153599999999999</v>
+        <v>5.3621499999999997</v>
       </c>
       <c r="J53">
-        <v>0.18413399999999999</v>
+        <v>0.23999899999999999</v>
       </c>
       <c r="K53">
-        <v>201.517</v>
+        <v>183.03299999999999</v>
       </c>
       <c r="L53">
-        <v>11320</v>
+        <v>10710</v>
       </c>
       <c r="M53">
         <f t="shared" si="0"/>
-        <v>0.22408499999999965</v>
+        <v>0.23611399999999971</v>
       </c>
       <c r="P53" t="s">
         <v>24</v>
       </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>1.4867730294751174</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="2"/>
+        <v>1.5019078175387921</v>
+      </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -40267,35 +40683,43 @@
         <v>10</v>
       </c>
       <c r="F54">
-        <v>3.0756700000000001</v>
+        <v>3.07721</v>
       </c>
       <c r="G54">
-        <v>1.58003</v>
+        <v>1.5781799999999999</v>
       </c>
       <c r="H54">
-        <v>0.238043</v>
+        <v>0.24071300000000001</v>
       </c>
       <c r="I54">
-        <v>5.14473</v>
+        <v>5.1448600000000004</v>
       </c>
       <c r="J54">
-        <v>0.115698</v>
+        <v>0.20737800000000001</v>
       </c>
       <c r="K54">
-        <v>4223.2700000000004</v>
+        <v>2370.63</v>
       </c>
       <c r="L54">
-        <v>5967</v>
+        <v>5933</v>
       </c>
       <c r="M54">
         <f t="shared" si="0"/>
-        <v>0.25098699999999941</v>
+        <v>0.24875700000000034</v>
       </c>
       <c r="P54" t="s">
         <v>24</v>
       </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>1.5532842487453495</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="2"/>
+        <v>2.6384307178631055</v>
+      </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -40312,35 +40736,43 @@
         <v>15</v>
       </c>
       <c r="F55">
-        <v>3.10181</v>
+        <v>3.0924399999999999</v>
       </c>
       <c r="G55">
-        <v>1.5866400000000001</v>
+        <v>1.5792900000000001</v>
       </c>
       <c r="H55">
-        <v>0.245222</v>
+        <v>0.24524799999999999</v>
       </c>
       <c r="I55">
-        <v>5.2021699999999997</v>
+        <v>5.1810499999999999</v>
       </c>
       <c r="J55">
-        <v>0.11526</v>
+        <v>0.21587799999999999</v>
       </c>
       <c r="K55">
-        <v>5667.08</v>
+        <v>3044.43</v>
       </c>
       <c r="L55">
-        <v>3986</v>
+        <v>3971</v>
       </c>
       <c r="M55">
         <f t="shared" si="0"/>
-        <v>0.26849800000000013</v>
+        <v>0.26407199999999964</v>
       </c>
       <c r="P55" t="s">
         <v>24</v>
       </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>1.5489910346358362</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="2"/>
+        <v>1.7188710351291228</v>
+      </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -40357,35 +40789,43 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>3.10364</v>
+        <v>3.0950099999999998</v>
       </c>
       <c r="G56">
-        <v>1.5893699999999999</v>
+        <v>1.5786</v>
       </c>
       <c r="H56">
-        <v>0.24288899999999999</v>
+        <v>0.240563</v>
       </c>
       <c r="I56">
-        <v>5.21563</v>
+        <v>5.1789899999999998</v>
       </c>
       <c r="J56">
-        <v>0.12731700000000001</v>
+        <v>0.217054</v>
       </c>
       <c r="K56">
-        <v>5801.25</v>
+        <v>3419.3</v>
       </c>
       <c r="L56">
-        <v>2990</v>
+        <v>2984</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>0.27973099999999995</v>
+        <v>0.26481699999999986</v>
       </c>
       <c r="P56" t="s">
         <v>24</v>
       </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>1.5467764950308844</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="2"/>
+        <v>1.5565833739250776</v>
+      </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -40402,35 +40842,43 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>4.9340900000000003</v>
+        <v>4.9564899999999996</v>
       </c>
       <c r="G57">
-        <v>2.4314800000000001</v>
+        <v>2.4224100000000002</v>
       </c>
       <c r="H57">
-        <v>0.41078399999999998</v>
+        <v>0.41868899999999998</v>
       </c>
       <c r="I57">
-        <v>8.2291899999999991</v>
+        <v>8.2611299999999996</v>
       </c>
       <c r="J57">
-        <v>0.21653600000000001</v>
+        <v>0.27358199999999999</v>
       </c>
       <c r="K57">
-        <v>118.45</v>
+        <v>117.65</v>
       </c>
       <c r="L57">
-        <v>7104</v>
+        <v>7030</v>
       </c>
       <c r="M57">
         <f t="shared" si="0"/>
-        <v>0.45283599999999957</v>
+        <v>0.4635410000000002</v>
       </c>
       <c r="P57" t="s">
         <v>23</v>
       </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>0.10813133312270841</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="2"/>
+        <v>9.3954639833892351E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -40447,35 +40895,43 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>4.7251899999999996</v>
+        <v>4.7221799999999998</v>
       </c>
       <c r="G58">
-        <v>2.35392</v>
+        <v>2.3520400000000001</v>
       </c>
       <c r="H58">
-        <v>0.40903</v>
+        <v>0.42761199999999999</v>
       </c>
       <c r="I58">
-        <v>7.9448299999999996</v>
+        <v>7.9722999999999997</v>
       </c>
       <c r="J58">
-        <v>0.21298800000000001</v>
+        <v>0.27151999999999998</v>
       </c>
       <c r="K58">
-        <v>123.1</v>
+        <v>121.867</v>
       </c>
       <c r="L58">
-        <v>7354</v>
+        <v>7278</v>
       </c>
       <c r="M58">
         <f t="shared" si="0"/>
-        <v>0.45669000000000004</v>
+        <v>0.47046799999999944</v>
       </c>
       <c r="P58" t="s">
         <v>24</v>
       </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>0.12362041067195165</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="2"/>
+        <v>2.0813038399267677E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -40492,35 +40948,43 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <v>4.71746</v>
+        <v>4.7292500000000004</v>
       </c>
       <c r="G59">
-        <v>2.3486199999999999</v>
+        <v>2.3532799999999998</v>
       </c>
       <c r="H59">
-        <v>0.41109299999999999</v>
+        <v>0.430178</v>
       </c>
       <c r="I59">
-        <v>7.9404199999999996</v>
+        <v>7.9914300000000003</v>
       </c>
       <c r="J59">
-        <v>0.120586</v>
+        <v>0.23932300000000001</v>
       </c>
       <c r="K59">
-        <v>1750.95</v>
+        <v>898.5</v>
       </c>
       <c r="L59">
-        <v>5963</v>
+        <v>5913</v>
       </c>
       <c r="M59">
         <f t="shared" si="0"/>
-        <v>0.46324699999999996</v>
+        <v>0.47872200000000031</v>
       </c>
       <c r="P59" t="s">
         <v>24</v>
       </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>0.11650080148358928</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="2"/>
+        <v>0.13713160666046001</v>
+      </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -40537,35 +41001,43 @@
         <v>15</v>
       </c>
       <c r="F60">
-        <v>4.74702</v>
+        <v>4.7398400000000001</v>
       </c>
       <c r="G60">
-        <v>2.3618100000000002</v>
+        <v>2.35623</v>
       </c>
       <c r="H60">
-        <v>0.42296299999999998</v>
+        <v>0.43713299999999999</v>
       </c>
       <c r="I60">
-        <v>8.0176300000000005</v>
+        <v>8.0253999999999994</v>
       </c>
       <c r="J60">
-        <v>0.117599</v>
+        <v>0.26510499999999998</v>
       </c>
       <c r="K60">
-        <v>3971.13</v>
+        <v>1771.18</v>
       </c>
       <c r="L60">
-        <v>3984</v>
+        <v>3962</v>
       </c>
       <c r="M60">
         <f t="shared" si="0"/>
-        <v>0.48583700000000007</v>
+        <v>0.49219699999999911</v>
       </c>
       <c r="P60" t="s">
         <v>24</v>
       </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>0.11493520572183319</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="2"/>
+        <v>0.26133697682585305</v>
+      </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -40582,35 +41054,43 @@
         <v>20</v>
       </c>
       <c r="F61">
-        <v>4.7451499999999998</v>
+        <v>4.7417600000000002</v>
       </c>
       <c r="G61">
-        <v>2.3621099999999999</v>
+        <v>2.3540000000000001</v>
       </c>
       <c r="H61">
-        <v>0.42721100000000001</v>
+        <v>0.42674899999999999</v>
       </c>
       <c r="I61">
-        <v>8.0325299999999995</v>
+        <v>8.0107400000000002</v>
       </c>
       <c r="J61">
-        <v>0.14188799999999999</v>
+        <v>0.273976</v>
       </c>
       <c r="K61">
-        <v>4226.92</v>
+        <v>2196.67</v>
       </c>
       <c r="L61">
-        <v>2983</v>
+        <v>2978</v>
       </c>
       <c r="M61">
         <f t="shared" si="0"/>
-        <v>0.49805899999999959</v>
+        <v>0.48823099999999986</v>
       </c>
       <c r="P61" t="s">
         <v>24</v>
       </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>0.10280822995129039</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="2"/>
+        <v>0.31130267927747657</v>
+      </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -40627,35 +41107,43 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.51073900000000005</v>
+        <v>0.56354899999999997</v>
       </c>
       <c r="G62">
-        <v>0.249107</v>
+        <v>0.25215199999999999</v>
       </c>
       <c r="H62">
-        <v>0.82011999999999996</v>
+        <v>0.87579700000000005</v>
       </c>
       <c r="I62">
-        <v>0.83816299999999999</v>
+        <v>0.89328700000000005</v>
       </c>
       <c r="J62">
-        <v>9.14798E-2</v>
+        <v>0.117354</v>
       </c>
       <c r="K62">
-        <v>2134.4299999999998</v>
+        <v>1252.2</v>
       </c>
       <c r="L62">
-        <v>57683</v>
+        <v>57338</v>
       </c>
       <c r="M62">
         <f>I62-H62</f>
-        <v>1.8043000000000031E-2</v>
+        <v>1.7490000000000006E-2</v>
       </c>
       <c r="P62" t="s">
         <v>23</v>
       </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>4.2954056199183466</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="2"/>
+        <v>4.9500527736819429</v>
+      </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -40672,35 +41160,43 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>0.63505500000000004</v>
+        <v>0.64331099999999997</v>
       </c>
       <c r="G63">
-        <v>0.25233800000000001</v>
+        <v>0.25205699999999998</v>
       </c>
       <c r="H63">
-        <v>0.94787399999999999</v>
+        <v>0.95561399999999996</v>
       </c>
       <c r="I63">
-        <v>0.97907699999999998</v>
+        <v>0.98553900000000005</v>
       </c>
       <c r="J63">
-        <v>0.109718</v>
+        <v>0.137322</v>
       </c>
       <c r="K63">
-        <v>7325.93</v>
+        <v>5855.32</v>
       </c>
       <c r="L63">
-        <v>11880</v>
+        <v>11845</v>
       </c>
       <c r="M63">
-        <f t="shared" ref="M63:M121" si="1">I63-H63</f>
-        <v>3.1202999999999981E-2</v>
+        <f t="shared" ref="M63:M121" si="3">I63-H63</f>
+        <v>2.992500000000009E-2</v>
       </c>
       <c r="P63" t="s">
         <v>23</v>
       </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>3.5340559835785292</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="2"/>
+        <v>2.5200647304904709</v>
+      </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -40717,35 +41213,43 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>0.55955699999999997</v>
+        <v>0.57702100000000001</v>
       </c>
       <c r="G64">
-        <v>0.25130599999999997</v>
+        <v>0.25205699999999998</v>
       </c>
       <c r="H64">
-        <v>0.87139299999999997</v>
+        <v>0.88938200000000001</v>
       </c>
       <c r="I64">
-        <v>0.91568799999999995</v>
+        <v>0.93100799999999995</v>
       </c>
       <c r="J64">
-        <v>0.111674</v>
+        <v>0.138239</v>
       </c>
       <c r="K64">
-        <v>8108.64</v>
+        <v>6552.1</v>
       </c>
       <c r="L64">
-        <v>5975</v>
+        <v>5964</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
-        <v>4.4294999999999973E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.1625999999999941E-2</v>
       </c>
       <c r="P64" t="s">
         <v>23</v>
       </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>3.4222906784904104</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="2"/>
+        <v>1.2383949497240494</v>
+      </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -40762,35 +41266,43 @@
         <v>15</v>
       </c>
       <c r="F65">
-        <v>0.56293400000000005</v>
+        <v>0.55616900000000002</v>
       </c>
       <c r="G65">
-        <v>0.25308999999999998</v>
+        <v>0.25212000000000001</v>
       </c>
       <c r="H65">
-        <v>0.87657300000000005</v>
+        <v>0.86866900000000002</v>
       </c>
       <c r="I65">
-        <v>0.93186800000000003</v>
+        <v>0.92240100000000003</v>
       </c>
       <c r="J65">
-        <v>0.118184</v>
+        <v>0.13820499999999999</v>
       </c>
       <c r="K65">
-        <v>7919</v>
+        <v>6777.38</v>
       </c>
       <c r="L65">
-        <v>3990</v>
+        <v>3986</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
-        <v>5.5294999999999983E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.3732000000000002E-2</v>
       </c>
       <c r="P65" t="s">
         <v>23</v>
       </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>3.4699984063330374</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="2"/>
+        <v>1.0307880668294056</v>
+      </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -40807,35 +41319,43 @@
         <v>20</v>
       </c>
       <c r="F66">
-        <v>0.45231900000000003</v>
+        <v>0.45136999999999999</v>
       </c>
       <c r="G66">
-        <v>0.245782</v>
+        <v>0.245166</v>
       </c>
       <c r="H66">
-        <v>0.75863800000000003</v>
+        <v>0.75699700000000003</v>
       </c>
       <c r="I66">
-        <v>0.83189800000000003</v>
+        <v>0.82357000000000002</v>
       </c>
       <c r="J66">
-        <v>0.105794</v>
+        <v>0.13561500000000001</v>
       </c>
       <c r="K66">
-        <v>9034.08</v>
+        <v>7056.38</v>
       </c>
       <c r="L66">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
-        <v>7.3259999999999992E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.6572999999999993E-2</v>
       </c>
       <c r="P66" t="s">
         <v>24</v>
       </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>3.9079131099967217</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="2"/>
+        <v>0.92382155598468241</v>
+      </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -40852,35 +41372,43 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>2.56107</v>
+        <v>2.5006499999999998</v>
       </c>
       <c r="G67">
-        <v>1.0226500000000001</v>
+        <v>1.02169</v>
       </c>
       <c r="H67">
-        <v>3.8320699999999999</v>
+        <v>3.7720099999999999</v>
       </c>
       <c r="I67">
-        <v>3.8943400000000001</v>
+        <v>3.8370299999999999</v>
       </c>
       <c r="J67">
-        <v>9.3826599999999996E-2</v>
+        <v>0.13411999999999999</v>
       </c>
       <c r="K67">
-        <v>251.38300000000001</v>
+        <v>252.96700000000001</v>
       </c>
       <c r="L67">
-        <v>15044</v>
+        <v>15109</v>
       </c>
       <c r="M67">
-        <f t="shared" si="1"/>
-        <v>6.227000000000027E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.5020000000000078E-2</v>
       </c>
       <c r="P67" t="s">
         <v>23</v>
       </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q121" si="4">I72/I67</f>
+        <v>2.1298712806519626</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R121" si="5">K67/K72</f>
+        <v>2.1025042180240532</v>
+      </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -40897,35 +41425,43 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2.17883</v>
+        <v>2.1333700000000002</v>
       </c>
       <c r="G68">
-        <v>1.0199400000000001</v>
+        <v>1.02199</v>
       </c>
       <c r="H68">
-        <v>3.4478</v>
+        <v>3.40672</v>
       </c>
       <c r="I68">
-        <v>3.5172500000000002</v>
+        <v>3.4829500000000002</v>
       </c>
       <c r="J68">
-        <v>9.8597699999999996E-2</v>
+        <v>0.13584599999999999</v>
       </c>
       <c r="K68">
-        <v>3082.78</v>
+        <v>2323.48</v>
       </c>
       <c r="L68">
-        <v>11881</v>
+        <v>11822</v>
       </c>
       <c r="M68">
-        <f t="shared" si="1"/>
-        <v>6.9450000000000234E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.6230000000000242E-2</v>
       </c>
       <c r="P68" t="s">
         <v>23</v>
       </c>
+      <c r="Q68">
+        <f t="shared" si="4"/>
+        <v>2.2260554989305041</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="5"/>
+        <v>18.321518408415276</v>
+      </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -40942,35 +41478,43 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <v>1.8573200000000001</v>
+        <v>1.8548199999999999</v>
       </c>
       <c r="G69">
-        <v>0.99372099999999997</v>
+        <v>0.99302299999999999</v>
       </c>
       <c r="H69">
-        <v>3.10107</v>
+        <v>3.0993499999999998</v>
       </c>
       <c r="I69">
-        <v>3.18405</v>
+        <v>3.1861799999999998</v>
       </c>
       <c r="J69">
-        <v>0.120378</v>
+        <v>0.12903700000000001</v>
       </c>
       <c r="K69">
-        <v>5676.07</v>
+        <v>5290.8</v>
       </c>
       <c r="L69">
-        <v>5968</v>
+        <v>5951</v>
       </c>
       <c r="M69">
-        <f t="shared" si="1"/>
-        <v>8.2980000000000054E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.6829999999999963E-2</v>
       </c>
       <c r="P69" t="s">
         <v>24</v>
       </c>
+      <c r="Q69">
+        <f t="shared" si="4"/>
+        <v>2.2809665492847238</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="5"/>
+        <v>2.2073787898384145</v>
+      </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -40987,35 +41531,43 @@
         <v>15</v>
       </c>
       <c r="F70">
-        <v>1.8558399999999999</v>
+        <v>1.85714</v>
       </c>
       <c r="G70">
-        <v>0.99366399999999999</v>
+        <v>0.99395</v>
       </c>
       <c r="H70">
-        <v>3.0999300000000001</v>
+        <v>3.1031200000000001</v>
       </c>
       <c r="I70">
-        <v>3.1970700000000001</v>
+        <v>3.2007300000000001</v>
       </c>
       <c r="J70">
-        <v>0.11822299999999999</v>
+        <v>0.11952</v>
       </c>
       <c r="K70">
-        <v>6652.15</v>
+        <v>6574.95</v>
       </c>
       <c r="L70">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="M70">
-        <f t="shared" si="1"/>
-        <v>9.7140000000000004E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.7609999999999975E-2</v>
       </c>
       <c r="P70" t="s">
         <v>24</v>
       </c>
+      <c r="Q70">
+        <f t="shared" si="4"/>
+        <v>2.2763432092053999</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="5"/>
+        <v>1.5529666021068542</v>
+      </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -41032,35 +41584,43 @@
         <v>20</v>
       </c>
       <c r="F71">
-        <v>1.85799</v>
+        <v>1.8583700000000001</v>
       </c>
       <c r="G71">
-        <v>0.99395500000000003</v>
+        <v>0.99356100000000003</v>
       </c>
       <c r="H71">
-        <v>3.1030700000000002</v>
+        <v>3.1044399999999999</v>
       </c>
       <c r="I71">
-        <v>3.2135500000000001</v>
+        <v>3.2184400000000002</v>
       </c>
       <c r="J71">
-        <v>0.11759699999999999</v>
+        <v>0.109574</v>
       </c>
       <c r="K71">
-        <v>7120.15</v>
+        <v>7638.25</v>
       </c>
       <c r="L71">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="M71">
-        <f t="shared" si="1"/>
-        <v>0.11047999999999991</v>
+        <f t="shared" si="3"/>
+        <v>0.11400000000000032</v>
       </c>
       <c r="P71" t="s">
         <v>24</v>
       </c>
+      <c r="Q71">
+        <f t="shared" si="4"/>
+        <v>2.2702520475758443</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="5"/>
+        <v>1.4616226580454548</v>
+      </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -41077,35 +41637,43 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>5.02806</v>
+        <v>5.1217199999999998</v>
       </c>
       <c r="G72">
-        <v>2.3179500000000002</v>
+        <v>2.3184</v>
       </c>
       <c r="H72">
-        <v>7.9374099999999999</v>
+        <v>8.0224399999999996</v>
       </c>
       <c r="I72">
-        <v>8.0976499999999998</v>
+        <v>8.1723800000000004</v>
       </c>
       <c r="J72">
-        <v>0.15798400000000001</v>
+        <v>0.162359</v>
       </c>
       <c r="K72">
-        <v>121.2</v>
+        <v>120.31699999999999</v>
       </c>
       <c r="L72">
-        <v>7268</v>
+        <v>7199</v>
       </c>
       <c r="M72">
-        <f t="shared" si="1"/>
-        <v>0.16023999999999994</v>
+        <f t="shared" si="3"/>
+        <v>0.14994000000000085</v>
       </c>
       <c r="P72" t="s">
         <v>23</v>
       </c>
+      <c r="Q72">
+        <f t="shared" si="4"/>
+        <v>1.7566975593401188</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="5"/>
+        <v>1.7420406650382891</v>
+      </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -41122,35 +41690,43 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>4.6055000000000001</v>
+        <v>4.7016299999999998</v>
       </c>
       <c r="G73">
-        <v>2.3182800000000001</v>
+        <v>2.3184200000000001</v>
       </c>
       <c r="H73">
-        <v>7.5091099999999997</v>
+        <v>7.6026400000000001</v>
       </c>
       <c r="I73">
-        <v>7.6571999999999996</v>
+        <v>7.7532399999999999</v>
       </c>
       <c r="J73">
-        <v>0.154339</v>
+        <v>0.163774</v>
       </c>
       <c r="K73">
-        <v>128.233</v>
+        <v>126.81699999999999</v>
       </c>
       <c r="L73">
-        <v>7681</v>
+        <v>7579</v>
       </c>
       <c r="M73">
-        <f t="shared" si="1"/>
-        <v>0.14808999999999983</v>
+        <f t="shared" si="3"/>
+        <v>0.15059999999999985</v>
       </c>
       <c r="P73" t="s">
         <v>23</v>
       </c>
+      <c r="Q73">
+        <f t="shared" si="4"/>
+        <v>1.6994314634913921</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="5"/>
+        <v>1.6804365369096568</v>
+      </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -41167,35 +41743,43 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>4.2532100000000002</v>
+        <v>4.2551600000000001</v>
       </c>
       <c r="G74">
-        <v>2.24682</v>
+        <v>2.24858</v>
       </c>
       <c r="H74">
-        <v>7.0897699999999997</v>
+        <v>7.0967500000000001</v>
       </c>
       <c r="I74">
-        <v>7.2551899999999998</v>
+        <v>7.2675700000000001</v>
       </c>
       <c r="J74">
-        <v>0.12189</v>
+        <v>0.11644400000000001</v>
       </c>
       <c r="K74">
-        <v>2287.0300000000002</v>
+        <v>2396.87</v>
       </c>
       <c r="L74">
         <v>5964</v>
       </c>
       <c r="M74">
-        <f t="shared" si="1"/>
-        <v>0.16542000000000012</v>
+        <f t="shared" si="3"/>
+        <v>0.17081999999999997</v>
       </c>
       <c r="P74" t="s">
         <v>24</v>
       </c>
+      <c r="Q74">
+        <f t="shared" si="4"/>
+        <v>1.8118160540593349</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="5"/>
+        <v>30.142976255302344</v>
+      </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -41212,35 +41796,43 @@
         <v>15</v>
       </c>
       <c r="F75">
-        <v>4.25448</v>
+        <v>4.2567300000000001</v>
       </c>
       <c r="G75">
-        <v>2.24743</v>
+        <v>2.2483599999999999</v>
       </c>
       <c r="H75">
-        <v>7.0919600000000003</v>
+        <v>7.0968999999999998</v>
       </c>
       <c r="I75">
-        <v>7.2756999999999996</v>
+        <v>7.2859600000000002</v>
       </c>
       <c r="J75">
-        <v>0.119186</v>
+        <v>0.121727</v>
       </c>
       <c r="K75">
-        <v>4330.45</v>
+        <v>4233.8</v>
       </c>
       <c r="L75">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="M75">
-        <f t="shared" si="1"/>
-        <v>0.18373999999999935</v>
+        <f t="shared" si="3"/>
+        <v>0.18906000000000045</v>
       </c>
       <c r="P75" t="s">
         <v>24</v>
       </c>
+      <c r="Q75">
+        <f t="shared" si="4"/>
+        <v>1.809411525728936</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="5"/>
+        <v>4.0535003063725492</v>
+      </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -41257,35 +41849,43 @@
         <v>20</v>
       </c>
       <c r="F76">
-        <v>4.2590500000000002</v>
+        <v>4.2581100000000003</v>
       </c>
       <c r="G76">
-        <v>2.24837</v>
+        <v>2.2498800000000001</v>
       </c>
       <c r="H76">
-        <v>7.0990599999999997</v>
+        <v>7.0971399999999996</v>
       </c>
       <c r="I76">
-        <v>7.2973600000000003</v>
+        <v>7.3066700000000004</v>
       </c>
       <c r="J76">
-        <v>0.118548</v>
+        <v>0.121252</v>
       </c>
       <c r="K76">
-        <v>5348.1</v>
+        <v>5225.87</v>
       </c>
       <c r="L76">
         <v>2993</v>
       </c>
       <c r="M76">
-        <f t="shared" si="1"/>
-        <v>0.19830000000000059</v>
+        <f t="shared" si="3"/>
+        <v>0.20953000000000088</v>
       </c>
       <c r="P76" t="s">
         <v>24</v>
       </c>
+      <c r="Q76">
+        <f t="shared" si="4"/>
+        <v>1.8106196119436075</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="5"/>
+        <v>1.6301551898931608</v>
+      </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -41302,35 +41902,43 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>8.5453899999999994</v>
+        <v>8.7441899999999997</v>
       </c>
       <c r="G77">
-        <v>4.14072</v>
+        <v>4.1439300000000001</v>
       </c>
       <c r="H77">
-        <v>13.852399999999999</v>
+        <v>14.0593</v>
       </c>
       <c r="I77">
-        <v>14.1454</v>
+        <v>14.356400000000001</v>
       </c>
       <c r="J77">
-        <v>0.20587800000000001</v>
+        <v>0.20564499999999999</v>
       </c>
       <c r="K77">
-        <v>69.933300000000003</v>
+        <v>69.066699999999997</v>
       </c>
       <c r="L77">
-        <v>4181</v>
+        <v>4121</v>
       </c>
       <c r="M77">
-        <f t="shared" si="1"/>
-        <v>0.29300000000000104</v>
+        <f t="shared" si="3"/>
+        <v>0.29710000000000036</v>
       </c>
       <c r="P77" t="s">
         <v>23</v>
       </c>
+      <c r="Q77">
+        <f t="shared" si="4"/>
+        <v>1.5650232648853473</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="5"/>
+        <v>1.5637731594164834</v>
+      </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -41347,35 +41955,43 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <v>7.6981099999999998</v>
+        <v>7.7027599999999996</v>
       </c>
       <c r="G78">
-        <v>4.0150899999999998</v>
+        <v>4.01938</v>
       </c>
       <c r="H78">
-        <v>12.8857</v>
+        <v>12.882300000000001</v>
       </c>
       <c r="I78">
-        <v>13.183</v>
+        <v>13.1761</v>
       </c>
       <c r="J78">
-        <v>0.20144300000000001</v>
+        <v>0.201844</v>
       </c>
       <c r="K78">
-        <v>75.2333</v>
+        <v>75.466700000000003</v>
       </c>
       <c r="L78">
-        <v>4483</v>
+        <v>4485</v>
       </c>
       <c r="M78">
-        <f t="shared" si="1"/>
-        <v>0.2972999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.29379999999999917</v>
       </c>
       <c r="P78" t="s">
         <v>24</v>
       </c>
+      <c r="Q78">
+        <f t="shared" si="4"/>
+        <v>1.5943868064146447</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="5"/>
+        <v>1.5848788345265421</v>
+      </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -41392,35 +42008,43 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>7.70472</v>
+        <v>7.6963499999999998</v>
       </c>
       <c r="G79">
-        <v>4.0138699999999998</v>
+        <v>4.0141</v>
       </c>
       <c r="H79">
-        <v>12.8828</v>
+        <v>12.8757</v>
       </c>
       <c r="I79">
-        <v>13.179600000000001</v>
+        <v>13.1675</v>
       </c>
       <c r="J79">
-        <v>0.20513999999999999</v>
+        <v>0.20183999999999999</v>
       </c>
       <c r="K79">
-        <v>77.916700000000006</v>
+        <v>79.5167</v>
       </c>
       <c r="L79">
-        <v>4482</v>
+        <v>4488</v>
       </c>
       <c r="M79">
-        <f t="shared" si="1"/>
-        <v>0.29680000000000106</v>
+        <f t="shared" si="3"/>
+        <v>0.29180000000000028</v>
       </c>
       <c r="P79" t="s">
         <v>24</v>
       </c>
+      <c r="Q79">
+        <f t="shared" si="4"/>
+        <v>1.5928080501234096</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="5"/>
+        <v>1.6440381502149206</v>
+      </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -41437,35 +42061,43 @@
         <v>15</v>
       </c>
       <c r="F80">
-        <v>7.6903199999999998</v>
+        <v>7.6729900000000004</v>
       </c>
       <c r="G80">
-        <v>4.0061499999999999</v>
+        <v>4.0226800000000003</v>
       </c>
       <c r="H80">
-        <v>12.8581</v>
+        <v>12.8599</v>
       </c>
       <c r="I80">
-        <v>13.1816</v>
+        <v>13.183299999999999</v>
       </c>
       <c r="J80">
-        <v>0.110706</v>
+        <v>0.12389</v>
       </c>
       <c r="K80">
-        <v>1139.6300000000001</v>
+        <v>1044.48</v>
       </c>
       <c r="L80">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="M80">
-        <f t="shared" si="1"/>
-        <v>0.32349999999999923</v>
+        <f t="shared" si="3"/>
+        <v>0.32339999999999947</v>
       </c>
       <c r="P80" t="s">
         <v>24</v>
       </c>
+      <c r="Q80">
+        <f t="shared" si="4"/>
+        <v>1.5891392898591401</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="5"/>
+        <v>21.366806250805492</v>
+      </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -41482,35 +42114,43 @@
         <v>20</v>
       </c>
       <c r="F81">
-        <v>7.7063100000000002</v>
+        <v>7.68316</v>
       </c>
       <c r="G81">
-        <v>4.0077800000000003</v>
+        <v>4.0234500000000004</v>
       </c>
       <c r="H81">
-        <v>12.8771</v>
+        <v>12.8719</v>
       </c>
       <c r="I81">
-        <v>13.238200000000001</v>
+        <v>13.2296</v>
       </c>
       <c r="J81">
-        <v>0.105961</v>
+        <v>0.10592500000000001</v>
       </c>
       <c r="K81">
-        <v>3213.77</v>
+        <v>3205.75</v>
       </c>
       <c r="L81">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="M81">
-        <f t="shared" si="1"/>
-        <v>0.36110000000000042</v>
+        <f t="shared" si="3"/>
+        <v>0.35769999999999946</v>
       </c>
       <c r="P81" t="s">
         <v>24</v>
       </c>
+      <c r="Q81">
+        <f t="shared" si="4"/>
+        <v>1.5978563221866118</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="5"/>
+        <v>52.567670165438734</v>
+      </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -41527,35 +42167,43 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>13.3104</v>
+        <v>13.4552</v>
       </c>
       <c r="G82">
-        <v>6.4881399999999996</v>
+        <v>6.5115800000000004</v>
       </c>
       <c r="H82">
-        <v>21.7332</v>
+        <v>21.866299999999999</v>
       </c>
       <c r="I82">
-        <v>22.342300000000002</v>
+        <v>22.4681</v>
       </c>
       <c r="J82">
-        <v>0.21324199999999999</v>
+        <v>0.22251499999999999</v>
       </c>
       <c r="K82">
-        <v>44.616700000000002</v>
+        <v>44.166699999999999</v>
       </c>
       <c r="L82">
-        <v>2661</v>
+        <v>2645</v>
       </c>
       <c r="M82">
-        <f t="shared" si="1"/>
-        <v>0.60910000000000153</v>
+        <f t="shared" si="3"/>
+        <v>0.60180000000000078</v>
       </c>
       <c r="P82" t="s">
         <v>23</v>
       </c>
+      <c r="Q82">
+        <f t="shared" si="4"/>
+        <v>1.5450972712423392</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="5"/>
+        <v>1.5353412104968591</v>
+      </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -41572,35 +42220,43 @@
         <v>5</v>
       </c>
       <c r="F83">
-        <v>12.1442</v>
+        <v>12.1404</v>
       </c>
       <c r="G83">
-        <v>6.2831599999999996</v>
+        <v>6.3197799999999997</v>
       </c>
       <c r="H83">
-        <v>20.340399999999999</v>
+        <v>20.399899999999999</v>
       </c>
       <c r="I83">
-        <v>20.944700000000001</v>
+        <v>21.0078</v>
       </c>
       <c r="J83">
-        <v>0.21545400000000001</v>
+        <v>0.218279</v>
       </c>
       <c r="K83">
-        <v>48.033299999999997</v>
+        <v>47.616700000000002</v>
       </c>
       <c r="L83">
-        <v>2836</v>
+        <v>2827</v>
       </c>
       <c r="M83">
-        <f t="shared" si="1"/>
-        <v>0.60430000000000206</v>
+        <f t="shared" si="3"/>
+        <v>0.60790000000000077</v>
       </c>
       <c r="P83" t="s">
         <v>24</v>
       </c>
+      <c r="Q83">
+        <f t="shared" si="4"/>
+        <v>1.5547368120412419</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="5"/>
+        <v>1.5385040387722133</v>
+      </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -41617,35 +42273,43 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>12.2156</v>
+        <v>12.131</v>
       </c>
       <c r="G84">
-        <v>6.2937399999999997</v>
+        <v>6.3128799999999998</v>
       </c>
       <c r="H84">
-        <v>20.462399999999999</v>
+        <v>20.361899999999999</v>
       </c>
       <c r="I84">
-        <v>21.159800000000001</v>
+        <v>20.973299999999998</v>
       </c>
       <c r="J84">
-        <v>0.199909</v>
+        <v>0.216305</v>
       </c>
       <c r="K84">
-        <v>48.133299999999998</v>
+        <v>48.366700000000002</v>
       </c>
       <c r="L84">
-        <v>2809</v>
+        <v>2831</v>
       </c>
       <c r="M84">
-        <f t="shared" si="1"/>
-        <v>0.6974000000000018</v>
+        <f t="shared" si="3"/>
+        <v>0.61139999999999972</v>
       </c>
       <c r="P84" t="s">
         <v>24</v>
       </c>
+      <c r="Q84">
+        <f t="shared" si="4"/>
+        <v>1.5611753991980282</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="5"/>
+        <v>1.5370757022503154</v>
+      </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -41662,35 +42326,43 @@
         <v>15</v>
       </c>
       <c r="F85">
-        <v>12.1592</v>
+        <v>12.128299999999999</v>
       </c>
       <c r="G85">
-        <v>6.2905300000000004</v>
+        <v>6.3146500000000003</v>
       </c>
       <c r="H85">
-        <v>20.3749</v>
+        <v>20.3429</v>
       </c>
       <c r="I85">
-        <v>20.986899999999999</v>
+        <v>20.950099999999999</v>
       </c>
       <c r="J85">
-        <v>0.20982300000000001</v>
+        <v>0.21726699999999999</v>
       </c>
       <c r="K85">
-        <v>48.7667</v>
+        <v>48.883299999999998</v>
       </c>
       <c r="L85">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="M85">
-        <f t="shared" si="1"/>
-        <v>0.61199999999999832</v>
+        <f t="shared" si="3"/>
+        <v>0.60719999999999885</v>
       </c>
       <c r="P85" t="s">
         <v>24</v>
       </c>
+      <c r="Q85">
+        <f t="shared" si="4"/>
+        <v>1.5600211932162615</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="5"/>
+        <v>1.5323918495297806</v>
+      </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -41707,35 +42379,43 @@
         <v>20</v>
       </c>
       <c r="F86">
-        <v>12.1434</v>
+        <v>12.1957</v>
       </c>
       <c r="G86">
-        <v>6.28559</v>
+        <v>6.3206300000000004</v>
       </c>
       <c r="H86">
-        <v>20.334499999999998</v>
+        <v>20.448699999999999</v>
       </c>
       <c r="I86">
-        <v>20.9389</v>
+        <v>21.138999999999999</v>
       </c>
       <c r="J86">
-        <v>0.21146200000000001</v>
+        <v>0.20374800000000001</v>
       </c>
       <c r="K86">
-        <v>52.0167</v>
+        <v>60.9833</v>
       </c>
       <c r="L86">
-        <v>2836</v>
+        <v>2810</v>
       </c>
       <c r="M86">
-        <f t="shared" si="1"/>
-        <v>0.60440000000000182</v>
+        <f t="shared" si="3"/>
+        <v>0.69030000000000058</v>
       </c>
       <c r="P86" t="s">
         <v>24</v>
       </c>
+      <c r="Q86">
+        <f t="shared" si="4"/>
+        <v>1.5438100193954303</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="5"/>
+        <v>1.8860833877148326</v>
+      </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -41752,39 +42432,47 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>20.478300000000001</v>
+        <v>20.581299999999999</v>
       </c>
       <c r="G87">
-        <v>9.6890699999999992</v>
+        <v>9.7359200000000001</v>
       </c>
       <c r="H87">
-        <v>33.438899999999997</v>
+        <v>33.605200000000004</v>
       </c>
       <c r="I87">
-        <v>34.544899999999998</v>
+        <v>34.715400000000002</v>
       </c>
       <c r="J87">
-        <v>0.21858900000000001</v>
+        <v>0.22506499999999999</v>
       </c>
       <c r="K87">
-        <v>28.866700000000002</v>
+        <v>28.7667</v>
       </c>
       <c r="L87">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="M87">
-        <f t="shared" si="1"/>
-        <v>1.1060000000000016</v>
+        <f t="shared" si="3"/>
+        <v>1.110199999999999</v>
       </c>
       <c r="N87">
         <f>H88-(F88+G88)</f>
-        <v>3.2660799999999988</v>
+        <v>3.2829900000000016</v>
       </c>
       <c r="P87" t="s">
         <v>23</v>
       </c>
+      <c r="Q87">
+        <f t="shared" si="4"/>
+        <v>1.1857417745438623E-2</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="5"/>
+        <v>4.9312342184974212E-3</v>
+      </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -41801,35 +42489,43 @@
         <v>5</v>
       </c>
       <c r="F88">
-        <v>18.837800000000001</v>
+        <v>18.8294</v>
       </c>
       <c r="G88">
-        <v>9.3943200000000004</v>
+        <v>9.4420099999999998</v>
       </c>
       <c r="H88">
-        <v>31.498200000000001</v>
+        <v>31.554400000000001</v>
       </c>
       <c r="I88">
-        <v>32.606900000000003</v>
+        <v>32.6616</v>
       </c>
       <c r="J88">
-        <v>0.21718100000000001</v>
+        <v>0.22369600000000001</v>
       </c>
       <c r="K88">
-        <v>30.966699999999999</v>
+        <v>30.95</v>
       </c>
       <c r="L88">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="M88">
-        <f t="shared" si="1"/>
-        <v>1.1087000000000025</v>
+        <f t="shared" si="3"/>
+        <v>1.1071999999999989</v>
       </c>
       <c r="P88" t="s">
         <v>24</v>
       </c>
+      <c r="Q88">
+        <f t="shared" si="4"/>
+        <v>1.3158724618512259E-2</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="5"/>
+        <v>3.7327698599638418E-3</v>
+      </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -41846,35 +42542,43 @@
         <v>10</v>
       </c>
       <c r="F89">
-        <v>18.842600000000001</v>
+        <v>18.816700000000001</v>
       </c>
       <c r="G89">
-        <v>9.3893199999999997</v>
+        <v>9.4298500000000001</v>
       </c>
       <c r="H89">
-        <v>31.492899999999999</v>
+        <v>31.5215</v>
       </c>
       <c r="I89">
-        <v>32.596800000000002</v>
+        <v>32.743000000000002</v>
       </c>
       <c r="J89">
-        <v>0.21574199999999999</v>
+        <v>0.20768300000000001</v>
       </c>
       <c r="K89">
-        <v>31.55</v>
+        <v>31.466699999999999</v>
       </c>
       <c r="L89">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="M89">
-        <f t="shared" si="1"/>
-        <v>1.103900000000003</v>
+        <f t="shared" si="3"/>
+        <v>1.2215000000000025</v>
       </c>
       <c r="P89" t="s">
         <v>24</v>
       </c>
+      <c r="Q89">
+        <f t="shared" si="4"/>
+        <v>1.3077665455211801E-2</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="5"/>
+        <v>3.6881450095817433E-3</v>
+      </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -41891,35 +42595,43 @@
         <v>15</v>
       </c>
       <c r="F90">
-        <v>18.802900000000001</v>
+        <v>18.8308</v>
       </c>
       <c r="G90">
-        <v>9.3861100000000004</v>
+        <v>9.4315200000000008</v>
       </c>
       <c r="H90">
-        <v>31.46</v>
+        <v>31.569299999999998</v>
       </c>
       <c r="I90">
-        <v>32.569299999999998</v>
+        <v>32.682600000000001</v>
       </c>
       <c r="J90">
-        <v>0.220357</v>
+        <v>0.22281699999999999</v>
       </c>
       <c r="K90">
-        <v>31.933299999999999</v>
+        <v>31.9</v>
       </c>
       <c r="L90">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="M90">
-        <f t="shared" si="1"/>
-        <v>1.1092999999999975</v>
+        <f t="shared" si="3"/>
+        <v>1.1133000000000024</v>
       </c>
       <c r="P90" t="s">
         <v>24</v>
       </c>
+      <c r="Q90">
+        <f t="shared" si="4"/>
+        <v>1.3366929191679975E-2</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="5"/>
+        <v>3.6983063148290488E-3</v>
+      </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -41936,35 +42648,43 @@
         <v>20</v>
       </c>
       <c r="F91">
-        <v>18.831099999999999</v>
+        <v>18.809699999999999</v>
       </c>
       <c r="G91">
-        <v>9.3973999999999993</v>
+        <v>9.4362999999999992</v>
       </c>
       <c r="H91">
-        <v>31.516100000000002</v>
+        <v>31.525600000000001</v>
       </c>
       <c r="I91">
-        <v>32.622700000000002</v>
+        <v>32.634599999999999</v>
       </c>
       <c r="J91">
-        <v>0.21462899999999999</v>
+        <v>0.222661</v>
       </c>
       <c r="K91">
-        <v>32.316699999999997</v>
+        <v>32.333300000000001</v>
       </c>
       <c r="L91">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="M91">
-        <f t="shared" si="1"/>
-        <v>1.1066000000000003</v>
+        <f t="shared" si="3"/>
+        <v>1.1089999999999982</v>
       </c>
       <c r="P91" t="s">
         <v>24</v>
       </c>
+      <c r="Q91">
+        <f t="shared" si="4"/>
+        <v>1.3726566282411919E-2</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="5"/>
+        <v>3.7541726510949623E-3</v>
+      </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -41981,35 +42701,43 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0.24876400000000001</v>
+        <v>0.25828099999999998</v>
       </c>
       <c r="G92">
-        <v>0.124907</v>
+        <v>0.12632699999999999</v>
       </c>
       <c r="H92">
-        <v>0.39072299999999999</v>
+        <v>0.401285</v>
       </c>
       <c r="I92">
-        <v>0.40112500000000001</v>
+        <v>0.41163499999999997</v>
       </c>
       <c r="J92">
-        <v>0.102231</v>
+        <v>0.104156</v>
       </c>
       <c r="K92">
-        <v>6047.02</v>
+        <v>5833.57</v>
       </c>
       <c r="L92">
-        <v>57035</v>
+        <v>57255</v>
       </c>
       <c r="M92">
-        <f t="shared" si="1"/>
-        <v>1.0402000000000022E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.034999999999997E-2</v>
       </c>
       <c r="P92" t="s">
         <v>25</v>
       </c>
+      <c r="Q92">
+        <f t="shared" si="4"/>
+        <v>4.0367558638113863</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="5"/>
+        <v>10.197960607167767</v>
+      </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -42026,35 +42754,43 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <v>0.24857199999999999</v>
+        <v>0.26299800000000001</v>
       </c>
       <c r="G93">
-        <v>0.124143</v>
+        <v>0.12646399999999999</v>
       </c>
       <c r="H93">
-        <v>0.38979799999999998</v>
+        <v>0.40616600000000003</v>
       </c>
       <c r="I93">
-        <v>0.41345300000000001</v>
+        <v>0.42978499999999997</v>
       </c>
       <c r="J93">
-        <v>0.10977099999999999</v>
+        <v>0.11007599999999999</v>
       </c>
       <c r="K93">
-        <v>8337.68</v>
+        <v>8291.43</v>
       </c>
       <c r="L93">
-        <v>11879</v>
+        <v>11880</v>
       </c>
       <c r="M93">
-        <f t="shared" si="1"/>
-        <v>2.3655000000000037E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.3618999999999946E-2</v>
       </c>
       <c r="P93" t="s">
         <v>25</v>
       </c>
+      <c r="Q93">
+        <f t="shared" si="4"/>
+        <v>3.6843305373617041</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="5"/>
+        <v>1.4187086673453848</v>
+      </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -42071,35 +42807,43 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>0.24101800000000001</v>
+        <v>0.24874299999999999</v>
       </c>
       <c r="G94">
-        <v>0.12439600000000001</v>
+        <v>0.12645899999999999</v>
       </c>
       <c r="H94">
-        <v>0.38249899999999998</v>
+        <v>0.39191799999999999</v>
       </c>
       <c r="I94">
-        <v>0.41845500000000002</v>
+        <v>0.42820200000000003</v>
       </c>
       <c r="J94">
-        <v>0.112973</v>
+        <v>0.111882</v>
       </c>
       <c r="K94">
-        <v>8466.92</v>
+        <v>8531.85</v>
       </c>
       <c r="L94">
-        <v>5975</v>
+        <v>5974</v>
       </c>
       <c r="M94">
-        <f t="shared" si="1"/>
-        <v>3.5956000000000043E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.6284000000000038E-2</v>
       </c>
       <c r="P94" t="s">
         <v>25</v>
       </c>
+      <c r="Q94">
+        <f t="shared" si="4"/>
+        <v>3.7161900224660323</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="5"/>
+        <v>1.265246773430537</v>
+      </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -42116,35 +42860,43 @@
         <v>15</v>
       </c>
       <c r="F95">
-        <v>0.23808599999999999</v>
+        <v>0.24452399999999999</v>
       </c>
       <c r="G95">
-        <v>0.124524</v>
+        <v>0.12651000000000001</v>
       </c>
       <c r="H95">
-        <v>0.379691</v>
+        <v>0.38774900000000001</v>
       </c>
       <c r="I95">
-        <v>0.42761900000000003</v>
+        <v>0.43686599999999998</v>
       </c>
       <c r="J95">
-        <v>0.11546099999999999</v>
+        <v>0.11230800000000001</v>
       </c>
       <c r="K95">
-        <v>8388.27</v>
+        <v>8625.57</v>
       </c>
       <c r="L95">
         <v>3990</v>
       </c>
       <c r="M95">
-        <f t="shared" si="1"/>
-        <v>4.7928000000000026E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.9116999999999966E-2</v>
       </c>
       <c r="P95" t="s">
         <v>24</v>
       </c>
+      <c r="Q95">
+        <f t="shared" si="4"/>
+        <v>3.6738725375744505</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="5"/>
+        <v>1.1767489768076398</v>
+      </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -42161,35 +42913,43 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>0.24343400000000001</v>
+        <v>0.24330499999999999</v>
       </c>
       <c r="G96">
-        <v>0.125356</v>
+        <v>0.126448</v>
       </c>
       <c r="H96">
-        <v>0.38588899999999998</v>
+        <v>0.386486</v>
       </c>
       <c r="I96">
-        <v>0.44659799999999999</v>
+        <v>0.447961</v>
       </c>
       <c r="J96">
-        <v>0.11468100000000001</v>
+        <v>0.113243</v>
       </c>
       <c r="K96">
-        <v>8498.1200000000008</v>
+        <v>8612.6299999999992</v>
       </c>
       <c r="L96">
         <v>2996</v>
       </c>
       <c r="M96">
-        <f t="shared" si="1"/>
-        <v>6.0709000000000013E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.1475000000000002E-2</v>
       </c>
       <c r="P96" t="s">
         <v>24</v>
       </c>
+      <c r="Q96">
+        <f t="shared" si="4"/>
+        <v>3.5187661425883059</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="5"/>
+        <v>1.1192327085217644</v>
+      </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -42206,35 +42966,43 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.0503800000000001</v>
+        <v>1.04383</v>
       </c>
       <c r="G97">
-        <v>0.50552799999999998</v>
+        <v>0.51254900000000003</v>
       </c>
       <c r="H97">
-        <v>1.6281000000000001</v>
+        <v>1.6294200000000001</v>
       </c>
       <c r="I97">
-        <v>1.6606000000000001</v>
+        <v>1.66167</v>
       </c>
       <c r="J97">
-        <v>8.7667599999999998E-2</v>
+        <v>8.9700500000000002E-2</v>
       </c>
       <c r="K97">
-        <v>572.25</v>
+        <v>572.03300000000002</v>
       </c>
       <c r="L97">
-        <v>34317</v>
+        <v>34257</v>
       </c>
       <c r="M97">
-        <f t="shared" si="1"/>
-        <v>3.2499999999999973E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.224999999999989E-2</v>
       </c>
       <c r="P97" t="s">
         <v>25</v>
       </c>
+      <c r="Q97">
+        <f t="shared" si="4"/>
+        <v>2.2071590628704856</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="5"/>
+        <v>2.1576624660055748</v>
+      </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -42251,35 +43019,43 @@
         <v>5</v>
       </c>
       <c r="F98">
-        <v>0.95119900000000002</v>
+        <v>0.95483200000000001</v>
       </c>
       <c r="G98">
-        <v>0.50428499999999998</v>
+        <v>0.513378</v>
       </c>
       <c r="H98">
-        <v>1.5279199999999999</v>
+        <v>1.5415300000000001</v>
       </c>
       <c r="I98">
-        <v>1.5699799999999999</v>
+        <v>1.5834699999999999</v>
       </c>
       <c r="J98">
-        <v>0.116351</v>
+        <v>0.117489</v>
       </c>
       <c r="K98">
-        <v>5913.63</v>
+        <v>5844.35</v>
       </c>
       <c r="L98">
-        <v>11865</v>
+        <v>11860</v>
       </c>
       <c r="M98">
-        <f t="shared" si="1"/>
-        <v>4.2059999999999986E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.1939999999999866E-2</v>
       </c>
       <c r="P98" t="s">
         <v>24</v>
       </c>
+      <c r="Q98">
+        <f t="shared" si="4"/>
+        <v>2.2506015270260882</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="5"/>
+        <v>2.2081481985249671</v>
+      </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -42296,35 +43072,43 @@
         <v>10</v>
       </c>
       <c r="F99">
-        <v>0.96959099999999998</v>
+        <v>0.95130800000000004</v>
       </c>
       <c r="G99">
-        <v>0.51128799999999996</v>
+        <v>0.51352299999999995</v>
       </c>
       <c r="H99">
-        <v>1.55325</v>
+        <v>1.53807</v>
       </c>
       <c r="I99">
-        <v>1.6065799999999999</v>
+        <v>1.59128</v>
       </c>
       <c r="J99">
-        <v>0.122211</v>
+        <v>0.124657</v>
       </c>
       <c r="K99">
-        <v>6863.07</v>
+        <v>6743.23</v>
       </c>
       <c r="L99">
-        <v>5970</v>
+        <v>5967</v>
       </c>
       <c r="M99">
-        <f t="shared" si="1"/>
-        <v>5.3329999999999878E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.320999999999998E-2</v>
       </c>
       <c r="P99" t="s">
         <v>24</v>
       </c>
+      <c r="Q99">
+        <f t="shared" si="4"/>
+        <v>2.2472286461213611</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="5"/>
+        <v>1.2355488046202781</v>
+      </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -42341,35 +43125,43 @@
         <v>15</v>
       </c>
       <c r="F100">
-        <v>0.92878099999999997</v>
+        <v>0.95383499999999999</v>
       </c>
       <c r="G100">
-        <v>0.49923099999999998</v>
+        <v>0.51251599999999997</v>
       </c>
       <c r="H100">
-        <v>1.50044</v>
+        <v>1.5392999999999999</v>
       </c>
       <c r="I100">
-        <v>1.5692200000000001</v>
+        <v>1.6049899999999999</v>
       </c>
       <c r="J100">
-        <v>0.109999</v>
+        <v>0.1216</v>
       </c>
       <c r="K100">
-        <v>8074.95</v>
+        <v>7330</v>
       </c>
       <c r="L100">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="M100">
-        <f t="shared" si="1"/>
-        <v>6.8780000000000063E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.5690000000000026E-2</v>
       </c>
       <c r="P100" t="s">
         <v>24</v>
       </c>
+      <c r="Q100">
+        <f t="shared" si="4"/>
+        <v>2.1841382189297134</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="5"/>
+        <v>1.2355501316459281</v>
+      </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -42386,35 +43178,43 @@
         <v>20</v>
       </c>
       <c r="F101">
-        <v>0.92307899999999998</v>
+        <v>0.926956</v>
       </c>
       <c r="G101">
-        <v>0.49619099999999999</v>
+        <v>0.49810599999999999</v>
       </c>
       <c r="H101">
-        <v>1.4918</v>
+        <v>1.4979499999999999</v>
       </c>
       <c r="I101">
-        <v>1.5705899999999999</v>
+        <v>1.5762700000000001</v>
       </c>
       <c r="J101">
-        <v>0.117826</v>
+        <v>0.11944100000000001</v>
       </c>
       <c r="K101">
-        <v>7798.87</v>
+        <v>7695.12</v>
       </c>
       <c r="L101">
         <v>2995</v>
       </c>
       <c r="M101">
-        <f t="shared" si="1"/>
-        <v>7.8789999999999916E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.8320000000000167E-2</v>
       </c>
       <c r="P101" t="s">
         <v>24</v>
       </c>
+      <c r="Q101">
+        <f t="shared" si="4"/>
+        <v>2.2360763067241018</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="5"/>
+        <v>1.2670055174389598</v>
+      </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -42431,35 +43231,43 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2.2789899999999998</v>
+        <v>2.2745899999999999</v>
       </c>
       <c r="G102">
-        <v>1.1567799999999999</v>
+        <v>1.1583000000000001</v>
       </c>
       <c r="H102">
-        <v>3.5989499999999999</v>
+        <v>3.5968800000000001</v>
       </c>
       <c r="I102">
-        <v>3.6696499999999999</v>
+        <v>3.66757</v>
       </c>
       <c r="J102">
-        <v>0.10358299999999999</v>
+        <v>0.111681</v>
       </c>
       <c r="K102">
-        <v>265.35000000000002</v>
+        <v>265.11700000000002</v>
       </c>
       <c r="L102">
-        <v>15901</v>
+        <v>15876</v>
       </c>
       <c r="M102">
-        <f t="shared" si="1"/>
-        <v>7.0699999999999985E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.068999999999992E-2</v>
       </c>
       <c r="P102" t="s">
         <v>25</v>
       </c>
+      <c r="Q102">
+        <f t="shared" si="4"/>
+        <v>1.7728959501795467</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="5"/>
+        <v>1.755939410397197</v>
+      </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -42476,35 +43284,43 @@
         <v>5</v>
       </c>
       <c r="F103">
-        <v>2.18608</v>
+        <v>2.1649600000000002</v>
       </c>
       <c r="G103">
-        <v>1.1569499999999999</v>
+        <v>1.1583699999999999</v>
       </c>
       <c r="H103">
-        <v>3.5064700000000002</v>
+        <v>3.4876399999999999</v>
       </c>
       <c r="I103">
-        <v>3.5832000000000002</v>
+        <v>3.5637599999999998</v>
       </c>
       <c r="J103">
-        <v>0.107603</v>
+        <v>0.11192000000000001</v>
       </c>
       <c r="K103">
-        <v>2710.9</v>
+        <v>2646.72</v>
       </c>
       <c r="L103">
-        <v>11864</v>
+        <v>11858</v>
       </c>
       <c r="M103">
-        <f t="shared" si="1"/>
-        <v>7.6729999999999965E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.6119999999999965E-2</v>
       </c>
       <c r="P103" t="s">
         <v>24</v>
       </c>
+      <c r="Q103">
+        <f t="shared" si="4"/>
+        <v>1.7899409612319572</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="5"/>
+        <v>15.929702076436953</v>
+      </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -42521,35 +43337,43 @@
         <v>10</v>
       </c>
       <c r="F104">
-        <v>2.1208499999999999</v>
+        <v>2.1617600000000001</v>
       </c>
       <c r="G104">
-        <v>1.12697</v>
+        <v>1.1602300000000001</v>
       </c>
       <c r="H104">
-        <v>3.4113699999999998</v>
+        <v>3.4866100000000002</v>
       </c>
       <c r="I104">
-        <v>3.5001199999999999</v>
+        <v>3.5759699999999999</v>
       </c>
       <c r="J104">
-        <v>0.12189800000000001</v>
+        <v>0.117466</v>
       </c>
       <c r="K104">
-        <v>5328.03</v>
+        <v>5457.68</v>
       </c>
       <c r="L104">
-        <v>5968</v>
+        <v>5969</v>
       </c>
       <c r="M104">
-        <f t="shared" si="1"/>
-        <v>8.8750000000000107E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.9359999999999662E-2</v>
       </c>
       <c r="P104" t="s">
         <v>24</v>
       </c>
+      <c r="Q104">
+        <f t="shared" si="4"/>
+        <v>1.7605293109282238</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="5"/>
+        <v>1.6734522418767805</v>
+      </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -42566,35 +43390,43 @@
         <v>15</v>
       </c>
       <c r="F105">
-        <v>2.1159300000000001</v>
+        <v>2.1137000000000001</v>
       </c>
       <c r="G105">
-        <v>1.1231599999999999</v>
+        <v>1.1274599999999999</v>
       </c>
       <c r="H105">
-        <v>3.4026700000000001</v>
+        <v>3.4061599999999999</v>
       </c>
       <c r="I105">
-        <v>3.50352</v>
+        <v>3.5055200000000002</v>
       </c>
       <c r="J105">
-        <v>0.123707</v>
+        <v>0.12914100000000001</v>
       </c>
       <c r="K105">
-        <v>6188.22</v>
+        <v>5932.58</v>
       </c>
       <c r="L105">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="M105">
-        <f t="shared" si="1"/>
-        <v>0.10084999999999988</v>
+        <f t="shared" si="3"/>
+        <v>9.9360000000000337E-2</v>
       </c>
       <c r="P105" t="s">
         <v>24</v>
       </c>
+      <c r="Q105">
+        <f t="shared" si="4"/>
+        <v>1.7965893790364909</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="5"/>
+        <v>1.2493455897063312</v>
+      </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -42611,35 +43443,43 @@
         <v>20</v>
       </c>
       <c r="F106">
-        <v>2.1292900000000001</v>
+        <v>2.1249099999999999</v>
       </c>
       <c r="G106">
-        <v>1.1232899999999999</v>
+        <v>1.1251599999999999</v>
       </c>
       <c r="H106">
-        <v>3.4166599999999998</v>
+        <v>3.4153600000000002</v>
       </c>
       <c r="I106">
-        <v>3.5253999999999999</v>
+        <v>3.5246599999999999</v>
       </c>
       <c r="J106">
-        <v>0.14999199999999999</v>
+        <v>0.135547</v>
       </c>
       <c r="K106">
-        <v>5487.58</v>
+        <v>6073.47</v>
       </c>
       <c r="L106">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="M106">
-        <f t="shared" si="1"/>
-        <v>0.10874000000000006</v>
+        <f t="shared" si="3"/>
+        <v>0.10929999999999973</v>
       </c>
       <c r="P106" t="s">
         <v>24</v>
       </c>
+      <c r="Q106">
+        <f t="shared" si="4"/>
+        <v>1.7939772914266907</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="5"/>
+        <v>1.0838959411925324</v>
+      </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -42656,35 +43496,43 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>3.96163</v>
+        <v>4.0067300000000001</v>
       </c>
       <c r="G107">
-        <v>2.0688300000000002</v>
+        <v>2.0703800000000001</v>
       </c>
       <c r="H107">
-        <v>6.32254</v>
+        <v>6.3711399999999996</v>
       </c>
       <c r="I107">
-        <v>6.4561599999999997</v>
+        <v>6.5022200000000003</v>
       </c>
       <c r="J107">
-        <v>0.18187</v>
+        <v>0.15787899999999999</v>
       </c>
       <c r="K107">
-        <v>151.417</v>
+        <v>150.983</v>
       </c>
       <c r="L107">
-        <v>9039</v>
+        <v>9009</v>
       </c>
       <c r="M107">
-        <f t="shared" si="1"/>
-        <v>0.13361999999999963</v>
+        <f t="shared" si="3"/>
+        <v>0.13108000000000075</v>
       </c>
       <c r="P107" t="s">
         <v>25</v>
       </c>
+      <c r="Q107">
+        <f t="shared" si="4"/>
+        <v>1.5728781862194756</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="5"/>
+        <v>1.5716476156670314</v>
+      </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -42701,35 +43549,43 @@
         <v>5</v>
       </c>
       <c r="F108">
-        <v>3.91255</v>
+        <v>3.8860899999999998</v>
       </c>
       <c r="G108">
-        <v>2.0692499999999998</v>
+        <v>2.0701399999999999</v>
       </c>
       <c r="H108">
-        <v>6.2740200000000002</v>
+        <v>6.2486800000000002</v>
       </c>
       <c r="I108">
-        <v>6.40801</v>
+        <v>6.3789199999999999</v>
       </c>
       <c r="J108">
-        <v>0.20898700000000001</v>
+        <v>0.15384500000000001</v>
       </c>
       <c r="K108">
-        <v>159</v>
+        <v>166.15</v>
       </c>
       <c r="L108">
-        <v>9067</v>
+        <v>9184</v>
       </c>
       <c r="M108">
-        <f t="shared" si="1"/>
-        <v>0.13398999999999983</v>
+        <f t="shared" si="3"/>
+        <v>0.13023999999999969</v>
       </c>
       <c r="P108" t="s">
         <v>24</v>
       </c>
+      <c r="Q108">
+        <f t="shared" si="4"/>
+        <v>1.5814746069867627</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="5"/>
+        <v>1.6994539040389007</v>
+      </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -42746,35 +43602,43 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>3.8510900000000001</v>
+        <v>3.8453599999999999</v>
       </c>
       <c r="G109">
-        <v>2.0077600000000002</v>
+        <v>2.0104299999999999</v>
       </c>
       <c r="H109">
-        <v>6.1527900000000004</v>
+        <v>6.1503300000000003</v>
       </c>
       <c r="I109">
-        <v>6.2974800000000002</v>
+        <v>6.2956000000000003</v>
       </c>
       <c r="J109">
-        <v>0.17374100000000001</v>
+        <v>0.115254</v>
       </c>
       <c r="K109">
-        <v>2173.33</v>
+        <v>3261.33</v>
       </c>
       <c r="L109">
-        <v>5947</v>
+        <v>5967</v>
       </c>
       <c r="M109">
-        <f t="shared" si="1"/>
-        <v>0.14468999999999976</v>
+        <f t="shared" si="3"/>
+        <v>0.14527000000000001</v>
       </c>
       <c r="P109" t="s">
         <v>24</v>
       </c>
+      <c r="Q109">
+        <f t="shared" si="4"/>
+        <v>1.5701807611665288</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="5"/>
+        <v>28.23246794844049</v>
+      </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -42791,35 +43655,43 @@
         <v>15</v>
       </c>
       <c r="F110">
-        <v>3.8586100000000001</v>
+        <v>3.8334700000000002</v>
       </c>
       <c r="G110">
-        <v>2.0064500000000001</v>
+        <v>2.0125700000000002</v>
       </c>
       <c r="H110">
-        <v>6.1579699999999997</v>
+        <v>6.1411199999999999</v>
       </c>
       <c r="I110">
-        <v>6.3071299999999999</v>
+        <v>6.2979799999999999</v>
       </c>
       <c r="J110">
-        <v>0.175676</v>
+        <v>0.12226099999999999</v>
       </c>
       <c r="K110">
-        <v>3317.33</v>
+        <v>4748.55</v>
       </c>
       <c r="L110">
-        <v>3978</v>
+        <v>3986</v>
       </c>
       <c r="M110">
-        <f t="shared" si="1"/>
-        <v>0.14916000000000018</v>
+        <f t="shared" si="3"/>
+        <v>0.15686</v>
       </c>
       <c r="P110" t="s">
         <v>24</v>
       </c>
+      <c r="Q110">
+        <f t="shared" si="4"/>
+        <v>1.5828471986255912</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="5"/>
+        <v>1.6386289287341091</v>
+      </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -42836,35 +43708,43 @@
         <v>20</v>
       </c>
       <c r="F111">
-        <v>3.84796</v>
+        <v>3.8421099999999999</v>
       </c>
       <c r="G111">
-        <v>2.0055999999999998</v>
+        <v>2.0148600000000001</v>
       </c>
       <c r="H111">
-        <v>6.14541</v>
+        <v>6.1527200000000004</v>
       </c>
       <c r="I111">
-        <v>6.31501</v>
+        <v>6.3231599999999997</v>
       </c>
       <c r="J111">
-        <v>0.11820600000000001</v>
+        <v>0.12197</v>
       </c>
       <c r="K111">
-        <v>5782.18</v>
+        <v>5603.37</v>
       </c>
       <c r="L111">
         <v>2993</v>
       </c>
       <c r="M111">
-        <f t="shared" si="1"/>
-        <v>0.16959999999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.17043999999999926</v>
       </c>
       <c r="P111" t="s">
         <v>24</v>
       </c>
+      <c r="Q111">
+        <f t="shared" si="4"/>
+        <v>1.5799030864314678</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="5"/>
+        <v>1.3286691896198499</v>
+      </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -42881,35 +43761,43 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>6.2140599999999999</v>
+        <v>6.2620300000000002</v>
       </c>
       <c r="G112">
-        <v>3.2453099999999999</v>
+        <v>3.2541899999999999</v>
       </c>
       <c r="H112">
-        <v>9.9336900000000004</v>
+        <v>9.9951100000000004</v>
       </c>
       <c r="I112">
-        <v>10.1669</v>
+        <v>10.2272</v>
       </c>
       <c r="J112">
-        <v>0.202934</v>
+        <v>0.205373</v>
       </c>
       <c r="K112">
-        <v>96.6</v>
+        <v>96.066699999999997</v>
       </c>
       <c r="L112">
-        <v>5786</v>
+        <v>5752</v>
       </c>
       <c r="M112">
-        <f t="shared" si="1"/>
-        <v>0.2332099999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.23208999999999946</v>
       </c>
       <c r="P112" t="s">
         <v>23</v>
       </c>
+      <c r="Q112">
+        <f t="shared" si="4"/>
+        <v>1.5530252659574468</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="5"/>
+        <v>1.5395304487179486</v>
+      </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -42926,35 +43814,43 @@
         <v>5</v>
       </c>
       <c r="F113">
-        <v>6.1321300000000001</v>
+        <v>6.1350600000000002</v>
       </c>
       <c r="G113">
-        <v>3.2427000000000001</v>
+        <v>3.2557200000000002</v>
       </c>
       <c r="H113">
-        <v>9.8421299999999992</v>
+        <v>9.8650500000000001</v>
       </c>
       <c r="I113">
-        <v>10.072800000000001</v>
+        <v>10.088100000000001</v>
       </c>
       <c r="J113">
-        <v>0.20075599999999999</v>
+        <v>0.200346</v>
       </c>
       <c r="K113">
-        <v>97.916700000000006</v>
+        <v>97.7667</v>
       </c>
       <c r="L113">
-        <v>5840</v>
+        <v>5832</v>
       </c>
       <c r="M113">
-        <f t="shared" si="1"/>
-        <v>0.23067000000000171</v>
+        <f t="shared" si="3"/>
+        <v>0.22305000000000064</v>
       </c>
       <c r="P113" t="s">
         <v>24</v>
       </c>
+      <c r="Q113">
+        <f t="shared" si="4"/>
+        <v>1.5520662959328317</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="5"/>
+        <v>1.536407824205251</v>
+      </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -42971,35 +43867,43 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>6.0556999999999999</v>
+        <v>6.0377299999999998</v>
       </c>
       <c r="G114">
-        <v>3.1551</v>
+        <v>3.1438999999999999</v>
       </c>
       <c r="H114">
-        <v>9.6805299999999992</v>
+        <v>9.6553000000000004</v>
       </c>
       <c r="I114">
-        <v>9.9102800000000002</v>
+        <v>9.88523</v>
       </c>
       <c r="J114">
-        <v>0.203432</v>
+        <v>0.19889000000000001</v>
       </c>
       <c r="K114">
-        <v>112.9</v>
+        <v>115.517</v>
       </c>
       <c r="L114">
-        <v>5931</v>
+        <v>5949</v>
       </c>
       <c r="M114">
-        <f t="shared" si="1"/>
-        <v>0.22975000000000101</v>
+        <f t="shared" si="3"/>
+        <v>0.22992999999999952</v>
       </c>
       <c r="P114" t="s">
         <v>24</v>
       </c>
+      <c r="Q114">
+        <f t="shared" si="4"/>
+        <v>1.5574245616945686</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="5"/>
+        <v>1.7672148050918894</v>
+      </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -43016,35 +43920,43 @@
         <v>15</v>
       </c>
       <c r="F115">
-        <v>6.0918000000000001</v>
+        <v>6.0743799999999997</v>
       </c>
       <c r="G115">
-        <v>3.15652</v>
+        <v>3.15876</v>
       </c>
       <c r="H115">
-        <v>9.7203599999999994</v>
+        <v>9.7138899999999992</v>
       </c>
       <c r="I115">
-        <v>9.96936</v>
+        <v>9.9687400000000004</v>
       </c>
       <c r="J115">
-        <v>0.116976</v>
+        <v>0.116886</v>
       </c>
       <c r="K115">
-        <v>2892.93</v>
+        <v>2897.88</v>
       </c>
       <c r="L115">
         <v>3986</v>
       </c>
       <c r="M115">
-        <f t="shared" si="1"/>
-        <v>0.24900000000000055</v>
+        <f t="shared" si="3"/>
+        <v>0.25485000000000113</v>
       </c>
       <c r="P115" t="s">
         <v>24</v>
       </c>
+      <c r="Q115">
+        <f t="shared" si="4"/>
+        <v>1.544999668965185</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="5"/>
+        <v>31.956049239496135</v>
+      </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -43061,29 +43973,29 @@
         <v>20</v>
       </c>
       <c r="F116">
-        <v>6.1025900000000002</v>
+        <v>6.0864900000000004</v>
       </c>
       <c r="G116">
-        <v>3.1671</v>
+        <v>3.1673100000000001</v>
       </c>
       <c r="H116">
-        <v>9.7487399999999997</v>
+        <v>9.7292799999999993</v>
       </c>
       <c r="I116">
-        <v>10.011799999999999</v>
+        <v>9.9899799999999992</v>
       </c>
       <c r="J116">
-        <v>0.116878</v>
+        <v>0.119048</v>
       </c>
       <c r="K116">
-        <v>4283.07</v>
+        <v>4217.28</v>
       </c>
       <c r="L116">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="M116">
-        <f t="shared" si="1"/>
-        <v>0.26305999999999941</v>
+        <f t="shared" si="3"/>
+        <v>0.26069999999999993</v>
       </c>
       <c r="O116" t="s">
         <v>15</v>
@@ -43091,8 +44003,16 @@
       <c r="P116" t="s">
         <v>24</v>
       </c>
+      <c r="Q116">
+        <f t="shared" si="4"/>
+        <v>1.5450181081443608</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="5"/>
+        <v>2.188123589384388</v>
+      </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -43109,33 +44029,33 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>9.70444</v>
+        <v>9.7427100000000006</v>
       </c>
       <c r="G117">
-        <v>4.8657000000000004</v>
+        <v>4.8746099999999997</v>
       </c>
       <c r="H117">
-        <v>15.391500000000001</v>
+        <v>15.4292</v>
       </c>
       <c r="I117">
-        <v>15.844799999999999</v>
+        <v>15.883100000000001</v>
       </c>
       <c r="J117">
-        <v>0.221473</v>
+        <v>0.222881</v>
       </c>
       <c r="K117">
-        <v>62.55</v>
+        <v>62.4</v>
       </c>
       <c r="L117">
-        <v>3735</v>
+        <v>3726</v>
       </c>
       <c r="M117">
-        <f t="shared" si="1"/>
-        <v>0.4532999999999987</v>
+        <f t="shared" si="3"/>
+        <v>0.45390000000000086</v>
       </c>
       <c r="N117">
         <f>H117-(G117+F117)</f>
-        <v>0.82136000000000031</v>
+        <v>0.81188000000000038</v>
       </c>
       <c r="O117" t="s">
         <v>16</v>
@@ -43143,8 +44063,16 @@
       <c r="P117" t="s">
         <v>25</v>
       </c>
+      <c r="Q117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R117" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -43161,29 +44089,29 @@
         <v>5</v>
       </c>
       <c r="F118">
-        <v>9.4466000000000001</v>
+        <v>9.5151599999999998</v>
       </c>
       <c r="G118">
-        <v>4.7471899999999998</v>
+        <v>4.8704499999999999</v>
       </c>
       <c r="H118">
-        <v>15.0038</v>
+        <v>15.203799999999999</v>
       </c>
       <c r="I118">
-        <v>15.4521</v>
+        <v>15.657400000000001</v>
       </c>
       <c r="J118">
-        <v>0.222886</v>
+        <v>0.22099299999999999</v>
       </c>
       <c r="K118">
-        <v>64.45</v>
+        <v>63.633299999999998</v>
       </c>
       <c r="L118">
-        <v>3828</v>
+        <v>3779</v>
       </c>
       <c r="M118">
-        <f t="shared" si="1"/>
-        <v>0.4482999999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.45360000000000156</v>
       </c>
       <c r="O118" t="s">
         <v>17</v>
@@ -43191,8 +44119,16 @@
       <c r="P118" t="s">
         <v>24</v>
       </c>
+      <c r="Q118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R118" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -43209,29 +44145,29 @@
         <v>10</v>
       </c>
       <c r="F119">
-        <v>9.4014600000000002</v>
+        <v>9.3713800000000003</v>
       </c>
       <c r="G119">
-        <v>4.7185499999999996</v>
+        <v>4.72539</v>
       </c>
       <c r="H119">
-        <v>14.935499999999999</v>
+        <v>14.9339</v>
       </c>
       <c r="I119">
-        <v>15.388500000000001</v>
+        <v>15.3955</v>
       </c>
       <c r="J119">
-        <v>0.223221</v>
+        <v>0.21778600000000001</v>
       </c>
       <c r="K119">
-        <v>65.333299999999994</v>
+        <v>65.366699999999994</v>
       </c>
       <c r="L119">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="M119">
-        <f t="shared" si="1"/>
-        <v>0.45300000000000118</v>
+        <f t="shared" si="3"/>
+        <v>0.46160000000000068</v>
       </c>
       <c r="O119" t="s">
         <v>18</v>
@@ -43239,8 +44175,16 @@
       <c r="P119" t="s">
         <v>24</v>
       </c>
+      <c r="Q119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R119" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -43257,29 +44201,29 @@
         <v>15</v>
       </c>
       <c r="F120">
-        <v>9.3965599999999991</v>
+        <v>9.4054400000000005</v>
       </c>
       <c r="G120">
-        <v>4.7193699999999996</v>
+        <v>4.7125700000000004</v>
       </c>
       <c r="H120">
-        <v>14.944699999999999</v>
+        <v>14.943899999999999</v>
       </c>
       <c r="I120">
-        <v>15.4031</v>
+        <v>15.4017</v>
       </c>
       <c r="J120">
-        <v>0.219334</v>
+        <v>0.21724299999999999</v>
       </c>
       <c r="K120">
-        <v>93.7</v>
+        <v>90.683300000000003</v>
       </c>
       <c r="L120">
         <v>3841</v>
       </c>
       <c r="M120">
-        <f t="shared" si="1"/>
-        <v>0.45840000000000103</v>
+        <f t="shared" si="3"/>
+        <v>0.45780000000000065</v>
       </c>
       <c r="O120" t="s">
         <v>19</v>
@@ -43287,8 +44231,16 @@
       <c r="P120" t="s">
         <v>24</v>
       </c>
+      <c r="Q120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R120" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -43305,35 +44257,43 @@
         <v>20</v>
       </c>
       <c r="F121">
-        <v>9.4186499999999995</v>
+        <v>9.4282299999999992</v>
       </c>
       <c r="G121">
-        <v>4.7169299999999996</v>
+        <v>4.71591</v>
       </c>
       <c r="H121">
-        <v>14.9552</v>
+        <v>14.9649</v>
       </c>
       <c r="I121">
-        <v>15.4239</v>
+        <v>15.434699999999999</v>
       </c>
       <c r="J121">
-        <v>0.117608</v>
+        <v>0.11951299999999999</v>
       </c>
       <c r="K121">
-        <v>1961.62</v>
+        <v>1927.35</v>
       </c>
       <c r="L121">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="M121">
-        <f t="shared" si="1"/>
-        <v>0.46870000000000012</v>
+        <f t="shared" si="3"/>
+        <v>0.46979999999999933</v>
       </c>
       <c r="O121" t="s">
         <v>20</v>
       </c>
       <c r="P121" t="s">
         <v>24</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R121" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -43346,8 +44306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43361,8 +44321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43376,8 +44336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43391,8 +44351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BE27" sqref="BE27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dissertation_main/Dissertation_main/flag_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/flag_test_data.xlsx
@@ -37548,10 +37548,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -37856,8 +37856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44306,7 +44306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="AX1" workbookViewId="0">
       <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
@@ -44321,7 +44321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="AE1" workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
@@ -44336,7 +44336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="AV1" workbookViewId="0">
       <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
@@ -44351,7 +44351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AU1" workbookViewId="0">
       <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>

--- a/Dissertation_main/Dissertation_main/flag_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/flag_test_data.xlsx
@@ -37856,14 +37856,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD121"/>
+    <sheetView tabSelected="1" topLeftCell="N118" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A91" activeCellId="1" sqref="A62:XFD62 A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -44306,8 +44306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44321,7 +44321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>

--- a/Dissertation_main/Dissertation_main/flag_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/flag_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="flag_test_data" sheetId="1" r:id="rId1"/>
@@ -777,22 +777,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6095.35</c:v>
+                  <c:v>7154.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2631.13</c:v>
+                  <c:v>2522.5450000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>524.16700000000003</c:v>
+                  <c:v>517.15549999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295.2</c:v>
+                  <c:v>289.85833333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.95</c:v>
+                  <c:v>185.53333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.583</c:v>
+                  <c:v>119.575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,22 +852,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6111.28</c:v>
+                  <c:v>10440.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2063.87</c:v>
+                  <c:v>2463.4983333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>508.5</c:v>
+                  <c:v>511.35833333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>286.28300000000002</c:v>
+                  <c:v>289.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.333</c:v>
+                  <c:v>182.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.65</c:v>
+                  <c:v>118.01116666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,22 +927,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5833.57</c:v>
+                  <c:v>7953.291666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>572.03300000000002</c:v>
+                  <c:v>576.61099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>265.11700000000002</c:v>
+                  <c:v>263.45816666666673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.983</c:v>
+                  <c:v>149.19449999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.066699999999997</c:v>
+                  <c:v>94.780549999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.4</c:v>
+                  <c:v>61.630550000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,22 +1002,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1252.2</c:v>
+                  <c:v>1592.0983333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252.96700000000001</c:v>
+                  <c:v>253.08600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.31699999999999</c:v>
+                  <c:v>117.66366666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.066699999999997</c:v>
+                  <c:v>67.783349999999984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.166699999999999</c:v>
+                  <c:v>43.680550000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.7667</c:v>
+                  <c:v>28.541666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,7 +1156,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1425,7 +1425,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1434,10 +1434,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1457,6 +1455,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>flag_test_data!$E$2:$E$6</c:f>
@@ -1488,24 +1500,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>62.4</c:v>
+                  <c:v>61.630550000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.633299999999998</c:v>
+                  <c:v>63.61665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.366699999999994</c:v>
+                  <c:v>65.588883333333342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.683300000000003</c:v>
+                  <c:v>87.002716666666672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1927.35</c:v>
+                  <c:v>2830.6949999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17E-45EB-B655-B7E54540F670}"/>
@@ -1644,7 +1656,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
+          <c:max val="2900"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2005,10 +2017,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15.883100000000001</c:v>
+                  <c:v>16.070483333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.222881</c:v>
+                  <c:v>0.22456866666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,16 +2360,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.7427100000000006</c:v>
+                  <c:v>9.901628333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8746099999999997</c:v>
+                  <c:v>4.8555333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81188000000000038</c:v>
+                  <c:v>0.84718833333333698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45390000000000086</c:v>
+                  <c:v>0.46613333333332996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,22 +2594,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5833.57</c:v>
+                  <c:v>7953.291666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>572.03300000000002</c:v>
+                  <c:v>576.61099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>265.11700000000002</c:v>
+                  <c:v>263.45816666666673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.983</c:v>
+                  <c:v>149.19449999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.066699999999997</c:v>
+                  <c:v>94.780549999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.4</c:v>
+                  <c:v>61.630550000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,22 +2669,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8291.43</c:v>
+                  <c:v>12085.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5844.35</c:v>
+                  <c:v>8824.0950000000012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2646.72</c:v>
+                  <c:v>3750.1983333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166.15</c:v>
+                  <c:v>165.96099999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.7667</c:v>
+                  <c:v>97.755550000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.633299999999998</c:v>
+                  <c:v>63.61665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,22 +2744,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8531.85</c:v>
+                  <c:v>12647.083333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6743.23</c:v>
+                  <c:v>10893.041666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5457.68</c:v>
+                  <c:v>8373.0083333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3261.33</c:v>
+                  <c:v>4752.4816666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115.517</c:v>
+                  <c:v>134.50549999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.366699999999994</c:v>
+                  <c:v>65.588883333333342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,22 +2819,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8625.57</c:v>
+                  <c:v>12843.199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7330</c:v>
+                  <c:v>11628.408333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5932.58</c:v>
+                  <c:v>9882.6183333333338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4748.55</c:v>
+                  <c:v>7427.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2897.88</c:v>
+                  <c:v>4221.9866666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.683300000000003</c:v>
+                  <c:v>87.002716666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,22 +2868,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8612.6299999999992</c:v>
+                  <c:v>12959.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7695.12</c:v>
+                  <c:v>12177.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6073.47</c:v>
+                  <c:v>10679.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5603.37</c:v>
+                  <c:v>8772.3283333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4217.28</c:v>
+                  <c:v>6192.1816666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1927.35</c:v>
+                  <c:v>2830.6949999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,7 +3022,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3275,7 +3287,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3284,10 +3296,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3307,6 +3317,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -3341,27 +3365,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1252.2</c:v>
+                  <c:v>1592.0983333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252.96700000000001</c:v>
+                  <c:v>253.08600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.31699999999999</c:v>
+                  <c:v>117.66366666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.066699999999997</c:v>
+                  <c:v>67.783349999999984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.166699999999999</c:v>
+                  <c:v>43.680550000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.7667</c:v>
+                  <c:v>28.541666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7CF9-4522-975C-F70C5DC4E9CF}"/>
@@ -3505,7 +3529,7 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1300"/>
+          <c:max val="1600"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3739,7 +3763,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3748,10 +3772,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3771,6 +3793,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -3805,27 +3841,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.89328700000000005</c:v>
+                  <c:v>0.90727683333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8370299999999999</c:v>
+                  <c:v>3.8644283333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1723800000000004</c:v>
+                  <c:v>8.3720183333333313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.356400000000001</c:v>
+                  <c:v>14.602716666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.4681</c:v>
+                  <c:v>22.829266666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.715400000000002</c:v>
+                  <c:v>35.077283333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4087-4AAA-88AE-F88E2747938E}"/>
@@ -4209,7 +4245,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4218,10 +4254,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4241,6 +4275,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -4275,27 +4323,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.56354899999999997</c:v>
+                  <c:v>0.57232500000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5006499999999998</c:v>
+                  <c:v>2.5224016666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1217199999999998</c:v>
+                  <c:v>5.3076649999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7441899999999997</c:v>
+                  <c:v>8.9703949999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.4552</c:v>
+                  <c:v>13.738050000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.581299999999999</c:v>
+                  <c:v>20.895566666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D84-4EA6-8153-4573513A85D0}"/>
@@ -4674,7 +4722,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4683,10 +4731,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4706,6 +4752,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>flag_test_data!$E$2:$E$6</c:f>
@@ -4737,24 +4797,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.7667</c:v>
+                  <c:v>28.541666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.95</c:v>
+                  <c:v>31.39661666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.466699999999999</c:v>
+                  <c:v>32.105550000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.9</c:v>
+                  <c:v>32.622199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.333300000000001</c:v>
+                  <c:v>33.06666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4B5E-48F5-AD42-15AC419D141F}"/>
@@ -4893,7 +4953,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="32.4"/>
+          <c:max val="33.200000000000003"/>
           <c:min val="28"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5254,10 +5314,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>34.715400000000002</c:v>
+                  <c:v>35.077283333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22506499999999999</c:v>
+                  <c:v>0.22682350000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,16 +5657,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20.581299999999999</c:v>
+                  <c:v>20.895566666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7359200000000001</c:v>
+                  <c:v>9.7124199999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2829900000000016</c:v>
+                  <c:v>3.3402266666666556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.110199999999999</c:v>
+                  <c:v>1.1272166666666692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5835,22 +5895,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6947.72</c:v>
+                  <c:v>8572.4849999999988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7242.23</c:v>
+                  <c:v>10980.020000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5610</c:v>
+                  <c:v>8351.5666666666657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3332.62</c:v>
+                  <c:v>4412.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>219.917</c:v>
+                  <c:v>212.26666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121.5</c:v>
+                  <c:v>123.53616666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5910,22 +5970,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8531.2099999999991</c:v>
+                  <c:v>12564.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5917.73</c:v>
+                  <c:v>10654.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3931.02</c:v>
+                  <c:v>7891.8383333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1742.28</c:v>
+                  <c:v>3574.3683333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.03299999999999</c:v>
+                  <c:v>198.29166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121.867</c:v>
+                  <c:v>122.81950000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5985,22 +6045,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8291.43</c:v>
+                  <c:v>12085.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5844.35</c:v>
+                  <c:v>8824.0950000000012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2646.72</c:v>
+                  <c:v>3750.1983333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166.15</c:v>
+                  <c:v>165.96099999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.7667</c:v>
+                  <c:v>97.755550000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.633299999999998</c:v>
+                  <c:v>63.61665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6060,22 +6120,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5855.32</c:v>
+                  <c:v>10547.861666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2323.48</c:v>
+                  <c:v>3880.7533333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.81699999999999</c:v>
+                  <c:v>126.43033333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.466700000000003</c:v>
+                  <c:v>75.661100000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.616700000000002</c:v>
+                  <c:v>48.327750000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.95</c:v>
+                  <c:v>31.39661666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6214,7 +6274,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6531,22 +6591,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1252.2</c:v>
+                  <c:v>1592.0983333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252.96700000000001</c:v>
+                  <c:v>253.08600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.31699999999999</c:v>
+                  <c:v>117.66366666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.066699999999997</c:v>
+                  <c:v>67.783349999999984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.166699999999999</c:v>
+                  <c:v>43.680550000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.7667</c:v>
+                  <c:v>28.541666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6606,22 +6666,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5855.32</c:v>
+                  <c:v>10547.861666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2323.48</c:v>
+                  <c:v>3880.7533333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.81699999999999</c:v>
+                  <c:v>126.43033333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.466700000000003</c:v>
+                  <c:v>75.661100000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.616700000000002</c:v>
+                  <c:v>48.327750000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.95</c:v>
+                  <c:v>31.39661666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6681,22 +6741,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6552.1</c:v>
+                  <c:v>11982.766666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5290.8</c:v>
+                  <c:v>9059.5983333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2396.87</c:v>
+                  <c:v>3536.1549999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.5167</c:v>
+                  <c:v>79.022216666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.366700000000002</c:v>
+                  <c:v>49.086133333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.466699999999999</c:v>
+                  <c:v>32.105550000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6756,22 +6816,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6777.38</c:v>
+                  <c:v>12403.699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6574.95</c:v>
+                  <c:v>10366.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4233.8</c:v>
+                  <c:v>6629.6066666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1044.48</c:v>
+                  <c:v>1491.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.883299999999998</c:v>
+                  <c:v>49.816666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.9</c:v>
+                  <c:v>32.622199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6805,22 +6865,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7056.38</c:v>
+                  <c:v>12597.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7638.25</c:v>
+                  <c:v>11094.641666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5225.87</c:v>
+                  <c:v>8248.1283333333322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3205.75</c:v>
+                  <c:v>4306.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.9833</c:v>
+                  <c:v>76.208349999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.333300000000001</c:v>
+                  <c:v>33.06666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6959,7 +7019,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
+          <c:max val="13000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7224,7 +7284,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7233,10 +7293,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7256,6 +7314,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -7290,27 +7362,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6111.28</c:v>
+                  <c:v>10440.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2063.87</c:v>
+                  <c:v>2463.4983333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>508.5</c:v>
+                  <c:v>511.35833333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>286.28300000000002</c:v>
+                  <c:v>289.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.333</c:v>
+                  <c:v>182.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.65</c:v>
+                  <c:v>118.01116666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D3C-4F6E-BCAD-88758CB9B372}"/>
@@ -7454,7 +7526,8 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6250"/>
+          <c:max val="10500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7567,7 +7640,7 @@
         <c:crossAx val="1200840127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="250"/>
+        <c:majorUnit val="500"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7687,7 +7760,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7696,10 +7769,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7719,6 +7790,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -7753,27 +7838,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.20896100000000001</c:v>
+                  <c:v>0.21552933333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82890600000000003</c:v>
+                  <c:v>0.8347688333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.85629</c:v>
+                  <c:v>1.8637766666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3314499999999998</c:v>
+                  <c:v>3.3398950000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3114299999999997</c:v>
+                  <c:v>5.2943349999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2611299999999996</c:v>
+                  <c:v>8.2806449999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D3CE-41D4-8728-9C63F5BE5822}"/>
@@ -8157,7 +8242,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8166,10 +8251,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8189,6 +8272,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -8223,27 +8320,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.12668699999999999</c:v>
+                  <c:v>0.12936800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50402199999999997</c:v>
+                  <c:v>0.50899016666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1261300000000001</c:v>
+                  <c:v>1.1295733333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.02075</c:v>
+                  <c:v>2.0261499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1967099999999999</c:v>
+                  <c:v>3.1915866666666672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9564899999999996</c:v>
+                  <c:v>4.9587899999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3213-4CDA-AC7E-8FEE6E185624}"/>
@@ -8383,6 +8480,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8621,7 +8719,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8630,10 +8728,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8653,6 +8749,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>flag_test_data!$E$2:$E$6</c:f>
@@ -8684,24 +8794,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>117.65</c:v>
+                  <c:v>118.01116666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.867</c:v>
+                  <c:v>122.81950000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>898.5</c:v>
+                  <c:v>2375.8066666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1771.18</c:v>
+                  <c:v>5194.2833333333328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2196.67</c:v>
+                  <c:v>5321.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E3D-4D05-961C-E91F98B8EC03}"/>
@@ -8840,7 +8950,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2200"/>
+          <c:max val="5500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8959,7 +9069,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9205,10 +9315,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.2611299999999996</c:v>
+                  <c:v>8.2806449999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27358199999999999</c:v>
+                  <c:v>0.21774666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,16 +9662,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.9564899999999996</c:v>
+                  <c:v>4.9587899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4224100000000002</c:v>
+                  <c:v>2.4283033333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41868899999999998</c:v>
+                  <c:v>0.42365466666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4635410000000002</c:v>
+                  <c:v>0.46989700000000045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9786,22 +9896,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6111.28</c:v>
+                  <c:v>10440.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2063.87</c:v>
+                  <c:v>2463.4983333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>508.5</c:v>
+                  <c:v>511.35833333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>286.28300000000002</c:v>
+                  <c:v>289.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.333</c:v>
+                  <c:v>182.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.65</c:v>
+                  <c:v>118.01116666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9861,22 +9971,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8531.2099999999991</c:v>
+                  <c:v>12564.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5917.73</c:v>
+                  <c:v>10654.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3931.02</c:v>
+                  <c:v>7891.8383333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1742.28</c:v>
+                  <c:v>3574.3683333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.03299999999999</c:v>
+                  <c:v>198.29166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121.867</c:v>
+                  <c:v>122.81950000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9936,22 +10046,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8689.5</c:v>
+                  <c:v>12874.699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6223.45</c:v>
+                  <c:v>11772.466666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5544.07</c:v>
+                  <c:v>10626.800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3913.36</c:v>
+                  <c:v>8681.7166666666672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2370.63</c:v>
+                  <c:v>6144.541666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>898.5</c:v>
+                  <c:v>2375.8066666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10011,22 +10121,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8677.65</c:v>
+                  <c:v>13010.016666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7245.11</c:v>
+                  <c:v>12501.949999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5883.02</c:v>
+                  <c:v>11338.730000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4448.1499999999996</c:v>
+                  <c:v>9748.6249999999982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3044.43</c:v>
+                  <c:v>7351.5449999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1771.18</c:v>
+                  <c:v>5194.2833333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10060,22 +10170,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8669.8799999999992</c:v>
+                  <c:v>13076.800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7290.17</c:v>
+                  <c:v>12637.933333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6043.08</c:v>
+                  <c:v>11728.700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4723.28</c:v>
+                  <c:v>10046.571666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3419.3</c:v>
+                  <c:v>7399.8216666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2196.67</c:v>
+                  <c:v>5321.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10214,7 +10324,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10483,7 +10593,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -10492,10 +10602,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10515,6 +10623,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -10549,27 +10671,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6095.35</c:v>
+                  <c:v>7154.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2631.13</c:v>
+                  <c:v>2522.5450000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>524.16700000000003</c:v>
+                  <c:v>517.15549999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295.2</c:v>
+                  <c:v>289.85833333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.95</c:v>
+                  <c:v>185.53333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.583</c:v>
+                  <c:v>119.575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-73FC-49DA-97F4-566CD6772BA6}"/>
@@ -10713,7 +10835,8 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6500"/>
+          <c:max val="7500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10946,7 +11069,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -10955,10 +11078,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10978,6 +11099,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -11012,27 +11147,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.212149</c:v>
+                  <c:v>0.21720516666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82582699999999998</c:v>
+                  <c:v>0.83218333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8213299999999999</c:v>
+                  <c:v>1.8384199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2663099999999998</c:v>
+                  <c:v>3.3236133333333338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2207299999999996</c:v>
+                  <c:v>5.2215033333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1419599999999992</c:v>
+                  <c:v>8.1679049999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7CB5-4DC9-9F19-E4A01F2B9FEA}"/>
@@ -11472,22 +11607,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7044.63</c:v>
+                  <c:v>8765.0516666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7918.57</c:v>
+                  <c:v>12327.683333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6208.17</c:v>
+                  <c:v>10657.685000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5663.05</c:v>
+                  <c:v>8243.0466666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4212.3599999999997</c:v>
+                  <c:v>6157.6533333333327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>891.1</c:v>
+                  <c:v>2409.3416666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11547,22 +11682,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8689.5</c:v>
+                  <c:v>12874.699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6223.45</c:v>
+                  <c:v>11772.466666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5544.07</c:v>
+                  <c:v>10626.800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3913.36</c:v>
+                  <c:v>8681.7166666666672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2370.63</c:v>
+                  <c:v>6144.541666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>898.5</c:v>
+                  <c:v>2375.8066666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11622,22 +11757,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8531.85</c:v>
+                  <c:v>12647.083333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6743.23</c:v>
+                  <c:v>10893.041666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5457.68</c:v>
+                  <c:v>8373.0083333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3261.33</c:v>
+                  <c:v>4752.4816666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115.517</c:v>
+                  <c:v>134.50549999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.366699999999994</c:v>
+                  <c:v>65.588883333333342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11697,22 +11832,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6552.1</c:v>
+                  <c:v>11982.766666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5290.8</c:v>
+                  <c:v>9059.5983333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2396.87</c:v>
+                  <c:v>3536.1549999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.5167</c:v>
+                  <c:v>79.022216666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.366700000000002</c:v>
+                  <c:v>49.086133333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.466699999999999</c:v>
+                  <c:v>32.105550000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11851,7 +11986,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12120,7 +12255,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -12129,10 +12264,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -12152,6 +12285,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -12186,27 +12333,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.12942100000000001</c:v>
+                  <c:v>0.13327266666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50034800000000001</c:v>
+                  <c:v>0.50583366666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0887899999999999</c:v>
+                  <c:v>1.10419</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.95451</c:v>
+                  <c:v>2.006016666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.11551</c:v>
+                  <c:v>3.1192416666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8254599999999996</c:v>
+                  <c:v>4.8452316666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1FF1-4C9D-B237-85E3329D0725}"/>
@@ -12346,6 +12493,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12587,7 +12735,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -12596,10 +12744,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -12619,6 +12765,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>flag_test_data!$E$2:$E$6</c:f>
@@ -12650,24 +12810,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>119.583</c:v>
+                  <c:v>119.575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.5</c:v>
+                  <c:v>123.53616666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>891.1</c:v>
+                  <c:v>2409.3416666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1775.88</c:v>
+                  <c:v>5234.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2207.5700000000002</c:v>
+                  <c:v>5323.1149999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F36-4F7A-B509-461C3CEB1C52}"/>
@@ -12806,7 +12966,7 @@
         <c:axId val="1263290943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2300"/>
+          <c:max val="5500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12925,7 +13085,7 @@
         <c:crossAx val="1263295519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13171,10 +13331,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.1419599999999992</c:v>
+                  <c:v>8.1679049999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.235953</c:v>
+                  <c:v>0.21690666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13518,16 +13678,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.8254599999999996</c:v>
+                  <c:v>4.8452316666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4267699999999999</c:v>
+                  <c:v>2.4287066666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.424757</c:v>
+                  <c:v>0.42440116666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46497300000000052</c:v>
+                  <c:v>0.46956549999999897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13756,22 +13916,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6095.35</c:v>
+                  <c:v>7154.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2631.13</c:v>
+                  <c:v>2522.5450000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>524.16700000000003</c:v>
+                  <c:v>517.15549999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295.2</c:v>
+                  <c:v>289.85833333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.95</c:v>
+                  <c:v>185.53333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.583</c:v>
+                  <c:v>119.575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13831,22 +13991,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6947.72</c:v>
+                  <c:v>8572.4849999999988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7242.23</c:v>
+                  <c:v>10980.020000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5610</c:v>
+                  <c:v>8351.5666666666657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3332.62</c:v>
+                  <c:v>4412.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>219.917</c:v>
+                  <c:v>212.26666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121.5</c:v>
+                  <c:v>123.53616666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13906,22 +14066,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7044.63</c:v>
+                  <c:v>8765.0516666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7918.57</c:v>
+                  <c:v>12327.683333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6208.17</c:v>
+                  <c:v>10657.685000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5663.05</c:v>
+                  <c:v>8243.0466666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4212.3599999999997</c:v>
+                  <c:v>6157.6533333333327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>891.1</c:v>
+                  <c:v>2409.3416666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13981,22 +14141,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7091.75</c:v>
+                  <c:v>8829.2116666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8096.52</c:v>
+                  <c:v>12648.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6625.43</c:v>
+                  <c:v>11402.904999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6463.32</c:v>
+                  <c:v>9239.1666666666661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5594.27</c:v>
+                  <c:v>7340.041666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1775.88</c:v>
+                  <c:v>5234.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14030,22 +14190,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7309.33</c:v>
+                  <c:v>8857.4583333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8003.52</c:v>
+                  <c:v>12796.299999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6765.13</c:v>
+                  <c:v>11821.363333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6886.17</c:v>
+                  <c:v>9461.9583333333339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3771.82</c:v>
+                  <c:v>7407.1883333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2207.5700000000002</c:v>
+                  <c:v>5323.1149999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14184,7 +14344,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8500"/>
+          <c:max val="13000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14505,22 +14665,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7091.75</c:v>
+                  <c:v>8829.2116666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8096.52</c:v>
+                  <c:v>12648.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6625.43</c:v>
+                  <c:v>11402.904999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6463.32</c:v>
+                  <c:v>9239.1666666666661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5594.27</c:v>
+                  <c:v>7340.041666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1775.88</c:v>
+                  <c:v>5234.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14580,22 +14740,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8677.65</c:v>
+                  <c:v>13010.016666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7245.11</c:v>
+                  <c:v>12501.949999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5883.02</c:v>
+                  <c:v>11338.730000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4448.1499999999996</c:v>
+                  <c:v>9748.6249999999982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3044.43</c:v>
+                  <c:v>7351.5449999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1771.18</c:v>
+                  <c:v>5194.2833333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14655,22 +14815,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8625.57</c:v>
+                  <c:v>12843.199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7330</c:v>
+                  <c:v>11628.408333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5932.58</c:v>
+                  <c:v>9882.6183333333338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4748.55</c:v>
+                  <c:v>7427.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2897.88</c:v>
+                  <c:v>4221.9866666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.683300000000003</c:v>
+                  <c:v>87.002716666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14730,22 +14890,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6777.38</c:v>
+                  <c:v>12403.699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6574.95</c:v>
+                  <c:v>10366.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4233.8</c:v>
+                  <c:v>6629.6066666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1044.48</c:v>
+                  <c:v>1491.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.883299999999998</c:v>
+                  <c:v>49.816666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.9</c:v>
+                  <c:v>32.622199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14884,7 +15044,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -15205,22 +15365,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7309.33</c:v>
+                  <c:v>8857.4583333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8003.52</c:v>
+                  <c:v>12796.299999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6765.13</c:v>
+                  <c:v>11821.363333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6886.17</c:v>
+                  <c:v>9461.9583333333339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3771.82</c:v>
+                  <c:v>7407.1883333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2207.5700000000002</c:v>
+                  <c:v>5323.1149999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15280,22 +15440,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8669.8799999999992</c:v>
+                  <c:v>13076.800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7290.17</c:v>
+                  <c:v>12637.933333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6043.08</c:v>
+                  <c:v>11728.700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4723.28</c:v>
+                  <c:v>10046.571666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3419.3</c:v>
+                  <c:v>7399.8216666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2196.67</c:v>
+                  <c:v>5321.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15355,22 +15515,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8612.6299999999992</c:v>
+                  <c:v>12959.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7695.12</c:v>
+                  <c:v>12177.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6073.47</c:v>
+                  <c:v>10679.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5603.37</c:v>
+                  <c:v>8772.3283333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4217.28</c:v>
+                  <c:v>6192.1816666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1927.35</c:v>
+                  <c:v>2830.6949999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15430,22 +15590,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7056.38</c:v>
+                  <c:v>12597.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7638.25</c:v>
+                  <c:v>11094.641666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5225.87</c:v>
+                  <c:v>8248.1283333333322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3205.75</c:v>
+                  <c:v>4306.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.9833</c:v>
+                  <c:v>76.208349999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.333300000000001</c:v>
+                  <c:v>33.06666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15584,7 +15744,7 @@
         <c:axId val="1032936703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="13500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -15896,16 +16056,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.1419599999999992</c:v>
+                  <c:v>8.1679049999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2611299999999996</c:v>
+                  <c:v>8.2806449999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.883100000000001</c:v>
+                  <c:v>16.070483333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.715400000000002</c:v>
+                  <c:v>35.077283333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16273,7 +16433,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -16282,10 +16442,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -16305,6 +16463,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -16339,27 +16511,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5833.57</c:v>
+                  <c:v>7953.291666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>572.03300000000002</c:v>
+                  <c:v>576.61099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>265.11700000000002</c:v>
+                  <c:v>263.45816666666673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.983</c:v>
+                  <c:v>149.19449999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.066699999999997</c:v>
+                  <c:v>94.780549999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.4</c:v>
+                  <c:v>61.630550000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BA02-456F-BA16-363DBFA98B7B}"/>
@@ -16503,7 +16675,8 @@
         <c:axId val="1200840959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000"/>
+          <c:max val="8000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16736,7 +16909,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -16745,10 +16918,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -16768,6 +16939,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -16802,27 +16987,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.41163499999999997</c:v>
+                  <c:v>0.40962033333333342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.66167</c:v>
+                  <c:v>1.6474099999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.66757</c:v>
+                  <c:v>3.7047666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5022200000000003</c:v>
+                  <c:v>6.5767649999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.2272</c:v>
+                  <c:v>10.387833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.883100000000001</c:v>
+                  <c:v>16.070483333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C716-4ABB-9AA8-7819BF64BA03}"/>
@@ -16966,7 +17151,7 @@
         <c:axId val="1316746351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
+          <c:max val="16.5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -17206,7 +17391,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -17215,10 +17400,8 @@
             <c:v>a</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -17238,6 +17421,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>([1]sheet_test_data!$D$2,[1]sheet_test_data!$D$7,[1]sheet_test_data!$D$12,[1]sheet_test_data!$D$17,[1]sheet_test_data!$D$22,[1]sheet_test_data!$D$27)</c:f>
@@ -17272,27 +17469,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.25828099999999998</c:v>
+                  <c:v>0.25417366666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04383</c:v>
+                  <c:v>1.0292283333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2745899999999999</c:v>
+                  <c:v>2.3066133333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0067300000000001</c:v>
+                  <c:v>4.0735916666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2620300000000002</c:v>
+                  <c:v>6.4113916666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7427100000000006</c:v>
+                  <c:v>9.901628333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B4D3-4EEA-9684-4DACFE68E900}"/>
@@ -17432,6 +17629,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -37548,10 +37746,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -37856,8 +38054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N118" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A91" activeCellId="1" sqref="A62:XFD62 A91:XFD91"/>
+    <sheetView topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U160" sqref="U160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37927,40 +38125,40 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.12942100000000001</v>
+        <v>0.13327266666666668</v>
       </c>
       <c r="G2">
-        <v>6.3400200000000004E-2</v>
+        <v>6.3432816666666655E-2</v>
       </c>
       <c r="H2">
-        <v>8.5923100000000006E-3</v>
+        <v>8.4945583333333324E-3</v>
       </c>
       <c r="I2">
-        <v>0.212149</v>
+        <v>0.21720516666666667</v>
       </c>
       <c r="J2">
-        <v>0.131519</v>
+        <v>0.11219356666666667</v>
       </c>
       <c r="K2">
-        <v>6095.35</v>
+        <v>7154.875</v>
       </c>
       <c r="L2">
-        <v>55695</v>
+        <v>56826.333333333336</v>
       </c>
       <c r="M2">
         <f>I2-(F2+G2+H2)</f>
-        <v>1.0735489999999986E-2</v>
+        <v>1.2005125000000005E-2</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
       </c>
       <c r="Q2">
         <f>I7/I2</f>
-        <v>3.8926744882134723</v>
+        <v>3.8313238405163781</v>
       </c>
       <c r="R2">
         <f>K2/K7</f>
-        <v>2.3166282167737817</v>
+        <v>2.836371600903056</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -37980,40 +38178,40 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>0.124678</v>
+        <v>0.12977249999999999</v>
       </c>
       <c r="G3">
-        <v>6.3311099999999995E-2</v>
+        <v>6.3213233333333341E-2</v>
       </c>
       <c r="H3">
-        <v>8.6330599999999997E-3</v>
+        <v>8.4275333333333341E-3</v>
       </c>
       <c r="I3">
-        <v>0.21892400000000001</v>
+        <v>0.22792983333333336</v>
       </c>
       <c r="J3">
-        <v>0.13744200000000001</v>
+        <v>0.11252728333333334</v>
       </c>
       <c r="K3">
-        <v>6947.72</v>
+        <v>8572.4849999999988</v>
       </c>
       <c r="L3">
-        <v>11844</v>
+        <v>11889.333333333334</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M61" si="0">I3-(F3+G3+H3)</f>
-        <v>2.2301840000000017E-2</v>
+        <v>2.6516566666666713E-2</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="1">I8/I3</f>
-        <v>3.7256216769289798</v>
+        <v>3.6241284781354492</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R66" si="2">K3/K8</f>
-        <v>0.95933434867437251</v>
+        <v>0.78073491669414052</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -38033,40 +38231,40 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>0.122081</v>
+        <v>0.12713783333333334</v>
       </c>
       <c r="G4">
-        <v>6.33518E-2</v>
+        <v>6.3213233333333327E-2</v>
       </c>
       <c r="H4">
-        <v>8.6491299999999997E-3</v>
+        <v>8.427868333333333E-3</v>
       </c>
       <c r="I4">
-        <v>0.22747500000000001</v>
+        <v>0.24061316666666666</v>
       </c>
       <c r="J4">
-        <v>0.13846900000000001</v>
+        <v>0.11247838333333333</v>
       </c>
       <c r="K4">
-        <v>7044.63</v>
+        <v>8765.0516666666663</v>
       </c>
       <c r="L4">
-        <v>5965</v>
+        <v>5977.166666666667</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>3.3393069999999997E-2</v>
+        <v>4.1834231666666638E-2</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>3.5401164963182765</v>
+        <v>3.4316582841476544</v>
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>0.88963411323004027</v>
+        <v>0.7110055822870206</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -38086,40 +38284,40 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>0.121797</v>
+        <v>0.12629733333333334</v>
       </c>
       <c r="G5">
-        <v>6.3349500000000003E-2</v>
+        <v>6.3223366666666683E-2</v>
       </c>
       <c r="H5">
-        <v>8.6610999999999997E-3</v>
+        <v>8.4446499999999997E-3</v>
       </c>
       <c r="I5">
-        <v>0.23838999999999999</v>
+        <v>0.25506750000000006</v>
       </c>
       <c r="J5">
-        <v>0.13849</v>
+        <v>0.11245591666666667</v>
       </c>
       <c r="K5">
-        <v>7091.75</v>
+        <v>8829.2116666666661</v>
       </c>
       <c r="L5">
-        <v>3986</v>
+        <v>3992.3333333333335</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>4.4582399999999994E-2</v>
+        <v>5.7102150000000018E-2</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>3.4265657116489785</v>
+        <v>3.3153962513190947</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>0.87590100438212959</v>
+        <v>0.69803589052323101</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -38139,40 +38337,40 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>0.115734</v>
+        <v>0.12026516666666666</v>
       </c>
       <c r="G6">
-        <v>6.1651200000000003E-2</v>
+        <v>6.1522816666666667E-2</v>
       </c>
       <c r="H6">
-        <v>8.6929799999999995E-3</v>
+        <v>8.4443450000000007E-3</v>
       </c>
       <c r="I6">
-        <v>0.24284900000000001</v>
+        <v>0.26362433333333335</v>
       </c>
       <c r="J6">
-        <v>0.13489699999999999</v>
+        <v>0.11273910000000002</v>
       </c>
       <c r="K6">
-        <v>7309.33</v>
+        <v>8857.4583333333339</v>
       </c>
       <c r="L6">
-        <v>2993</v>
+        <v>2994.1666666666665</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>5.677082E-2</v>
+        <v>7.3392005000000038E-2</v>
       </c>
       <c r="P6" t="s">
         <v>24</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>3.4046382731656295</v>
+        <v>3.3059170056380727</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0.91326441365799038</v>
+        <v>0.69218901817973444</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -38192,40 +38390,40 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.50034800000000001</v>
+        <v>0.50583366666666663</v>
       </c>
       <c r="G7">
-        <v>0.25549300000000003</v>
+        <v>0.25619666666666668</v>
       </c>
       <c r="H7">
-        <v>3.6541799999999999E-2</v>
+        <v>3.6687933333333332E-2</v>
       </c>
       <c r="I7">
-        <v>0.82582699999999998</v>
+        <v>0.83218333333333339</v>
       </c>
       <c r="J7">
-        <v>8.0151799999999995E-2</v>
+        <v>8.0963983333333336E-2</v>
       </c>
       <c r="K7">
-        <v>2631.13</v>
+        <v>2522.5450000000001</v>
       </c>
       <c r="L7">
-        <v>57459</v>
+        <v>58037.666666666664</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>3.3444200000000035E-2</v>
+        <v>3.346506666666671E-2</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>2.2054619187795992</v>
+        <v>2.2091526306302693</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>5.0196406870329495</v>
+        <v>4.8777301991373969</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -38245,40 +38443,40 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.47892499999999999</v>
+        <v>0.48248099999999999</v>
       </c>
       <c r="G8">
-        <v>0.25576500000000002</v>
+        <v>0.25628900000000004</v>
       </c>
       <c r="H8">
-        <v>3.6605899999999997E-2</v>
+        <v>3.6720066666666669E-2</v>
       </c>
       <c r="I8">
-        <v>0.81562800000000002</v>
+        <v>0.82604699999999998</v>
       </c>
       <c r="J8">
-        <v>0.115685</v>
+        <v>7.7250449999999998E-2</v>
       </c>
       <c r="K8">
-        <v>7242.23</v>
+        <v>10980.020000000002</v>
       </c>
       <c r="L8">
-        <v>11869</v>
+        <v>11932.166666666666</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>4.4332099999999985E-2</v>
+        <v>5.055693333333322E-2</v>
       </c>
       <c r="P8" t="s">
         <v>23</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>2.2412055495887833</v>
+        <v>2.2251013965710591</v>
       </c>
       <c r="R8">
         <f t="shared" si="2"/>
-        <v>1.2909500891265597</v>
+        <v>1.3147257799933749</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -38298,40 +38496,40 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>0.46340900000000002</v>
+        <v>0.46755733333333332</v>
       </c>
       <c r="G9">
-        <v>0.24848700000000001</v>
+        <v>0.24917149999999999</v>
       </c>
       <c r="H9">
-        <v>3.6720999999999997E-2</v>
+        <v>3.6839616666666665E-2</v>
       </c>
       <c r="I9">
-        <v>0.805288</v>
+        <v>0.82570216666666685</v>
       </c>
       <c r="J9">
-        <v>0.115874</v>
+        <v>7.4891516666666672E-2</v>
       </c>
       <c r="K9">
-        <v>7918.57</v>
+        <v>12327.683333333334</v>
       </c>
       <c r="L9">
-        <v>5973</v>
+        <v>5992</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>5.6670999999999916E-2</v>
+        <v>7.2133716666666903E-2</v>
       </c>
       <c r="P9" t="s">
         <v>24</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>2.2422909567757126</v>
+        <v>2.2034317054999448</v>
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>1.2755079194029801</v>
+        <v>1.1566942852348641</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -38351,40 +38549,40 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <v>0.46301999999999999</v>
+        <v>0.46699016666666665</v>
       </c>
       <c r="G10">
-        <v>0.24818699999999999</v>
+        <v>0.24872716666666669</v>
       </c>
       <c r="H10">
-        <v>3.6778100000000001E-2</v>
+        <v>3.6857749999999995E-2</v>
       </c>
       <c r="I10">
-        <v>0.816859</v>
+        <v>0.84564983333333332</v>
       </c>
       <c r="J10">
-        <v>0.11655</v>
+        <v>7.5118316666666671E-2</v>
       </c>
       <c r="K10">
-        <v>8096.52</v>
+        <v>12648.65</v>
       </c>
       <c r="L10">
-        <v>3989</v>
+        <v>3999.6666666666665</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>6.8873900000000043E-2</v>
+        <v>9.3074749999999984E-2</v>
       </c>
       <c r="P10" t="s">
         <v>24</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>2.2218399993144469</v>
+        <v>2.1757567503807231</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>1.2220369093024905</v>
+        <v>1.1092480381095871</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -38404,40 +38602,40 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>0.46143800000000001</v>
+        <v>0.46772266666666668</v>
       </c>
       <c r="G11">
-        <v>0.248617</v>
+        <v>0.24872983333333332</v>
       </c>
       <c r="H11">
-        <v>3.6485900000000002E-2</v>
+        <v>3.6881666666666667E-2</v>
       </c>
       <c r="I11">
-        <v>0.82681300000000002</v>
+        <v>0.87152016666666654</v>
       </c>
       <c r="J11">
-        <v>0.119475</v>
+        <v>7.5152933333333324E-2</v>
       </c>
       <c r="K11">
-        <v>8003.52</v>
+        <v>12796.299999999997</v>
       </c>
       <c r="L11">
-        <v>2994</v>
+        <v>3002.3333333333335</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>8.0272100000000068E-2</v>
+        <v>0.1181859999999999</v>
       </c>
       <c r="P11" t="s">
         <v>24</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>2.2087944916202331</v>
+        <v>2.1362672617443739</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>1.1830548710815609</v>
+        <v>1.0824724390221205</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -38457,40 +38655,40 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1.0887899999999999</v>
+        <v>1.10419</v>
       </c>
       <c r="G12">
-        <v>0.579322</v>
+        <v>0.57926966666666668</v>
       </c>
       <c r="H12">
-        <v>8.2183300000000001E-2</v>
+        <v>8.2929299999999997E-2</v>
       </c>
       <c r="I12">
-        <v>1.8213299999999999</v>
+        <v>1.8384199999999999</v>
       </c>
       <c r="J12">
-        <v>9.3535400000000005E-2</v>
+        <v>9.9495850000000011E-2</v>
       </c>
       <c r="K12">
-        <v>524.16700000000003</v>
+        <v>517.15549999999996</v>
       </c>
       <c r="L12">
-        <v>31332</v>
+        <v>30967.666666666668</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>7.1034700000000006E-2</v>
+        <v>7.2031033333333161E-2</v>
       </c>
       <c r="P12" t="s">
         <v>23</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>1.7933652880038213</v>
+        <v>1.8078639991586982</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>1.7756334688346884</v>
+        <v>1.7841664031279645</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -38510,40 +38708,40 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1.0844800000000001</v>
+        <v>1.0882000000000001</v>
       </c>
       <c r="G13">
-        <v>0.57879100000000006</v>
+        <v>0.57937583333333331</v>
       </c>
       <c r="H13">
-        <v>8.2856899999999997E-2</v>
+        <v>8.303986666666667E-2</v>
       </c>
       <c r="I13">
-        <v>1.82799</v>
+        <v>1.8380383333333334</v>
       </c>
       <c r="J13">
-        <v>0.11304599999999999</v>
+        <v>7.6573816666666669E-2</v>
       </c>
       <c r="K13">
-        <v>5610</v>
+        <v>8351.5666666666657</v>
       </c>
       <c r="L13">
-        <v>11865</v>
+        <v>11924.666666666666</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>8.1862099999999938E-2</v>
+        <v>8.7422633333333444E-2</v>
       </c>
       <c r="P13" t="s">
         <v>24</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>1.7561638739818051</v>
+        <v>1.7568948054220845</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>1.6833602390911655</v>
+        <v>1.8925090339968333</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -38563,40 +38761,40 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>1.0667899999999999</v>
+        <v>1.0663916666666668</v>
       </c>
       <c r="G14">
-        <v>0.56331299999999995</v>
+        <v>0.56224149999999995</v>
       </c>
       <c r="H14">
-        <v>8.2983799999999996E-2</v>
+        <v>8.3188749999999992E-2</v>
       </c>
       <c r="I14">
-        <v>1.80569</v>
+        <v>1.8193783333333335</v>
       </c>
       <c r="J14">
-        <v>0.131989</v>
+        <v>7.7931700000000007E-2</v>
       </c>
       <c r="K14">
-        <v>6208.17</v>
+        <v>10657.685000000001</v>
       </c>
       <c r="L14">
-        <v>5963</v>
+        <v>5986.833333333333</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>9.2603200000000108E-2</v>
+        <v>0.10755641666666671</v>
       </c>
       <c r="P14" t="s">
         <v>24</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>1.7879148691082078</v>
+        <v>1.8015732480050419</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>1.0962590830029755</v>
+        <v>1.2929303243056574</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -38616,40 +38814,40 @@
         <v>15</v>
       </c>
       <c r="F15">
-        <v>1.0646</v>
+        <v>1.0674133333333333</v>
       </c>
       <c r="G15">
-        <v>0.56404200000000004</v>
+        <v>0.56203066666666668</v>
       </c>
       <c r="H15">
-        <v>8.2666000000000003E-2</v>
+        <v>8.3183016666666665E-2</v>
       </c>
       <c r="I15">
-        <v>1.8149299999999999</v>
+        <v>1.8399283333333336</v>
       </c>
       <c r="J15">
-        <v>0.132549</v>
+        <v>7.8066666666666673E-2</v>
       </c>
       <c r="K15">
-        <v>6625.43</v>
+        <v>11402.904999999999</v>
       </c>
       <c r="L15">
-        <v>3986</v>
+        <v>3997.6666666666665</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>0.10362199999999988</v>
+        <v>0.127301316666667</v>
       </c>
       <c r="P15" t="s">
         <v>24</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>1.8011493556225309</v>
+        <v>1.7973553317746975</v>
       </c>
       <c r="R15">
         <f t="shared" si="2"/>
-        <v>1.0250815370428821</v>
+        <v>1.2341919365022098</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -38669,40 +38867,40 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>1.06515</v>
+        <v>1.0691949999999999</v>
       </c>
       <c r="G16">
-        <v>0.563828</v>
+        <v>0.5620816666666667</v>
       </c>
       <c r="H16">
-        <v>8.2942000000000002E-2</v>
+        <v>8.3181866666666673E-2</v>
       </c>
       <c r="I16">
-        <v>1.82626</v>
+        <v>1.8617999999999999</v>
       </c>
       <c r="J16">
-        <v>0.134076</v>
+        <v>7.7811183333333339E-2</v>
       </c>
       <c r="K16">
-        <v>6765.13</v>
+        <v>11821.363333333333</v>
       </c>
       <c r="L16">
-        <v>2993</v>
+        <v>3000.5</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>0.11433999999999989</v>
+        <v>0.14734146666666681</v>
       </c>
       <c r="P16" t="s">
         <v>24</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>1.7991852200672411</v>
+        <v>1.7963055466036451</v>
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>0.982422740071767</v>
+        <v>1.2493569424934055</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -38722,40 +38920,40 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.95451</v>
+        <v>2.006016666666667</v>
       </c>
       <c r="G17">
-        <v>1.03786</v>
+        <v>1.0367033333333333</v>
       </c>
       <c r="H17">
-        <v>0.147096</v>
+        <v>0.14881216666666666</v>
       </c>
       <c r="I17">
-        <v>3.2663099999999998</v>
+        <v>3.3236133333333338</v>
       </c>
       <c r="J17">
-        <v>0.125116</v>
+        <v>0.13659499999999999</v>
       </c>
       <c r="K17">
-        <v>295.2</v>
+        <v>289.85833333333335</v>
       </c>
       <c r="L17">
-        <v>17691</v>
+        <v>17344.666666666668</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>0.12684399999999973</v>
+        <v>0.13208116666666703</v>
       </c>
       <c r="P17" t="s">
         <v>23</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>1.5983571675682957</v>
+        <v>1.5710321296901764</v>
       </c>
       <c r="R17">
         <f t="shared" si="2"/>
-        <v>1.5875235278300619</v>
+        <v>1.5622978799856271</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -38775,40 +38973,40 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>1.92208</v>
+        <v>1.9307966666666667</v>
       </c>
       <c r="G18">
-        <v>1.00552</v>
+        <v>1.005825</v>
       </c>
       <c r="H18">
-        <v>0.14688300000000001</v>
+        <v>0.14905499999999999</v>
       </c>
       <c r="I18">
-        <v>3.2102499999999998</v>
+        <v>3.2292399999999994</v>
       </c>
       <c r="J18">
-        <v>0.109512</v>
+        <v>8.5295400000000007E-2</v>
       </c>
       <c r="K18">
-        <v>3332.62</v>
+        <v>4412.96</v>
       </c>
       <c r="L18">
-        <v>11870</v>
+        <v>11906.833333333334</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>0.13576699999999997</v>
+        <v>0.14356333333333282</v>
       </c>
       <c r="P18" t="s">
         <v>24</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>1.5835433377462815</v>
+        <v>1.5794856787768436</v>
       </c>
       <c r="R18">
         <f t="shared" si="2"/>
-        <v>15.153989914376787</v>
+        <v>20.789698492462314</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -38828,40 +39026,40 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>1.92652</v>
+        <v>1.9572800000000001</v>
       </c>
       <c r="G19">
-        <v>1.0049300000000001</v>
+        <v>1.0053683333333332</v>
       </c>
       <c r="H19">
-        <v>0.14717</v>
+        <v>0.14930716666666669</v>
       </c>
       <c r="I19">
-        <v>3.2284199999999998</v>
+        <v>3.2777433333333335</v>
       </c>
       <c r="J19">
-        <v>0.119752</v>
+        <v>8.7316350000000001E-2</v>
       </c>
       <c r="K19">
-        <v>5663.05</v>
+        <v>8243.0466666666671</v>
       </c>
       <c r="L19">
-        <v>5967</v>
+        <v>5981</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>0.14979999999999993</v>
+        <v>0.1657878333333338</v>
       </c>
       <c r="P19" t="s">
         <v>24</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>1.5936866950396789</v>
+        <v>1.6008463139782145</v>
       </c>
       <c r="R19">
         <f t="shared" si="2"/>
-        <v>1.3443888936368213</v>
+        <v>1.3386668947477829</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -38881,40 +39079,40 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>1.9495499999999999</v>
+        <v>1.9682316666666668</v>
       </c>
       <c r="G20">
-        <v>1.0071600000000001</v>
+        <v>1.00526</v>
       </c>
       <c r="H20">
-        <v>0.148343</v>
+        <v>0.14871216666666667</v>
       </c>
       <c r="I20">
-        <v>3.2689599999999999</v>
+        <v>3.3070050000000002</v>
       </c>
       <c r="J20">
-        <v>0.12092899999999999</v>
+        <v>8.9420583333333345E-2</v>
       </c>
       <c r="K20">
-        <v>6463.32</v>
+        <v>9239.1666666666661</v>
       </c>
       <c r="L20">
-        <v>3987</v>
+        <v>3993.5</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>0.16390699999999958</v>
+        <v>0.18480116666666646</v>
       </c>
       <c r="P20" t="s">
         <v>24</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
-        <v>1.5902152366501883</v>
+        <v>1.6318204336955442</v>
       </c>
       <c r="R20">
         <f t="shared" si="2"/>
-        <v>1.1553464527096473</v>
+        <v>1.2587349072723246</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -38934,40 +39132,40 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>1.9532499999999999</v>
+        <v>1.986445</v>
       </c>
       <c r="G21">
-        <v>1.00726</v>
+        <v>1.0061416666666667</v>
       </c>
       <c r="H21">
-        <v>0.148475</v>
+        <v>0.14928866666666665</v>
       </c>
       <c r="I21">
-        <v>3.2857799999999999</v>
+        <v>3.344361666666666</v>
       </c>
       <c r="J21">
-        <v>0.12121999999999999</v>
+        <v>9.2338033333333333E-2</v>
       </c>
       <c r="K21">
-        <v>6886.17</v>
+        <v>9461.9583333333339</v>
       </c>
       <c r="L21">
-        <v>2994</v>
+        <v>2998</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.17679499999999981</v>
+        <v>0.20248633333333244</v>
       </c>
       <c r="P21" t="s">
         <v>24</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
-        <v>1.5804770861104518</v>
+        <v>1.6221959646509525</v>
       </c>
       <c r="R21">
         <f t="shared" si="2"/>
-        <v>1.8256889247100869</v>
+        <v>1.2774021541687097</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -38987,40 +39185,40 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>3.11551</v>
+        <v>3.1192416666666669</v>
       </c>
       <c r="G22">
-        <v>1.62775</v>
+        <v>1.6234783333333331</v>
       </c>
       <c r="H22">
-        <v>0.24132400000000001</v>
+        <v>0.24210450000000003</v>
       </c>
       <c r="I22">
-        <v>5.2207299999999996</v>
+        <v>5.2215033333333336</v>
       </c>
       <c r="J22">
-        <v>0.18452099999999999</v>
+        <v>0.18850500000000001</v>
       </c>
       <c r="K22">
-        <v>185.95</v>
+        <v>185.53333333333333</v>
       </c>
       <c r="L22">
-        <v>11100</v>
+        <v>11090.666666666666</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.23614599999999975</v>
+        <v>0.23667883333333339</v>
       </c>
       <c r="P22" t="s">
         <v>23</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
-        <v>1.5595443549082215</v>
+        <v>1.5642822533229572</v>
       </c>
       <c r="R22">
         <f t="shared" si="2"/>
-        <v>1.5549869128555061</v>
+        <v>1.5516063837201197</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -39040,40 +39238,40 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>3.0412300000000001</v>
+        <v>3.0431533333333332</v>
       </c>
       <c r="G23">
-        <v>1.57765</v>
+        <v>1.575585</v>
       </c>
       <c r="H23">
-        <v>0.23736299999999999</v>
+        <v>0.24307233333333331</v>
       </c>
       <c r="I23">
-        <v>5.0835699999999999</v>
+        <v>5.1005383333333336</v>
       </c>
       <c r="J23">
-        <v>0.185247</v>
+        <v>0.18716016666666668</v>
       </c>
       <c r="K23">
-        <v>219.917</v>
+        <v>212.26666666666665</v>
       </c>
       <c r="L23">
-        <v>11386</v>
+        <v>11345.166666666666</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>0.22732699999999983</v>
+        <v>0.23872766666666756</v>
       </c>
       <c r="P23" t="s">
         <v>24</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>1.5723792531626395</v>
+        <v>1.5593275611757322</v>
       </c>
       <c r="R23">
         <f t="shared" si="2"/>
-        <v>1.8100164609053497</v>
+        <v>1.7182552477884343</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -39093,40 +39291,40 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>3.0793499999999998</v>
+        <v>3.1598616666666666</v>
       </c>
       <c r="G24">
-        <v>1.5773999999999999</v>
+        <v>1.5779833333333333</v>
       </c>
       <c r="H24">
-        <v>0.239005</v>
+        <v>0.24440000000000003</v>
       </c>
       <c r="I24">
-        <v>5.1450899999999997</v>
+        <v>5.247163333333333</v>
       </c>
       <c r="J24">
-        <v>0.116215</v>
+        <v>7.8284366666666674E-2</v>
       </c>
       <c r="K24">
-        <v>4212.3599999999997</v>
+        <v>6157.6533333333327</v>
       </c>
       <c r="L24">
-        <v>5966</v>
+        <v>5981</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>0.24933500000000031</v>
+        <v>0.26491833333333314</v>
       </c>
       <c r="P24" t="s">
         <v>24</v>
       </c>
       <c r="Q24">
         <f t="shared" si="1"/>
-        <v>1.5513450687937433</v>
+        <v>1.5309618085708534</v>
       </c>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>4.7271462237683757</v>
+        <v>2.5557410219250762</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -39146,40 +39344,40 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>3.09735</v>
+        <v>3.1923283333333337</v>
       </c>
       <c r="G25">
-        <v>1.5883400000000001</v>
+        <v>1.6402566666666667</v>
       </c>
       <c r="H25">
-        <v>0.244057</v>
+        <v>0.259432</v>
       </c>
       <c r="I25">
-        <v>5.1983499999999996</v>
+        <v>5.3964383333333332</v>
       </c>
       <c r="J25">
-        <v>0.11677899999999999</v>
+        <v>8.7062500000000001E-2</v>
       </c>
       <c r="K25">
-        <v>5594.27</v>
+        <v>7340.041666666667</v>
       </c>
       <c r="L25">
-        <v>3986</v>
+        <v>3988.5</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>0.2686029999999997</v>
+        <v>0.30442133333333299</v>
       </c>
       <c r="P25" t="s">
         <v>24</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>1.540625390748988</v>
+        <v>1.5364059566448611</v>
       </c>
       <c r="R25">
         <f t="shared" si="2"/>
-        <v>3.1501396490753879</v>
+        <v>1.4021172359472291</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -39199,40 +39397,40 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>3.0949300000000002</v>
+        <v>3.1994249999999997</v>
       </c>
       <c r="G26">
-        <v>1.5824199999999999</v>
+        <v>1.6417316666666666</v>
       </c>
       <c r="H26">
-        <v>0.24560899999999999</v>
+        <v>0.26087666666666665</v>
       </c>
       <c r="I26">
-        <v>5.1931000000000003</v>
+        <v>5.4252099999999999</v>
       </c>
       <c r="J26">
-        <v>0.19732</v>
+        <v>9.8130783333333346E-2</v>
       </c>
       <c r="K26">
-        <v>3771.82</v>
+        <v>7407.1883333333326</v>
       </c>
       <c r="L26">
-        <v>2968</v>
+        <v>2994.1666666666665</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>0.27014099999999974</v>
+        <v>0.32317666666666689</v>
       </c>
       <c r="P26" t="s">
         <v>24</v>
       </c>
       <c r="Q26">
         <f t="shared" si="1"/>
-        <v>1.543546244054611</v>
+        <v>1.5347243086749947</v>
       </c>
       <c r="R26">
         <f t="shared" si="2"/>
-        <v>1.7085845522452288</v>
+        <v>1.391513866097827</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -39252,40 +39450,40 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>4.8254599999999996</v>
+        <v>4.8452316666666668</v>
       </c>
       <c r="G27">
-        <v>2.4267699999999999</v>
+        <v>2.4287066666666668</v>
       </c>
       <c r="H27">
-        <v>0.424757</v>
+        <v>0.42440116666666666</v>
       </c>
       <c r="I27">
-        <v>8.1419599999999992</v>
+        <v>8.1679049999999993</v>
       </c>
       <c r="J27">
-        <v>0.235953</v>
+        <v>0.21690666666666669</v>
       </c>
       <c r="K27">
-        <v>119.583</v>
+        <v>119.575</v>
       </c>
       <c r="L27">
-        <v>7162</v>
+        <v>7156.166666666667</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>0.46497300000000052</v>
+        <v>0.46956549999999897</v>
       </c>
       <c r="P27" t="s">
         <v>23</v>
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
-        <v>2.5664704813091691E-2</v>
+        <v>2.6387345755531356E-2</v>
       </c>
       <c r="R27">
         <f t="shared" si="2"/>
-        <v>1.9567586495791389E-2</v>
+        <v>1.1452655493204072E-2</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -39305,40 +39503,40 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>4.7306299999999997</v>
+        <v>4.7111083333333328</v>
       </c>
       <c r="G28">
-        <v>2.3614799999999998</v>
+        <v>2.3545700000000003</v>
       </c>
       <c r="H28">
-        <v>0.429676</v>
+        <v>0.4208546666666666</v>
       </c>
       <c r="I28">
-        <v>7.9932999999999996</v>
+        <v>7.9534100000000008</v>
       </c>
       <c r="J28">
-        <v>0.25620999999999999</v>
+        <v>0.21666716666666663</v>
       </c>
       <c r="K28">
-        <v>121.5</v>
+        <v>123.53616666666666</v>
       </c>
       <c r="L28">
-        <v>7273</v>
+        <v>7342.666666666667</v>
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>0.47151399999999999</v>
+        <v>0.4668770000000011</v>
       </c>
       <c r="P28" t="s">
         <v>24</v>
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
-        <v>2.8876934432587292E-2</v>
+        <v>3.0498134343214627E-2</v>
       </c>
       <c r="R28">
         <f t="shared" si="2"/>
-        <v>1.4241825016615464E-2</v>
+        <v>9.8320811380120873E-3</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -39358,40 +39556,40 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>4.7309299999999999</v>
+        <v>4.7735433333333335</v>
       </c>
       <c r="G29">
-        <v>2.35534</v>
+        <v>2.3561299999999998</v>
       </c>
       <c r="H29">
-        <v>0.42395500000000003</v>
+        <v>0.42137200000000002</v>
       </c>
       <c r="I29">
-        <v>7.9818100000000003</v>
+        <v>8.0332066666666666</v>
       </c>
       <c r="J29">
-        <v>0.24093800000000001</v>
+        <v>8.4605833333333338E-2</v>
       </c>
       <c r="K29">
-        <v>891.1</v>
+        <v>2409.3416666666667</v>
       </c>
       <c r="L29">
-        <v>5912</v>
+        <v>5976</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>0.47158500000000014</v>
+        <v>0.48216133333333389</v>
       </c>
       <c r="P29" t="s">
         <v>24</v>
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
-        <v>3.2076809645932437E-2</v>
+        <v>3.4618388173755434E-2</v>
       </c>
       <c r="R29">
         <f t="shared" si="2"/>
-        <v>0.10254905345531964</v>
+        <v>0.18713769382328652</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -39411,40 +39609,40 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <v>4.7393599999999996</v>
+        <v>4.8621016666666668</v>
       </c>
       <c r="G30">
-        <v>2.3571599999999999</v>
+        <v>2.4293366666666669</v>
       </c>
       <c r="H30">
-        <v>0.42826900000000001</v>
+        <v>0.45406249999999998</v>
       </c>
       <c r="I30">
-        <v>8.0087100000000007</v>
+        <v>8.2911199999999994</v>
       </c>
       <c r="J30">
-        <v>0.26570700000000003</v>
+        <v>8.5526816666666672E-2</v>
       </c>
       <c r="K30">
-        <v>1775.88</v>
+        <v>5234.97</v>
       </c>
       <c r="L30">
-        <v>3962</v>
+        <v>3986.3333333333335</v>
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>0.48392100000000049</v>
+        <v>0.54561916666666566</v>
       </c>
       <c r="P30" t="s">
         <v>24</v>
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
-        <v>3.4355345617458989E-2</v>
+        <v>3.6730019587221031E-2</v>
       </c>
       <c r="R30">
         <f t="shared" si="2"/>
-        <v>0.20464987640663085</v>
+        <v>0.40237996108126939</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -39464,40 +39662,40 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>4.7386499999999998</v>
+        <v>4.8610033333333327</v>
       </c>
       <c r="G31">
-        <v>2.3576000000000001</v>
+        <v>2.4297416666666667</v>
       </c>
       <c r="H31">
-        <v>0.42995899999999998</v>
+        <v>0.46236483333333328</v>
       </c>
       <c r="I31">
-        <v>8.0157900000000009</v>
+        <v>8.3262016666666678</v>
       </c>
       <c r="J31">
-        <v>0.27284700000000001</v>
+        <v>0.10974233333333333</v>
       </c>
       <c r="K31">
-        <v>2207.5700000000002</v>
+        <v>5323.1149999999989</v>
       </c>
       <c r="L31">
-        <v>2979</v>
+        <v>2984.8333333333335</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>0.48958100000000115</v>
+        <v>0.57309183333333547</v>
       </c>
       <c r="P31" t="s">
         <v>24</v>
       </c>
       <c r="Q31">
         <f t="shared" si="1"/>
-        <v>3.6500706730091481E-2</v>
+        <v>3.9583615658280349E-2</v>
       </c>
       <c r="R31">
         <f t="shared" si="2"/>
-        <v>0.2546252081920396</v>
+        <v>0.40706556649944931</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -39517,40 +39715,40 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.12668699999999999</v>
+        <v>0.12936800000000001</v>
       </c>
       <c r="G32">
-        <v>6.3315200000000002E-2</v>
+        <v>6.3063749999999988E-2</v>
       </c>
       <c r="H32">
-        <v>8.1951100000000002E-3</v>
+        <v>8.2464183333333333E-3</v>
       </c>
       <c r="I32">
-        <v>0.20896100000000001</v>
+        <v>0.21552933333333332</v>
       </c>
       <c r="J32">
-        <v>0.131551</v>
+        <v>7.6593499999999995E-2</v>
       </c>
       <c r="K32">
-        <v>6111.28</v>
+        <v>10440.81</v>
       </c>
       <c r="L32">
-        <v>55866</v>
+        <v>57678.833333333336</v>
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>1.0763689999999992E-2</v>
+        <v>1.4851164999999972E-2</v>
       </c>
       <c r="P32" t="s">
         <v>23</v>
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
-        <v>3.966797632094027</v>
+        <v>3.8731100793704805</v>
       </c>
       <c r="R32">
         <f t="shared" si="2"/>
-        <v>2.9610779748724485</v>
+        <v>4.238204612816868</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -39570,40 +39768,40 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>0.13558500000000001</v>
+        <v>0.14000816666666668</v>
       </c>
       <c r="G33">
-        <v>6.3122600000000001E-2</v>
+        <v>6.3074016666666663E-2</v>
       </c>
       <c r="H33">
-        <v>8.2024300000000001E-3</v>
+        <v>8.2640783333333325E-3</v>
       </c>
       <c r="I33">
-        <v>0.230822</v>
+        <v>0.24256416666666666</v>
       </c>
       <c r="J33">
-        <v>0.111455</v>
+        <v>7.6268450000000002E-2</v>
       </c>
       <c r="K33">
-        <v>8531.2099999999991</v>
+        <v>12564.599999999999</v>
       </c>
       <c r="L33">
-        <v>11876</v>
+        <v>11939.166666666666</v>
       </c>
       <c r="M33">
         <f t="shared" si="0"/>
-        <v>2.3911969999999977E-2</v>
+        <v>3.121790499999999E-2</v>
       </c>
       <c r="P33" t="s">
         <v>23</v>
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>3.8342099106670942</v>
+        <v>3.6926833793120037</v>
       </c>
       <c r="R33">
         <f t="shared" si="2"/>
-        <v>1.4416355595811232</v>
+        <v>1.1793040336016143</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -39623,40 +39821,40 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>0.147975</v>
+        <v>0.15561416666666669</v>
       </c>
       <c r="G34">
-        <v>6.3117599999999996E-2</v>
+        <v>6.3078433333333336E-2</v>
       </c>
       <c r="H34">
-        <v>8.2055199999999991E-3</v>
+        <v>8.2671749999999999E-3</v>
       </c>
       <c r="I34">
-        <v>0.25603100000000001</v>
+        <v>0.27809666666666666</v>
       </c>
       <c r="J34">
-        <v>0.111857</v>
+        <v>7.6093133333333327E-2</v>
       </c>
       <c r="K34">
-        <v>8689.5</v>
+        <v>12874.699999999999</v>
       </c>
       <c r="L34">
-        <v>5974</v>
+        <v>5992</v>
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
-        <v>3.6732880000000023E-2</v>
+        <v>5.1136891666666656E-2</v>
       </c>
       <c r="P34" t="s">
         <v>23</v>
       </c>
       <c r="Q34">
         <f t="shared" si="1"/>
-        <v>3.7444996894907256</v>
+        <v>3.5458941135576363</v>
       </c>
       <c r="R34">
         <f t="shared" si="2"/>
-        <v>1.3962512754179757</v>
+        <v>1.0936280700164791</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -39676,40 +39874,40 @@
         <v>15</v>
       </c>
       <c r="F35">
-        <v>0.154637</v>
+        <v>0.16197683333333335</v>
       </c>
       <c r="G35">
-        <v>6.3138399999999997E-2</v>
+        <v>6.3057799999999997E-2</v>
       </c>
       <c r="H35">
-        <v>8.2099600000000005E-3</v>
+        <v>8.2645483333333332E-3</v>
       </c>
       <c r="I35">
-        <v>0.275142</v>
+        <v>0.304533</v>
       </c>
       <c r="J35">
-        <v>0.112849</v>
+        <v>7.5910466666666662E-2</v>
       </c>
       <c r="K35">
-        <v>8677.65</v>
+        <v>13010.016666666668</v>
       </c>
       <c r="L35">
-        <v>3991</v>
+        <v>4000.3333333333335</v>
       </c>
       <c r="M35">
         <f t="shared" si="0"/>
-        <v>4.9156640000000001E-2</v>
+        <v>7.123381833333331E-2</v>
       </c>
       <c r="P35" t="s">
         <v>23</v>
       </c>
       <c r="Q35">
         <f t="shared" si="1"/>
-        <v>2.9757761446816553</v>
+        <v>2.7740162806658062</v>
       </c>
       <c r="R35">
         <f t="shared" si="2"/>
-        <v>1.197725086299587</v>
+        <v>1.0406389936503242</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -39729,40 +39927,40 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>0.15964</v>
+        <v>0.16655600000000001</v>
       </c>
       <c r="G36">
-        <v>6.3109399999999996E-2</v>
+        <v>6.3083500000000001E-2</v>
       </c>
       <c r="H36">
-        <v>8.2107499999999993E-3</v>
+        <v>8.2733066666666674E-3</v>
       </c>
       <c r="I36">
-        <v>0.29258200000000001</v>
+        <v>0.32958116666666665</v>
       </c>
       <c r="J36">
-        <v>0.11333799999999999</v>
+        <v>7.5717049999999994E-2</v>
       </c>
       <c r="K36">
-        <v>8669.8799999999992</v>
+        <v>13076.800000000001</v>
       </c>
       <c r="L36">
-        <v>2996</v>
+        <v>3001.6666666666665</v>
       </c>
       <c r="M36">
         <f t="shared" si="0"/>
-        <v>6.1621850000000034E-2</v>
+        <v>9.1668359999999977E-2</v>
       </c>
       <c r="P36" t="s">
         <v>23</v>
       </c>
       <c r="Q36">
         <f t="shared" si="1"/>
-        <v>2.8391835451258109</v>
+        <v>2.6352871093463572</v>
       </c>
       <c r="R36">
         <f t="shared" si="2"/>
-        <v>1.1892562176190677</v>
+        <v>1.0347261419324891</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -39782,40 +39980,40 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.50402199999999997</v>
+        <v>0.50899016666666663</v>
       </c>
       <c r="G37">
-        <v>0.25562499999999999</v>
+        <v>0.25584666666666672</v>
       </c>
       <c r="H37">
-        <v>3.6214299999999998E-2</v>
+        <v>3.6321733333333335E-2</v>
       </c>
       <c r="I37">
-        <v>0.82890600000000003</v>
+        <v>0.8347688333333334</v>
       </c>
       <c r="J37">
-        <v>9.7471500000000003E-2</v>
+        <v>8.3303983333333345E-2</v>
       </c>
       <c r="K37">
-        <v>2063.87</v>
+        <v>2463.4983333333334</v>
       </c>
       <c r="L37">
-        <v>57930</v>
+        <v>57866.666666666664</v>
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
-        <v>3.3044700000000038E-2</v>
+        <v>3.3610266666666777E-2</v>
       </c>
       <c r="P37" t="s">
         <v>23</v>
       </c>
       <c r="Q37">
         <f t="shared" si="1"/>
-        <v>2.2394457272597856</v>
+        <v>2.232685975139225</v>
       </c>
       <c r="R37">
         <f t="shared" si="2"/>
-        <v>4.0587413962635202</v>
+        <v>4.8175578117106399</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -39835,40 +40033,40 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>0.55035999999999996</v>
+        <v>0.5531069999999999</v>
       </c>
       <c r="G38">
-        <v>0.255722</v>
+        <v>0.25608333333333338</v>
       </c>
       <c r="H38">
-        <v>3.6442599999999999E-2</v>
+        <v>3.6412933333333335E-2</v>
       </c>
       <c r="I38">
-        <v>0.88502000000000003</v>
+        <v>0.89571266666666671</v>
       </c>
       <c r="J38">
-        <v>0.13927999999999999</v>
+        <v>7.8350233333333338E-2</v>
       </c>
       <c r="K38">
-        <v>5917.73</v>
+        <v>10654.25</v>
       </c>
       <c r="L38">
-        <v>11832</v>
+        <v>11927.666666666666</v>
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
-        <v>4.2495400000000072E-2</v>
+        <v>5.0109400000000193E-2</v>
       </c>
       <c r="P38" t="s">
         <v>23</v>
       </c>
       <c r="Q38">
         <f t="shared" si="1"/>
-        <v>2.2430566540869132</v>
+        <v>2.2388708730255011</v>
       </c>
       <c r="R38">
         <f t="shared" si="2"/>
-        <v>1.5053930023250961</v>
+        <v>1.3500339908128716</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -39888,40 +40086,40 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>0.61432299999999995</v>
+        <v>0.62393733333333345</v>
       </c>
       <c r="G39">
-        <v>0.25573600000000002</v>
+        <v>0.25611400000000001</v>
       </c>
       <c r="H39">
-        <v>3.6389600000000001E-2</v>
+        <v>3.643855E-2</v>
       </c>
       <c r="I39">
-        <v>0.958708</v>
+        <v>0.98610133333333339</v>
       </c>
       <c r="J39">
-        <v>0.14515900000000001</v>
+        <v>7.7643100000000007E-2</v>
       </c>
       <c r="K39">
-        <v>6223.45</v>
+        <v>11772.466666666665</v>
       </c>
       <c r="L39">
-        <v>5961</v>
+        <v>5990.166666666667</v>
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
-        <v>5.2259400000000067E-2</v>
+        <v>6.9611449999999908E-2</v>
       </c>
       <c r="P39" t="s">
         <v>23</v>
       </c>
       <c r="Q39">
         <f t="shared" si="1"/>
-        <v>1.8838687066343454</v>
+        <v>1.8443067379146971</v>
       </c>
       <c r="R39">
         <f t="shared" si="2"/>
-        <v>1.1225417427990627</v>
+        <v>1.1078091868357987</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -39941,40 +40139,40 @@
         <v>15</v>
       </c>
       <c r="F40">
-        <v>0.46718300000000001</v>
+        <v>0.46723066666666663</v>
       </c>
       <c r="G40">
-        <v>0.24837100000000001</v>
+        <v>0.24864266666666665</v>
       </c>
       <c r="H40">
-        <v>3.6418399999999997E-2</v>
+        <v>3.6537233333333329E-2</v>
       </c>
       <c r="I40">
-        <v>0.81876099999999996</v>
+        <v>0.84477950000000002</v>
       </c>
       <c r="J40">
-        <v>0.13028699999999999</v>
+        <v>7.6018500000000003E-2</v>
       </c>
       <c r="K40">
-        <v>7245.11</v>
+        <v>12501.949999999999</v>
       </c>
       <c r="L40">
-        <v>3986</v>
+        <v>3999.5</v>
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
-        <v>6.6788599999999976E-2</v>
+        <v>9.2368933333333403E-2</v>
       </c>
       <c r="P40" t="s">
         <v>24</v>
       </c>
       <c r="Q40">
         <f t="shared" si="1"/>
-        <v>2.2298448509394073</v>
+        <v>2.1788052385267398</v>
       </c>
       <c r="R40">
         <f t="shared" si="2"/>
-        <v>1.2315290446063414</v>
+        <v>1.1025882087323711</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -39994,40 +40192,40 @@
         <v>20</v>
       </c>
       <c r="F41">
-        <v>0.46795599999999998</v>
+        <v>0.46743783333333333</v>
       </c>
       <c r="G41">
-        <v>0.248359</v>
+        <v>0.248587</v>
       </c>
       <c r="H41">
-        <v>3.6397400000000003E-2</v>
+        <v>3.6561916666666666E-2</v>
       </c>
       <c r="I41">
-        <v>0.83069400000000004</v>
+        <v>0.86854100000000001</v>
       </c>
       <c r="J41">
-        <v>0.131219</v>
+        <v>7.6245449999999992E-2</v>
       </c>
       <c r="K41">
-        <v>7290.17</v>
+        <v>12637.933333333332</v>
       </c>
       <c r="L41">
-        <v>2993</v>
+        <v>3002.1666666666665</v>
       </c>
       <c r="M41">
         <f t="shared" si="0"/>
-        <v>7.7981599999999984E-2</v>
+        <v>0.11595425000000004</v>
       </c>
       <c r="P41" t="s">
         <v>24</v>
       </c>
       <c r="Q41">
         <f t="shared" si="1"/>
-        <v>2.2170378021268964</v>
+        <v>2.1437099687867351</v>
       </c>
       <c r="R41">
         <f t="shared" si="2"/>
-        <v>1.2063666209945922</v>
+        <v>1.0775220896888256</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -40047,40 +40245,40 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.1261300000000001</v>
+        <v>1.1295733333333333</v>
       </c>
       <c r="G42">
-        <v>0.57815399999999995</v>
+        <v>0.57893600000000001</v>
       </c>
       <c r="H42">
-        <v>8.1807199999999997E-2</v>
+        <v>8.2413283333333323E-2</v>
       </c>
       <c r="I42">
-        <v>1.85629</v>
+        <v>1.8637766666666666</v>
       </c>
       <c r="J42">
-        <v>0.11273</v>
+        <v>9.9450350000000007E-2</v>
       </c>
       <c r="K42">
-        <v>508.5</v>
+        <v>511.35833333333335</v>
       </c>
       <c r="L42">
-        <v>30470</v>
+        <v>30568.333333333332</v>
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>7.0198800000000006E-2</v>
+        <v>7.2854050000000115E-2</v>
       </c>
       <c r="P42" t="s">
         <v>23</v>
       </c>
       <c r="Q42">
         <f t="shared" si="1"/>
-        <v>1.7946818654412833</v>
+        <v>1.7920038702777337</v>
       </c>
       <c r="R42">
         <f t="shared" si="2"/>
-        <v>1.7762144451469348</v>
+        <v>1.7684880972966743</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -40100,40 +40298,40 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>1.24525</v>
+        <v>1.2564716666666669</v>
       </c>
       <c r="G43">
-        <v>0.57875399999999999</v>
+        <v>0.57917150000000006</v>
       </c>
       <c r="H43">
-        <v>8.2247700000000007E-2</v>
+        <v>8.2515733333333327E-2</v>
       </c>
       <c r="I43">
-        <v>1.98515</v>
+        <v>2.005385</v>
       </c>
       <c r="J43">
-        <v>0.154914</v>
+        <v>7.7226083333333348E-2</v>
       </c>
       <c r="K43">
-        <v>3931.02</v>
+        <v>7891.8383333333331</v>
       </c>
       <c r="L43">
-        <v>11807</v>
+        <v>11923.666666666666</v>
       </c>
       <c r="M43">
         <f t="shared" si="0"/>
-        <v>7.8898300000000088E-2</v>
+        <v>8.7226099999999862E-2</v>
       </c>
       <c r="P43" t="s">
         <v>23</v>
       </c>
       <c r="Q43">
         <f t="shared" si="1"/>
-        <v>1.7941918746694203</v>
+        <v>1.8152648992587457</v>
       </c>
       <c r="R43">
         <f t="shared" si="2"/>
-        <v>2.2562504304704181</v>
+        <v>2.207897339436665</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -40153,40 +40351,40 @@
         <v>10</v>
       </c>
       <c r="F44">
-        <v>1.0714300000000001</v>
+        <v>1.0662433333333332</v>
       </c>
       <c r="G44">
-        <v>0.56149899999999997</v>
+        <v>0.56209466666666663</v>
       </c>
       <c r="H44">
-        <v>8.2506399999999994E-2</v>
+        <v>8.256843333333333E-2</v>
       </c>
       <c r="I44">
-        <v>1.8060799999999999</v>
+        <v>1.8186733333333336</v>
       </c>
       <c r="J44">
-        <v>0.147812</v>
+        <v>7.8154299999999996E-2</v>
       </c>
       <c r="K44">
-        <v>5544.07</v>
+        <v>10626.800000000001</v>
       </c>
       <c r="L44">
-        <v>5959</v>
+        <v>5988.333333333333</v>
       </c>
       <c r="M44">
         <f t="shared" si="0"/>
-        <v>9.0644599999999853E-2</v>
+        <v>0.10776690000000033</v>
       </c>
       <c r="P44" t="s">
         <v>24</v>
       </c>
       <c r="Q44">
         <f t="shared" si="1"/>
-        <v>1.7945827427356484</v>
+        <v>1.8003233125978275</v>
       </c>
       <c r="R44">
         <f t="shared" si="2"/>
-        <v>1.4167032933336057</v>
+        <v>1.224043631923794</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -40206,40 +40404,40 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>1.0772200000000001</v>
+        <v>1.0677049999999999</v>
       </c>
       <c r="G45">
-        <v>0.56176999999999999</v>
+        <v>0.56208116666666674</v>
       </c>
       <c r="H45">
-        <v>8.2933900000000005E-2</v>
+        <v>8.2636950000000001E-2</v>
       </c>
       <c r="I45">
-        <v>1.8257099999999999</v>
+        <v>1.8406100000000001</v>
       </c>
       <c r="J45">
-        <v>0.14915400000000001</v>
+        <v>7.8532549999999993E-2</v>
       </c>
       <c r="K45">
-        <v>5883.02</v>
+        <v>11338.730000000001</v>
       </c>
       <c r="L45">
-        <v>3983</v>
+        <v>3998.1666666666665</v>
       </c>
       <c r="M45">
         <f t="shared" si="0"/>
-        <v>0.10378609999999977</v>
+        <v>0.1281868833333335</v>
       </c>
       <c r="P45" t="s">
         <v>24</v>
       </c>
       <c r="Q45">
         <f t="shared" si="1"/>
-        <v>1.7867076370288819</v>
+        <v>1.7997022726161434</v>
       </c>
       <c r="R45">
         <f t="shared" si="2"/>
-        <v>1.3225768015916732</v>
+        <v>1.163110695098027</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -40259,40 +40457,40 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <v>1.08185</v>
+        <v>1.0694416666666668</v>
       </c>
       <c r="G46">
-        <v>0.562087</v>
+        <v>0.56219533333333338</v>
       </c>
       <c r="H46">
-        <v>8.3232600000000004E-2</v>
+        <v>8.268579999999999E-2</v>
       </c>
       <c r="I46">
-        <v>1.84168</v>
+        <v>1.8618999999999997</v>
       </c>
       <c r="J46">
-        <v>0.15005099999999999</v>
+        <v>7.8471666666666662E-2</v>
       </c>
       <c r="K46">
-        <v>6043.08</v>
+        <v>11728.700000000003</v>
       </c>
       <c r="L46">
-        <v>2991</v>
+        <v>3000.1666666666665</v>
       </c>
       <c r="M46">
         <f t="shared" si="0"/>
-        <v>0.1145103999999999</v>
+        <v>0.14757719999999952</v>
       </c>
       <c r="P46" t="s">
         <v>24</v>
       </c>
       <c r="Q46">
         <f t="shared" si="1"/>
-        <v>1.7817536162634116</v>
+        <v>1.7994369550817266</v>
       </c>
       <c r="R46">
         <f t="shared" si="2"/>
-        <v>1.2794244677427551</v>
+        <v>1.1674330696225899</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -40312,40 +40510,40 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>2.02075</v>
+        <v>2.0261499999999999</v>
       </c>
       <c r="G47">
-        <v>1.0340499999999999</v>
+        <v>1.0350766666666666</v>
       </c>
       <c r="H47">
-        <v>0.146594</v>
+        <v>0.1474996666666667</v>
       </c>
       <c r="I47">
-        <v>3.3314499999999998</v>
+        <v>3.3398950000000003</v>
       </c>
       <c r="J47">
-        <v>0.17846400000000001</v>
+        <v>0.13168866666666668</v>
       </c>
       <c r="K47">
-        <v>286.28300000000002</v>
+        <v>289.14999999999998</v>
       </c>
       <c r="L47">
-        <v>17094</v>
+        <v>17284.333333333332</v>
       </c>
       <c r="M47">
         <f t="shared" si="0"/>
-        <v>0.13005599999999973</v>
+        <v>0.13116866666666738</v>
       </c>
       <c r="P47" t="s">
         <v>23</v>
       </c>
       <c r="Q47">
         <f t="shared" si="1"/>
-        <v>1.5943297963349292</v>
+        <v>1.5851800730262475</v>
       </c>
       <c r="R47">
         <f t="shared" si="2"/>
-        <v>1.5875241913571005</v>
+        <v>1.5809185347184251</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -40365,40 +40563,40 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>2.2452999999999999</v>
+        <v>2.3161566666666666</v>
       </c>
       <c r="G48">
-        <v>1.0339400000000001</v>
+        <v>1.0353733333333335</v>
       </c>
       <c r="H48">
-        <v>0.146206</v>
+        <v>0.14747849999999998</v>
       </c>
       <c r="I48">
-        <v>3.5617399999999999</v>
+        <v>3.6403049999999997</v>
       </c>
       <c r="J48">
-        <v>0.17565600000000001</v>
+        <v>7.8905000000000003E-2</v>
       </c>
       <c r="K48">
-        <v>1742.28</v>
+        <v>3574.3683333333333</v>
       </c>
       <c r="L48">
-        <v>11742</v>
+        <v>11918.666666666666</v>
       </c>
       <c r="M48">
         <f t="shared" si="0"/>
-        <v>0.13629400000000036</v>
+        <v>0.14129649999999927</v>
       </c>
       <c r="P48" t="s">
         <v>23</v>
       </c>
       <c r="Q48">
         <f t="shared" si="1"/>
-        <v>1.5054860826449994</v>
+        <v>1.47306338342529</v>
       </c>
       <c r="R48">
         <f t="shared" si="2"/>
-        <v>9.5189392076838608</v>
+        <v>18.0258121454087</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -40418,40 +40616,40 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>1.9460200000000001</v>
+        <v>1.9542216666666665</v>
       </c>
       <c r="G49">
-        <v>1.0031600000000001</v>
+        <v>1.0050183333333333</v>
       </c>
       <c r="H49">
-        <v>0.1464</v>
+        <v>0.1481408333333333</v>
       </c>
       <c r="I49">
-        <v>3.2411599999999998</v>
+        <v>3.2742</v>
       </c>
       <c r="J49">
-        <v>0.173511</v>
+        <v>7.8685016666666663E-2</v>
       </c>
       <c r="K49">
-        <v>3913.36</v>
+        <v>8681.7166666666672</v>
       </c>
       <c r="L49">
-        <v>5951</v>
+        <v>5984.833333333333</v>
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
-        <v>0.14557999999999982</v>
+        <v>0.16681916666666696</v>
       </c>
       <c r="P49" t="s">
         <v>24</v>
       </c>
       <c r="Q49">
         <f t="shared" si="1"/>
-        <v>1.587351442076294</v>
+        <v>1.6033061511208846</v>
       </c>
       <c r="R49">
         <f t="shared" si="2"/>
-        <v>1.6507679393241459</v>
+        <v>1.4129152567658287</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -40471,40 +40669,40 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <v>1.95272</v>
+        <v>1.9710266666666669</v>
       </c>
       <c r="G50">
-        <v>1.00407</v>
+        <v>1.0061483333333332</v>
       </c>
       <c r="H50">
-        <v>0.147255</v>
+        <v>0.14804133333333333</v>
       </c>
       <c r="I50">
-        <v>3.2620100000000001</v>
+        <v>3.3125499999999999</v>
       </c>
       <c r="J50">
-        <v>0.17591499999999999</v>
+        <v>8.0538733333333334E-2</v>
       </c>
       <c r="K50">
-        <v>4448.1499999999996</v>
+        <v>9748.6249999999982</v>
       </c>
       <c r="L50">
-        <v>3978</v>
+        <v>3994.5</v>
       </c>
       <c r="M50">
         <f t="shared" si="0"/>
-        <v>0.15796500000000036</v>
+        <v>0.18733366666666651</v>
       </c>
       <c r="P50" t="s">
         <v>24</v>
       </c>
       <c r="Q50">
         <f t="shared" si="1"/>
-        <v>1.5882998519317844</v>
+        <v>1.6270733020382087</v>
       </c>
       <c r="R50">
         <f t="shared" si="2"/>
-        <v>1.4610781000055839</v>
+        <v>1.3260647931829295</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -40524,40 +40722,40 @@
         <v>20</v>
       </c>
       <c r="F51">
-        <v>1.9619</v>
+        <v>1.9891033333333337</v>
       </c>
       <c r="G51">
-        <v>1.0042800000000001</v>
+        <v>1.0068349999999999</v>
       </c>
       <c r="H51">
-        <v>0.14766299999999999</v>
+        <v>0.14821899999999999</v>
       </c>
       <c r="I51">
-        <v>3.2814199999999998</v>
+        <v>3.3503716666666663</v>
       </c>
       <c r="J51">
-        <v>0.17685899999999999</v>
+        <v>8.3013166666666666E-2</v>
       </c>
       <c r="K51">
-        <v>4723.28</v>
+        <v>10046.571666666665</v>
       </c>
       <c r="L51">
-        <v>2988</v>
+        <v>2998.6666666666665</v>
       </c>
       <c r="M51">
         <f t="shared" si="0"/>
-        <v>0.16757699999999964</v>
+        <v>0.20621433333333261</v>
       </c>
       <c r="P51" t="s">
         <v>24</v>
       </c>
       <c r="Q51">
         <f t="shared" si="1"/>
-        <v>1.5782770873585217</v>
+        <v>1.6191691170581575</v>
       </c>
       <c r="R51">
         <f t="shared" si="2"/>
-        <v>1.3813587576404527</v>
+        <v>1.3576775386253674</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -40577,40 +40775,40 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>3.1967099999999999</v>
+        <v>3.1915866666666672</v>
       </c>
       <c r="G52">
-        <v>1.62609</v>
+        <v>1.6256000000000002</v>
       </c>
       <c r="H52">
-        <v>0.24371200000000001</v>
+        <v>0.24103966666666668</v>
       </c>
       <c r="I52">
-        <v>5.3114299999999997</v>
+        <v>5.2943349999999993</v>
       </c>
       <c r="J52">
-        <v>0.24399399999999999</v>
+        <v>0.18916949999999999</v>
       </c>
       <c r="K52">
-        <v>180.333</v>
+        <v>182.9</v>
       </c>
       <c r="L52">
-        <v>10800</v>
+        <v>10941.833333333334</v>
       </c>
       <c r="M52">
         <f t="shared" si="0"/>
-        <v>0.2449179999999993</v>
+        <v>0.23610866666666563</v>
       </c>
       <c r="P52" t="s">
         <v>23</v>
       </c>
       <c r="Q52">
         <f t="shared" si="1"/>
-        <v>1.5553495009818448</v>
+        <v>1.5640576200788203</v>
       </c>
       <c r="R52">
         <f t="shared" si="2"/>
-        <v>1.5327921801954951</v>
+        <v>1.5498533330885353</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -40630,40 +40828,40 @@
         <v>5</v>
       </c>
       <c r="F53">
-        <v>3.2610399999999999</v>
+        <v>3.2575166666666662</v>
       </c>
       <c r="G53">
-        <v>1.6247100000000001</v>
+        <v>1.6259416666666666</v>
       </c>
       <c r="H53">
-        <v>0.240286</v>
+        <v>0.24190233333333333</v>
       </c>
       <c r="I53">
-        <v>5.3621499999999997</v>
+        <v>5.3624000000000001</v>
       </c>
       <c r="J53">
-        <v>0.23999899999999999</v>
+        <v>0.18987083333333332</v>
       </c>
       <c r="K53">
-        <v>183.03299999999999</v>
+        <v>198.29166666666666</v>
       </c>
       <c r="L53">
-        <v>10710</v>
+        <v>10804.5</v>
       </c>
       <c r="M53">
         <f t="shared" si="0"/>
-        <v>0.23611399999999971</v>
+        <v>0.23703933333333449</v>
       </c>
       <c r="P53" t="s">
         <v>24</v>
       </c>
       <c r="Q53">
         <f t="shared" si="1"/>
-        <v>1.4867730294751174</v>
+        <v>1.4927143940524144</v>
       </c>
       <c r="R53">
         <f t="shared" si="2"/>
-        <v>1.5019078175387921</v>
+        <v>1.6144966122371989</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -40683,40 +40881,40 @@
         <v>10</v>
       </c>
       <c r="F54">
-        <v>3.07721</v>
+        <v>3.1598116666666662</v>
       </c>
       <c r="G54">
-        <v>1.5781799999999999</v>
+        <v>1.5795133333333335</v>
       </c>
       <c r="H54">
-        <v>0.24071300000000001</v>
+        <v>0.24347350000000001</v>
       </c>
       <c r="I54">
-        <v>5.1448600000000004</v>
+        <v>5.2495450000000003</v>
       </c>
       <c r="J54">
-        <v>0.20737800000000001</v>
+        <v>7.846231666666667E-2</v>
       </c>
       <c r="K54">
-        <v>2370.63</v>
+        <v>6144.541666666667</v>
       </c>
       <c r="L54">
-        <v>5933</v>
+        <v>5981</v>
       </c>
       <c r="M54">
         <f t="shared" si="0"/>
-        <v>0.24875700000000034</v>
+        <v>0.2667465</v>
       </c>
       <c r="P54" t="s">
         <v>24</v>
       </c>
       <c r="Q54">
         <f t="shared" si="1"/>
-        <v>1.5532842487453495</v>
+        <v>1.5371068667221</v>
       </c>
       <c r="R54">
         <f t="shared" si="2"/>
-        <v>2.6384307178631055</v>
+        <v>2.5862970050873955</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -40736,40 +40934,40 @@
         <v>15</v>
       </c>
       <c r="F55">
-        <v>3.0924399999999999</v>
+        <v>3.1903000000000006</v>
       </c>
       <c r="G55">
-        <v>1.5792900000000001</v>
+        <v>1.6398533333333336</v>
       </c>
       <c r="H55">
-        <v>0.24524799999999999</v>
+        <v>0.25587133333333334</v>
       </c>
       <c r="I55">
-        <v>5.1810499999999999</v>
+        <v>5.3897616666666677</v>
       </c>
       <c r="J55">
-        <v>0.21587799999999999</v>
+        <v>8.6974083333333341E-2</v>
       </c>
       <c r="K55">
-        <v>3044.43</v>
+        <v>7351.5449999999992</v>
       </c>
       <c r="L55">
-        <v>3971</v>
+        <v>3989</v>
       </c>
       <c r="M55">
         <f t="shared" si="0"/>
-        <v>0.26407199999999964</v>
+        <v>0.30373699999999992</v>
       </c>
       <c r="P55" t="s">
         <v>24</v>
       </c>
       <c r="Q55">
         <f t="shared" si="1"/>
-        <v>1.5489910346358362</v>
+        <v>1.5430809092671691</v>
       </c>
       <c r="R55">
         <f t="shared" si="2"/>
-        <v>1.7188710351291228</v>
+        <v>1.4153145926451194</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -40789,40 +40987,40 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>3.0950099999999998</v>
+        <v>3.1990300000000005</v>
       </c>
       <c r="G56">
-        <v>1.5786</v>
+        <v>1.6415533333333334</v>
       </c>
       <c r="H56">
-        <v>0.240563</v>
+        <v>0.26076883333333334</v>
       </c>
       <c r="I56">
-        <v>5.1789899999999998</v>
+        <v>5.4248183333333335</v>
       </c>
       <c r="J56">
-        <v>0.217054</v>
+        <v>9.8226199999999986E-2</v>
       </c>
       <c r="K56">
-        <v>3419.3</v>
+        <v>7399.8216666666667</v>
       </c>
       <c r="L56">
-        <v>2984</v>
+        <v>2994.6666666666665</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>0.26481699999999986</v>
+        <v>0.32346616666666606</v>
       </c>
       <c r="P56" t="s">
         <v>24</v>
       </c>
       <c r="Q56">
         <f t="shared" si="1"/>
-        <v>1.5467764950308844</v>
+        <v>1.5426636406564767</v>
       </c>
       <c r="R56">
         <f t="shared" si="2"/>
-        <v>1.5565833739250776</v>
+        <v>1.3906563805729391</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -40842,40 +41040,40 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>4.9564899999999996</v>
+        <v>4.9587899999999996</v>
       </c>
       <c r="G57">
-        <v>2.4224100000000002</v>
+        <v>2.4283033333333335</v>
       </c>
       <c r="H57">
-        <v>0.41868899999999998</v>
+        <v>0.42365466666666668</v>
       </c>
       <c r="I57">
-        <v>8.2611299999999996</v>
+        <v>8.2806449999999998</v>
       </c>
       <c r="J57">
-        <v>0.27358199999999999</v>
+        <v>0.21774666666666667</v>
       </c>
       <c r="K57">
-        <v>117.65</v>
+        <v>118.01116666666667</v>
       </c>
       <c r="L57">
-        <v>7030</v>
+        <v>7060.5</v>
       </c>
       <c r="M57">
         <f t="shared" si="0"/>
-        <v>0.4635410000000002</v>
+        <v>0.46989700000000045</v>
       </c>
       <c r="P57" t="s">
         <v>23</v>
       </c>
       <c r="Q57">
         <f t="shared" si="1"/>
-        <v>0.10813133312270841</v>
+        <v>0.10956596174975902</v>
       </c>
       <c r="R57">
         <f t="shared" si="2"/>
-        <v>9.3954639833892351E-2</v>
+        <v>7.4123038882648595E-2</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -40895,40 +41093,40 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>4.7221799999999998</v>
+        <v>4.7260016666666669</v>
       </c>
       <c r="G58">
-        <v>2.3520400000000001</v>
+        <v>2.3853116666666669</v>
       </c>
       <c r="H58">
-        <v>0.42761199999999999</v>
+        <v>0.42359733333333333</v>
       </c>
       <c r="I58">
-        <v>7.9722999999999997</v>
+        <v>8.0045316666666668</v>
       </c>
       <c r="J58">
-        <v>0.27151999999999998</v>
+        <v>0.21690716666666665</v>
       </c>
       <c r="K58">
-        <v>121.867</v>
+        <v>122.81950000000001</v>
       </c>
       <c r="L58">
-        <v>7278</v>
+        <v>7297.333333333333</v>
       </c>
       <c r="M58">
         <f t="shared" si="0"/>
-        <v>0.47046799999999944</v>
+        <v>0.46962100000000007</v>
       </c>
       <c r="P58" t="s">
         <v>24</v>
       </c>
       <c r="Q58">
         <f t="shared" si="1"/>
-        <v>0.12362041067195165</v>
+        <v>0.12502667759658642</v>
       </c>
       <c r="R58">
         <f t="shared" si="2"/>
-        <v>2.0813038399267677E-2</v>
+        <v>1.1644018842997721E-2</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -40948,40 +41146,40 @@
         <v>10</v>
       </c>
       <c r="F59">
-        <v>4.7292500000000004</v>
+        <v>4.7752299999999996</v>
       </c>
       <c r="G59">
-        <v>2.3532799999999998</v>
+        <v>2.3848983333333336</v>
       </c>
       <c r="H59">
-        <v>0.430178</v>
+        <v>0.4238108333333333</v>
       </c>
       <c r="I59">
-        <v>7.9914300000000003</v>
+        <v>8.0691116666666662</v>
       </c>
       <c r="J59">
-        <v>0.23932300000000001</v>
+        <v>8.4499616666666666E-2</v>
       </c>
       <c r="K59">
-        <v>898.5</v>
+        <v>2375.8066666666664</v>
       </c>
       <c r="L59">
-        <v>5913</v>
+        <v>5975.166666666667</v>
       </c>
       <c r="M59">
         <f t="shared" si="0"/>
-        <v>0.47872200000000031</v>
+        <v>0.48517250000000001</v>
       </c>
       <c r="P59" t="s">
         <v>24</v>
       </c>
       <c r="Q59">
         <f t="shared" si="1"/>
-        <v>0.11650080148358928</v>
+        <v>0.11983219135852832</v>
       </c>
       <c r="R59">
         <f t="shared" si="2"/>
-        <v>0.13713160666046001</v>
+        <v>0.19826862466375317</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -41001,40 +41199,40 @@
         <v>15</v>
       </c>
       <c r="F60">
-        <v>4.7398400000000001</v>
+        <v>4.8697633333333332</v>
       </c>
       <c r="G60">
-        <v>2.35623</v>
+        <v>2.4620466666666667</v>
       </c>
       <c r="H60">
-        <v>0.43713299999999999</v>
+        <v>0.45215200000000005</v>
       </c>
       <c r="I60">
-        <v>8.0253999999999994</v>
+        <v>8.3168383333333349</v>
       </c>
       <c r="J60">
-        <v>0.26510499999999998</v>
+        <v>8.5927833333333328E-2</v>
       </c>
       <c r="K60">
-        <v>1771.18</v>
+        <v>5194.2833333333328</v>
       </c>
       <c r="L60">
-        <v>3962</v>
+        <v>3983.8333333333335</v>
       </c>
       <c r="M60">
         <f t="shared" si="0"/>
-        <v>0.49219699999999911</v>
+        <v>0.53287633333333506</v>
       </c>
       <c r="P60" t="s">
         <v>24</v>
       </c>
       <c r="Q60">
         <f t="shared" si="1"/>
-        <v>0.11493520572183319</v>
+        <v>0.1157851851955761</v>
       </c>
       <c r="R60">
         <f t="shared" si="2"/>
-        <v>0.26133697682585305</v>
+        <v>0.41876886197935564</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -41054,40 +41252,40 @@
         <v>20</v>
       </c>
       <c r="F61">
-        <v>4.7417600000000002</v>
+        <v>4.8691599999999999</v>
       </c>
       <c r="G61">
-        <v>2.3540000000000001</v>
+        <v>2.462685</v>
       </c>
       <c r="H61">
-        <v>0.42674899999999999</v>
+        <v>0.46366183333333333</v>
       </c>
       <c r="I61">
-        <v>8.0107400000000002</v>
+        <v>8.3686699999999998</v>
       </c>
       <c r="J61">
-        <v>0.273976</v>
+        <v>0.10937183333333332</v>
       </c>
       <c r="K61">
-        <v>2196.67</v>
+        <v>5321.1</v>
       </c>
       <c r="L61">
-        <v>2978</v>
+        <v>2985</v>
       </c>
       <c r="M61">
         <f t="shared" si="0"/>
-        <v>0.48823099999999986</v>
+        <v>0.57316316666666722</v>
       </c>
       <c r="P61" t="s">
         <v>24</v>
       </c>
       <c r="Q61">
         <f t="shared" si="1"/>
-        <v>0.10280822995129039</v>
+        <v>0.11944498548355553</v>
       </c>
       <c r="R61">
         <f t="shared" si="2"/>
-        <v>0.31130267927747657</v>
+        <v>0.4224067444094276</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -41107,40 +41305,40 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0.56354899999999997</v>
+        <v>0.57232500000000008</v>
       </c>
       <c r="G62">
-        <v>0.25215199999999999</v>
+        <v>0.25506450000000003</v>
       </c>
       <c r="H62">
-        <v>0.87579700000000005</v>
+        <v>0.88957849999999994</v>
       </c>
       <c r="I62">
-        <v>0.89328700000000005</v>
+        <v>0.90727683333333331</v>
       </c>
       <c r="J62">
-        <v>0.117354</v>
+        <v>8.6408116666666659E-2</v>
       </c>
       <c r="K62">
-        <v>1252.2</v>
+        <v>1592.0983333333331</v>
       </c>
       <c r="L62">
-        <v>57338</v>
+        <v>57668.833333333336</v>
       </c>
       <c r="M62">
         <f>I62-H62</f>
-        <v>1.7490000000000006E-2</v>
+        <v>1.7698333333333371E-2</v>
       </c>
       <c r="P62" t="s">
         <v>23</v>
       </c>
       <c r="Q62">
         <f t="shared" si="1"/>
-        <v>4.2954056199183466</v>
+        <v>4.2593706698488392</v>
       </c>
       <c r="R62">
         <f t="shared" si="2"/>
-        <v>4.9500527736819429</v>
+        <v>6.2907404334231565</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -41160,40 +41358,40 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>0.64331099999999997</v>
+        <v>0.64969783333333331</v>
       </c>
       <c r="G63">
-        <v>0.25205699999999998</v>
+        <v>0.25268783333333333</v>
       </c>
       <c r="H63">
-        <v>0.95561399999999996</v>
+        <v>0.96263249999999989</v>
       </c>
       <c r="I63">
-        <v>0.98553900000000005</v>
+        <v>1.00078</v>
       </c>
       <c r="J63">
-        <v>0.137322</v>
+        <v>7.6603933333333332E-2</v>
       </c>
       <c r="K63">
-        <v>5855.32</v>
+        <v>10547.861666666666</v>
       </c>
       <c r="L63">
-        <v>11845</v>
+        <v>11930</v>
       </c>
       <c r="M63">
         <f t="shared" ref="M63:M121" si="3">I63-H63</f>
-        <v>2.992500000000009E-2</v>
+        <v>3.8147500000000112E-2</v>
       </c>
       <c r="P63" t="s">
         <v>23</v>
       </c>
       <c r="Q63">
         <f t="shared" si="1"/>
-        <v>3.5340559835785292</v>
+        <v>3.5253835341766755</v>
       </c>
       <c r="R63">
         <f t="shared" si="2"/>
-        <v>2.5200647304904709</v>
+        <v>2.7179933277559516</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -41213,40 +41411,40 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>0.57702100000000001</v>
+        <v>0.59446416666666668</v>
       </c>
       <c r="G64">
-        <v>0.25205699999999998</v>
+        <v>0.252774</v>
       </c>
       <c r="H64">
-        <v>0.88938200000000001</v>
+        <v>0.90751999999999988</v>
       </c>
       <c r="I64">
-        <v>0.93100799999999995</v>
+        <v>0.96693933333333337</v>
       </c>
       <c r="J64">
-        <v>0.138239</v>
+        <v>7.5970116666666671E-2</v>
       </c>
       <c r="K64">
-        <v>6552.1</v>
+        <v>11982.766666666668</v>
       </c>
       <c r="L64">
-        <v>5964</v>
+        <v>5991</v>
       </c>
       <c r="M64">
         <f t="shared" si="3"/>
-        <v>4.1625999999999941E-2</v>
+        <v>5.9419333333333491E-2</v>
       </c>
       <c r="P64" t="s">
         <v>23</v>
       </c>
       <c r="Q64">
         <f t="shared" si="1"/>
-        <v>3.4222906784904104</v>
+        <v>3.2977404994039614</v>
       </c>
       <c r="R64">
         <f t="shared" si="2"/>
-        <v>1.2383949497240494</v>
+        <v>1.3226598162280558</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -41266,40 +41464,40 @@
         <v>15</v>
       </c>
       <c r="F65">
-        <v>0.55616900000000002</v>
+        <v>0.57049549999999993</v>
       </c>
       <c r="G65">
-        <v>0.25212000000000001</v>
+        <v>0.25277666666666659</v>
       </c>
       <c r="H65">
-        <v>0.86866900000000002</v>
+        <v>0.88357850000000004</v>
       </c>
       <c r="I65">
-        <v>0.92240100000000003</v>
+        <v>0.96296666666666664</v>
       </c>
       <c r="J65">
-        <v>0.13820499999999999</v>
+        <v>7.6048149999999995E-2</v>
       </c>
       <c r="K65">
-        <v>6777.38</v>
+        <v>12403.699999999999</v>
       </c>
       <c r="L65">
-        <v>3986</v>
+        <v>3999.5</v>
       </c>
       <c r="M65">
         <f t="shared" si="3"/>
-        <v>5.3732000000000002E-2</v>
+        <v>7.9388166666666593E-2</v>
       </c>
       <c r="P65" t="s">
         <v>23</v>
       </c>
       <c r="Q65">
         <f t="shared" si="1"/>
-        <v>3.4699984063330374</v>
+        <v>3.3589376579320853</v>
       </c>
       <c r="R65">
         <f t="shared" si="2"/>
-        <v>1.0307880668294056</v>
+        <v>1.1964622291159044</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -41319,40 +41517,40 @@
         <v>20</v>
       </c>
       <c r="F66">
-        <v>0.45136999999999999</v>
+        <v>0.45492633333333332</v>
       </c>
       <c r="G66">
-        <v>0.245166</v>
+        <v>0.24586866666666665</v>
       </c>
       <c r="H66">
-        <v>0.75699700000000003</v>
+        <v>0.76124666666666663</v>
       </c>
       <c r="I66">
-        <v>0.82357000000000002</v>
+        <v>0.99959566666666666</v>
       </c>
       <c r="J66">
-        <v>0.13561500000000001</v>
+        <v>7.5410483333333347E-2</v>
       </c>
       <c r="K66">
-        <v>7056.38</v>
+        <v>12597.1</v>
       </c>
       <c r="L66">
-        <v>2993</v>
+        <v>3014.5</v>
       </c>
       <c r="M66">
         <f t="shared" si="3"/>
-        <v>6.6572999999999993E-2</v>
+        <v>0.23834900000000003</v>
       </c>
       <c r="P66" t="s">
         <v>24</v>
       </c>
       <c r="Q66">
         <f t="shared" si="1"/>
-        <v>3.9079131099967217</v>
+        <v>3.2598297244852668</v>
       </c>
       <c r="R66">
         <f t="shared" si="2"/>
-        <v>0.92382155598468241</v>
+        <v>1.1354219792287117</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -41372,40 +41570,40 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>2.5006499999999998</v>
+        <v>2.5224016666666667</v>
       </c>
       <c r="G67">
-        <v>1.02169</v>
+        <v>1.0248700000000002</v>
       </c>
       <c r="H67">
-        <v>3.7720099999999999</v>
+        <v>3.7988833333333338</v>
       </c>
       <c r="I67">
-        <v>3.8370299999999999</v>
+        <v>3.8644283333333331</v>
       </c>
       <c r="J67">
-        <v>0.13411999999999999</v>
+        <v>9.747323333333334E-2</v>
       </c>
       <c r="K67">
-        <v>252.96700000000001</v>
+        <v>253.08600000000001</v>
       </c>
       <c r="L67">
-        <v>15109</v>
+        <v>15146.5</v>
       </c>
       <c r="M67">
         <f t="shared" si="3"/>
-        <v>6.5020000000000078E-2</v>
+        <v>6.5544999999999298E-2</v>
       </c>
       <c r="P67" t="s">
         <v>23</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q121" si="4">I72/I67</f>
-        <v>2.1298712806519626</v>
+        <v>2.1664312574046094</v>
       </c>
       <c r="R67">
         <f t="shared" ref="R67:R121" si="5">K67/K72</f>
-        <v>2.1025042180240532</v>
+        <v>2.1509273607542401</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -41425,40 +41623,40 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2.1333700000000002</v>
+        <v>2.1754516666666666</v>
       </c>
       <c r="G68">
-        <v>1.02199</v>
+        <v>1.0235400000000001</v>
       </c>
       <c r="H68">
-        <v>3.40672</v>
+        <v>3.4501116666666669</v>
       </c>
       <c r="I68">
-        <v>3.4829500000000002</v>
+        <v>3.5281333333333333</v>
       </c>
       <c r="J68">
-        <v>0.13584599999999999</v>
+        <v>7.8740033333333334E-2</v>
       </c>
       <c r="K68">
-        <v>2323.48</v>
+        <v>3880.7533333333326</v>
       </c>
       <c r="L68">
-        <v>11822</v>
+        <v>11914</v>
       </c>
       <c r="M68">
         <f t="shared" si="3"/>
-        <v>7.6230000000000242E-2</v>
+        <v>7.8021666666666434E-2</v>
       </c>
       <c r="P68" t="s">
         <v>23</v>
       </c>
       <c r="Q68">
         <f t="shared" si="4"/>
-        <v>2.2260554989305041</v>
+        <v>2.2151562677147498</v>
       </c>
       <c r="R68">
         <f t="shared" si="5"/>
-        <v>18.321518408415276</v>
+        <v>30.694796343704429</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -41478,40 +41676,40 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <v>1.8548199999999999</v>
+        <v>1.8396550000000003</v>
       </c>
       <c r="G69">
-        <v>0.99302299999999999</v>
+        <v>0.99436683333333331</v>
       </c>
       <c r="H69">
-        <v>3.0993499999999998</v>
+        <v>3.0861166666666668</v>
       </c>
       <c r="I69">
-        <v>3.1861799999999998</v>
+        <v>3.1887150000000002</v>
       </c>
       <c r="J69">
-        <v>0.12903700000000001</v>
+        <v>7.5877533333333344E-2</v>
       </c>
       <c r="K69">
-        <v>5290.8</v>
+        <v>9059.5983333333334</v>
       </c>
       <c r="L69">
-        <v>5951</v>
+        <v>5988.166666666667</v>
       </c>
       <c r="M69">
         <f t="shared" si="3"/>
-        <v>8.6829999999999963E-2</v>
+        <v>0.10259833333333335</v>
       </c>
       <c r="P69" t="s">
         <v>24</v>
       </c>
       <c r="Q69">
         <f t="shared" si="4"/>
-        <v>2.2809665492847238</v>
+        <v>2.2736933216044708</v>
       </c>
       <c r="R69">
         <f t="shared" si="5"/>
-        <v>2.2073787898384145</v>
+        <v>2.5619912965730673</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -41531,40 +41729,40 @@
         <v>15</v>
       </c>
       <c r="F70">
-        <v>1.85714</v>
+        <v>1.8624049999999999</v>
       </c>
       <c r="G70">
-        <v>0.99395</v>
+        <v>0.99564599999999992</v>
       </c>
       <c r="H70">
-        <v>3.1031200000000001</v>
+        <v>3.1115750000000002</v>
       </c>
       <c r="I70">
-        <v>3.2007300000000001</v>
+        <v>3.2345450000000002</v>
       </c>
       <c r="J70">
-        <v>0.11952</v>
+        <v>7.6267100000000004E-2</v>
       </c>
       <c r="K70">
-        <v>6574.95</v>
+        <v>10366.98</v>
       </c>
       <c r="L70">
-        <v>3988</v>
+        <v>3997.6666666666665</v>
       </c>
       <c r="M70">
         <f t="shared" si="3"/>
-        <v>9.7609999999999975E-2</v>
+        <v>0.12297000000000002</v>
       </c>
       <c r="P70" t="s">
         <v>24</v>
       </c>
       <c r="Q70">
         <f t="shared" si="4"/>
-        <v>2.2763432092053999</v>
+        <v>2.2497553751764152</v>
       </c>
       <c r="R70">
         <f t="shared" si="5"/>
-        <v>1.5529666021068542</v>
+        <v>1.5637398297133767</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -41584,40 +41782,40 @@
         <v>20</v>
       </c>
       <c r="F71">
-        <v>1.8583700000000001</v>
+        <v>1.86269</v>
       </c>
       <c r="G71">
-        <v>0.99356100000000003</v>
+        <v>0.99577400000000005</v>
       </c>
       <c r="H71">
-        <v>3.1044399999999999</v>
+        <v>3.1123283333333327</v>
       </c>
       <c r="I71">
-        <v>3.2184400000000002</v>
+        <v>3.2585116666666667</v>
       </c>
       <c r="J71">
-        <v>0.109574</v>
+        <v>7.6007500000000006E-2</v>
       </c>
       <c r="K71">
-        <v>7638.25</v>
+        <v>11094.641666666668</v>
       </c>
       <c r="L71">
-        <v>2995</v>
+        <v>3001</v>
       </c>
       <c r="M71">
         <f t="shared" si="3"/>
-        <v>0.11400000000000032</v>
+        <v>0.146183333333334</v>
       </c>
       <c r="P71" t="s">
         <v>24</v>
       </c>
       <c r="Q71">
         <f t="shared" si="4"/>
-        <v>2.2702520475758443</v>
+        <v>2.2408216020913438</v>
       </c>
       <c r="R71">
         <f t="shared" si="5"/>
-        <v>1.4616226580454548</v>
+        <v>1.3451102138929705</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -41637,40 +41835,40 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>5.1217199999999998</v>
+        <v>5.3076649999999992</v>
       </c>
       <c r="G72">
-        <v>2.3184</v>
+        <v>2.3177733333333337</v>
       </c>
       <c r="H72">
-        <v>8.0224399999999996</v>
+        <v>8.2143983333333335</v>
       </c>
       <c r="I72">
-        <v>8.1723800000000004</v>
+        <v>8.3720183333333313</v>
       </c>
       <c r="J72">
-        <v>0.162359</v>
+        <v>0.16327216666666666</v>
       </c>
       <c r="K72">
-        <v>120.31699999999999</v>
+        <v>117.66366666666669</v>
       </c>
       <c r="L72">
-        <v>7199</v>
+        <v>7029.833333333333</v>
       </c>
       <c r="M72">
         <f t="shared" si="3"/>
-        <v>0.14994000000000085</v>
+        <v>0.15761999999999787</v>
       </c>
       <c r="P72" t="s">
         <v>23</v>
       </c>
       <c r="Q72">
         <f t="shared" si="4"/>
-        <v>1.7566975593401188</v>
+        <v>1.744228940412816</v>
       </c>
       <c r="R72">
         <f t="shared" si="5"/>
-        <v>1.7420406650382891</v>
+        <v>1.7358785994889117</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -41690,40 +41888,40 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>4.7016299999999998</v>
+        <v>4.7495699999999994</v>
       </c>
       <c r="G73">
-        <v>2.3184200000000001</v>
+        <v>2.3185916666666668</v>
       </c>
       <c r="H73">
-        <v>7.6026400000000001</v>
+        <v>7.6586116666666664</v>
       </c>
       <c r="I73">
-        <v>7.7532399999999999</v>
+        <v>7.8153666666666659</v>
       </c>
       <c r="J73">
-        <v>0.163774</v>
+        <v>0.16122733333333333</v>
       </c>
       <c r="K73">
-        <v>126.81699999999999</v>
+        <v>126.43033333333335</v>
       </c>
       <c r="L73">
-        <v>7579</v>
+        <v>7522.166666666667</v>
       </c>
       <c r="M73">
         <f t="shared" si="3"/>
-        <v>0.15059999999999985</v>
+        <v>0.15675499999999953</v>
       </c>
       <c r="P73" t="s">
         <v>23</v>
       </c>
       <c r="Q73">
         <f t="shared" si="4"/>
-        <v>1.6994314634913921</v>
+        <v>1.6858027561086917</v>
       </c>
       <c r="R73">
         <f t="shared" si="5"/>
-        <v>1.6804365369096568</v>
+        <v>1.6710083957718476</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -41743,40 +41941,40 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>4.2551600000000001</v>
+        <v>4.227640000000001</v>
       </c>
       <c r="G74">
-        <v>2.24858</v>
+        <v>2.2493700000000003</v>
       </c>
       <c r="H74">
-        <v>7.0967500000000001</v>
+        <v>7.07151</v>
       </c>
       <c r="I74">
-        <v>7.2675700000000001</v>
+        <v>7.250160000000001</v>
       </c>
       <c r="J74">
-        <v>0.11644400000000001</v>
+        <v>8.0143499999999993E-2</v>
       </c>
       <c r="K74">
-        <v>2396.87</v>
+        <v>3536.1549999999993</v>
       </c>
       <c r="L74">
-        <v>5964</v>
+        <v>5979.666666666667</v>
       </c>
       <c r="M74">
         <f t="shared" si="3"/>
-        <v>0.17081999999999997</v>
+        <v>0.17865000000000109</v>
       </c>
       <c r="P74" t="s">
         <v>24</v>
       </c>
       <c r="Q74">
         <f t="shared" si="4"/>
-        <v>1.8118160540593349</v>
+        <v>1.8159645212427491</v>
       </c>
       <c r="R74">
         <f t="shared" si="5"/>
-        <v>30.142976255302344</v>
+        <v>44.748871256247973</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -41796,40 +41994,40 @@
         <v>15</v>
       </c>
       <c r="F75">
-        <v>4.2567300000000001</v>
+        <v>4.2216216666666666</v>
       </c>
       <c r="G75">
-        <v>2.2483599999999999</v>
+        <v>2.2511583333333332</v>
       </c>
       <c r="H75">
-        <v>7.0968999999999998</v>
+        <v>7.0719033333333323</v>
       </c>
       <c r="I75">
-        <v>7.2859600000000002</v>
+        <v>7.276934999999999</v>
       </c>
       <c r="J75">
-        <v>0.121727</v>
+        <v>7.9022849999999992E-2</v>
       </c>
       <c r="K75">
-        <v>4233.8</v>
+        <v>6629.6066666666666</v>
       </c>
       <c r="L75">
-        <v>3986</v>
+        <v>3994.3333333333335</v>
       </c>
       <c r="M75">
         <f t="shared" si="3"/>
-        <v>0.18906000000000045</v>
+        <v>0.20503166666666672</v>
       </c>
       <c r="P75" t="s">
         <v>24</v>
       </c>
       <c r="Q75">
         <f t="shared" si="4"/>
-        <v>1.809411525728936</v>
+        <v>1.8113647206321526</v>
       </c>
       <c r="R75">
         <f t="shared" si="5"/>
-        <v>4.0535003063725492</v>
+        <v>4.4450150969625044</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -41849,40 +42047,40 @@
         <v>20</v>
       </c>
       <c r="F76">
-        <v>4.2581100000000003</v>
+        <v>4.2205066666666662</v>
       </c>
       <c r="G76">
-        <v>2.2498800000000001</v>
+        <v>2.2497516666666666</v>
       </c>
       <c r="H76">
-        <v>7.0971399999999996</v>
+        <v>7.0711216666666665</v>
       </c>
       <c r="I76">
-        <v>7.3066700000000004</v>
+        <v>7.3017433333333344</v>
       </c>
       <c r="J76">
-        <v>0.121252</v>
+        <v>7.7996099999999999E-2</v>
       </c>
       <c r="K76">
-        <v>5225.87</v>
+        <v>8248.1283333333322</v>
       </c>
       <c r="L76">
-        <v>2993</v>
+        <v>2999.1666666666665</v>
       </c>
       <c r="M76">
         <f t="shared" si="3"/>
-        <v>0.20953000000000088</v>
+        <v>0.23062166666666783</v>
       </c>
       <c r="P76" t="s">
         <v>24</v>
       </c>
       <c r="Q76">
         <f t="shared" si="4"/>
-        <v>1.8106196119436075</v>
+        <v>1.8148382829123453</v>
       </c>
       <c r="R76">
         <f t="shared" si="5"/>
-        <v>1.6301551898931608</v>
+        <v>1.9152608558011515</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -41902,40 +42100,40 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>8.7441899999999997</v>
+        <v>8.9703949999999999</v>
       </c>
       <c r="G77">
-        <v>4.1439300000000001</v>
+        <v>4.1438449999999998</v>
       </c>
       <c r="H77">
-        <v>14.0593</v>
+        <v>14.299300000000001</v>
       </c>
       <c r="I77">
-        <v>14.356400000000001</v>
+        <v>14.602716666666666</v>
       </c>
       <c r="J77">
-        <v>0.20564499999999999</v>
+        <v>0.20901933333333331</v>
       </c>
       <c r="K77">
-        <v>69.066699999999997</v>
+        <v>67.783349999999984</v>
       </c>
       <c r="L77">
-        <v>4121</v>
+        <v>4051.1666666666665</v>
       </c>
       <c r="M77">
         <f t="shared" si="3"/>
-        <v>0.29710000000000036</v>
+        <v>0.30341666666666534</v>
       </c>
       <c r="P77" t="s">
         <v>23</v>
       </c>
       <c r="Q77">
         <f t="shared" si="4"/>
-        <v>1.5650232648853473</v>
+        <v>1.5633575031130051</v>
       </c>
       <c r="R77">
         <f t="shared" si="5"/>
-        <v>1.5637731594164834</v>
+        <v>1.5517970813096442</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -41955,40 +42153,40 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <v>7.7027599999999996</v>
+        <v>7.6653583333333328</v>
       </c>
       <c r="G78">
-        <v>4.01938</v>
+        <v>4.0230933333333327</v>
       </c>
       <c r="H78">
-        <v>12.882300000000001</v>
+        <v>12.869716666666667</v>
       </c>
       <c r="I78">
-        <v>13.1761</v>
+        <v>13.175166666666664</v>
       </c>
       <c r="J78">
-        <v>0.201844</v>
+        <v>0.20480716666666665</v>
       </c>
       <c r="K78">
-        <v>75.466700000000003</v>
+        <v>75.661100000000005</v>
       </c>
       <c r="L78">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="M78">
         <f t="shared" si="3"/>
-        <v>0.29379999999999917</v>
+        <v>0.30544999999999689</v>
       </c>
       <c r="P78" t="s">
         <v>24</v>
       </c>
       <c r="Q78">
         <f t="shared" si="4"/>
-        <v>1.5943868064146447</v>
+        <v>1.5912120023782117</v>
       </c>
       <c r="R78">
         <f t="shared" si="5"/>
-        <v>1.5848788345265421</v>
+        <v>1.5655829207856768</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -42008,40 +42206,40 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>7.6963499999999998</v>
+        <v>7.6506533333333335</v>
       </c>
       <c r="G79">
-        <v>4.0141</v>
+        <v>4.0200050000000003</v>
       </c>
       <c r="H79">
-        <v>12.8757</v>
+        <v>12.857933333333333</v>
       </c>
       <c r="I79">
-        <v>13.1675</v>
+        <v>13.166033333333331</v>
       </c>
       <c r="J79">
-        <v>0.20183999999999999</v>
+        <v>0.19749799999999998</v>
       </c>
       <c r="K79">
-        <v>79.5167</v>
+        <v>79.022216666666665</v>
       </c>
       <c r="L79">
-        <v>4488</v>
+        <v>4488.833333333333</v>
       </c>
       <c r="M79">
         <f t="shared" si="3"/>
-        <v>0.29180000000000028</v>
+        <v>0.30809999999999782</v>
       </c>
       <c r="P79" t="s">
         <v>24</v>
       </c>
       <c r="Q79">
         <f t="shared" si="4"/>
-        <v>1.5928080501234096</v>
+        <v>1.5962552629113811</v>
       </c>
       <c r="R79">
         <f t="shared" si="5"/>
-        <v>1.6440381502149206</v>
+        <v>1.6098684353490194</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -42061,40 +42259,40 @@
         <v>15</v>
       </c>
       <c r="F80">
-        <v>7.6729900000000004</v>
+        <v>7.6449950000000007</v>
       </c>
       <c r="G80">
-        <v>4.0226800000000003</v>
+        <v>4.0176383333333332</v>
       </c>
       <c r="H80">
-        <v>12.8599</v>
+        <v>12.84155</v>
       </c>
       <c r="I80">
-        <v>13.183299999999999</v>
+        <v>13.181183333333331</v>
       </c>
       <c r="J80">
-        <v>0.12389</v>
+        <v>8.5654866666666676E-2</v>
       </c>
       <c r="K80">
-        <v>1044.48</v>
+        <v>1491.47</v>
       </c>
       <c r="L80">
-        <v>3984</v>
+        <v>3990.3333333333335</v>
       </c>
       <c r="M80">
         <f t="shared" si="3"/>
-        <v>0.32339999999999947</v>
+        <v>0.33963333333333168</v>
       </c>
       <c r="P80" t="s">
         <v>24</v>
       </c>
       <c r="Q80">
         <f t="shared" si="4"/>
-        <v>1.5891392898591401</v>
+        <v>1.5904401602789837</v>
       </c>
       <c r="R80">
         <f t="shared" si="5"/>
-        <v>21.366806250805492</v>
+        <v>29.939176982268322</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -42114,40 +42312,40 @@
         <v>20</v>
       </c>
       <c r="F81">
-        <v>7.68316</v>
+        <v>7.6739933333333346</v>
       </c>
       <c r="G81">
-        <v>4.0234500000000004</v>
+        <v>4.0184133333333332</v>
       </c>
       <c r="H81">
-        <v>12.8719</v>
+        <v>12.868866666666669</v>
       </c>
       <c r="I81">
-        <v>13.2296</v>
+        <v>13.251483333333333</v>
       </c>
       <c r="J81">
-        <v>0.10592500000000001</v>
+        <v>8.0155333333333328E-2</v>
       </c>
       <c r="K81">
-        <v>3205.75</v>
+        <v>4306.53</v>
       </c>
       <c r="L81">
-        <v>2993</v>
+        <v>2996.8333333333335</v>
       </c>
       <c r="M81">
         <f t="shared" si="3"/>
-        <v>0.35769999999999946</v>
+        <v>0.38261666666666372</v>
       </c>
       <c r="P81" t="s">
         <v>24</v>
       </c>
       <c r="Q81">
         <f t="shared" si="4"/>
-        <v>1.5978563221866118</v>
+        <v>1.5849408053689586</v>
       </c>
       <c r="R81">
         <f t="shared" si="5"/>
-        <v>52.567670165438734</v>
+        <v>56.509949369065204</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -42167,40 +42365,40 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>13.4552</v>
+        <v>13.738050000000001</v>
       </c>
       <c r="G82">
-        <v>6.5115800000000004</v>
+        <v>6.5040983333333342</v>
       </c>
       <c r="H82">
-        <v>21.866299999999999</v>
+        <v>22.199099999999998</v>
       </c>
       <c r="I82">
-        <v>22.4681</v>
+        <v>22.829266666666665</v>
       </c>
       <c r="J82">
-        <v>0.22251499999999999</v>
+        <v>0.22053183333333334</v>
       </c>
       <c r="K82">
-        <v>44.166699999999999</v>
+        <v>43.680550000000004</v>
       </c>
       <c r="L82">
-        <v>2645</v>
+        <v>2603.6666666666665</v>
       </c>
       <c r="M82">
         <f t="shared" si="3"/>
-        <v>0.60180000000000078</v>
+        <v>0.63016666666666765</v>
       </c>
       <c r="P82" t="s">
         <v>23</v>
       </c>
       <c r="Q82">
         <f t="shared" si="4"/>
-        <v>1.5450972712423392</v>
+        <v>1.5365050417738635</v>
       </c>
       <c r="R82">
         <f t="shared" si="5"/>
-        <v>1.5353412104968591</v>
+        <v>1.5304134306569344</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -42220,40 +42418,40 @@
         <v>5</v>
       </c>
       <c r="F83">
-        <v>12.1404</v>
+        <v>12.093450000000002</v>
       </c>
       <c r="G83">
-        <v>6.3197799999999997</v>
+        <v>6.3042100000000003</v>
       </c>
       <c r="H83">
-        <v>20.399899999999999</v>
+        <v>20.347833333333334</v>
       </c>
       <c r="I83">
-        <v>21.0078</v>
+        <v>20.96448333333333</v>
       </c>
       <c r="J83">
-        <v>0.218279</v>
+        <v>0.21860899999999997</v>
       </c>
       <c r="K83">
-        <v>47.616700000000002</v>
+        <v>48.327750000000009</v>
       </c>
       <c r="L83">
-        <v>2827</v>
+        <v>2832.3333333333335</v>
       </c>
       <c r="M83">
         <f t="shared" si="3"/>
-        <v>0.60790000000000077</v>
+        <v>0.61664999999999637</v>
       </c>
       <c r="P83" t="s">
         <v>24</v>
       </c>
       <c r="Q83">
         <f t="shared" si="4"/>
-        <v>1.5547368120412419</v>
+        <v>1.5585653196000542</v>
       </c>
       <c r="R83">
         <f t="shared" si="5"/>
-        <v>1.5385040387722133</v>
+        <v>1.5392661735845212</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -42273,40 +42471,40 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>12.131</v>
+        <v>12.1092</v>
       </c>
       <c r="G84">
-        <v>6.3128799999999998</v>
+        <v>6.3104216666666666</v>
       </c>
       <c r="H84">
-        <v>20.361899999999999</v>
+        <v>20.388516666666664</v>
       </c>
       <c r="I84">
-        <v>20.973299999999998</v>
+        <v>21.016350000000003</v>
       </c>
       <c r="J84">
-        <v>0.216305</v>
+        <v>0.21480633333333332</v>
       </c>
       <c r="K84">
-        <v>48.366700000000002</v>
+        <v>49.086133333333329</v>
       </c>
       <c r="L84">
-        <v>2831</v>
+        <v>2825.1666666666665</v>
       </c>
       <c r="M84">
         <f t="shared" si="3"/>
-        <v>0.61139999999999972</v>
+        <v>0.62783333333333857</v>
       </c>
       <c r="P84" t="s">
         <v>24</v>
       </c>
       <c r="Q84">
         <f t="shared" si="4"/>
-        <v>1.5611753991980282</v>
+        <v>1.5553327131812453</v>
       </c>
       <c r="R84">
         <f t="shared" si="5"/>
-        <v>1.5370757022503154</v>
+        <v>1.5288986898942185</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -42326,40 +42524,40 @@
         <v>15</v>
       </c>
       <c r="F85">
-        <v>12.128299999999999</v>
+        <v>12.089349999999998</v>
       </c>
       <c r="G85">
-        <v>6.3146500000000003</v>
+        <v>6.3035283333333334</v>
       </c>
       <c r="H85">
-        <v>20.3429</v>
+        <v>20.348033333333333</v>
       </c>
       <c r="I85">
-        <v>20.950099999999999</v>
+        <v>20.963883333333332</v>
       </c>
       <c r="J85">
-        <v>0.21726699999999999</v>
+        <v>0.21535866666666667</v>
       </c>
       <c r="K85">
-        <v>48.883299999999998</v>
+        <v>49.816666666666663</v>
       </c>
       <c r="L85">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="M85">
         <f t="shared" si="3"/>
-        <v>0.60719999999999885</v>
+        <v>0.61584999999999823</v>
       </c>
       <c r="P85" t="s">
         <v>24</v>
       </c>
       <c r="Q85">
         <f t="shared" si="4"/>
-        <v>1.5600211932162615</v>
+        <v>1.5584851089135043</v>
       </c>
       <c r="R85">
         <f t="shared" si="5"/>
-        <v>1.5323918495297806</v>
+        <v>1.5270786969200931</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -42379,40 +42577,40 @@
         <v>20</v>
       </c>
       <c r="F86">
-        <v>12.1957</v>
+        <v>12.10878333333333</v>
       </c>
       <c r="G86">
-        <v>6.3206300000000004</v>
+        <v>6.3064183333333341</v>
       </c>
       <c r="H86">
-        <v>20.448699999999999</v>
+        <v>20.372033333333331</v>
       </c>
       <c r="I86">
-        <v>21.138999999999999</v>
+        <v>21.002816666666664</v>
       </c>
       <c r="J86">
-        <v>0.20374800000000001</v>
+        <v>0.21456333333333336</v>
       </c>
       <c r="K86">
-        <v>60.9833</v>
+        <v>76.208349999999996</v>
       </c>
       <c r="L86">
-        <v>2810</v>
+        <v>2826.6666666666665</v>
       </c>
       <c r="M86">
         <f t="shared" si="3"/>
-        <v>0.69030000000000058</v>
+        <v>0.63078333333333347</v>
       </c>
       <c r="P86" t="s">
         <v>24</v>
       </c>
       <c r="Q86">
         <f t="shared" si="4"/>
-        <v>1.5438100193954303</v>
+        <v>1.5564801229041503</v>
       </c>
       <c r="R86">
         <f t="shared" si="5"/>
-        <v>1.8860833877148326</v>
+        <v>2.3046880040322577</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -42432,44 +42630,44 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>20.581299999999999</v>
+        <v>20.895566666666667</v>
       </c>
       <c r="G87">
-        <v>9.7359200000000001</v>
+        <v>9.7124199999999998</v>
       </c>
       <c r="H87">
-        <v>33.605200000000004</v>
+        <v>33.950066666666665</v>
       </c>
       <c r="I87">
-        <v>34.715400000000002</v>
+        <v>35.077283333333334</v>
       </c>
       <c r="J87">
-        <v>0.22506499999999999</v>
+        <v>0.22682350000000004</v>
       </c>
       <c r="K87">
-        <v>28.7667</v>
+        <v>28.541666666666668</v>
       </c>
       <c r="L87">
-        <v>1718</v>
+        <v>1700.1666666666667</v>
       </c>
       <c r="M87">
         <f t="shared" si="3"/>
-        <v>1.110199999999999</v>
+        <v>1.1272166666666692</v>
       </c>
       <c r="N87">
         <f>H88-(F88+G88)</f>
-        <v>3.2829900000000016</v>
+        <v>3.3402266666666556</v>
       </c>
       <c r="P87" t="s">
         <v>23</v>
       </c>
       <c r="Q87">
         <f t="shared" si="4"/>
-        <v>1.1857417745438623E-2</v>
+        <v>1.1677652725861992E-2</v>
       </c>
       <c r="R87">
         <f t="shared" si="5"/>
-        <v>4.9312342184974212E-3</v>
+        <v>3.5886608794052778E-3</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -42489,40 +42687,40 @@
         <v>5</v>
       </c>
       <c r="F88">
-        <v>18.8294</v>
+        <v>18.792900000000003</v>
       </c>
       <c r="G88">
-        <v>9.4420099999999998</v>
+        <v>9.4145566666666678</v>
       </c>
       <c r="H88">
-        <v>31.554400000000001</v>
+        <v>31.547683333333328</v>
       </c>
       <c r="I88">
-        <v>32.6616</v>
+        <v>32.674516666666669</v>
       </c>
       <c r="J88">
-        <v>0.22369600000000001</v>
+        <v>0.22255500000000003</v>
       </c>
       <c r="K88">
-        <v>30.95</v>
+        <v>31.39661666666667</v>
       </c>
       <c r="L88">
-        <v>1825</v>
+        <v>1823.8333333333333</v>
       </c>
       <c r="M88">
         <f t="shared" si="3"/>
-        <v>1.1071999999999989</v>
+        <v>1.1268333333333409</v>
       </c>
       <c r="P88" t="s">
         <v>24</v>
       </c>
       <c r="Q88">
         <f t="shared" si="4"/>
-        <v>1.3158724618512259E-2</v>
+        <v>1.3240272363120902E-2</v>
       </c>
       <c r="R88">
         <f t="shared" si="5"/>
-        <v>3.7327698599638418E-3</v>
+        <v>2.5978426205182734E-3</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -42542,40 +42740,40 @@
         <v>10</v>
       </c>
       <c r="F89">
-        <v>18.816700000000001</v>
+        <v>18.799566666666667</v>
       </c>
       <c r="G89">
-        <v>9.4298500000000001</v>
+        <v>9.412466666666667</v>
       </c>
       <c r="H89">
-        <v>31.5215</v>
+        <v>31.558533333333333</v>
       </c>
       <c r="I89">
-        <v>32.743000000000002</v>
+        <v>32.687416666666671</v>
       </c>
       <c r="J89">
-        <v>0.20768300000000001</v>
+        <v>0.21965866666666667</v>
       </c>
       <c r="K89">
-        <v>31.466699999999999</v>
+        <v>32.105550000000001</v>
       </c>
       <c r="L89">
-        <v>1821</v>
+        <v>1823.3333333333333</v>
       </c>
       <c r="M89">
         <f t="shared" si="3"/>
-        <v>1.2215000000000025</v>
+        <v>1.1288833333333379</v>
       </c>
       <c r="P89" t="s">
         <v>24</v>
       </c>
       <c r="Q89">
         <f t="shared" si="4"/>
-        <v>1.3077665455211801E-2</v>
+        <v>1.3634930872991389E-2</v>
       </c>
       <c r="R89">
         <f t="shared" si="5"/>
-        <v>3.6881450095817433E-3</v>
+        <v>2.5385734523770301E-3</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -42595,40 +42793,40 @@
         <v>15</v>
       </c>
       <c r="F90">
-        <v>18.8308</v>
+        <v>18.792633333333331</v>
       </c>
       <c r="G90">
-        <v>9.4315200000000008</v>
+        <v>9.4103066666666653</v>
       </c>
       <c r="H90">
-        <v>31.569299999999998</v>
+        <v>31.545016666666665</v>
       </c>
       <c r="I90">
-        <v>32.682600000000001</v>
+        <v>32.671899999999994</v>
       </c>
       <c r="J90">
-        <v>0.22281699999999999</v>
+        <v>0.2195206666666667</v>
       </c>
       <c r="K90">
-        <v>31.9</v>
+        <v>32.622199999999999</v>
       </c>
       <c r="L90">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="M90">
         <f t="shared" si="3"/>
-        <v>1.1133000000000024</v>
+        <v>1.1268833333333284</v>
       </c>
       <c r="P90" t="s">
         <v>24</v>
       </c>
       <c r="Q90">
         <f t="shared" si="4"/>
-        <v>1.3366929191679975E-2</v>
+        <v>1.4113029851340145E-2</v>
       </c>
       <c r="R90">
         <f t="shared" si="5"/>
-        <v>3.6983063148290488E-3</v>
+        <v>2.5400367509654915E-3</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -42648,40 +42846,40 @@
         <v>20</v>
       </c>
       <c r="F91">
-        <v>18.809699999999999</v>
+        <v>18.798166666666667</v>
       </c>
       <c r="G91">
-        <v>9.4362999999999992</v>
+        <v>9.4171783333333341</v>
       </c>
       <c r="H91">
-        <v>31.525600000000001</v>
+        <v>31.562333333333338</v>
       </c>
       <c r="I91">
-        <v>32.634599999999999</v>
+        <v>32.690466666666666</v>
       </c>
       <c r="J91">
-        <v>0.222661</v>
+        <v>0.21905949999999996</v>
       </c>
       <c r="K91">
-        <v>32.333300000000001</v>
+        <v>33.06666666666667</v>
       </c>
       <c r="L91">
-        <v>1826</v>
+        <v>1822.6666666666667</v>
       </c>
       <c r="M91">
         <f t="shared" si="3"/>
-        <v>1.1089999999999982</v>
+        <v>1.1281333333333272</v>
       </c>
       <c r="P91" t="s">
         <v>24</v>
       </c>
       <c r="Q91">
         <f t="shared" si="4"/>
-        <v>1.3726566282411919E-2</v>
+        <v>1.4700911784679326E-2</v>
       </c>
       <c r="R91">
         <f t="shared" si="5"/>
-        <v>3.7541726510949623E-3</v>
+        <v>2.5516043984309695E-3</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -42701,40 +42899,40 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0.25828099999999998</v>
+        <v>0.25417366666666669</v>
       </c>
       <c r="G92">
-        <v>0.12632699999999999</v>
+        <v>0.12615699999999999</v>
       </c>
       <c r="H92">
-        <v>0.401285</v>
+        <v>0.39711999999999997</v>
       </c>
       <c r="I92">
-        <v>0.41163499999999997</v>
+        <v>0.40962033333333342</v>
       </c>
       <c r="J92">
-        <v>0.104156</v>
+        <v>7.7069216666666662E-2</v>
       </c>
       <c r="K92">
-        <v>5833.57</v>
+        <v>7953.291666666667</v>
       </c>
       <c r="L92">
-        <v>57255</v>
+        <v>57591.5</v>
       </c>
       <c r="M92">
         <f t="shared" si="3"/>
-        <v>1.034999999999997E-2</v>
+        <v>1.2500333333333447E-2</v>
       </c>
       <c r="P92" t="s">
         <v>25</v>
       </c>
       <c r="Q92">
         <f t="shared" si="4"/>
-        <v>4.0367558638113863</v>
+        <v>4.0217974205382045</v>
       </c>
       <c r="R92">
         <f t="shared" si="5"/>
-        <v>10.197960607167767</v>
+        <v>13.793166739217023</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -42754,40 +42952,40 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <v>0.26299800000000001</v>
+        <v>0.25916766666666669</v>
       </c>
       <c r="G93">
-        <v>0.12646399999999999</v>
+        <v>0.126252</v>
       </c>
       <c r="H93">
-        <v>0.40616600000000003</v>
+        <v>0.40225050000000001</v>
       </c>
       <c r="I93">
-        <v>0.42978499999999997</v>
+        <v>0.43261949999999999</v>
       </c>
       <c r="J93">
-        <v>0.11007599999999999</v>
+        <v>7.6224183333333334E-2</v>
       </c>
       <c r="K93">
-        <v>8291.43</v>
+        <v>12085.65</v>
       </c>
       <c r="L93">
-        <v>11880</v>
+        <v>11937.333333333334</v>
       </c>
       <c r="M93">
         <f t="shared" si="3"/>
-        <v>2.3618999999999946E-2</v>
+        <v>3.0368999999999979E-2</v>
       </c>
       <c r="P93" t="s">
         <v>25</v>
       </c>
       <c r="Q93">
         <f t="shared" si="4"/>
-        <v>3.6843305373617041</v>
+        <v>3.7001568352790386</v>
       </c>
       <c r="R93">
         <f t="shared" si="5"/>
-        <v>1.4187086673453848</v>
+        <v>1.3696192074088049</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -42807,40 +43005,40 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>0.24874299999999999</v>
+        <v>0.2519588333333333</v>
       </c>
       <c r="G94">
-        <v>0.12645899999999999</v>
+        <v>0.12623766666666666</v>
       </c>
       <c r="H94">
-        <v>0.39191799999999999</v>
+        <v>0.39503283333333333</v>
       </c>
       <c r="I94">
-        <v>0.42820200000000003</v>
+        <v>0.44569066666666668</v>
       </c>
       <c r="J94">
-        <v>0.111882</v>
+        <v>7.6196250000000007E-2</v>
       </c>
       <c r="K94">
-        <v>8531.85</v>
+        <v>12647.083333333334</v>
       </c>
       <c r="L94">
-        <v>5974</v>
+        <v>5992</v>
       </c>
       <c r="M94">
         <f t="shared" si="3"/>
-        <v>3.6284000000000038E-2</v>
+        <v>5.0657833333333346E-2</v>
       </c>
       <c r="P94" t="s">
         <v>25</v>
       </c>
       <c r="Q94">
         <f t="shared" si="4"/>
-        <v>3.7161900224660323</v>
+        <v>3.6274785501453923</v>
       </c>
       <c r="R94">
         <f t="shared" si="5"/>
-        <v>1.265246773430537</v>
+        <v>1.1610240482265055</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -42860,40 +43058,40 @@
         <v>15</v>
       </c>
       <c r="F95">
-        <v>0.24452399999999999</v>
+        <v>0.247088</v>
       </c>
       <c r="G95">
-        <v>0.12651000000000001</v>
+        <v>0.12626950000000001</v>
       </c>
       <c r="H95">
-        <v>0.38774900000000001</v>
+        <v>0.39020700000000003</v>
       </c>
       <c r="I95">
-        <v>0.43686599999999998</v>
+        <v>0.4610995</v>
       </c>
       <c r="J95">
-        <v>0.11230800000000001</v>
+        <v>7.6103316666666657E-2</v>
       </c>
       <c r="K95">
-        <v>8625.57</v>
+        <v>12843.199999999999</v>
       </c>
       <c r="L95">
-        <v>3990</v>
+        <v>3999.6666666666665</v>
       </c>
       <c r="M95">
         <f t="shared" si="3"/>
-        <v>4.9116999999999966E-2</v>
+        <v>7.0892499999999969E-2</v>
       </c>
       <c r="P95" t="s">
         <v>24</v>
       </c>
       <c r="Q95">
         <f t="shared" si="4"/>
-        <v>3.6738725375744505</v>
+        <v>3.5449037210696024</v>
       </c>
       <c r="R95">
         <f t="shared" si="5"/>
-        <v>1.1767489768076398</v>
+        <v>1.1044675790395502</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -42913,40 +43111,40 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>0.24330499999999999</v>
+        <v>0.24627166666666669</v>
       </c>
       <c r="G96">
-        <v>0.126448</v>
+        <v>0.12625016666666666</v>
       </c>
       <c r="H96">
-        <v>0.386486</v>
+        <v>0.38938233333333327</v>
       </c>
       <c r="I96">
-        <v>0.447961</v>
+        <v>0.48057966666666663</v>
       </c>
       <c r="J96">
-        <v>0.113243</v>
+        <v>7.590065E-2</v>
       </c>
       <c r="K96">
-        <v>8612.6299999999992</v>
+        <v>12959.166666666666</v>
       </c>
       <c r="L96">
-        <v>2996</v>
+        <v>3002</v>
       </c>
       <c r="M96">
         <f t="shared" si="3"/>
-        <v>6.1475000000000002E-2</v>
+        <v>9.1197333333333352E-2</v>
       </c>
       <c r="P96" t="s">
         <v>24</v>
       </c>
       <c r="Q96">
         <f t="shared" si="4"/>
-        <v>3.5187661425883059</v>
+        <v>3.3639202379903712</v>
       </c>
       <c r="R96">
         <f t="shared" si="5"/>
-        <v>1.1192327085217644</v>
+        <v>1.0642039855469176</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -42966,40 +43164,40 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.04383</v>
+        <v>1.0292283333333334</v>
       </c>
       <c r="G97">
-        <v>0.51254900000000003</v>
+        <v>0.51176183333333336</v>
       </c>
       <c r="H97">
-        <v>1.6294200000000001</v>
+        <v>1.6146583333333335</v>
       </c>
       <c r="I97">
-        <v>1.66167</v>
+        <v>1.6474099999999998</v>
       </c>
       <c r="J97">
-        <v>8.9700500000000002E-2</v>
+        <v>9.2527116666666673E-2</v>
       </c>
       <c r="K97">
-        <v>572.03300000000002</v>
+        <v>576.61099999999999</v>
       </c>
       <c r="L97">
-        <v>34257</v>
+        <v>34494.5</v>
       </c>
       <c r="M97">
         <f t="shared" si="3"/>
-        <v>3.224999999999989E-2</v>
+        <v>3.275166666666629E-2</v>
       </c>
       <c r="P97" t="s">
         <v>25</v>
       </c>
       <c r="Q97">
         <f t="shared" si="4"/>
-        <v>2.2071590628704856</v>
+        <v>2.2488431335652126</v>
       </c>
       <c r="R97">
         <f t="shared" si="5"/>
-        <v>2.1576624660055748</v>
+        <v>2.1886245064839511</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -43019,40 +43217,40 @@
         <v>5</v>
       </c>
       <c r="F98">
-        <v>0.95483200000000001</v>
+        <v>0.9674691666666666</v>
       </c>
       <c r="G98">
-        <v>0.513378</v>
+        <v>0.5120378333333333</v>
       </c>
       <c r="H98">
-        <v>1.5415300000000001</v>
+        <v>1.55318</v>
       </c>
       <c r="I98">
-        <v>1.5834699999999999</v>
+        <v>1.60076</v>
       </c>
       <c r="J98">
-        <v>0.117489</v>
+        <v>7.8567750000000006E-2</v>
       </c>
       <c r="K98">
-        <v>5844.35</v>
+        <v>8824.0950000000012</v>
       </c>
       <c r="L98">
-        <v>11860</v>
+        <v>11926.5</v>
       </c>
       <c r="M98">
         <f t="shared" si="3"/>
-        <v>4.1939999999999866E-2</v>
+        <v>4.7579999999999956E-2</v>
       </c>
       <c r="P98" t="s">
         <v>24</v>
       </c>
       <c r="Q98">
         <f t="shared" si="4"/>
-        <v>2.2506015270260882</v>
+        <v>2.2371050834187094</v>
       </c>
       <c r="R98">
         <f t="shared" si="5"/>
-        <v>2.2081481985249671</v>
+        <v>2.3529675541604691</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -43072,40 +43270,40 @@
         <v>10</v>
       </c>
       <c r="F99">
-        <v>0.95130800000000004</v>
+        <v>0.96410266666666666</v>
       </c>
       <c r="G99">
-        <v>0.51352299999999995</v>
+        <v>0.51217466666666656</v>
       </c>
       <c r="H99">
-        <v>1.53807</v>
+        <v>1.5499416666666666</v>
       </c>
       <c r="I99">
-        <v>1.59128</v>
+        <v>1.6167333333333334</v>
       </c>
       <c r="J99">
-        <v>0.124657</v>
+        <v>7.8156983333333332E-2</v>
       </c>
       <c r="K99">
-        <v>6743.23</v>
+        <v>10893.041666666666</v>
       </c>
       <c r="L99">
-        <v>5967</v>
+        <v>5989</v>
       </c>
       <c r="M99">
         <f t="shared" si="3"/>
-        <v>5.320999999999998E-2</v>
+        <v>6.6791666666666805E-2</v>
       </c>
       <c r="P99" t="s">
         <v>24</v>
       </c>
       <c r="Q99">
         <f t="shared" si="4"/>
-        <v>2.2472286461213611</v>
+        <v>2.2265731310049066</v>
       </c>
       <c r="R99">
         <f t="shared" si="5"/>
-        <v>1.2355488046202781</v>
+        <v>1.3009710767038132</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -43125,40 +43323,40 @@
         <v>15</v>
       </c>
       <c r="F100">
-        <v>0.95383499999999999</v>
+        <v>0.96185983333333336</v>
       </c>
       <c r="G100">
-        <v>0.51251599999999997</v>
+        <v>0.51202866666666669</v>
       </c>
       <c r="H100">
-        <v>1.5392999999999999</v>
+        <v>1.5477416666666668</v>
       </c>
       <c r="I100">
-        <v>1.6049899999999999</v>
+        <v>1.6345533333333331</v>
       </c>
       <c r="J100">
-        <v>0.1216</v>
+        <v>7.7404783333333338E-2</v>
       </c>
       <c r="K100">
-        <v>7330</v>
+        <v>11628.408333333335</v>
       </c>
       <c r="L100">
-        <v>3989</v>
+        <v>3998.5</v>
       </c>
       <c r="M100">
         <f t="shared" si="3"/>
-        <v>6.5690000000000026E-2</v>
+        <v>8.6811666666666287E-2</v>
       </c>
       <c r="P100" t="s">
         <v>24</v>
       </c>
       <c r="Q100">
         <f t="shared" si="4"/>
-        <v>2.1841382189297134</v>
+        <v>2.1647055464693721</v>
       </c>
       <c r="R100">
         <f t="shared" si="5"/>
-        <v>1.2355501316459281</v>
+        <v>1.1766525773955654</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -43178,40 +43376,40 @@
         <v>20</v>
       </c>
       <c r="F101">
-        <v>0.926956</v>
+        <v>0.93356166666666651</v>
       </c>
       <c r="G101">
-        <v>0.49810599999999999</v>
+        <v>0.49775399999999997</v>
       </c>
       <c r="H101">
-        <v>1.4979499999999999</v>
+        <v>1.5052316666666667</v>
       </c>
       <c r="I101">
-        <v>1.5762700000000001</v>
+        <v>1.6166316666666665</v>
       </c>
       <c r="J101">
-        <v>0.11944100000000001</v>
+        <v>7.6075166666666666E-2</v>
       </c>
       <c r="K101">
-        <v>7695.12</v>
+        <v>12177.333333333334</v>
       </c>
       <c r="L101">
-        <v>2995</v>
+        <v>3001.8333333333335</v>
       </c>
       <c r="M101">
         <f t="shared" si="3"/>
-        <v>7.8320000000000167E-2</v>
+        <v>0.11139999999999972</v>
       </c>
       <c r="P101" t="s">
         <v>24</v>
       </c>
       <c r="Q101">
         <f t="shared" si="4"/>
-        <v>2.2360763067241018</v>
+        <v>2.2021466444118896</v>
       </c>
       <c r="R101">
         <f t="shared" si="5"/>
-        <v>1.2670055174389598</v>
+        <v>1.1402691487153556</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -43231,40 +43429,40 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2.2745899999999999</v>
+        <v>2.3066133333333334</v>
       </c>
       <c r="G102">
-        <v>1.1583000000000001</v>
+        <v>1.1585799999999999</v>
       </c>
       <c r="H102">
-        <v>3.5968800000000001</v>
+        <v>3.6317200000000001</v>
       </c>
       <c r="I102">
-        <v>3.66757</v>
+        <v>3.7047666666666665</v>
       </c>
       <c r="J102">
-        <v>0.111681</v>
+        <v>0.1111118</v>
       </c>
       <c r="K102">
-        <v>265.11700000000002</v>
+        <v>263.45816666666673</v>
       </c>
       <c r="L102">
-        <v>15876</v>
+        <v>15725</v>
       </c>
       <c r="M102">
         <f t="shared" si="3"/>
-        <v>7.068999999999992E-2</v>
+        <v>7.3046666666666482E-2</v>
       </c>
       <c r="P102" t="s">
         <v>25</v>
       </c>
       <c r="Q102">
         <f t="shared" si="4"/>
-        <v>1.7728959501795467</v>
+        <v>1.7752170627030039</v>
       </c>
       <c r="R102">
         <f t="shared" si="5"/>
-        <v>1.755939410397197</v>
+        <v>1.765870502375535</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -43284,40 +43482,40 @@
         <v>5</v>
       </c>
       <c r="F103">
-        <v>2.1649600000000002</v>
+        <v>2.1747749999999999</v>
       </c>
       <c r="G103">
-        <v>1.1583699999999999</v>
+        <v>1.1591399999999998</v>
       </c>
       <c r="H103">
-        <v>3.4876399999999999</v>
+        <v>3.5005166666666674</v>
       </c>
       <c r="I103">
-        <v>3.5637599999999998</v>
+        <v>3.5810683333333331</v>
       </c>
       <c r="J103">
-        <v>0.11192000000000001</v>
+        <v>7.8309300000000012E-2</v>
       </c>
       <c r="K103">
-        <v>2646.72</v>
+        <v>3750.1983333333333</v>
       </c>
       <c r="L103">
-        <v>11858</v>
+        <v>11921.5</v>
       </c>
       <c r="M103">
         <f t="shared" si="3"/>
-        <v>7.6119999999999965E-2</v>
+        <v>8.0551666666665689E-2</v>
       </c>
       <c r="P103" t="s">
         <v>24</v>
       </c>
       <c r="Q103">
         <f t="shared" si="4"/>
-        <v>1.7899409612319572</v>
+        <v>1.7902478822660461</v>
       </c>
       <c r="R103">
         <f t="shared" si="5"/>
-        <v>15.929702076436953</v>
+        <v>22.596865126947499</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -43337,40 +43535,40 @@
         <v>10</v>
       </c>
       <c r="F104">
-        <v>2.1617600000000001</v>
+        <v>2.171043333333333</v>
       </c>
       <c r="G104">
-        <v>1.1602300000000001</v>
+        <v>1.1593316666666666</v>
       </c>
       <c r="H104">
-        <v>3.4866100000000002</v>
+        <v>3.4969433333333328</v>
       </c>
       <c r="I104">
-        <v>3.5759699999999999</v>
+        <v>3.5997749999999997</v>
       </c>
       <c r="J104">
-        <v>0.117466</v>
+        <v>7.7137166666666659E-2</v>
       </c>
       <c r="K104">
-        <v>5457.68</v>
+        <v>8373.0083333333332</v>
       </c>
       <c r="L104">
-        <v>5969</v>
+        <v>5987.333333333333</v>
       </c>
       <c r="M104">
         <f t="shared" si="3"/>
-        <v>8.9359999999999662E-2</v>
+        <v>0.10283166666666688</v>
       </c>
       <c r="P104" t="s">
         <v>24</v>
       </c>
       <c r="Q104">
         <f t="shared" si="4"/>
-        <v>1.7605293109282238</v>
+        <v>1.7549258865716144</v>
       </c>
       <c r="R104">
         <f t="shared" si="5"/>
-        <v>1.6734522418767805</v>
+        <v>1.7618181237942703</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -43390,40 +43588,40 @@
         <v>15</v>
       </c>
       <c r="F105">
-        <v>2.1137000000000001</v>
+        <v>2.1255016666666666</v>
       </c>
       <c r="G105">
-        <v>1.1274599999999999</v>
+        <v>1.1247166666666668</v>
       </c>
       <c r="H105">
-        <v>3.4061599999999999</v>
+        <v>3.4168649999999996</v>
       </c>
       <c r="I105">
-        <v>3.5055200000000002</v>
+        <v>3.5383266666666664</v>
       </c>
       <c r="J105">
-        <v>0.12914100000000001</v>
+        <v>7.8569049999999988E-2</v>
       </c>
       <c r="K105">
-        <v>5932.58</v>
+        <v>9882.6183333333338</v>
       </c>
       <c r="L105">
-        <v>3985</v>
+        <v>3997</v>
       </c>
       <c r="M105">
         <f t="shared" si="3"/>
-        <v>9.9360000000000337E-2</v>
+        <v>0.1214616666666668</v>
       </c>
       <c r="P105" t="s">
         <v>24</v>
       </c>
       <c r="Q105">
         <f t="shared" si="4"/>
-        <v>1.7965893790364909</v>
+        <v>1.7971894435976328</v>
       </c>
       <c r="R105">
         <f t="shared" si="5"/>
-        <v>1.2493455897063312</v>
+        <v>1.330565870244061</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -43443,40 +43641,40 @@
         <v>20</v>
       </c>
       <c r="F106">
-        <v>2.1249099999999999</v>
+        <v>2.1269983333333333</v>
       </c>
       <c r="G106">
-        <v>1.1251599999999999</v>
+        <v>1.1243716666666668</v>
       </c>
       <c r="H106">
-        <v>3.4153600000000002</v>
+        <v>3.4180116666666667</v>
       </c>
       <c r="I106">
-        <v>3.5246599999999999</v>
+        <v>3.56006</v>
       </c>
       <c r="J106">
-        <v>0.135547</v>
+        <v>7.8131066666666679E-2</v>
       </c>
       <c r="K106">
-        <v>6073.47</v>
+        <v>10679.35</v>
       </c>
       <c r="L106">
-        <v>2992</v>
+        <v>2999.6666666666665</v>
       </c>
       <c r="M106">
         <f t="shared" si="3"/>
-        <v>0.10929999999999973</v>
+        <v>0.14204833333333333</v>
       </c>
       <c r="P106" t="s">
         <v>24</v>
       </c>
       <c r="Q106">
         <f t="shared" si="4"/>
-        <v>1.7939772914266907</v>
+        <v>1.7986054542151908</v>
       </c>
       <c r="R106">
         <f t="shared" si="5"/>
-        <v>1.0838959411925324</v>
+        <v>1.2173905939453171</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -43496,40 +43694,40 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>4.0067300000000001</v>
+        <v>4.0735916666666663</v>
       </c>
       <c r="G107">
-        <v>2.0703800000000001</v>
+        <v>2.0705583333333331</v>
       </c>
       <c r="H107">
-        <v>6.3711399999999996</v>
+        <v>6.4411399999999999</v>
       </c>
       <c r="I107">
-        <v>6.5022200000000003</v>
+        <v>6.5767649999999991</v>
       </c>
       <c r="J107">
-        <v>0.15787899999999999</v>
+        <v>0.161963</v>
       </c>
       <c r="K107">
-        <v>150.983</v>
+        <v>149.19449999999998</v>
       </c>
       <c r="L107">
-        <v>9009</v>
+        <v>8904</v>
       </c>
       <c r="M107">
         <f t="shared" si="3"/>
-        <v>0.13108000000000075</v>
+        <v>0.13562499999999922</v>
       </c>
       <c r="P107" t="s">
         <v>25</v>
       </c>
       <c r="Q107">
         <f t="shared" si="4"/>
-        <v>1.5728781862194756</v>
+        <v>1.5794746099842909</v>
       </c>
       <c r="R107">
         <f t="shared" si="5"/>
-        <v>1.5716476156670314</v>
+        <v>1.5741046026848335</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -43549,40 +43747,40 @@
         <v>5</v>
       </c>
       <c r="F108">
-        <v>3.8860899999999998</v>
+        <v>3.90774</v>
       </c>
       <c r="G108">
-        <v>2.0701399999999999</v>
+        <v>2.0706600000000002</v>
       </c>
       <c r="H108">
-        <v>6.2486800000000002</v>
+        <v>6.2756383333333332</v>
       </c>
       <c r="I108">
-        <v>6.3789199999999999</v>
+        <v>6.4109999999999987</v>
       </c>
       <c r="J108">
-        <v>0.15384500000000001</v>
+        <v>0.15932833333333332</v>
       </c>
       <c r="K108">
-        <v>166.15</v>
+        <v>165.96099999999998</v>
       </c>
       <c r="L108">
-        <v>9184</v>
+        <v>9131</v>
       </c>
       <c r="M108">
         <f t="shared" si="3"/>
-        <v>0.13023999999999969</v>
+        <v>0.13536166666666549</v>
       </c>
       <c r="P108" t="s">
         <v>24</v>
       </c>
       <c r="Q108">
         <f t="shared" si="4"/>
-        <v>1.5814746069867627</v>
+        <v>1.5838948681952896</v>
       </c>
       <c r="R108">
         <f t="shared" si="5"/>
-        <v>1.6994539040389007</v>
+        <v>1.6977143497223428</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -43602,40 +43800,40 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>3.8453599999999999</v>
+        <v>3.8549500000000001</v>
       </c>
       <c r="G109">
-        <v>2.0104299999999999</v>
+        <v>2.0110749999999995</v>
       </c>
       <c r="H109">
-        <v>6.1503300000000003</v>
+        <v>6.1632683333333338</v>
       </c>
       <c r="I109">
-        <v>6.2956000000000003</v>
+        <v>6.3173383333333328</v>
       </c>
       <c r="J109">
-        <v>0.115254</v>
+        <v>7.9382600000000011E-2</v>
       </c>
       <c r="K109">
-        <v>3261.33</v>
+        <v>4752.4816666666666</v>
       </c>
       <c r="L109">
-        <v>5967</v>
+        <v>5982.833333333333</v>
       </c>
       <c r="M109">
         <f t="shared" si="3"/>
-        <v>0.14527000000000001</v>
+        <v>0.15406999999999904</v>
       </c>
       <c r="P109" t="s">
         <v>24</v>
       </c>
       <c r="Q109">
         <f t="shared" si="4"/>
-        <v>1.5701807611665288</v>
+        <v>1.5767120277184246</v>
       </c>
       <c r="R109">
         <f t="shared" si="5"/>
-        <v>28.23246794844049</v>
+        <v>35.332991339883257</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -43655,40 +43853,40 @@
         <v>15</v>
       </c>
       <c r="F110">
-        <v>3.8334700000000002</v>
+        <v>3.8739133333333329</v>
       </c>
       <c r="G110">
-        <v>2.0125700000000002</v>
+        <v>2.0098999999999996</v>
       </c>
       <c r="H110">
-        <v>6.1411199999999999</v>
+        <v>6.1814916666666662</v>
       </c>
       <c r="I110">
-        <v>6.2979799999999999</v>
+        <v>6.3590433333333332</v>
       </c>
       <c r="J110">
-        <v>0.12226099999999999</v>
+        <v>7.8791600000000003E-2</v>
       </c>
       <c r="K110">
-        <v>4748.55</v>
+        <v>7427.38</v>
       </c>
       <c r="L110">
-        <v>3986</v>
+        <v>3995</v>
       </c>
       <c r="M110">
         <f t="shared" si="3"/>
-        <v>0.15686</v>
+        <v>0.177551666666667</v>
       </c>
       <c r="P110" t="s">
         <v>24</v>
       </c>
       <c r="Q110">
         <f t="shared" si="4"/>
-        <v>1.5828471986255912</v>
+        <v>1.5901136596542562</v>
       </c>
       <c r="R110">
         <f t="shared" si="5"/>
-        <v>1.6386289287341091</v>
+        <v>1.7592144614383749</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -43708,40 +43906,40 @@
         <v>20</v>
       </c>
       <c r="F111">
-        <v>3.8421099999999999</v>
+        <v>3.8966783333333335</v>
       </c>
       <c r="G111">
-        <v>2.0148600000000001</v>
+        <v>2.0107449999999996</v>
       </c>
       <c r="H111">
-        <v>6.1527200000000004</v>
+        <v>6.2056599999999991</v>
       </c>
       <c r="I111">
-        <v>6.3231599999999997</v>
+        <v>6.4031433333333325</v>
       </c>
       <c r="J111">
-        <v>0.12197</v>
+        <v>7.8652049999999987E-2</v>
       </c>
       <c r="K111">
-        <v>5603.37</v>
+        <v>8772.3283333333329</v>
       </c>
       <c r="L111">
-        <v>2993</v>
+        <v>2999</v>
       </c>
       <c r="M111">
         <f t="shared" si="3"/>
-        <v>0.17043999999999926</v>
+        <v>0.19748333333333346</v>
       </c>
       <c r="P111" t="s">
         <v>24</v>
       </c>
       <c r="Q111">
         <f t="shared" si="4"/>
-        <v>1.5799030864314678</v>
+        <v>1.6047066466834259</v>
       </c>
       <c r="R111">
         <f t="shared" si="5"/>
-        <v>1.3286691896198499</v>
+        <v>1.4166781282525895</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -43761,40 +43959,40 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>6.2620300000000002</v>
+        <v>6.4113916666666668</v>
       </c>
       <c r="G112">
-        <v>3.2541899999999999</v>
+        <v>3.2528366666666666</v>
       </c>
       <c r="H112">
-        <v>9.9951100000000004</v>
+        <v>10.149666666666667</v>
       </c>
       <c r="I112">
-        <v>10.2272</v>
+        <v>10.387833333333333</v>
       </c>
       <c r="J112">
-        <v>0.205373</v>
+        <v>0.20627766666666669</v>
       </c>
       <c r="K112">
-        <v>96.066699999999997</v>
+        <v>94.780549999999991</v>
       </c>
       <c r="L112">
-        <v>5752</v>
+        <v>5663.833333333333</v>
       </c>
       <c r="M112">
         <f t="shared" si="3"/>
-        <v>0.23208999999999946</v>
+        <v>0.23816666666666642</v>
       </c>
       <c r="P112" t="s">
         <v>23</v>
       </c>
       <c r="Q112">
         <f t="shared" si="4"/>
-        <v>1.5530252659574468</v>
+        <v>1.547048630609527</v>
       </c>
       <c r="R112">
         <f t="shared" si="5"/>
-        <v>1.5395304487179486</v>
+        <v>1.5378825923182575</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -43814,40 +44012,40 @@
         <v>5</v>
       </c>
       <c r="F113">
-        <v>6.1350600000000002</v>
+        <v>6.172340000000001</v>
       </c>
       <c r="G113">
-        <v>3.2557200000000002</v>
+        <v>3.2527783333333331</v>
       </c>
       <c r="H113">
-        <v>9.8650500000000001</v>
+        <v>9.913218333333333</v>
       </c>
       <c r="I113">
-        <v>10.088100000000001</v>
+        <v>10.154349999999999</v>
       </c>
       <c r="J113">
-        <v>0.200346</v>
+        <v>0.20312349999999998</v>
       </c>
       <c r="K113">
-        <v>97.7667</v>
+        <v>97.755550000000014</v>
       </c>
       <c r="L113">
-        <v>5832</v>
+        <v>5792.333333333333</v>
       </c>
       <c r="M113">
         <f t="shared" si="3"/>
-        <v>0.22305000000000064</v>
+        <v>0.24113166666666608</v>
       </c>
       <c r="P113" t="s">
         <v>24</v>
       </c>
       <c r="Q113">
         <f t="shared" si="4"/>
-        <v>1.5520662959328317</v>
+        <v>1.5531044987287881</v>
       </c>
       <c r="R113">
         <f t="shared" si="5"/>
-        <v>1.536407824205251</v>
+        <v>1.5366346703260862</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -43867,40 +44065,40 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>6.0377299999999998</v>
+        <v>6.0782983333333336</v>
       </c>
       <c r="G114">
-        <v>3.1438999999999999</v>
+        <v>3.1551100000000001</v>
       </c>
       <c r="H114">
-        <v>9.6553000000000004</v>
+        <v>9.7201366666666669</v>
       </c>
       <c r="I114">
-        <v>9.88523</v>
+        <v>9.9606233333333325</v>
       </c>
       <c r="J114">
-        <v>0.19889000000000001</v>
+        <v>0.20373316666666666</v>
       </c>
       <c r="K114">
-        <v>115.517</v>
+        <v>134.50549999999998</v>
       </c>
       <c r="L114">
-        <v>5949</v>
+        <v>5901.166666666667</v>
       </c>
       <c r="M114">
         <f t="shared" si="3"/>
-        <v>0.22992999999999952</v>
+        <v>0.24048666666666563</v>
       </c>
       <c r="P114" t="s">
         <v>24</v>
       </c>
       <c r="Q114">
         <f t="shared" si="4"/>
-        <v>1.5574245616945686</v>
+        <v>1.5507379558240499</v>
       </c>
       <c r="R114">
         <f t="shared" si="5"/>
-        <v>1.7672148050918894</v>
+        <v>2.0507362401097944</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -43920,40 +44118,40 @@
         <v>15</v>
       </c>
       <c r="F115">
-        <v>6.0743799999999997</v>
+        <v>6.1971133333333333</v>
       </c>
       <c r="G115">
-        <v>3.15876</v>
+        <v>3.1565150000000002</v>
       </c>
       <c r="H115">
-        <v>9.7138899999999992</v>
+        <v>9.8440616666666685</v>
       </c>
       <c r="I115">
-        <v>9.9687400000000004</v>
+        <v>10.111601666666667</v>
       </c>
       <c r="J115">
-        <v>0.116886</v>
+        <v>7.8913566666666671E-2</v>
       </c>
       <c r="K115">
-        <v>2897.88</v>
+        <v>4221.9866666666667</v>
       </c>
       <c r="L115">
-        <v>3986</v>
+        <v>3990.8333333333335</v>
       </c>
       <c r="M115">
         <f t="shared" si="3"/>
-        <v>0.25485000000000113</v>
+        <v>0.26753999999999856</v>
       </c>
       <c r="P115" t="s">
         <v>24</v>
       </c>
       <c r="Q115">
         <f t="shared" si="4"/>
-        <v>1.544999668965185</v>
+        <v>1.5272802973350248</v>
       </c>
       <c r="R115">
         <f t="shared" si="5"/>
-        <v>31.956049239496135</v>
+        <v>48.527067066679713</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -43973,29 +44171,29 @@
         <v>20</v>
       </c>
       <c r="F116">
-        <v>6.0864900000000004</v>
+        <v>6.2600300000000004</v>
       </c>
       <c r="G116">
-        <v>3.1673100000000001</v>
+        <v>3.2235099999999997</v>
       </c>
       <c r="H116">
-        <v>9.7292799999999993</v>
+        <v>9.9886483333333338</v>
       </c>
       <c r="I116">
-        <v>9.9899799999999992</v>
+        <v>10.275166666666665</v>
       </c>
       <c r="J116">
-        <v>0.119048</v>
+        <v>7.9120850000000006E-2</v>
       </c>
       <c r="K116">
-        <v>4217.28</v>
+        <v>6192.1816666666664</v>
       </c>
       <c r="L116">
-        <v>2992</v>
+        <v>2994.5</v>
       </c>
       <c r="M116">
         <f t="shared" si="3"/>
-        <v>0.26069999999999993</v>
+        <v>0.28651833333333165</v>
       </c>
       <c r="O116" t="s">
         <v>15</v>
@@ -44005,11 +44203,11 @@
       </c>
       <c r="Q116">
         <f t="shared" si="4"/>
-        <v>1.5450181081443608</v>
+        <v>1.5210410212324215</v>
       </c>
       <c r="R116">
         <f t="shared" si="5"/>
-        <v>2.188123589384388</v>
+        <v>2.1875128428413046</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -44029,33 +44227,33 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>9.7427100000000006</v>
+        <v>9.901628333333333</v>
       </c>
       <c r="G117">
-        <v>4.8746099999999997</v>
+        <v>4.8555333333333328</v>
       </c>
       <c r="H117">
-        <v>15.4292</v>
+        <v>15.604350000000002</v>
       </c>
       <c r="I117">
-        <v>15.883100000000001</v>
+        <v>16.070483333333332</v>
       </c>
       <c r="J117">
-        <v>0.222881</v>
+        <v>0.22456866666666664</v>
       </c>
       <c r="K117">
-        <v>62.4</v>
+        <v>61.630550000000007</v>
       </c>
       <c r="L117">
-        <v>3726</v>
+        <v>3682.5</v>
       </c>
       <c r="M117">
         <f t="shared" si="3"/>
-        <v>0.45390000000000086</v>
+        <v>0.46613333333332996</v>
       </c>
       <c r="N117">
         <f>H117-(G117+F117)</f>
-        <v>0.81188000000000038</v>
+        <v>0.84718833333333698</v>
       </c>
       <c r="O117" t="s">
         <v>16</v>
@@ -44089,29 +44287,29 @@
         <v>5</v>
       </c>
       <c r="F118">
-        <v>9.5151599999999998</v>
+        <v>9.5992133333333349</v>
       </c>
       <c r="G118">
-        <v>4.8704499999999999</v>
+        <v>4.8563400000000003</v>
       </c>
       <c r="H118">
-        <v>15.203799999999999</v>
+        <v>15.303216666666666</v>
       </c>
       <c r="I118">
-        <v>15.657400000000001</v>
+        <v>15.770766666666667</v>
       </c>
       <c r="J118">
-        <v>0.22099299999999999</v>
+        <v>0.2213495</v>
       </c>
       <c r="K118">
-        <v>63.633299999999998</v>
+        <v>63.61665</v>
       </c>
       <c r="L118">
-        <v>3779</v>
+        <v>3751.6666666666665</v>
       </c>
       <c r="M118">
         <f t="shared" si="3"/>
-        <v>0.45360000000000156</v>
+        <v>0.46755000000000102</v>
       </c>
       <c r="O118" t="s">
         <v>17</v>
@@ -44145,29 +44343,29 @@
         <v>10</v>
       </c>
       <c r="F119">
-        <v>9.3713800000000003</v>
+        <v>9.4229416666666665</v>
       </c>
       <c r="G119">
-        <v>4.72539</v>
+        <v>4.7076416666666665</v>
       </c>
       <c r="H119">
-        <v>14.9339</v>
+        <v>14.978216666666667</v>
       </c>
       <c r="I119">
-        <v>15.3955</v>
+        <v>15.446316666666666</v>
       </c>
       <c r="J119">
-        <v>0.21778600000000001</v>
+        <v>0.22104116666666671</v>
       </c>
       <c r="K119">
-        <v>65.366699999999994</v>
+        <v>65.588883333333342</v>
       </c>
       <c r="L119">
-        <v>3842</v>
+        <v>3828.6666666666665</v>
       </c>
       <c r="M119">
         <f t="shared" si="3"/>
-        <v>0.46160000000000068</v>
+        <v>0.46809999999999974</v>
       </c>
       <c r="O119" t="s">
         <v>18</v>
@@ -44201,29 +44399,29 @@
         <v>15</v>
       </c>
       <c r="F120">
-        <v>9.4054400000000005</v>
+        <v>9.4238900000000001</v>
       </c>
       <c r="G120">
-        <v>4.7125700000000004</v>
+        <v>4.7082566666666672</v>
       </c>
       <c r="H120">
-        <v>14.943899999999999</v>
+        <v>14.977133333333333</v>
       </c>
       <c r="I120">
-        <v>15.4017</v>
+        <v>15.443249999999999</v>
       </c>
       <c r="J120">
-        <v>0.21724299999999999</v>
+        <v>0.22106783333333332</v>
       </c>
       <c r="K120">
-        <v>90.683300000000003</v>
+        <v>87.002716666666672</v>
       </c>
       <c r="L120">
-        <v>3841</v>
+        <v>3829.1666666666665</v>
       </c>
       <c r="M120">
         <f t="shared" si="3"/>
-        <v>0.45780000000000065</v>
+        <v>0.46611666666666629</v>
       </c>
       <c r="O120" t="s">
         <v>19</v>
@@ -44257,29 +44455,29 @@
         <v>20</v>
       </c>
       <c r="F121">
-        <v>9.4282299999999992</v>
+        <v>9.5631966666666646</v>
       </c>
       <c r="G121">
-        <v>4.71591</v>
+        <v>4.7149633333333334</v>
       </c>
       <c r="H121">
-        <v>14.9649</v>
+        <v>15.138183333333332</v>
       </c>
       <c r="I121">
-        <v>15.434699999999999</v>
+        <v>15.628950000000001</v>
       </c>
       <c r="J121">
-        <v>0.11951299999999999</v>
+        <v>7.8913300000000006E-2</v>
       </c>
       <c r="K121">
-        <v>1927.35</v>
+        <v>2830.6949999999997</v>
       </c>
       <c r="L121">
-        <v>2991</v>
+        <v>2994.5</v>
       </c>
       <c r="M121">
         <f t="shared" si="3"/>
-        <v>0.46979999999999933</v>
+        <v>0.49076666666666924</v>
       </c>
       <c r="O121" t="s">
         <v>20</v>
@@ -44306,8 +44504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44321,8 +44519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44336,8 +44534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44351,8 +44549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dissertation_main/Dissertation_main/flag_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/flag_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="flag_test_data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="25">
   <si>
     <t>Test ID</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>u</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2664,27 +2661,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$93,flag_test_data!$K$98,flag_test_data!$K$103,flag_test_data!$K$108,flag_test_data!$K$113,flag_test_data!$K$118)</c:f>
+              <c:f>(flag_test_data!$K$93,flag_test_data!$N$93,flag_test_data!$N$94,flag_test_data!$N$95,flag_test_data!$N$97,flag_test_data!$N$96)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12085.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8824.0950000000012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3750.1983333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165.96099999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97.755550000000014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.61665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2739,27 +2721,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$94,flag_test_data!$K$99,flag_test_data!$K$104,flag_test_data!$K$109,flag_test_data!$K$114,flag_test_data!$K$119)</c:f>
+              <c:f>(flag_test_data!$K$94,flag_test_data!$N$94,flag_test_data!$N$95,flag_test_data!$N$96,flag_test_data!$N$97,flag_test_data!$N$98)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12647.083333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10893.041666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8373.0083333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4752.4816666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>134.50549999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.588883333333342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,28 +2781,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$95,flag_test_data!$K$100,flag_test_data!$K$105,flag_test_data!$K$110,flag_test_data!$K$115,flag_test_data!$K$120)</c:f>
+              <c:f>flag_test_data!$N$95:$N$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12843.199999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11628.408333333335</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9882.6183333333338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7427.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4221.9866666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.002716666666672</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2863,28 +2812,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$96,flag_test_data!$K$101,flag_test_data!$K$106,flag_test_data!$K$111,flag_test_data!$K$116,flag_test_data!$K$121)</c:f>
+              <c:f>flag_test_data!$N$95:$N$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12959.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12177.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10679.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8772.3283333333329</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6192.1816666666664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2830.6949999999997</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5890,27 +5821,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$3,flag_test_data!$K$8,flag_test_data!$K$13,flag_test_data!$K$18,flag_test_data!$K$23,flag_test_data!$K$28)</c:f>
+              <c:f>(flag_test_data!$K$3,flag_test_data!$N$2,flag_test_data!$N$3,flag_test_data!$N$4,flag_test_data!$N$5,flag_test_data!$N$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8572.4849999999988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10980.020000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8351.5666666666657</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4412.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>212.26666666666665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>123.53616666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5965,7 +5881,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$33,flag_test_data!$K$38,flag_test_data!$K$43,flag_test_data!$K$48,flag_test_data!$K$53,flag_test_data!$K$58)</c:f>
+              <c:f>(flag_test_data!$K$33,flag_test_data!$K$38,flag_test_data!$K$43,flag_test_data!$K$48,flag_test_data!$N$40,flag_test_data!$N$41)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5980,12 +5896,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3574.3683333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>198.29166666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>122.81950000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6040,27 +5950,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$93,flag_test_data!$K$98,flag_test_data!$K$103,flag_test_data!$K$108,flag_test_data!$K$113,flag_test_data!$K$118)</c:f>
+              <c:f>(flag_test_data!$K$93,flag_test_data!$N$93,flag_test_data!$N$94,flag_test_data!$N$95,flag_test_data!$N$96,flag_test_data!$N$97)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12085.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8824.0950000000012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3750.1983333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165.96099999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97.755550000000014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.61665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6115,7 +6010,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$63,flag_test_data!$K$68,flag_test_data!$K$73,flag_test_data!$K$78,flag_test_data!$K$83,flag_test_data!$K$88)</c:f>
+              <c:f>(flag_test_data!$K$63,flag_test_data!$K$68,flag_test_data!$K$73,flag_test_data!$N$70,flag_test_data!$N$71,flag_test_data!$N$72)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6127,15 +6022,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>126.43033333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.661100000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.327750000000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.39661666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6661,7 +6547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$63,flag_test_data!$K$68,flag_test_data!$K$73,flag_test_data!$K$78,flag_test_data!$K$83,flag_test_data!$K$88)</c:f>
+              <c:f>(flag_test_data!$K$63,flag_test_data!$K$68,flag_test_data!$K$73,flag_test_data!$N$63,flag_test_data!$N$64,flag_test_data!$N$65)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6673,15 +6559,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>126.43033333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.661100000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.327750000000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.39661666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6736,27 +6613,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$64,flag_test_data!$K$69,flag_test_data!$K$74,flag_test_data!$K$79,flag_test_data!$K$84,flag_test_data!$K$89)</c:f>
+              <c:f>(flag_test_data!$K$64,flag_test_data!$N$64,flag_test_data!$N$65,flag_test_data!$N$66,flag_test_data!$N$67,flag_test_data!$N$68)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>11982.766666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9059.5983333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3536.1549999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.022216666666665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.086133333333329</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.105550000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6811,27 +6673,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$65,flag_test_data!$K$70,flag_test_data!$K$75,flag_test_data!$K$80,flag_test_data!$K$85,flag_test_data!$K$90)</c:f>
+              <c:f>(flag_test_data!$K$65,flag_test_data!$N$65,flag_test_data!$N$66,flag_test_data!$N$67,flag_test_data!$N$68,flag_test_data!$N$69)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12403.699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10366.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6629.6066666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1491.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.816666666666663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.622199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6860,28 +6707,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$66,flag_test_data!$K$71,flag_test_data!$K$76,flag_test_data!$K$81,flag_test_data!$K$86,flag_test_data!$K$91)</c:f>
+              <c:f>flag_test_data!$N$66:$N$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12597.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11094.641666666668</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8248.1283333333322</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4306.53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76.208349999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.06666666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9966,7 +9795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$33,flag_test_data!$K$38,flag_test_data!$K$43,flag_test_data!$K$48,flag_test_data!$K$53,flag_test_data!$K$58)</c:f>
+              <c:f>(flag_test_data!$K$33,flag_test_data!$K$38,flag_test_data!$K$43,flag_test_data!$K$48,flag_test_data!$N$33,flag_test_data!$N$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9981,12 +9810,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3574.3683333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>198.29166666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>122.81950000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10041,7 +9864,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$34,flag_test_data!$K$39,flag_test_data!$K$44,flag_test_data!$K$49,flag_test_data!$K$54,flag_test_data!$K$59)</c:f>
+              <c:f>(flag_test_data!$K$34,flag_test_data!$K$39,flag_test_data!$N$37,flag_test_data!$N$38,flag_test_data!$N$39,flag_test_data!$N$40)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10050,18 +9873,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11772.466666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10626.800000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8681.7166666666672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6144.541666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2375.8066666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10116,27 +9927,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$35,flag_test_data!$K$40,flag_test_data!$K$45,flag_test_data!$K$50,flag_test_data!$K$55,flag_test_data!$K$60)</c:f>
+              <c:f>(flag_test_data!$K$35,flag_test_data!$N$35,flag_test_data!$N$36,flag_test_data!$N$37,flag_test_data!$N$38,flag_test_data!$N$39)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13010.016666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12501.949999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11338.730000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9748.6249999999982</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7351.5449999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5194.2833333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10165,27 +9961,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$36,flag_test_data!$K$41,flag_test_data!$K$46,flag_test_data!$K$51,flag_test_data!$K$56,flag_test_data!$K$61)</c:f>
+              <c:f>(flag_test_data!$K$36,flag_test_data!$N$36,flag_test_data!$N$37,flag_test_data!$N$38,flag_test_data!$N$39,flag_test_data!$N$40)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13076.800000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12637.933333333332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11728.700000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10046.571666666665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7399.8216666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5321.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11602,28 +11383,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$4,flag_test_data!$K$9,flag_test_data!$K$14,flag_test_data!$K$19,flag_test_data!$K$24,flag_test_data!$K$29)</c:f>
+              <c:f>flag_test_data!$N$3:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8765.0516666666663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12327.683333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10657.685000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8243.0466666666671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6157.6533333333327</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2409.3416666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11677,7 +11440,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$34,flag_test_data!$K$39,flag_test_data!$K$44,flag_test_data!$K$49,flag_test_data!$K$54,flag_test_data!$K$59)</c:f>
+              <c:f>(flag_test_data!$K$34,flag_test_data!$K$39,flag_test_data!$N$35,flag_test_data!$N$36,flag_test_data!$N$37,flag_test_data!$N$38)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11686,18 +11449,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11772.466666666665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10626.800000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8681.7166666666672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6144.541666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2375.8066666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11752,27 +11503,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$94,flag_test_data!$K$99,flag_test_data!$K$104,flag_test_data!$K$109,flag_test_data!$K$114,flag_test_data!$K$119)</c:f>
+              <c:f>(flag_test_data!$K$94,flag_test_data!$N$94,flag_test_data!$N$95,flag_test_data!$N$96,flag_test_data!$N$97,flag_test_data!$N$98)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12647.083333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10893.041666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8373.0083333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4752.4816666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>134.50549999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.588883333333342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11827,27 +11563,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$64,flag_test_data!$K$69,flag_test_data!$K$74,flag_test_data!$K$79,flag_test_data!$K$84,flag_test_data!$K$89)</c:f>
+              <c:f>(flag_test_data!$K$64,flag_test_data!$N$64,flag_test_data!$N$65,flag_test_data!$N$66,flag_test_data!$N$67,flag_test_data!$N$68)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>11982.766666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9059.5983333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3536.1549999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.022216666666665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.086133333333329</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.105550000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13986,7 +13707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$3,flag_test_data!$K$8,flag_test_data!$K$13,flag_test_data!$K$18,flag_test_data!$K$23,flag_test_data!$K$28)</c:f>
+              <c:f>(flag_test_data!$K$3,flag_test_data!$K$8,flag_test_data!$N$3,flag_test_data!$N$4,flag_test_data!$N$5,flag_test_data!$N$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -13995,18 +13716,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10980.020000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8351.5666666666657</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4412.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>212.26666666666665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>123.53616666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14061,28 +13770,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$4,flag_test_data!$K$9,flag_test_data!$K$14,flag_test_data!$K$19,flag_test_data!$K$24,flag_test_data!$K$29)</c:f>
+              <c:f>flag_test_data!$N$4:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8765.0516666666663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12327.683333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10657.685000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8243.0466666666671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6157.6533333333327</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2409.3416666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14136,28 +13827,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$5,flag_test_data!$K$10,flag_test_data!$K$15,flag_test_data!$K$20,flag_test_data!$K$25,flag_test_data!$K$30)</c:f>
+              <c:f>flag_test_data!$N$5:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8829.2116666666661</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12648.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11402.904999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9239.1666666666661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7340.041666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5234.97</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14185,28 +13858,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$6,flag_test_data!$K$11,flag_test_data!$K$16,flag_test_data!$K$21,flag_test_data!$K$26,flag_test_data!$K$31)</c:f>
+              <c:f>flag_test_data!$N$6:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8857.4583333333339</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12796.299999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11821.363333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9461.9583333333339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7407.1883333333326</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5323.1149999999989</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14660,28 +14315,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$5,flag_test_data!$K$10,flag_test_data!$K$15,flag_test_data!$K$20,flag_test_data!$K$25,flag_test_data!$K$30)</c:f>
+              <c:f>flag_test_data!$N$33:$N$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8829.2116666666661</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12648.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11402.904999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9239.1666666666661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7340.041666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5234.97</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14735,27 +14372,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$35,flag_test_data!$K$40,flag_test_data!$K$45,flag_test_data!$K$50,flag_test_data!$K$55,flag_test_data!$K$60)</c:f>
+              <c:f>(flag_test_data!$K$35,flag_test_data!$N$35,flag_test_data!$N$36,flag_test_data!$N$37,flag_test_data!$N$38,flag_test_data!$N$39)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13010.016666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12501.949999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11338.730000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9748.6249999999982</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7351.5449999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5194.2833333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14810,28 +14432,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$95,flag_test_data!$K$100,flag_test_data!$K$105,flag_test_data!$K$110,flag_test_data!$K$115,flag_test_data!$K$120)</c:f>
+              <c:f>flag_test_data!$N$95:$N$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12843.199999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11628.408333333335</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9882.6183333333338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7427.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4221.9866666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.002716666666672</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14885,27 +14489,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$65,flag_test_data!$K$70,flag_test_data!$K$75,flag_test_data!$K$80,flag_test_data!$K$85,flag_test_data!$K$90)</c:f>
+              <c:f>(flag_test_data!$K$65,flag_test_data!$N$65,flag_test_data!$N$66,flag_test_data!$N$67,flag_test_data!$N$68,flag_test_data!$N$70)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>12403.699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10366.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6629.6066666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1491.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.816666666666663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.622199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15360,28 +14949,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$6,flag_test_data!$K$11,flag_test_data!$K$16,flag_test_data!$K$21,flag_test_data!$K$26,flag_test_data!$K$31)</c:f>
+              <c:f>flag_test_data!$N$31:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8857.4583333333339</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12796.299999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11821.363333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9461.9583333333339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7407.1883333333326</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5323.1149999999989</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15435,27 +15006,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$36,flag_test_data!$K$41,flag_test_data!$K$46,flag_test_data!$K$51,flag_test_data!$K$56,flag_test_data!$K$61)</c:f>
+              <c:f>(flag_test_data!$K$36,flag_test_data!$N$36,flag_test_data!$N$37,flag_test_data!$N$38,flag_test_data!$N$39,flag_test_data!$N$40)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13076.800000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12637.933333333332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11728.700000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10046.571666666665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7399.8216666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5321.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15510,28 +15066,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$96,flag_test_data!$K$101,flag_test_data!$K$106,flag_test_data!$K$111,flag_test_data!$K$116,flag_test_data!$K$121)</c:f>
+              <c:f>flag_test_data!$N$95:$N$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12959.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12177.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10679.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8772.3283333333329</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6192.1816666666664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2830.6949999999997</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15585,28 +15123,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$66,flag_test_data!$K$71,flag_test_data!$K$76,flag_test_data!$K$81,flag_test_data!$K$86,flag_test_data!$K$91)</c:f>
+              <c:f>flag_test_data!$N$76:$N$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12597.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11094.641666666668</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8248.1283333333322</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4306.53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76.208349999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.06666666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -38054,8 +37574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U160" sqref="U160"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R259" sqref="R259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42924,7 +42444,7 @@
         <v>1.2500333333333447E-2</v>
       </c>
       <c r="P92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q92">
         <f t="shared" si="4"/>
@@ -42977,7 +42497,7 @@
         <v>3.0368999999999979E-2</v>
       </c>
       <c r="P93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q93">
         <f t="shared" si="4"/>
@@ -43030,7 +42550,7 @@
         <v>5.0657833333333346E-2</v>
       </c>
       <c r="P94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q94">
         <f t="shared" si="4"/>
@@ -43189,7 +42709,7 @@
         <v>3.275166666666629E-2</v>
       </c>
       <c r="P97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q97">
         <f t="shared" si="4"/>
@@ -43454,7 +42974,7 @@
         <v>7.3046666666666482E-2</v>
       </c>
       <c r="P102" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q102">
         <f t="shared" si="4"/>
@@ -43719,7 +43239,7 @@
         <v>0.13562499999999922</v>
       </c>
       <c r="P107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q107">
         <f t="shared" si="4"/>
@@ -44259,7 +43779,7 @@
         <v>16</v>
       </c>
       <c r="P117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q117">
         <f t="shared" si="4"/>
@@ -44505,7 +44025,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44520,7 +44040,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44535,7 +44055,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44549,7 +44069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>

--- a/Dissertation_main/Dissertation_main/flag_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/flag_test_data.xlsx
@@ -9,24 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="flag_test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Midpoint" sheetId="5" r:id="rId2"/>
-    <sheet name="RK4" sheetId="4" r:id="rId3"/>
-    <sheet name="Verlet" sheetId="3" r:id="rId4"/>
-    <sheet name="Explicit Euler" sheetId="2" r:id="rId5"/>
+    <sheet name="Rank Coefficients" sheetId="6" r:id="rId2"/>
+    <sheet name="Midpoint" sheetId="5" r:id="rId3"/>
+    <sheet name="RK4" sheetId="4" r:id="rId4"/>
+    <sheet name="Verlet" sheetId="3" r:id="rId5"/>
+    <sheet name="Explicit Euler" sheetId="2" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="48">
   <si>
     <t>Test ID</t>
   </si>
@@ -101,6 +102,75 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Rank (size)</t>
+  </si>
+  <si>
+    <t>Rank (internal)</t>
+  </si>
+  <si>
+    <t>Rank (update)</t>
+  </si>
+  <si>
+    <t>Rank (fps)</t>
+  </si>
+  <si>
+    <t>Pearson's rank (mesh vs fps)</t>
+  </si>
+  <si>
+    <t>Spearman's rank (mesh vs fps)</t>
+  </si>
+  <si>
+    <t>Pearson's rank (mesh vs internal)</t>
+  </si>
+  <si>
+    <t>Spearman's rank (mesh vs internal)</t>
+  </si>
+  <si>
+    <t>Pearson's rank (mesh vs update)</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>Rank (step)</t>
+  </si>
+  <si>
+    <t>Spearman's rank (mesh vs update)</t>
+  </si>
+  <si>
+    <t>Pearson's rank (step vs fps)</t>
+  </si>
+  <si>
+    <t>Spearman's rank (step vs fps)</t>
+  </si>
+  <si>
+    <t>Verlet</t>
+  </si>
+  <si>
+    <t>Midpoint</t>
+  </si>
+  <si>
+    <t>RK4</t>
   </si>
 </sst>
 </file>
@@ -37228,6 +37298,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sheet_test_data"/>
+      <sheetName val="Rank Coefficients"/>
       <sheetName val="Explicit Euler"/>
       <sheetName val="Verlet"/>
       <sheetName val="RK4"/>
@@ -37270,6 +37341,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -37574,8 +37646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R259" sqref="R259"/>
+    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K87" activeCellId="17" sqref="F62 I62 K62 F67 I67 K67 F72 I72 K72 F77 I77 K77 F82 I82 K82 F87 I87 K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44021,6 +44093,1479 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>0.13327266666666668</v>
+      </c>
+      <c r="C3">
+        <v>0.21720516666666667</v>
+      </c>
+      <c r="D3">
+        <v>7154.875</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.RANK.AVG(A3,A3:A8, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.RANK.AVG(B3,B3:B8, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.RANK.AVG(C3,C3:C8, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.RANK.AVG(D3,D3:D8, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <f>CORREL(A3:A8, D3:D8)</f>
+        <v>-0.81646584492816154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>0.50583366666666663</v>
+      </c>
+      <c r="C4">
+        <v>0.83218333333333339</v>
+      </c>
+      <c r="D4">
+        <v>2522.5450000000001</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.RANK.AVG(A4,A3:A8, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.RANK.AVG(B4,B3:B8, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.RANK.AVG(C4,C3:C8, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.RANK.AVG(D4,D3:D8, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <f>CORREL(E3:E8, H3:H8)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>1.10419</v>
+      </c>
+      <c r="C5">
+        <v>1.8384199999999999</v>
+      </c>
+      <c r="D5">
+        <v>517.15549999999996</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.RANK.AVG(A5,A3:A8, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>_xlfn.RANK.AVG(B5,B3:B8, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.RANK.AVG(C5,C3:C8, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.RANK.AVG(D5,D3:D8, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>2.006016666666667</v>
+      </c>
+      <c r="C6">
+        <v>3.3236133333333338</v>
+      </c>
+      <c r="D6">
+        <v>289.85833333333335</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.RANK.AVG(A6, A3:A8, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>_xlfn.RANK.AVG(B6, B3:B8, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.RANK.AVG(C6, C3:C8, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.RANK.AVG(D6, D3:D8, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <f>CORREL(A3:A8, B3:B8)</f>
+        <v>0.96963305889385887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>3.1192416666666669</v>
+      </c>
+      <c r="C7">
+        <v>5.2215033333333336</v>
+      </c>
+      <c r="D7">
+        <v>185.53333333333333</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.RANK.AVG(A7, A3:A8, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.RANK.AVG(B7, B3:B8, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.RANK.AVG(C7, C3:C8, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>_xlfn.RANK.AVG(D7, D3:D8, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <f>CORREL(E3:E8, F3:F8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>4.8452316666666668</v>
+      </c>
+      <c r="C8">
+        <v>8.1679049999999993</v>
+      </c>
+      <c r="D8">
+        <v>119.575</v>
+      </c>
+      <c r="E8">
+        <f>_xlfn.RANK.AVG(A8, A3:A8, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f>_xlfn.RANK.AVG(B8, B3:B8, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.RANK.AVG(C8, C3:C8, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.RANK.AVG(D8, D3:D8, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <f>CORREL(A3:A8, C3:C8)</f>
+        <v>0.96817564961060198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <f>CORREL(E3:E8, G3:G8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>119.575</v>
+      </c>
+      <c r="E11">
+        <f>_xlfn.RANK.AVG(A11,A11:A16, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>_xlfn.RANK.AVG(B11,B11:B16, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>123.53616666666666</v>
+      </c>
+      <c r="E12">
+        <f>_xlfn.RANK.AVG(A12,A11:A16, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f>_xlfn.RANK.AVG(B12,B11:B16, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <f>CORREL(A11:A15, B11:B15)</f>
+        <v>0.95681224315125668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2409.3416666666667</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.RANK.AVG(A13,A11:A16, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.RANK.AVG(B13,B11:B16, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13">
+        <f>CORREL(E11:E15, F11:F15)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>5234.97</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.RANK.AVG(A14, A11:A16, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f>_xlfn.RANK.AVG(B14, B11:B16, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>5323.1149999999989</v>
+      </c>
+      <c r="E15">
+        <f>_xlfn.RANK.AVG(A15, A11:A16, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>_xlfn.RANK.AVG(B15, B11:B16, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>0.12936800000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.21552933333333332</v>
+      </c>
+      <c r="D20">
+        <v>10440.81</v>
+      </c>
+      <c r="E20">
+        <f>_xlfn.RANK.AVG(A20,A20:A25, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>_xlfn.RANK.AVG(B20,B20:B25, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>_xlfn.RANK.AVG(C20,C20:C25, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.RANK.AVG(D20,D20:D25, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <f>CORREL(A20:A25, D20:D25)</f>
+        <v>-0.77084618121166137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>0.50899016666666663</v>
+      </c>
+      <c r="C21">
+        <v>0.8347688333333334</v>
+      </c>
+      <c r="D21">
+        <v>2463.4983333333334</v>
+      </c>
+      <c r="E21">
+        <f>_xlfn.RANK.AVG(A21,A20:A25, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f>_xlfn.RANK.AVG(B21,B20:B25, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>_xlfn.RANK.AVG(C21,C20:C25, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f>_xlfn.RANK.AVG(D21,D20:D25, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21">
+        <f>CORREL(E20:E25, H20:H25)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>1.1295733333333333</v>
+      </c>
+      <c r="C22">
+        <v>1.8637766666666666</v>
+      </c>
+      <c r="D22">
+        <v>511.35833333333335</v>
+      </c>
+      <c r="E22">
+        <f>_xlfn.RANK.AVG(A22,A20:A25, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f>_xlfn.RANK.AVG(B22,B20:B25, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.RANK.AVG(C22,C20:C25, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.RANK.AVG(D22,D20:D25, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>2.0261499999999999</v>
+      </c>
+      <c r="C23">
+        <v>3.3398950000000003</v>
+      </c>
+      <c r="D23">
+        <v>289.14999999999998</v>
+      </c>
+      <c r="E23">
+        <f>_xlfn.RANK.AVG(A23, A20:A25, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f>_xlfn.RANK.AVG(B23, B20:B25, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.RANK.AVG(C23, C20:C25, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.RANK.AVG(D23, D20:D25, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <f>CORREL(A20:A25, B20:B25)</f>
+        <v>0.96917292505508557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>250</v>
+      </c>
+      <c r="B24">
+        <v>3.1915866666666672</v>
+      </c>
+      <c r="C24">
+        <v>5.2943349999999993</v>
+      </c>
+      <c r="D24">
+        <v>182.9</v>
+      </c>
+      <c r="E24">
+        <f>_xlfn.RANK.AVG(A24, A20:A25, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f>_xlfn.RANK.AVG(B24, B20:B25, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f>_xlfn.RANK.AVG(C24, C20:C25, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <f>_xlfn.RANK.AVG(D24, D20:D25, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24">
+        <f>CORREL(E20:E25, F20:F25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>300</v>
+      </c>
+      <c r="B25">
+        <v>4.9587899999999996</v>
+      </c>
+      <c r="C25">
+        <v>8.2806449999999998</v>
+      </c>
+      <c r="D25">
+        <v>118.01116666666667</v>
+      </c>
+      <c r="E25">
+        <f>_xlfn.RANK.AVG(A25, A20:A25, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <f>_xlfn.RANK.AVG(B25, B20:B25, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <f>_xlfn.RANK.AVG(C25, C20:C25, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <f>_xlfn.RANK.AVG(D25, D20:D25, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <f>CORREL(A20:A25, C20:C25)</f>
+        <v>0.96781207493896093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27">
+        <f>CORREL(E20:E25, G20:G25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>118.01116666666667</v>
+      </c>
+      <c r="E28">
+        <f>_xlfn.RANK.AVG(A28,A28:A33, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>_xlfn.RANK.AVG(B28,B28:B33, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>122.81950000000001</v>
+      </c>
+      <c r="E29">
+        <f>_xlfn.RANK.AVG(A29,A28:A33, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f>_xlfn.RANK.AVG(B29,B28:B33, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29">
+        <f>CORREL(A28:A32, B28:B32)</f>
+        <v>0.95786203112309154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>2375.8066666666664</v>
+      </c>
+      <c r="E30">
+        <f>_xlfn.RANK.AVG(A30,A28:A33, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f>_xlfn.RANK.AVG(B30,B28:B33, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30">
+        <f>CORREL(E28:E32, F28:F32)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>5194.2833333333328</v>
+      </c>
+      <c r="E31">
+        <f>_xlfn.RANK.AVG(A31, A28:A33, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <f>_xlfn.RANK.AVG(B31, B28:B33, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>5321.1</v>
+      </c>
+      <c r="E32">
+        <f>_xlfn.RANK.AVG(A32, A28:A33, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <f>_xlfn.RANK.AVG(B32, B28:B33, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>0.25417366666666669</v>
+      </c>
+      <c r="C37">
+        <v>0.40962033333333342</v>
+      </c>
+      <c r="D37">
+        <v>7953.291666666667</v>
+      </c>
+      <c r="E37">
+        <f>_xlfn.RANK.AVG(A37,A37:A42, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f>_xlfn.RANK.AVG(B37,B37:B42, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>_xlfn.RANK.AVG(C37,C37:C42, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>_xlfn.RANK.AVG(D37,D37:D42, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37">
+        <f>CORREL(A37:A42, D37:D42)</f>
+        <v>-0.69407310316075099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>1.0292283333333334</v>
+      </c>
+      <c r="C38">
+        <v>1.6474099999999998</v>
+      </c>
+      <c r="D38">
+        <v>576.61099999999999</v>
+      </c>
+      <c r="E38">
+        <f>_xlfn.RANK.AVG(A38,A37:A42, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f>_xlfn.RANK.AVG(B38,B37:B42, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f>_xlfn.RANK.AVG(C38,C37:C42, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <f>_xlfn.RANK.AVG(D38,D37:D42, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <f>CORREL(E37:E42, H37:H42)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>150</v>
+      </c>
+      <c r="B39">
+        <v>2.3066133333333334</v>
+      </c>
+      <c r="C39">
+        <v>3.7047666666666665</v>
+      </c>
+      <c r="D39">
+        <v>263.45816666666673</v>
+      </c>
+      <c r="E39">
+        <f>_xlfn.RANK.AVG(A39,A37:A42, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f>_xlfn.RANK.AVG(B39,B37:B42, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <f>_xlfn.RANK.AVG(C39,C37:C42, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f>_xlfn.RANK.AVG(D39,D37:D42, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>200</v>
+      </c>
+      <c r="B40">
+        <v>4.0735916666666663</v>
+      </c>
+      <c r="C40">
+        <v>6.5767649999999991</v>
+      </c>
+      <c r="D40">
+        <v>149.19449999999998</v>
+      </c>
+      <c r="E40">
+        <f>_xlfn.RANK.AVG(A40, A37:A42, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <f>_xlfn.RANK.AVG(B40, B37:B42, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f>_xlfn.RANK.AVG(C40, C37:C42, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <f>_xlfn.RANK.AVG(D40, D37:D42, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40">
+        <f>CORREL(A37:A42, B37:B42)</f>
+        <v>0.97048310954953565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>250</v>
+      </c>
+      <c r="B41">
+        <v>6.4113916666666668</v>
+      </c>
+      <c r="C41">
+        <v>10.387833333333333</v>
+      </c>
+      <c r="D41">
+        <v>94.780549999999991</v>
+      </c>
+      <c r="E41">
+        <f>_xlfn.RANK.AVG(A41, A37:A42, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <f>_xlfn.RANK.AVG(B41, B37:B42, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <f>_xlfn.RANK.AVG(C41, C37:C42, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <f>_xlfn.RANK.AVG(D41, D37:D42, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41">
+        <f>CORREL(E37:E42, F37:F42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>300</v>
+      </c>
+      <c r="B42">
+        <v>9.901628333333333</v>
+      </c>
+      <c r="C42">
+        <v>16.070483333333332</v>
+      </c>
+      <c r="D42">
+        <v>61.630550000000007</v>
+      </c>
+      <c r="E42">
+        <f>_xlfn.RANK.AVG(A42, A37:A42, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <f>_xlfn.RANK.AVG(B42, B37:B42, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <f>_xlfn.RANK.AVG(C42, C37:C42, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <f>_xlfn.RANK.AVG(D42, D37:D42, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43">
+        <f>CORREL(A37:A42, C37:C42)</f>
+        <v>0.9698965581200385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44">
+        <f>CORREL(E37:E42, G37:G42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>61.630550000000007</v>
+      </c>
+      <c r="E45">
+        <f>_xlfn.RANK.AVG(A45,A45:A50, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f>_xlfn.RANK.AVG(B45,B45:B50, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>63.61665</v>
+      </c>
+      <c r="E46">
+        <f>_xlfn.RANK.AVG(A46,A45:A50, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <f>_xlfn.RANK.AVG(B46,B45:B50, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <f>CORREL(A45:A49, B45:B49)</f>
+        <v>0.72618193328626668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>65.588883333333342</v>
+      </c>
+      <c r="E47">
+        <f>_xlfn.RANK.AVG(A47,A45:A50, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f>_xlfn.RANK.AVG(B47,B45:B50, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47">
+        <f>CORREL(E45:E49, F45:F49)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>87.002716666666672</v>
+      </c>
+      <c r="E48">
+        <f>_xlfn.RANK.AVG(A48, A45:A50, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f>_xlfn.RANK.AVG(B48, B45:B50, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>2830.6949999999997</v>
+      </c>
+      <c r="E49">
+        <f>_xlfn.RANK.AVG(A49, A45:A50, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <f>_xlfn.RANK.AVG(B49, B45:B50, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>0.57232500000000008</v>
+      </c>
+      <c r="C54">
+        <v>0.90727683333333331</v>
+      </c>
+      <c r="D54">
+        <v>1592.0983333333331</v>
+      </c>
+      <c r="E54">
+        <f>_xlfn.RANK.AVG(A54,A54:A59, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f>_xlfn.RANK.AVG(B54,B54:B59, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f>_xlfn.RANK.AVG(C54,C54:C59, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f>_xlfn.RANK.AVG(D54,D54:D59, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54">
+        <f>CORREL(A54:A59, D54:D59)</f>
+        <v>-0.74000564072239094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>100</v>
+      </c>
+      <c r="B55">
+        <v>2.5224016666666667</v>
+      </c>
+      <c r="C55">
+        <v>3.8644283333333331</v>
+      </c>
+      <c r="D55">
+        <v>253.08600000000001</v>
+      </c>
+      <c r="E55">
+        <f>_xlfn.RANK.AVG(A55,A54:A59, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <f>_xlfn.RANK.AVG(B55,B54:B59, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <f>_xlfn.RANK.AVG(C55,C54:C59, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <f>_xlfn.RANK.AVG(D55,D54:D59, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="I55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55">
+        <f>CORREL(E54:E59, H54:H59)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>150</v>
+      </c>
+      <c r="B56">
+        <v>5.3076649999999992</v>
+      </c>
+      <c r="C56">
+        <v>8.3720183333333313</v>
+      </c>
+      <c r="D56">
+        <v>117.66366666666669</v>
+      </c>
+      <c r="E56">
+        <f>_xlfn.RANK.AVG(A56,A54:A59, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <f>_xlfn.RANK.AVG(B56,B54:B59, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <f>_xlfn.RANK.AVG(C56,C54:C59, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <f>_xlfn.RANK.AVG(D56,D54:D59, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>200</v>
+      </c>
+      <c r="B57">
+        <v>8.9703949999999999</v>
+      </c>
+      <c r="C57">
+        <v>14.602716666666666</v>
+      </c>
+      <c r="D57">
+        <v>67.783349999999984</v>
+      </c>
+      <c r="E57">
+        <f>_xlfn.RANK.AVG(A57, A54:A59, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <f>_xlfn.RANK.AVG(B57, B54:B59, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <f>_xlfn.RANK.AVG(C57, C54:C59, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <f>_xlfn.RANK.AVG(D57, D54:D59, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57">
+        <f>CORREL(A54:A59, B54:B59)</f>
+        <v>0.9752191806983842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>250</v>
+      </c>
+      <c r="B58">
+        <v>13.738050000000001</v>
+      </c>
+      <c r="C58">
+        <v>22.829266666666665</v>
+      </c>
+      <c r="D58">
+        <v>43.680550000000004</v>
+      </c>
+      <c r="E58">
+        <f>_xlfn.RANK.AVG(A58, A54:A59, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <f>_xlfn.RANK.AVG(B58, B54:B59, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <f>_xlfn.RANK.AVG(C58, C54:C59, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <f>_xlfn.RANK.AVG(D58, D54:D59, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>37</v>
+      </c>
+      <c r="J58">
+        <f>CORREL(E54:E59, F54:F59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>300</v>
+      </c>
+      <c r="B59">
+        <v>20.895566666666667</v>
+      </c>
+      <c r="C59">
+        <v>35.077283333333334</v>
+      </c>
+      <c r="D59">
+        <v>28.541666666666668</v>
+      </c>
+      <c r="E59">
+        <f>_xlfn.RANK.AVG(A59, A54:A59, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <f>_xlfn.RANK.AVG(B59, B54:B59, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <f>_xlfn.RANK.AVG(C59, C54:C59, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <f>_xlfn.RANK.AVG(D59, D54:D59, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60">
+        <f>CORREL(A54:A59, C54:C59)</f>
+        <v>0.9719002634668259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61">
+        <f>CORREL(E54:E59, G54:G59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>28.541666666666668</v>
+      </c>
+      <c r="E62">
+        <f>_xlfn.RANK.AVG(A62,A62:A67, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f>_xlfn.RANK.AVG(B62,B62:B67, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>31.39661666666667</v>
+      </c>
+      <c r="E63">
+        <f>_xlfn.RANK.AVG(A63,A62:A67, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <f>_xlfn.RANK.AVG(B63,B62:B67, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63">
+        <f>CORREL(A62:A66, B62:B66)</f>
+        <v>0.88886801083438383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>32.105550000000001</v>
+      </c>
+      <c r="E64">
+        <f>_xlfn.RANK.AVG(A64,A62:A67, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <f>_xlfn.RANK.AVG(B64,B62:B67, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64">
+        <f>CORREL(E62:E66, F62:F66)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>32.622199999999999</v>
+      </c>
+      <c r="E65">
+        <f>_xlfn.RANK.AVG(A65, A62:A67, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <f>_xlfn.RANK.AVG(B65, B62:B67, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66">
+        <v>33.06666666666667</v>
+      </c>
+      <c r="E66">
+        <f>_xlfn.RANK.AVG(A66, A62:A67, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <f>_xlfn.RANK.AVG(B66, B62:B67, 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -44035,7 +45580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -44050,7 +45595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -44065,7 +45610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Dissertation_main/Dissertation_main/flag_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/flag_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="flag_test_data" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Time Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average time calcSpringForce (ms)</t>
   </si>
   <si>
     <t xml:space="preserve"> Average time integrate (ms)</t>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>RK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average time internal force (ms)</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2406,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v> Average time calcSpringForce (ms)</c:v>
+                  <c:v> Average time internal force (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v> Average time external force (ms)</c:v>
@@ -5637,7 +5637,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v> Average time calcSpringForce (ms)</c:v>
+                  <c:v> Average time internal force (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v> Average time external force (ms)</c:v>
@@ -9540,7 +9540,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v> Average time calcSpringForce (ms)</c:v>
+                  <c:v> Average time internal force (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v> Average time external force (ms)</c:v>
@@ -13448,7 +13448,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v> Average time calcSpringForce (ms)</c:v>
+                  <c:v> Average time internal force (ms)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v> Average time external force (ms)</c:v>
@@ -37646,8 +37646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K87" activeCellId="17" sqref="F62 I62 K62 F67 I67 K67 F72 I72 K72 F77 I77 K77 F82 I82 K82 F87 I87 K87"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37673,31 +37673,31 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -37705,7 +37705,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -37742,7 +37742,7 @@
         <v>1.2005125000000005E-2</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2">
         <f>I7/I2</f>
@@ -37758,7 +37758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -37795,7 +37795,7 @@
         <v>2.6516566666666713E-2</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="1">I8/I3</f>
@@ -37811,7 +37811,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -37848,7 +37848,7 @@
         <v>4.1834231666666638E-2</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
@@ -37864,7 +37864,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -37901,7 +37901,7 @@
         <v>5.7102150000000018E-2</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
@@ -37917,7 +37917,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -37954,7 +37954,7 @@
         <v>7.3392005000000038E-2</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
@@ -37970,7 +37970,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -38007,7 +38007,7 @@
         <v>3.346506666666671E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
@@ -38023,7 +38023,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -38060,7 +38060,7 @@
         <v>5.055693333333322E-2</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
@@ -38076,7 +38076,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -38113,7 +38113,7 @@
         <v>7.2133716666666903E-2</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
@@ -38129,7 +38129,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -38166,7 +38166,7 @@
         <v>9.3074749999999984E-2</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
@@ -38182,7 +38182,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -38219,7 +38219,7 @@
         <v>0.1181859999999999</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
@@ -38235,7 +38235,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>150</v>
@@ -38272,7 +38272,7 @@
         <v>7.2031033333333161E-2</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
@@ -38288,7 +38288,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -38325,7 +38325,7 @@
         <v>8.7422633333333444E-2</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -38341,7 +38341,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>150</v>
@@ -38378,7 +38378,7 @@
         <v>0.10755641666666671</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
@@ -38394,7 +38394,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>150</v>
@@ -38431,7 +38431,7 @@
         <v>0.127301316666667</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
@@ -38447,7 +38447,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>150</v>
@@ -38484,7 +38484,7 @@
         <v>0.14734146666666681</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
@@ -38500,7 +38500,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>200</v>
@@ -38537,7 +38537,7 @@
         <v>0.13208116666666703</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
@@ -38553,7 +38553,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -38590,7 +38590,7 @@
         <v>0.14356333333333282</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
@@ -38606,7 +38606,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>200</v>
@@ -38643,7 +38643,7 @@
         <v>0.1657878333333338</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
@@ -38659,7 +38659,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>200</v>
@@ -38696,7 +38696,7 @@
         <v>0.18480116666666646</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
@@ -38712,7 +38712,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>200</v>
@@ -38749,7 +38749,7 @@
         <v>0.20248633333333244</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
@@ -38765,7 +38765,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>250</v>
@@ -38802,7 +38802,7 @@
         <v>0.23667883333333339</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
@@ -38818,7 +38818,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>250</v>
@@ -38855,7 +38855,7 @@
         <v>0.23872766666666756</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
@@ -38871,7 +38871,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>250</v>
@@ -38908,7 +38908,7 @@
         <v>0.26491833333333314</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q24">
         <f t="shared" si="1"/>
@@ -38924,7 +38924,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>250</v>
@@ -38961,7 +38961,7 @@
         <v>0.30442133333333299</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
@@ -38977,7 +38977,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>250</v>
@@ -39014,7 +39014,7 @@
         <v>0.32317666666666689</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q26">
         <f t="shared" si="1"/>
@@ -39030,7 +39030,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>300</v>
@@ -39067,7 +39067,7 @@
         <v>0.46956549999999897</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
@@ -39083,7 +39083,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>300</v>
@@ -39120,7 +39120,7 @@
         <v>0.4668770000000011</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
@@ -39136,7 +39136,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>300</v>
@@ -39173,7 +39173,7 @@
         <v>0.48216133333333389</v>
       </c>
       <c r="P29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
@@ -39189,7 +39189,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>300</v>
@@ -39226,7 +39226,7 @@
         <v>0.54561916666666566</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
@@ -39242,7 +39242,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>300</v>
@@ -39279,7 +39279,7 @@
         <v>0.57309183333333547</v>
       </c>
       <c r="P31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q31">
         <f t="shared" si="1"/>
@@ -39295,7 +39295,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>50</v>
@@ -39332,7 +39332,7 @@
         <v>1.4851164999999972E-2</v>
       </c>
       <c r="P32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
@@ -39348,7 +39348,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>50</v>
@@ -39385,7 +39385,7 @@
         <v>3.121790499999999E-2</v>
       </c>
       <c r="P33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
@@ -39401,7 +39401,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>50</v>
@@ -39438,7 +39438,7 @@
         <v>5.1136891666666656E-2</v>
       </c>
       <c r="P34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q34">
         <f t="shared" si="1"/>
@@ -39454,7 +39454,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>50</v>
@@ -39491,7 +39491,7 @@
         <v>7.123381833333331E-2</v>
       </c>
       <c r="P35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q35">
         <f t="shared" si="1"/>
@@ -39507,7 +39507,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>50</v>
@@ -39544,7 +39544,7 @@
         <v>9.1668359999999977E-2</v>
       </c>
       <c r="P36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q36">
         <f t="shared" si="1"/>
@@ -39560,7 +39560,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -39597,7 +39597,7 @@
         <v>3.3610266666666777E-2</v>
       </c>
       <c r="P37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q37">
         <f t="shared" si="1"/>
@@ -39613,7 +39613,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>100</v>
@@ -39650,7 +39650,7 @@
         <v>5.0109400000000193E-2</v>
       </c>
       <c r="P38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q38">
         <f t="shared" si="1"/>
@@ -39666,7 +39666,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -39703,7 +39703,7 @@
         <v>6.9611449999999908E-2</v>
       </c>
       <c r="P39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q39">
         <f t="shared" si="1"/>
@@ -39719,7 +39719,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>100</v>
@@ -39756,7 +39756,7 @@
         <v>9.2368933333333403E-2</v>
       </c>
       <c r="P40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q40">
         <f t="shared" si="1"/>
@@ -39772,7 +39772,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>100</v>
@@ -39809,7 +39809,7 @@
         <v>0.11595425000000004</v>
       </c>
       <c r="P41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q41">
         <f t="shared" si="1"/>
@@ -39825,7 +39825,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>150</v>
@@ -39862,7 +39862,7 @@
         <v>7.2854050000000115E-2</v>
       </c>
       <c r="P42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q42">
         <f t="shared" si="1"/>
@@ -39878,7 +39878,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>150</v>
@@ -39915,7 +39915,7 @@
         <v>8.7226099999999862E-2</v>
       </c>
       <c r="P43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q43">
         <f t="shared" si="1"/>
@@ -39931,7 +39931,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>150</v>
@@ -39968,7 +39968,7 @@
         <v>0.10776690000000033</v>
       </c>
       <c r="P44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q44">
         <f t="shared" si="1"/>
@@ -39984,7 +39984,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>150</v>
@@ -40021,7 +40021,7 @@
         <v>0.1281868833333335</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q45">
         <f t="shared" si="1"/>
@@ -40037,7 +40037,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>150</v>
@@ -40074,7 +40074,7 @@
         <v>0.14757719999999952</v>
       </c>
       <c r="P46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q46">
         <f t="shared" si="1"/>
@@ -40090,7 +40090,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>200</v>
@@ -40127,7 +40127,7 @@
         <v>0.13116866666666738</v>
       </c>
       <c r="P47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q47">
         <f t="shared" si="1"/>
@@ -40143,7 +40143,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>200</v>
@@ -40180,7 +40180,7 @@
         <v>0.14129649999999927</v>
       </c>
       <c r="P48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q48">
         <f t="shared" si="1"/>
@@ -40196,7 +40196,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>200</v>
@@ -40233,7 +40233,7 @@
         <v>0.16681916666666696</v>
       </c>
       <c r="P49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q49">
         <f t="shared" si="1"/>
@@ -40249,7 +40249,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>200</v>
@@ -40286,7 +40286,7 @@
         <v>0.18733366666666651</v>
       </c>
       <c r="P50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q50">
         <f t="shared" si="1"/>
@@ -40302,7 +40302,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>200</v>
@@ -40339,7 +40339,7 @@
         <v>0.20621433333333261</v>
       </c>
       <c r="P51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q51">
         <f t="shared" si="1"/>
@@ -40355,7 +40355,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>250</v>
@@ -40392,7 +40392,7 @@
         <v>0.23610866666666563</v>
       </c>
       <c r="P52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q52">
         <f t="shared" si="1"/>
@@ -40408,7 +40408,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>250</v>
@@ -40445,7 +40445,7 @@
         <v>0.23703933333333449</v>
       </c>
       <c r="P53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q53">
         <f t="shared" si="1"/>
@@ -40461,7 +40461,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>250</v>
@@ -40498,7 +40498,7 @@
         <v>0.2667465</v>
       </c>
       <c r="P54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q54">
         <f t="shared" si="1"/>
@@ -40514,7 +40514,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>250</v>
@@ -40551,7 +40551,7 @@
         <v>0.30373699999999992</v>
       </c>
       <c r="P55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q55">
         <f t="shared" si="1"/>
@@ -40567,7 +40567,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>250</v>
@@ -40604,7 +40604,7 @@
         <v>0.32346616666666606</v>
       </c>
       <c r="P56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q56">
         <f t="shared" si="1"/>
@@ -40620,7 +40620,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <v>300</v>
@@ -40657,7 +40657,7 @@
         <v>0.46989700000000045</v>
       </c>
       <c r="P57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q57">
         <f t="shared" si="1"/>
@@ -40673,7 +40673,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58">
         <v>300</v>
@@ -40710,7 +40710,7 @@
         <v>0.46962100000000007</v>
       </c>
       <c r="P58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q58">
         <f t="shared" si="1"/>
@@ -40726,7 +40726,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>300</v>
@@ -40763,7 +40763,7 @@
         <v>0.48517250000000001</v>
       </c>
       <c r="P59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q59">
         <f t="shared" si="1"/>
@@ -40779,7 +40779,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60">
         <v>300</v>
@@ -40816,7 +40816,7 @@
         <v>0.53287633333333506</v>
       </c>
       <c r="P60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q60">
         <f t="shared" si="1"/>
@@ -40832,7 +40832,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61">
         <v>300</v>
@@ -40869,7 +40869,7 @@
         <v>0.57316316666666722</v>
       </c>
       <c r="P61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q61">
         <f t="shared" si="1"/>
@@ -40885,7 +40885,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>50</v>
@@ -40922,7 +40922,7 @@
         <v>1.7698333333333371E-2</v>
       </c>
       <c r="P62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q62">
         <f t="shared" si="1"/>
@@ -40938,7 +40938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63">
         <v>50</v>
@@ -40975,7 +40975,7 @@
         <v>3.8147500000000112E-2</v>
       </c>
       <c r="P63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q63">
         <f t="shared" si="1"/>
@@ -40991,7 +40991,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64">
         <v>50</v>
@@ -41028,7 +41028,7 @@
         <v>5.9419333333333491E-2</v>
       </c>
       <c r="P64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q64">
         <f t="shared" si="1"/>
@@ -41044,7 +41044,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65">
         <v>50</v>
@@ -41081,7 +41081,7 @@
         <v>7.9388166666666593E-2</v>
       </c>
       <c r="P65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q65">
         <f t="shared" si="1"/>
@@ -41097,7 +41097,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -41134,7 +41134,7 @@
         <v>0.23834900000000003</v>
       </c>
       <c r="P66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q66">
         <f t="shared" si="1"/>
@@ -41150,7 +41150,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>100</v>
@@ -41187,7 +41187,7 @@
         <v>6.5544999999999298E-2</v>
       </c>
       <c r="P67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q121" si="4">I72/I67</f>
@@ -41203,7 +41203,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68">
         <v>100</v>
@@ -41240,7 +41240,7 @@
         <v>7.8021666666666434E-2</v>
       </c>
       <c r="P68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q68">
         <f t="shared" si="4"/>
@@ -41256,7 +41256,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>100</v>
@@ -41293,7 +41293,7 @@
         <v>0.10259833333333335</v>
       </c>
       <c r="P69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q69">
         <f t="shared" si="4"/>
@@ -41309,7 +41309,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>100</v>
@@ -41346,7 +41346,7 @@
         <v>0.12297000000000002</v>
       </c>
       <c r="P70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q70">
         <f t="shared" si="4"/>
@@ -41362,7 +41362,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71">
         <v>100</v>
@@ -41399,7 +41399,7 @@
         <v>0.146183333333334</v>
       </c>
       <c r="P71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q71">
         <f t="shared" si="4"/>
@@ -41415,7 +41415,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -41452,7 +41452,7 @@
         <v>0.15761999999999787</v>
       </c>
       <c r="P72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q72">
         <f t="shared" si="4"/>
@@ -41468,7 +41468,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73">
         <v>150</v>
@@ -41505,7 +41505,7 @@
         <v>0.15675499999999953</v>
       </c>
       <c r="P73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q73">
         <f t="shared" si="4"/>
@@ -41521,7 +41521,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>150</v>
@@ -41558,7 +41558,7 @@
         <v>0.17865000000000109</v>
       </c>
       <c r="P74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q74">
         <f t="shared" si="4"/>
@@ -41574,7 +41574,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75">
         <v>150</v>
@@ -41611,7 +41611,7 @@
         <v>0.20503166666666672</v>
       </c>
       <c r="P75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q75">
         <f t="shared" si="4"/>
@@ -41627,7 +41627,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <v>150</v>
@@ -41664,7 +41664,7 @@
         <v>0.23062166666666783</v>
       </c>
       <c r="P76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q76">
         <f t="shared" si="4"/>
@@ -41680,7 +41680,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77">
         <v>200</v>
@@ -41717,7 +41717,7 @@
         <v>0.30341666666666534</v>
       </c>
       <c r="P77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q77">
         <f t="shared" si="4"/>
@@ -41733,7 +41733,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78">
         <v>200</v>
@@ -41770,7 +41770,7 @@
         <v>0.30544999999999689</v>
       </c>
       <c r="P78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q78">
         <f t="shared" si="4"/>
@@ -41786,7 +41786,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79">
         <v>200</v>
@@ -41823,7 +41823,7 @@
         <v>0.30809999999999782</v>
       </c>
       <c r="P79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q79">
         <f t="shared" si="4"/>
@@ -41839,7 +41839,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80">
         <v>200</v>
@@ -41876,7 +41876,7 @@
         <v>0.33963333333333168</v>
       </c>
       <c r="P80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q80">
         <f t="shared" si="4"/>
@@ -41892,7 +41892,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>200</v>
@@ -41929,7 +41929,7 @@
         <v>0.38261666666666372</v>
       </c>
       <c r="P81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q81">
         <f t="shared" si="4"/>
@@ -41945,7 +41945,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82">
         <v>250</v>
@@ -41982,7 +41982,7 @@
         <v>0.63016666666666765</v>
       </c>
       <c r="P82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q82">
         <f t="shared" si="4"/>
@@ -41998,7 +41998,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83">
         <v>250</v>
@@ -42035,7 +42035,7 @@
         <v>0.61664999999999637</v>
       </c>
       <c r="P83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q83">
         <f t="shared" si="4"/>
@@ -42051,7 +42051,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84">
         <v>250</v>
@@ -42088,7 +42088,7 @@
         <v>0.62783333333333857</v>
       </c>
       <c r="P84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q84">
         <f t="shared" si="4"/>
@@ -42104,7 +42104,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>250</v>
@@ -42141,7 +42141,7 @@
         <v>0.61584999999999823</v>
       </c>
       <c r="P85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q85">
         <f t="shared" si="4"/>
@@ -42157,7 +42157,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86">
         <v>250</v>
@@ -42194,7 +42194,7 @@
         <v>0.63078333333333347</v>
       </c>
       <c r="P86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q86">
         <f t="shared" si="4"/>
@@ -42210,7 +42210,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87">
         <v>300</v>
@@ -42251,7 +42251,7 @@
         <v>3.3402266666666556</v>
       </c>
       <c r="P87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q87">
         <f t="shared" si="4"/>
@@ -42267,7 +42267,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88">
         <v>300</v>
@@ -42304,7 +42304,7 @@
         <v>1.1268333333333409</v>
       </c>
       <c r="P88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q88">
         <f t="shared" si="4"/>
@@ -42320,7 +42320,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>300</v>
@@ -42357,7 +42357,7 @@
         <v>1.1288833333333379</v>
       </c>
       <c r="P89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q89">
         <f t="shared" si="4"/>
@@ -42373,7 +42373,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C90">
         <v>300</v>
@@ -42410,7 +42410,7 @@
         <v>1.1268833333333284</v>
       </c>
       <c r="P90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q90">
         <f t="shared" si="4"/>
@@ -42426,7 +42426,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>300</v>
@@ -42463,7 +42463,7 @@
         <v>1.1281333333333272</v>
       </c>
       <c r="P91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q91">
         <f t="shared" si="4"/>
@@ -42479,7 +42479,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92">
         <v>50</v>
@@ -42516,7 +42516,7 @@
         <v>1.2500333333333447E-2</v>
       </c>
       <c r="P92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q92">
         <f t="shared" si="4"/>
@@ -42532,7 +42532,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>50</v>
@@ -42569,7 +42569,7 @@
         <v>3.0368999999999979E-2</v>
       </c>
       <c r="P93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q93">
         <f t="shared" si="4"/>
@@ -42585,7 +42585,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94">
         <v>50</v>
@@ -42622,7 +42622,7 @@
         <v>5.0657833333333346E-2</v>
       </c>
       <c r="P94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q94">
         <f t="shared" si="4"/>
@@ -42638,7 +42638,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C95">
         <v>50</v>
@@ -42675,7 +42675,7 @@
         <v>7.0892499999999969E-2</v>
       </c>
       <c r="P95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q95">
         <f t="shared" si="4"/>
@@ -42691,7 +42691,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C96">
         <v>50</v>
@@ -42728,7 +42728,7 @@
         <v>9.1197333333333352E-2</v>
       </c>
       <c r="P96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q96">
         <f t="shared" si="4"/>
@@ -42744,7 +42744,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97">
         <v>100</v>
@@ -42781,7 +42781,7 @@
         <v>3.275166666666629E-2</v>
       </c>
       <c r="P97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q97">
         <f t="shared" si="4"/>
@@ -42797,7 +42797,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98">
         <v>100</v>
@@ -42834,7 +42834,7 @@
         <v>4.7579999999999956E-2</v>
       </c>
       <c r="P98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q98">
         <f t="shared" si="4"/>
@@ -42850,7 +42850,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99">
         <v>100</v>
@@ -42887,7 +42887,7 @@
         <v>6.6791666666666805E-2</v>
       </c>
       <c r="P99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q99">
         <f t="shared" si="4"/>
@@ -42903,7 +42903,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100">
         <v>100</v>
@@ -42940,7 +42940,7 @@
         <v>8.6811666666666287E-2</v>
       </c>
       <c r="P100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q100">
         <f t="shared" si="4"/>
@@ -42956,7 +42956,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -42993,7 +42993,7 @@
         <v>0.11139999999999972</v>
       </c>
       <c r="P101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q101">
         <f t="shared" si="4"/>
@@ -43009,7 +43009,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>150</v>
@@ -43046,7 +43046,7 @@
         <v>7.3046666666666482E-2</v>
       </c>
       <c r="P102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q102">
         <f t="shared" si="4"/>
@@ -43062,7 +43062,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103">
         <v>150</v>
@@ -43099,7 +43099,7 @@
         <v>8.0551666666665689E-2</v>
       </c>
       <c r="P103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q103">
         <f t="shared" si="4"/>
@@ -43115,7 +43115,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104">
         <v>150</v>
@@ -43152,7 +43152,7 @@
         <v>0.10283166666666688</v>
       </c>
       <c r="P104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q104">
         <f t="shared" si="4"/>
@@ -43168,7 +43168,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105">
         <v>150</v>
@@ -43205,7 +43205,7 @@
         <v>0.1214616666666668</v>
       </c>
       <c r="P105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q105">
         <f t="shared" si="4"/>
@@ -43221,7 +43221,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106">
         <v>150</v>
@@ -43258,7 +43258,7 @@
         <v>0.14204833333333333</v>
       </c>
       <c r="P106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q106">
         <f t="shared" si="4"/>
@@ -43274,7 +43274,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107">
         <v>200</v>
@@ -43311,7 +43311,7 @@
         <v>0.13562499999999922</v>
       </c>
       <c r="P107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q107">
         <f t="shared" si="4"/>
@@ -43327,7 +43327,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108">
         <v>200</v>
@@ -43364,7 +43364,7 @@
         <v>0.13536166666666549</v>
       </c>
       <c r="P108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q108">
         <f t="shared" si="4"/>
@@ -43380,7 +43380,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109">
         <v>200</v>
@@ -43417,7 +43417,7 @@
         <v>0.15406999999999904</v>
       </c>
       <c r="P109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q109">
         <f t="shared" si="4"/>
@@ -43433,7 +43433,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110">
         <v>200</v>
@@ -43470,7 +43470,7 @@
         <v>0.177551666666667</v>
       </c>
       <c r="P110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q110">
         <f t="shared" si="4"/>
@@ -43486,7 +43486,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111">
         <v>200</v>
@@ -43523,7 +43523,7 @@
         <v>0.19748333333333346</v>
       </c>
       <c r="P111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q111">
         <f t="shared" si="4"/>
@@ -43539,7 +43539,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112">
         <v>250</v>
@@ -43576,7 +43576,7 @@
         <v>0.23816666666666642</v>
       </c>
       <c r="P112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q112">
         <f t="shared" si="4"/>
@@ -43592,7 +43592,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113">
         <v>250</v>
@@ -43629,7 +43629,7 @@
         <v>0.24113166666666608</v>
       </c>
       <c r="P113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q113">
         <f t="shared" si="4"/>
@@ -43645,7 +43645,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114">
         <v>250</v>
@@ -43682,7 +43682,7 @@
         <v>0.24048666666666563</v>
       </c>
       <c r="P114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q114">
         <f t="shared" si="4"/>
@@ -43698,7 +43698,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115">
         <v>250</v>
@@ -43735,7 +43735,7 @@
         <v>0.26753999999999856</v>
       </c>
       <c r="P115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q115">
         <f t="shared" si="4"/>
@@ -43751,7 +43751,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116">
         <v>250</v>
@@ -43788,10 +43788,10 @@
         <v>0.28651833333333165</v>
       </c>
       <c r="O116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q116">
         <f t="shared" si="4"/>
@@ -43807,7 +43807,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117">
         <v>300</v>
@@ -43848,10 +43848,10 @@
         <v>0.84718833333333698</v>
       </c>
       <c r="O117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q117">
         <f t="shared" si="4"/>
@@ -43867,7 +43867,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118">
         <v>300</v>
@@ -43904,10 +43904,10 @@
         <v>0.46755000000000102</v>
       </c>
       <c r="O118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q118">
         <f t="shared" si="4"/>
@@ -43923,7 +43923,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119">
         <v>300</v>
@@ -43960,10 +43960,10 @@
         <v>0.46809999999999974</v>
       </c>
       <c r="O119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q119">
         <f t="shared" si="4"/>
@@ -43979,7 +43979,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120">
         <v>300</v>
@@ -44016,10 +44016,10 @@
         <v>0.46611666666666629</v>
       </c>
       <c r="O120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q120">
         <f t="shared" si="4"/>
@@ -44035,7 +44035,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121">
         <v>300</v>
@@ -44072,10 +44072,10 @@
         <v>0.49076666666666924</v>
       </c>
       <c r="O121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q121">
         <f t="shared" si="4"/>
@@ -44096,7 +44096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B54" sqref="B54:D59"/>
     </sheetView>
   </sheetViews>
@@ -44110,33 +44110,33 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -44169,7 +44169,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3">
         <f>CORREL(A3:A8, D3:D8)</f>
@@ -44206,7 +44206,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <f>CORREL(E3:E8, H3:H8)</f>
@@ -44273,7 +44273,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6">
         <f>CORREL(A3:A8, B3:B8)</f>
@@ -44310,7 +44310,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7">
         <f>CORREL(E3:E8, F3:F8)</f>
@@ -44349,7 +44349,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9">
         <f>CORREL(A3:A8, C3:C8)</f>
@@ -44358,19 +44358,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
       </c>
       <c r="J10">
         <f>CORREL(E3:E8, G3:G8)</f>
@@ -44409,7 +44409,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <f>CORREL(A11:A15, B11:B15)</f>
@@ -44432,7 +44432,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <f>CORREL(E11:E15, F11:F15)</f>
@@ -44473,33 +44473,33 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -44532,7 +44532,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20">
         <f>CORREL(A20:A25, D20:D25)</f>
@@ -44569,7 +44569,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21">
         <f>CORREL(E20:E25, H20:H25)</f>
@@ -44636,7 +44636,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23">
         <f>CORREL(A20:A25, B20:B25)</f>
@@ -44673,7 +44673,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24">
         <f>CORREL(E20:E25, F20:F25)</f>
@@ -44712,7 +44712,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26">
         <f>CORREL(A20:A25, C20:C25)</f>
@@ -44721,19 +44721,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>40</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
         <v>41</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" t="s">
-        <v>42</v>
       </c>
       <c r="J27">
         <f>CORREL(E20:E25, G20:G25)</f>
@@ -44772,7 +44772,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <f>CORREL(A28:A32, B28:B32)</f>
@@ -44795,7 +44795,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <f>CORREL(E28:E32, F28:F32)</f>
@@ -44836,33 +44836,33 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>27</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>29</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>30</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>31</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>32</v>
-      </c>
-      <c r="H36" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -44895,7 +44895,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J37">
         <f>CORREL(A37:A42, D37:D42)</f>
@@ -44932,7 +44932,7 @@
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J38">
         <f>CORREL(E37:E42, H37:H42)</f>
@@ -44999,7 +44999,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40">
         <f>CORREL(A37:A42, B37:B42)</f>
@@ -45036,7 +45036,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41">
         <f>CORREL(E37:E42, F37:F42)</f>
@@ -45075,7 +45075,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43">
         <f>CORREL(A37:A42, C37:C42)</f>
@@ -45084,19 +45084,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>40</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
         <v>41</v>
-      </c>
-      <c r="F44" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" t="s">
-        <v>42</v>
       </c>
       <c r="J44">
         <f>CORREL(E37:E42, G37:G42)</f>
@@ -45135,7 +45135,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <f>CORREL(A45:A49, B45:B49)</f>
@@ -45158,7 +45158,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <f>CORREL(E45:E49, F45:F49)</f>
@@ -45199,33 +45199,33 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>27</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>28</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>29</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>30</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>31</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>32</v>
-      </c>
-      <c r="H53" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -45258,7 +45258,7 @@
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J54">
         <f>CORREL(A54:A59, D54:D59)</f>
@@ -45295,7 +45295,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J55">
         <f>CORREL(E54:E59, H54:H59)</f>
@@ -45362,7 +45362,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J57">
         <f>CORREL(A54:A59, B54:B59)</f>
@@ -45399,7 +45399,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J58">
         <f>CORREL(E54:E59, F54:F59)</f>
@@ -45438,7 +45438,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J60">
         <f>CORREL(A54:A59, C54:C59)</f>
@@ -45447,19 +45447,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
         <v>39</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" t="s">
         <v>40</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
         <v>41</v>
-      </c>
-      <c r="F61" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" t="s">
-        <v>42</v>
       </c>
       <c r="J61">
         <f>CORREL(E54:E59, G54:G59)</f>
@@ -45498,7 +45498,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <f>CORREL(A62:A66, B62:B66)</f>
@@ -45521,7 +45521,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J64">
         <f>CORREL(E62:E66, F62:F66)</f>

--- a/Dissertation_main/Dissertation_main/flag_test_data.xlsx
+++ b/Dissertation_main/Dissertation_main/flag_test_data.xlsx
@@ -5891,12 +5891,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(flag_test_data!$K$3,flag_test_data!$N$2,flag_test_data!$N$3,flag_test_data!$N$4,flag_test_data!$N$5,flag_test_data!$N$6)</c:f>
+              <c:f>(flag_test_data!$K$3,flag_test_data!$K$8,flag_test_data!$N$3,flag_test_data!$N$4,flag_test_data!$N$5,flag_test_data!$N$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8572.4849999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10980.020000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37646,8 +37649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S166" sqref="S166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44096,7 +44099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B54" sqref="B54:D59"/>
     </sheetView>
   </sheetViews>
@@ -45599,8 +45602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45614,7 +45617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
